--- a/Allmatching.xlsx
+++ b/Allmatching.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCC723A4-DB0E-1640-BE51-97A15640ACD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6530591B-BEC1-2944-A2D8-F84CA1BC8CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11860" yWindow="2200" windowWidth="27640" windowHeight="16020" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$291</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3490,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F0353-714E-C24F-9141-2C52DBDF8C59}">
   <dimension ref="A1:AA291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194:XFD291"/>
+    <sheetView tabSelected="1" topLeftCell="G274" workbookViewId="0">
+      <selection activeCell="J215" sqref="J215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4865,6 +4868,9 @@
       <c r="Q41">
         <v>1</v>
       </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="17" t="s">
@@ -4939,6 +4945,9 @@
       <c r="Q43">
         <v>1</v>
       </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:25" ht="19">
       <c r="A44" s="17" t="s">
@@ -5011,6 +5020,9 @@
         <v>47</v>
       </c>
       <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="W45">
         <v>1</v>
       </c>
     </row>
@@ -13274,6 +13286,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AA291" xr:uid="{ED2F0353-714E-C24F-9141-2C52DBDF8C59}"/>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" display="https://doi.org/10.1212/wnl.0000000000004209" xr:uid="{E445371E-3F4A-1F4A-ADE4-3703F334DC94}"/>
     <hyperlink ref="B11" r:id="rId2" display="https://doi.org/10.1212/wnl.0000000000003478" xr:uid="{49733D1E-43BF-5A4F-9188-818740F4136A}"/>

--- a/Allmatching.xlsx
+++ b/Allmatching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6530591B-BEC1-2944-A2D8-F84CA1BC8CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DE3B43-B5AC-AE48-9643-808B1D7A8C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25100" windowHeight="16520" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$291</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1536,9 +1536,6 @@
   </si>
   <si>
     <t>Uric Acid and rtPA</t>
-  </si>
-  <si>
-    <t>https://www.ahajournals.org/doi/10.1161/STROKEAHA.106.480699?url_ver=Z39.88-2003&amp;rfr_id=ori:rid:crossref.org&amp;rfr_dat=cr_pub%20%200pubmed</t>
   </si>
   <si>
     <t>pub 2007</t>
@@ -2585,6 +2582,9 @@
   </si>
   <si>
     <t>https://doi.org/10.1002/mds.26159</t>
+  </si>
+  <si>
+    <t>https://www.ahajournals.org/doi/10.1161/STROKEAHA.106.480699</t>
   </si>
 </sst>
 </file>
@@ -3493,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F0353-714E-C24F-9141-2C52DBDF8C59}">
   <dimension ref="A1:AA291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G274" workbookViewId="0">
-      <selection activeCell="J215" sqref="J215"/>
+    <sheetView tabSelected="1" topLeftCell="O86" workbookViewId="0">
+      <selection activeCell="X168" sqref="X168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9264,10 +9264,10 @@
       <c r="C168" s="54"/>
       <c r="D168" s="54"/>
       <c r="G168" t="s">
+        <v>806</v>
+      </c>
+      <c r="H168" t="s">
         <v>498</v>
-      </c>
-      <c r="H168" t="s">
-        <v>499</v>
       </c>
       <c r="I168">
         <v>1</v>
@@ -9294,7 +9294,7 @@
         <v>1</v>
       </c>
       <c r="X168" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Z168">
         <v>1</v>
@@ -9302,10 +9302,10 @@
     </row>
     <row r="169" spans="1:26" ht="23">
       <c r="A169" s="53" t="s">
+        <v>500</v>
+      </c>
+      <c r="B169" s="18" t="s">
         <v>501</v>
-      </c>
-      <c r="B169" s="18" t="s">
-        <v>502</v>
       </c>
       <c r="C169" s="53"/>
       <c r="D169" s="53"/>
@@ -9317,7 +9317,7 @@
       </c>
       <c r="I169" s="17"/>
       <c r="J169" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K169" s="17"/>
       <c r="L169" s="20" t="s">
@@ -9479,10 +9479,10 @@
     </row>
     <row r="176" spans="1:26" ht="23">
       <c r="A176" s="53" t="s">
+        <v>503</v>
+      </c>
+      <c r="B176" s="18" t="s">
         <v>504</v>
-      </c>
-      <c r="B176" s="18" t="s">
-        <v>505</v>
       </c>
       <c r="C176" s="53"/>
       <c r="D176" s="53"/>
@@ -9494,7 +9494,7 @@
       </c>
       <c r="I176" s="17"/>
       <c r="J176" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K176" s="17"/>
       <c r="L176" s="20" t="s">
@@ -9656,10 +9656,10 @@
     </row>
     <row r="183" spans="1:26" ht="19">
       <c r="A183" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="B183" s="18" t="s">
         <v>506</v>
-      </c>
-      <c r="B183" s="18" t="s">
-        <v>507</v>
       </c>
       <c r="C183" s="53"/>
       <c r="D183" s="53"/>
@@ -9679,17 +9679,17 @@
       <c r="R183" s="17"/>
       <c r="S183" s="17"/>
       <c r="T183" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="U183" s="17"/>
       <c r="V183" s="17"/>
     </row>
     <row r="184" spans="1:26" ht="18">
       <c r="A184" s="53" t="s">
+        <v>508</v>
+      </c>
+      <c r="B184" s="18" t="s">
         <v>509</v>
-      </c>
-      <c r="B184" s="18" t="s">
-        <v>510</v>
       </c>
       <c r="C184" s="53"/>
       <c r="D184" s="53"/>
@@ -9705,7 +9705,7 @@
       </c>
       <c r="K184" s="17"/>
       <c r="L184" s="33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M184" s="17"/>
       <c r="N184" s="17"/>
@@ -9715,17 +9715,17 @@
       <c r="R184" s="17"/>
       <c r="S184" s="17"/>
       <c r="T184" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="U184" s="17"/>
       <c r="V184" s="17"/>
     </row>
     <row r="185" spans="1:26" ht="30">
       <c r="A185" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="B185" s="53" t="s">
         <v>513</v>
-      </c>
-      <c r="B185" s="53" t="s">
-        <v>514</v>
       </c>
       <c r="C185" s="53"/>
       <c r="D185" s="53"/>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="K185" s="17"/>
       <c r="L185" s="61" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M185" s="17"/>
       <c r="N185" s="17"/>
@@ -9762,10 +9762,10 @@
       <c r="C186" s="54"/>
       <c r="D186" s="54"/>
       <c r="G186" t="s">
+        <v>515</v>
+      </c>
+      <c r="H186" s="70" t="s">
         <v>516</v>
-      </c>
-      <c r="H186" s="70" t="s">
-        <v>517</v>
       </c>
       <c r="I186" t="s">
         <v>66</v>
@@ -9777,7 +9777,7 @@
         <v>1</v>
       </c>
       <c r="L186" s="61" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M186">
         <v>1</v>
@@ -9786,13 +9786,13 @@
         <v>1</v>
       </c>
       <c r="O186" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P186" t="s">
         <v>113</v>
       </c>
       <c r="T186" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Z186">
         <v>1</v>
@@ -9800,10 +9800,10 @@
     </row>
     <row r="187" spans="1:26" ht="30">
       <c r="A187" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="B187" s="18" t="s">
         <v>520</v>
-      </c>
-      <c r="B187" s="18" t="s">
-        <v>521</v>
       </c>
       <c r="C187" s="53"/>
       <c r="D187" s="53"/>
@@ -9814,11 +9814,11 @@
       </c>
       <c r="I187" s="17"/>
       <c r="J187" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K187" s="17"/>
       <c r="L187" s="61" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M187" s="17"/>
       <c r="N187" s="17"/>
@@ -9839,10 +9839,10 @@
       <c r="C188" s="54"/>
       <c r="D188" s="54"/>
       <c r="G188" s="54" t="s">
+        <v>515</v>
+      </c>
+      <c r="H188" s="70" t="s">
         <v>516</v>
-      </c>
-      <c r="H188" s="70" t="s">
-        <v>517</v>
       </c>
       <c r="I188" s="54" t="s">
         <v>66</v>
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="L188" s="61" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M188" s="54">
         <v>1</v>
@@ -9863,13 +9863,13 @@
         <v>1</v>
       </c>
       <c r="O188" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P188" t="s">
         <v>113</v>
       </c>
       <c r="T188" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Z188">
         <v>1</v>
@@ -9877,10 +9877,10 @@
     </row>
     <row r="189" spans="1:26">
       <c r="A189" s="53" t="s">
+        <v>522</v>
+      </c>
+      <c r="B189" s="18" t="s">
         <v>523</v>
-      </c>
-      <c r="B189" s="18" t="s">
-        <v>524</v>
       </c>
       <c r="C189" s="53"/>
       <c r="D189" s="53"/>
@@ -9900,17 +9900,17 @@
       <c r="R189" s="17"/>
       <c r="S189" s="17"/>
       <c r="T189" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U189" s="17"/>
       <c r="V189" s="17"/>
     </row>
     <row r="190" spans="1:26" ht="23">
       <c r="A190" s="53" t="s">
+        <v>525</v>
+      </c>
+      <c r="B190" s="18" t="s">
         <v>526</v>
-      </c>
-      <c r="B190" s="18" t="s">
-        <v>527</v>
       </c>
       <c r="C190" s="53"/>
       <c r="D190" s="53"/>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="K190" s="17"/>
       <c r="L190" s="71" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M190" s="17"/>
       <c r="N190" s="17"/>
@@ -9943,10 +9943,10 @@
     </row>
     <row r="191" spans="1:26" ht="20">
       <c r="F191" t="s">
+        <v>528</v>
+      </c>
+      <c r="G191" t="s">
         <v>529</v>
-      </c>
-      <c r="G191" t="s">
-        <v>530</v>
       </c>
       <c r="H191" s="32">
         <v>40179</v>
@@ -9961,7 +9961,7 @@
         <v>1</v>
       </c>
       <c r="L191" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M191">
         <v>1</v>
@@ -9970,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="O191" s="42" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P191" t="s">
         <v>47</v>
@@ -9984,13 +9984,13 @@
     </row>
     <row r="192" spans="1:26" ht="19">
       <c r="F192" s="22" t="s">
+        <v>531</v>
+      </c>
+      <c r="G192" s="34" t="s">
         <v>532</v>
       </c>
-      <c r="G192" s="34" t="s">
+      <c r="L192" t="s">
         <v>533</v>
-      </c>
-      <c r="L192" t="s">
-        <v>534</v>
       </c>
       <c r="M192">
         <v>0</v>
@@ -9998,10 +9998,10 @@
     </row>
     <row r="193" spans="1:27" ht="19">
       <c r="G193" s="72" t="s">
+        <v>534</v>
+      </c>
+      <c r="U193" t="s">
         <v>535</v>
-      </c>
-      <c r="U193" t="s">
-        <v>536</v>
       </c>
       <c r="Z193">
         <v>1</v>
@@ -10055,7 +10055,7 @@
         <v>229</v>
       </c>
       <c r="Q194" s="13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="R194" s="13" t="s">
         <v>24</v>
@@ -10090,10 +10090,10 @@
     </row>
     <row r="195" spans="1:27" ht="19">
       <c r="A195" s="73" t="s">
+        <v>537</v>
+      </c>
+      <c r="B195" s="74" t="s">
         <v>538</v>
-      </c>
-      <c r="B195" s="74" t="s">
-        <v>539</v>
       </c>
       <c r="C195" s="75"/>
       <c r="D195" s="75"/>
@@ -10105,11 +10105,11 @@
       </c>
       <c r="I195" s="75"/>
       <c r="J195" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K195" s="75"/>
       <c r="L195" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M195" s="75"/>
       <c r="N195" s="75"/>
@@ -10128,10 +10128,10 @@
       <c r="A196" s="54"/>
       <c r="B196" s="21"/>
       <c r="F196" s="77" t="s">
+        <v>541</v>
+      </c>
+      <c r="G196" t="s">
         <v>542</v>
-      </c>
-      <c r="G196" t="s">
-        <v>543</v>
       </c>
       <c r="H196" s="78">
         <v>38120</v>
@@ -10140,22 +10140,22 @@
         <v>1</v>
       </c>
       <c r="J196" s="77" t="s">
+        <v>543</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196" s="77" t="s">
+        <v>540</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196" s="77">
+        <v>1</v>
+      </c>
+      <c r="O196" s="60" t="s">
         <v>544</v>
-      </c>
-      <c r="K196">
-        <v>1</v>
-      </c>
-      <c r="L196" s="77" t="s">
-        <v>541</v>
-      </c>
-      <c r="M196">
-        <v>1</v>
-      </c>
-      <c r="N196" s="77">
-        <v>1</v>
-      </c>
-      <c r="O196" s="60" t="s">
-        <v>545</v>
       </c>
       <c r="P196" t="s">
         <v>47</v>
@@ -10167,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="S196" s="60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="U196">
         <v>1</v>
@@ -10175,10 +10175,10 @@
     </row>
     <row r="197" spans="1:27" ht="23">
       <c r="A197" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="B197" s="74" t="s">
         <v>547</v>
-      </c>
-      <c r="B197" s="74" t="s">
-        <v>548</v>
       </c>
       <c r="C197" s="75"/>
       <c r="D197" s="75"/>
@@ -10190,11 +10190,11 @@
       </c>
       <c r="I197" s="75"/>
       <c r="J197" s="41" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K197" s="75"/>
       <c r="L197" s="41" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M197" s="75"/>
       <c r="N197" s="75"/>
@@ -10213,10 +10213,10 @@
       <c r="A198" s="41"/>
       <c r="C198" s="41"/>
       <c r="F198" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="G198" t="s">
         <v>550</v>
-      </c>
-      <c r="G198" t="s">
-        <v>551</v>
       </c>
       <c r="H198" s="32">
         <v>39264</v>
@@ -10225,13 +10225,13 @@
         <v>1</v>
       </c>
       <c r="J198" s="41" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K198">
         <v>1</v>
       </c>
       <c r="L198" s="41" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M198">
         <v>1</v>
@@ -10240,19 +10240,19 @@
         <v>1</v>
       </c>
       <c r="O198" t="s">
+        <v>551</v>
+      </c>
+      <c r="P198" t="s">
         <v>552</v>
       </c>
-      <c r="P198" t="s">
+      <c r="Q198">
+        <v>1</v>
+      </c>
+      <c r="R198">
+        <v>1</v>
+      </c>
+      <c r="S198" t="s">
         <v>553</v>
-      </c>
-      <c r="Q198">
-        <v>1</v>
-      </c>
-      <c r="R198">
-        <v>1</v>
-      </c>
-      <c r="S198" t="s">
-        <v>554</v>
       </c>
       <c r="U198">
         <v>1</v>
@@ -10262,19 +10262,19 @@
       <c r="A199" s="41"/>
       <c r="C199" s="41"/>
       <c r="F199" s="20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H199" s="32"/>
       <c r="J199" s="41"/>
       <c r="L199" s="41"/>
       <c r="N199" s="41"/>
       <c r="P199" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="200" spans="1:27" ht="33">
       <c r="A200" s="73" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B200" s="74" t="s">
         <v>195</v>
@@ -10289,7 +10289,7 @@
       </c>
       <c r="I200" s="75"/>
       <c r="J200" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K200" s="75"/>
       <c r="L200" s="44" t="s">
@@ -10352,10 +10352,10 @@
     </row>
     <row r="202" spans="1:27" ht="33">
       <c r="A202" s="73" t="s">
+        <v>557</v>
+      </c>
+      <c r="B202" s="74" t="s">
         <v>558</v>
-      </c>
-      <c r="B202" s="74" t="s">
-        <v>559</v>
       </c>
       <c r="C202" s="75"/>
       <c r="D202" s="75"/>
@@ -10367,11 +10367,11 @@
       </c>
       <c r="I202" s="75"/>
       <c r="J202" s="41" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K202" s="75"/>
       <c r="L202" s="44" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M202" s="75"/>
       <c r="N202" s="75"/>
@@ -10388,10 +10388,10 @@
     </row>
     <row r="203" spans="1:27" ht="40">
       <c r="A203" s="73" t="s">
+        <v>561</v>
+      </c>
+      <c r="B203" s="74" t="s">
         <v>562</v>
-      </c>
-      <c r="B203" s="74" t="s">
-        <v>563</v>
       </c>
       <c r="C203" s="75"/>
       <c r="D203" s="75">
@@ -10405,11 +10405,11 @@
       </c>
       <c r="I203" s="75"/>
       <c r="J203" s="41" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K203" s="75"/>
       <c r="L203" s="64" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M203" s="75"/>
       <c r="N203" s="75"/>
@@ -10428,10 +10428,10 @@
       <c r="A204" s="54"/>
       <c r="B204" s="21"/>
       <c r="F204" t="s">
+        <v>565</v>
+      </c>
+      <c r="G204" t="s">
         <v>566</v>
-      </c>
-      <c r="G204" t="s">
-        <v>567</v>
       </c>
       <c r="H204" s="32">
         <v>38838</v>
@@ -10440,14 +10440,14 @@
         <v>1</v>
       </c>
       <c r="J204" s="41" t="s">
+        <v>563</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204" t="s">
         <v>564</v>
       </c>
-      <c r="K204">
-        <v>1</v>
-      </c>
-      <c r="L204" t="s">
-        <v>565</v>
-      </c>
       <c r="M204">
         <v>1</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>1</v>
       </c>
       <c r="O204" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P204" t="s">
         <v>41</v>
@@ -10467,7 +10467,7 @@
         <v>1</v>
       </c>
       <c r="S204" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="U204">
         <v>1</v>
@@ -10477,7 +10477,7 @@
       <c r="A205" s="54"/>
       <c r="B205" s="21"/>
       <c r="F205" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P205" t="s">
         <v>83</v>
@@ -10485,10 +10485,10 @@
     </row>
     <row r="206" spans="1:27" ht="19">
       <c r="A206" s="73" t="s">
+        <v>570</v>
+      </c>
+      <c r="B206" s="80" t="s">
         <v>571</v>
-      </c>
-      <c r="B206" s="80" t="s">
-        <v>572</v>
       </c>
       <c r="C206" s="75"/>
       <c r="D206" s="75"/>
@@ -10500,11 +10500,11 @@
       </c>
       <c r="I206" s="75"/>
       <c r="J206" s="20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K206" s="75"/>
       <c r="L206" s="20" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M206" s="75"/>
       <c r="N206" s="75"/>
@@ -10523,7 +10523,7 @@
       <c r="A207" s="54"/>
       <c r="B207" s="81"/>
       <c r="F207" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H207" s="32">
         <v>39539</v>
@@ -10534,10 +10534,10 @@
     </row>
     <row r="208" spans="1:27" ht="23">
       <c r="A208" s="73" t="s">
+        <v>575</v>
+      </c>
+      <c r="B208" s="74" t="s">
         <v>576</v>
-      </c>
-      <c r="B208" s="74" t="s">
-        <v>577</v>
       </c>
       <c r="C208" s="75"/>
       <c r="D208" s="75">
@@ -10551,11 +10551,11 @@
       </c>
       <c r="I208" s="75"/>
       <c r="J208" s="20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K208" s="75"/>
       <c r="L208" s="41" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M208" s="75"/>
       <c r="N208" s="75"/>
@@ -10574,10 +10574,10 @@
       <c r="A209" s="54"/>
       <c r="B209" s="21"/>
       <c r="E209" t="s">
+        <v>578</v>
+      </c>
+      <c r="F209" t="s">
         <v>579</v>
-      </c>
-      <c r="F209" t="s">
-        <v>580</v>
       </c>
       <c r="H209" s="49">
         <v>38749</v>
@@ -10586,32 +10586,32 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K209">
         <v>1</v>
       </c>
       <c r="L209" s="41" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M209">
         <v>1</v>
       </c>
       <c r="N209" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="210" spans="1:27" ht="23">
       <c r="A210" s="54"/>
       <c r="B210" s="21"/>
       <c r="E210" t="s">
+        <v>581</v>
+      </c>
+      <c r="G210" t="s">
         <v>582</v>
       </c>
-      <c r="G210" t="s">
+      <c r="H210" s="49" t="s">
         <v>583</v>
-      </c>
-      <c r="H210" s="49" t="s">
-        <v>584</v>
       </c>
       <c r="L210" s="41"/>
     </row>
@@ -10619,10 +10619,10 @@
       <c r="A211" s="54"/>
       <c r="B211" s="21"/>
       <c r="E211" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F211" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H211" s="32">
         <v>39845</v>
@@ -10634,10 +10634,10 @@
     </row>
     <row r="212" spans="1:27" ht="30">
       <c r="A212" s="73" t="s">
+        <v>585</v>
+      </c>
+      <c r="B212" s="74" t="s">
         <v>586</v>
-      </c>
-      <c r="B212" s="74" t="s">
-        <v>587</v>
       </c>
       <c r="C212" s="75"/>
       <c r="D212" s="75"/>
@@ -10649,11 +10649,11 @@
       </c>
       <c r="I212" s="75"/>
       <c r="J212" s="75" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K212" s="75"/>
       <c r="L212" s="38" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M212" s="75"/>
       <c r="N212" s="75"/>
@@ -10673,10 +10673,10 @@
     </row>
     <row r="213" spans="1:27" ht="40">
       <c r="A213" s="73" t="s">
+        <v>589</v>
+      </c>
+      <c r="B213" s="74" t="s">
         <v>590</v>
-      </c>
-      <c r="B213" s="74" t="s">
-        <v>591</v>
       </c>
       <c r="C213" s="75"/>
       <c r="D213" s="75"/>
@@ -10688,11 +10688,11 @@
       </c>
       <c r="I213" s="75"/>
       <c r="J213" s="82" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K213" s="75"/>
       <c r="L213" s="64" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M213" s="75"/>
       <c r="N213" s="75"/>
@@ -10711,10 +10711,10 @@
       <c r="A214" s="54"/>
       <c r="B214" s="21"/>
       <c r="F214" t="s">
+        <v>593</v>
+      </c>
+      <c r="G214" t="s">
         <v>594</v>
-      </c>
-      <c r="G214" t="s">
-        <v>595</v>
       </c>
       <c r="H214" s="32">
         <v>38626</v>
@@ -10723,13 +10723,13 @@
         <v>1</v>
       </c>
       <c r="J214" s="82" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K214">
         <v>1</v>
       </c>
       <c r="L214" s="64" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M214">
         <v>1</v>
@@ -10738,13 +10738,13 @@
         <v>1</v>
       </c>
       <c r="O214" s="43" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="P214" t="s">
         <v>83</v>
       </c>
       <c r="R214" s="43" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="U214">
         <v>1</v>
@@ -10752,10 +10752,10 @@
     </row>
     <row r="215" spans="1:27" ht="23">
       <c r="A215" s="73" t="s">
+        <v>597</v>
+      </c>
+      <c r="B215" s="74" t="s">
         <v>598</v>
-      </c>
-      <c r="B215" s="74" t="s">
-        <v>599</v>
       </c>
       <c r="C215" s="75"/>
       <c r="D215" s="75">
@@ -10769,11 +10769,11 @@
       </c>
       <c r="I215" s="75"/>
       <c r="J215" s="24" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K215" s="75"/>
       <c r="L215" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M215" s="75"/>
       <c r="N215" s="75"/>
@@ -10795,31 +10795,31 @@
       <c r="A216" s="54"/>
       <c r="B216" s="21"/>
       <c r="G216" t="s">
+        <v>601</v>
+      </c>
+      <c r="H216" s="83" t="s">
         <v>602</v>
       </c>
-      <c r="H216" s="83" t="s">
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216" t="s">
         <v>603</v>
       </c>
-      <c r="I216">
-        <v>1</v>
-      </c>
-      <c r="J216" t="s">
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216">
+        <v>1</v>
+      </c>
+      <c r="O216" s="47" t="s">
         <v>604</v>
-      </c>
-      <c r="K216">
-        <v>1</v>
-      </c>
-      <c r="L216" s="47" t="s">
-        <v>601</v>
-      </c>
-      <c r="M216">
-        <v>1</v>
-      </c>
-      <c r="N216">
-        <v>1</v>
-      </c>
-      <c r="O216" s="47" t="s">
-        <v>605</v>
       </c>
       <c r="P216" t="s">
         <v>41</v>
@@ -10835,13 +10835,13 @@
       <c r="A217" s="54"/>
       <c r="B217" s="21"/>
       <c r="F217" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H217" s="32">
         <v>38443</v>
       </c>
       <c r="N217" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O217" s="84"/>
       <c r="U217" s="75"/>
@@ -10850,13 +10850,13 @@
       <c r="A218" s="54"/>
       <c r="B218" s="21"/>
       <c r="E218" t="s">
+        <v>607</v>
+      </c>
+      <c r="F218" t="s">
         <v>608</v>
       </c>
-      <c r="F218" t="s">
+      <c r="G218" t="s">
         <v>609</v>
-      </c>
-      <c r="G218" t="s">
-        <v>610</v>
       </c>
       <c r="H218" s="32">
         <v>38443</v>
@@ -10871,7 +10871,7 @@
         <v>1</v>
       </c>
       <c r="L218" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M218">
         <v>1</v>
@@ -10880,7 +10880,7 @@
         <v>1</v>
       </c>
       <c r="O218" s="40" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="P218" t="s">
         <v>47</v>
@@ -10889,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="R218" s="40" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="U218" s="75">
         <v>1</v>
@@ -10899,21 +10899,21 @@
       <c r="A219" s="54"/>
       <c r="B219" s="21"/>
       <c r="E219" t="s">
+        <v>612</v>
+      </c>
+      <c r="F219" t="s">
         <v>613</v>
       </c>
-      <c r="F219" t="s">
+      <c r="G219" t="s">
         <v>614</v>
-      </c>
-      <c r="G219" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="220" spans="1:27" ht="23">
       <c r="A220" s="73" t="s">
+        <v>615</v>
+      </c>
+      <c r="B220" s="85" t="s">
         <v>616</v>
-      </c>
-      <c r="B220" s="85" t="s">
-        <v>617</v>
       </c>
       <c r="C220" s="75"/>
       <c r="D220" s="75"/>
@@ -10925,11 +10925,11 @@
       </c>
       <c r="I220" s="75"/>
       <c r="J220" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K220" s="75"/>
       <c r="L220" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M220" s="75"/>
       <c r="N220" s="75"/>
@@ -10948,31 +10948,31 @@
       <c r="A221" s="54"/>
       <c r="B221" s="21"/>
       <c r="G221" t="s">
+        <v>601</v>
+      </c>
+      <c r="H221" s="83" t="s">
         <v>602</v>
       </c>
-      <c r="H221" s="83" t="s">
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="s">
         <v>603</v>
       </c>
-      <c r="I221">
-        <v>1</v>
-      </c>
-      <c r="J221" t="s">
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+      <c r="N221">
+        <v>1</v>
+      </c>
+      <c r="O221" s="47" t="s">
         <v>604</v>
-      </c>
-      <c r="K221">
-        <v>1</v>
-      </c>
-      <c r="L221" s="47" t="s">
-        <v>601</v>
-      </c>
-      <c r="M221">
-        <v>1</v>
-      </c>
-      <c r="N221">
-        <v>1</v>
-      </c>
-      <c r="O221" s="47" t="s">
-        <v>605</v>
       </c>
       <c r="P221" t="s">
         <v>41</v>
@@ -10988,13 +10988,13 @@
       <c r="A222" s="54"/>
       <c r="B222" s="21"/>
       <c r="F222" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H222" s="32">
         <v>38443</v>
       </c>
       <c r="N222" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O222" s="84"/>
       <c r="U222" s="75"/>
@@ -11003,13 +11003,13 @@
       <c r="A223" s="54"/>
       <c r="B223" s="21"/>
       <c r="E223" t="s">
+        <v>607</v>
+      </c>
+      <c r="F223" t="s">
         <v>608</v>
       </c>
-      <c r="F223" t="s">
+      <c r="G223" t="s">
         <v>609</v>
-      </c>
-      <c r="G223" t="s">
-        <v>610</v>
       </c>
       <c r="H223" s="32">
         <v>38443</v>
@@ -11024,7 +11024,7 @@
         <v>1</v>
       </c>
       <c r="L223" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M223">
         <v>1</v>
@@ -11033,7 +11033,7 @@
         <v>1</v>
       </c>
       <c r="O223" s="40" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="P223" t="s">
         <v>47</v>
@@ -11042,7 +11042,7 @@
         <v>0</v>
       </c>
       <c r="R223" s="40" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="U223" s="75">
         <v>1</v>
@@ -11052,21 +11052,21 @@
       <c r="A224" s="54"/>
       <c r="B224" s="21"/>
       <c r="D224" t="s">
+        <v>612</v>
+      </c>
+      <c r="E224" t="s">
         <v>613</v>
       </c>
-      <c r="E224" t="s">
+      <c r="G224" t="s">
         <v>614</v>
-      </c>
-      <c r="G224" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="225" spans="1:27" ht="19">
       <c r="A225" s="73" t="s">
+        <v>618</v>
+      </c>
+      <c r="B225" s="74" t="s">
         <v>619</v>
-      </c>
-      <c r="B225" s="74" t="s">
-        <v>620</v>
       </c>
       <c r="C225" s="75"/>
       <c r="D225" s="75"/>
@@ -11078,11 +11078,11 @@
       </c>
       <c r="I225" s="75"/>
       <c r="J225" s="75" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K225" s="75"/>
       <c r="L225" s="20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M225" s="75"/>
       <c r="N225" s="75"/>
@@ -11101,22 +11101,22 @@
       <c r="A226" s="54"/>
       <c r="B226" s="21"/>
       <c r="E226" t="s">
+        <v>622</v>
+      </c>
+      <c r="F226" t="s">
         <v>623</v>
-      </c>
-      <c r="F226" t="s">
-        <v>624</v>
       </c>
       <c r="H226" s="32">
         <v>39995</v>
       </c>
       <c r="J226" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K226">
         <v>1</v>
       </c>
       <c r="L226" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M226">
         <v>1</v>
@@ -11125,13 +11125,13 @@
         <v>1</v>
       </c>
       <c r="O226" s="86" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="P226" t="s">
         <v>83</v>
       </c>
       <c r="S226" s="86" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="U226">
         <v>1</v>
@@ -11141,10 +11141,10 @@
       <c r="A227" s="54"/>
       <c r="B227" s="21"/>
       <c r="D227" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E227" s="20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H227" s="32"/>
       <c r="O227" s="86"/>
@@ -11152,10 +11152,10 @@
     </row>
     <row r="228" spans="1:27" ht="23">
       <c r="A228" s="73" t="s">
+        <v>627</v>
+      </c>
+      <c r="B228" s="74" t="s">
         <v>628</v>
-      </c>
-      <c r="B228" s="74" t="s">
-        <v>629</v>
       </c>
       <c r="C228" s="75"/>
       <c r="D228" s="75">
@@ -11169,11 +11169,11 @@
       </c>
       <c r="I228" s="75"/>
       <c r="J228" s="24" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K228" s="75"/>
       <c r="L228" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M228" s="75"/>
       <c r="N228" s="75"/>
@@ -11192,31 +11192,31 @@
       <c r="A229" s="54"/>
       <c r="B229" s="21"/>
       <c r="G229" t="s">
+        <v>601</v>
+      </c>
+      <c r="H229" s="83" t="s">
         <v>602</v>
       </c>
-      <c r="H229" s="83" t="s">
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" t="s">
         <v>603</v>
       </c>
-      <c r="I229">
-        <v>1</v>
-      </c>
-      <c r="J229" t="s">
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229">
+        <v>1</v>
+      </c>
+      <c r="O229" s="47" t="s">
         <v>604</v>
-      </c>
-      <c r="K229">
-        <v>1</v>
-      </c>
-      <c r="L229" s="47" t="s">
-        <v>601</v>
-      </c>
-      <c r="M229">
-        <v>1</v>
-      </c>
-      <c r="N229">
-        <v>1</v>
-      </c>
-      <c r="O229" s="47" t="s">
-        <v>605</v>
       </c>
       <c r="P229" t="s">
         <v>41</v>
@@ -11232,13 +11232,13 @@
       <c r="A230" s="54"/>
       <c r="B230" s="21"/>
       <c r="F230" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H230" s="32">
         <v>38443</v>
       </c>
       <c r="N230" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O230" s="84"/>
       <c r="U230" s="75"/>
@@ -11247,13 +11247,13 @@
       <c r="A231" s="54"/>
       <c r="B231" s="21"/>
       <c r="E231" t="s">
+        <v>607</v>
+      </c>
+      <c r="F231" t="s">
         <v>608</v>
       </c>
-      <c r="F231" t="s">
+      <c r="G231" t="s">
         <v>609</v>
-      </c>
-      <c r="G231" t="s">
-        <v>610</v>
       </c>
       <c r="H231" s="32">
         <v>38443</v>
@@ -11268,7 +11268,7 @@
         <v>1</v>
       </c>
       <c r="L231" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M231">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="O231" s="40" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="P231" t="s">
         <v>47</v>
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="R231" s="40" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="U231" s="75">
         <v>1</v>
@@ -11296,21 +11296,21 @@
       <c r="A232" s="54"/>
       <c r="B232" s="21"/>
       <c r="D232" t="s">
+        <v>612</v>
+      </c>
+      <c r="E232" t="s">
         <v>613</v>
       </c>
-      <c r="E232" t="s">
+      <c r="G232" t="s">
         <v>614</v>
-      </c>
-      <c r="G232" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="233" spans="1:27" ht="23">
       <c r="A233" s="73" t="s">
+        <v>630</v>
+      </c>
+      <c r="B233" s="87" t="s">
         <v>631</v>
-      </c>
-      <c r="B233" s="87" t="s">
-        <v>632</v>
       </c>
       <c r="C233" s="75"/>
       <c r="D233" s="75"/>
@@ -11322,11 +11322,11 @@
       </c>
       <c r="I233" s="75"/>
       <c r="J233" s="75" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K233" s="75"/>
       <c r="L233" s="41" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M233" s="75"/>
       <c r="N233" s="75"/>
@@ -11345,7 +11345,7 @@
       <c r="A234" s="54"/>
       <c r="B234" s="88"/>
       <c r="G234" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H234" t="s">
         <v>78</v>
@@ -11354,14 +11354,14 @@
         <v>1</v>
       </c>
       <c r="J234" t="s">
+        <v>632</v>
+      </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
+      <c r="L234" t="s">
         <v>633</v>
       </c>
-      <c r="K234">
-        <v>1</v>
-      </c>
-      <c r="L234" t="s">
-        <v>634</v>
-      </c>
       <c r="M234">
         <v>1</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>1</v>
       </c>
       <c r="O234" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="P234" t="s">
         <v>47</v>
@@ -11381,10 +11381,10 @@
         <v>1</v>
       </c>
       <c r="X234" s="59" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y234" t="s">
         <v>637</v>
-      </c>
-      <c r="Y234" t="s">
-        <v>638</v>
       </c>
       <c r="AA234">
         <v>1</v>
@@ -11392,10 +11392,10 @@
     </row>
     <row r="235" spans="1:27" ht="30">
       <c r="A235" s="73" t="s">
+        <v>638</v>
+      </c>
+      <c r="B235" s="74" t="s">
         <v>639</v>
-      </c>
-      <c r="B235" s="74" t="s">
-        <v>640</v>
       </c>
       <c r="C235" s="75"/>
       <c r="D235" s="75">
@@ -11413,7 +11413,7 @@
       </c>
       <c r="K235" s="75"/>
       <c r="L235" s="38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M235" s="75"/>
       <c r="N235" s="75"/>
@@ -11432,10 +11432,10 @@
       <c r="A236" s="54"/>
       <c r="B236" s="21"/>
       <c r="G236" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="H236" t="s">
         <v>642</v>
-      </c>
-      <c r="H236" t="s">
-        <v>643</v>
       </c>
       <c r="I236">
         <v>1</v>
@@ -11447,7 +11447,7 @@
         <v>1</v>
       </c>
       <c r="L236" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M236">
         <v>1</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="O236" s="60" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P236" t="s">
         <v>47</v>
@@ -11470,10 +11470,10 @@
     </row>
     <row r="237" spans="1:27" ht="23">
       <c r="A237" s="73" t="s">
+        <v>644</v>
+      </c>
+      <c r="B237" s="74" t="s">
         <v>645</v>
-      </c>
-      <c r="B237" s="74" t="s">
-        <v>646</v>
       </c>
       <c r="C237" s="75"/>
       <c r="D237" s="75"/>
@@ -11485,11 +11485,11 @@
       </c>
       <c r="I237" s="75"/>
       <c r="J237" s="75" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K237" s="75"/>
       <c r="L237" s="41" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M237" s="75"/>
       <c r="N237" s="75"/>
@@ -11499,7 +11499,7 @@
       <c r="R237" s="75"/>
       <c r="S237" s="75"/>
       <c r="T237" s="75" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="U237" s="75"/>
       <c r="V237" s="75"/>
@@ -11509,10 +11509,10 @@
     </row>
     <row r="238" spans="1:27" ht="23">
       <c r="A238" s="73" t="s">
+        <v>648</v>
+      </c>
+      <c r="B238" s="74" t="s">
         <v>649</v>
-      </c>
-      <c r="B238" s="74" t="s">
-        <v>650</v>
       </c>
       <c r="C238" s="75"/>
       <c r="D238" s="75">
@@ -11526,11 +11526,11 @@
       </c>
       <c r="I238" s="75"/>
       <c r="J238" s="75" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K238" s="75"/>
       <c r="L238" s="41" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M238" s="75"/>
       <c r="N238" s="75"/>
@@ -11540,7 +11540,7 @@
       <c r="R238" s="75"/>
       <c r="S238" s="75"/>
       <c r="T238" s="75" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="U238" s="75"/>
       <c r="V238" s="75"/>
@@ -11550,10 +11550,10 @@
     </row>
     <row r="239" spans="1:27" ht="19">
       <c r="A239" s="73" t="s">
+        <v>652</v>
+      </c>
+      <c r="B239" s="89" t="s">
         <v>653</v>
-      </c>
-      <c r="B239" s="89" t="s">
-        <v>654</v>
       </c>
       <c r="C239" s="75"/>
       <c r="D239" s="75"/>
@@ -11573,7 +11573,7 @@
       <c r="R239" s="75"/>
       <c r="S239" s="75"/>
       <c r="T239" s="75" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="U239" s="75"/>
       <c r="V239" s="75"/>
@@ -11583,10 +11583,10 @@
     </row>
     <row r="240" spans="1:27" ht="19">
       <c r="A240" s="73" t="s">
+        <v>655</v>
+      </c>
+      <c r="B240" s="74" t="s">
         <v>656</v>
-      </c>
-      <c r="B240" s="74" t="s">
-        <v>657</v>
       </c>
       <c r="C240" s="75"/>
       <c r="D240" s="75">
@@ -11600,11 +11600,11 @@
       </c>
       <c r="I240" s="75"/>
       <c r="J240" s="75" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K240" s="75"/>
       <c r="L240" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M240" s="75"/>
       <c r="N240" s="75"/>
@@ -11621,10 +11621,10 @@
     </row>
     <row r="241" spans="1:24" ht="19">
       <c r="A241" s="73" t="s">
+        <v>659</v>
+      </c>
+      <c r="B241" s="74" t="s">
         <v>660</v>
-      </c>
-      <c r="B241" s="74" t="s">
-        <v>661</v>
       </c>
       <c r="C241" s="75"/>
       <c r="D241" s="75"/>
@@ -11636,11 +11636,11 @@
       </c>
       <c r="I241" s="75"/>
       <c r="J241" s="75" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K241" s="75"/>
       <c r="L241" s="20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M241" s="75"/>
       <c r="N241" s="75"/>
@@ -11659,10 +11659,10 @@
       <c r="A242" s="54"/>
       <c r="B242" s="21"/>
       <c r="F242" t="s">
+        <v>663</v>
+      </c>
+      <c r="G242" t="s">
         <v>664</v>
-      </c>
-      <c r="G242" t="s">
-        <v>665</v>
       </c>
       <c r="H242" s="32">
         <v>39722</v>
@@ -11674,10 +11674,10 @@
     </row>
     <row r="243" spans="1:24" ht="23">
       <c r="A243" s="73" t="s">
+        <v>665</v>
+      </c>
+      <c r="B243" s="74" t="s">
         <v>666</v>
-      </c>
-      <c r="B243" s="74" t="s">
-        <v>667</v>
       </c>
       <c r="C243" s="75"/>
       <c r="D243" s="75"/>
@@ -11689,11 +11689,11 @@
       </c>
       <c r="I243" s="75"/>
       <c r="J243" s="75" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K243" s="75"/>
       <c r="L243" s="41" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M243" s="75"/>
       <c r="N243" s="75"/>
@@ -11712,10 +11712,10 @@
       <c r="A244" s="54"/>
       <c r="B244" s="21"/>
       <c r="F244" t="s">
+        <v>669</v>
+      </c>
+      <c r="G244" t="s">
         <v>670</v>
-      </c>
-      <c r="G244" t="s">
-        <v>671</v>
       </c>
       <c r="H244" s="32">
         <v>37742</v>
@@ -11724,13 +11724,13 @@
         <v>1</v>
       </c>
       <c r="J244" s="75" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K244">
         <v>1</v>
       </c>
       <c r="L244" s="41" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M244">
         <v>1</v>
@@ -11739,13 +11739,13 @@
         <v>1</v>
       </c>
       <c r="O244" s="90" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="P244" t="s">
         <v>41</v>
       </c>
       <c r="R244" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="U244">
         <v>1</v>
@@ -11753,10 +11753,10 @@
     </row>
     <row r="245" spans="1:24" ht="19">
       <c r="A245" s="73" t="s">
+        <v>673</v>
+      </c>
+      <c r="B245" s="74" t="s">
         <v>674</v>
-      </c>
-      <c r="B245" s="74" t="s">
-        <v>675</v>
       </c>
       <c r="C245" s="75"/>
       <c r="D245" s="75"/>
@@ -11768,11 +11768,11 @@
       </c>
       <c r="I245" s="75"/>
       <c r="J245" s="75" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K245" s="75"/>
       <c r="L245" s="20" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M245" s="75"/>
       <c r="N245" s="75"/>
@@ -11787,15 +11787,15 @@
       <c r="U245" s="75"/>
       <c r="V245" s="75"/>
       <c r="X245" s="59" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="246" spans="1:24" ht="18">
       <c r="A246" s="73" t="s">
+        <v>677</v>
+      </c>
+      <c r="B246" s="74" t="s">
         <v>678</v>
-      </c>
-      <c r="B246" s="74" t="s">
-        <v>679</v>
       </c>
       <c r="C246" s="75"/>
       <c r="D246" s="75"/>
@@ -11807,11 +11807,11 @@
       </c>
       <c r="I246" s="75"/>
       <c r="J246" s="75" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K246" s="75"/>
       <c r="L246" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="M246" s="75"/>
       <c r="N246" s="75"/>
@@ -11828,10 +11828,10 @@
     </row>
     <row r="247" spans="1:24" ht="30">
       <c r="A247" s="73" t="s">
+        <v>681</v>
+      </c>
+      <c r="B247" s="74" t="s">
         <v>682</v>
-      </c>
-      <c r="B247" s="74" t="s">
-        <v>683</v>
       </c>
       <c r="C247" s="75"/>
       <c r="D247" s="75">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="K247" s="75"/>
       <c r="L247" s="38" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M247" s="75"/>
       <c r="N247" s="75"/>
@@ -11859,17 +11859,17 @@
       <c r="R247" s="75"/>
       <c r="S247" s="75"/>
       <c r="T247" s="75" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="U247" s="75"/>
       <c r="V247" s="75"/>
     </row>
     <row r="248" spans="1:24" ht="18">
       <c r="A248" s="73" t="s">
+        <v>685</v>
+      </c>
+      <c r="B248" s="74" t="s">
         <v>686</v>
-      </c>
-      <c r="B248" s="74" t="s">
-        <v>687</v>
       </c>
       <c r="C248" s="75"/>
       <c r="D248" s="75"/>
@@ -11885,7 +11885,7 @@
       </c>
       <c r="K248" s="75"/>
       <c r="L248" s="33" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M248" s="75"/>
       <c r="N248" s="75"/>
@@ -11904,16 +11904,16 @@
       <c r="A249" s="54"/>
       <c r="B249" s="21"/>
       <c r="E249" t="s">
+        <v>688</v>
+      </c>
+      <c r="F249" t="s">
         <v>689</v>
       </c>
-      <c r="F249" t="s">
+      <c r="G249" t="s">
         <v>690</v>
       </c>
-      <c r="G249" t="s">
+      <c r="H249" s="91" t="s">
         <v>691</v>
-      </c>
-      <c r="H249" s="91" t="s">
-        <v>692</v>
       </c>
       <c r="I249">
         <v>1</v>
@@ -11925,16 +11925,16 @@
         <v>1</v>
       </c>
       <c r="L249" t="s">
+        <v>692</v>
+      </c>
+      <c r="M249">
+        <v>1</v>
+      </c>
+      <c r="N249">
+        <v>1</v>
+      </c>
+      <c r="O249" s="91" t="s">
         <v>693</v>
-      </c>
-      <c r="M249">
-        <v>1</v>
-      </c>
-      <c r="N249">
-        <v>1</v>
-      </c>
-      <c r="O249" s="91" t="s">
-        <v>694</v>
       </c>
       <c r="P249" t="s">
         <v>47</v>
@@ -11943,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="S249" s="91" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="U249">
         <v>1</v>
@@ -11951,10 +11951,10 @@
     </row>
     <row r="250" spans="1:24" ht="30">
       <c r="A250" s="92" t="s">
+        <v>695</v>
+      </c>
+      <c r="B250" s="74" t="s">
         <v>696</v>
-      </c>
-      <c r="B250" s="74" t="s">
-        <v>697</v>
       </c>
       <c r="C250" s="75"/>
       <c r="D250" s="75">
@@ -11967,11 +11967,11 @@
       </c>
       <c r="I250" s="75"/>
       <c r="J250" s="75" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K250" s="75"/>
       <c r="L250" s="93" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="M250" s="75"/>
       <c r="N250" s="75"/>
@@ -11981,17 +11981,17 @@
       <c r="R250" s="75"/>
       <c r="S250" s="75"/>
       <c r="T250" s="75" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U250" s="75"/>
       <c r="V250" s="75"/>
     </row>
     <row r="251" spans="1:24" ht="19">
       <c r="A251" s="73" t="s">
+        <v>700</v>
+      </c>
+      <c r="B251" s="74" t="s">
         <v>701</v>
-      </c>
-      <c r="B251" s="74" t="s">
-        <v>702</v>
       </c>
       <c r="C251" s="75"/>
       <c r="D251" s="75">
@@ -12005,11 +12005,11 @@
       </c>
       <c r="I251" s="75"/>
       <c r="J251" s="75" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K251" s="75"/>
       <c r="L251" s="20" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M251" s="75"/>
       <c r="N251" s="75"/>
@@ -12028,10 +12028,10 @@
       <c r="A252" s="54"/>
       <c r="B252" s="21"/>
       <c r="F252" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="G252" t="s">
         <v>704</v>
-      </c>
-      <c r="G252" t="s">
-        <v>705</v>
       </c>
       <c r="H252" s="49">
         <v>2012</v>
@@ -12040,13 +12040,13 @@
         <v>1</v>
       </c>
       <c r="J252" s="75" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K252">
         <v>1</v>
       </c>
       <c r="L252" s="20" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M252">
         <v>1</v>
@@ -12065,10 +12065,10 @@
       <c r="A253" s="54"/>
       <c r="B253" s="21"/>
       <c r="F253" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G253" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H253" s="49">
         <v>2011</v>
@@ -12077,13 +12077,13 @@
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K253">
         <v>1</v>
       </c>
       <c r="L253" s="20" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M253">
         <v>1</v>
@@ -12105,10 +12105,10 @@
       <c r="A254" s="54"/>
       <c r="B254" s="21"/>
       <c r="F254" s="32" t="s">
+        <v>706</v>
+      </c>
+      <c r="G254" t="s">
         <v>707</v>
-      </c>
-      <c r="G254" t="s">
-        <v>708</v>
       </c>
       <c r="H254" s="32">
         <v>41760</v>
@@ -12117,13 +12117,13 @@
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K254">
         <v>1</v>
       </c>
       <c r="L254" s="20" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M254">
         <v>1</v>
@@ -12143,10 +12143,10 @@
     </row>
     <row r="255" spans="1:24">
       <c r="A255" s="73" t="s">
+        <v>708</v>
+      </c>
+      <c r="B255" s="74" t="s">
         <v>709</v>
-      </c>
-      <c r="B255" s="74" t="s">
-        <v>710</v>
       </c>
       <c r="C255" s="75"/>
       <c r="D255" s="75">
@@ -12164,7 +12164,7 @@
       </c>
       <c r="K255" s="75"/>
       <c r="L255" s="75" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M255" s="75"/>
       <c r="N255" s="75"/>
@@ -12183,10 +12183,10 @@
       <c r="A256" s="54"/>
       <c r="B256" s="21"/>
       <c r="F256" t="s">
+        <v>711</v>
+      </c>
+      <c r="G256" t="s">
         <v>712</v>
-      </c>
-      <c r="G256" t="s">
-        <v>713</v>
       </c>
       <c r="H256" s="94">
         <v>38726</v>
@@ -12195,22 +12195,22 @@
         <v>1</v>
       </c>
       <c r="J256" s="20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K256">
         <v>1</v>
       </c>
       <c r="L256" s="47" t="s">
+        <v>713</v>
+      </c>
+      <c r="M256">
+        <v>1</v>
+      </c>
+      <c r="N256">
+        <v>1</v>
+      </c>
+      <c r="O256" s="47" t="s">
         <v>714</v>
-      </c>
-      <c r="M256">
-        <v>1</v>
-      </c>
-      <c r="N256">
-        <v>1</v>
-      </c>
-      <c r="O256" s="47" t="s">
-        <v>715</v>
       </c>
       <c r="P256" t="s">
         <v>47</v>
@@ -12219,7 +12219,7 @@
         <v>0</v>
       </c>
       <c r="S256" s="95" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="U256" s="75">
         <v>1</v>
@@ -12227,10 +12227,10 @@
     </row>
     <row r="257" spans="1:26" ht="19">
       <c r="A257" s="73" t="s">
+        <v>716</v>
+      </c>
+      <c r="B257" s="74" t="s">
         <v>717</v>
-      </c>
-      <c r="B257" s="74" t="s">
-        <v>718</v>
       </c>
       <c r="C257" s="75"/>
       <c r="D257" s="75"/>
@@ -12242,11 +12242,11 @@
       </c>
       <c r="I257" s="75"/>
       <c r="J257" s="20" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K257" s="75"/>
       <c r="L257" s="75" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M257" s="75"/>
       <c r="N257" s="75"/>
@@ -12265,10 +12265,10 @@
       <c r="A258" s="54"/>
       <c r="B258" s="21"/>
       <c r="F258" t="s">
+        <v>720</v>
+      </c>
+      <c r="G258" t="s">
         <v>721</v>
-      </c>
-      <c r="G258" t="s">
-        <v>722</v>
       </c>
       <c r="H258" s="32">
         <v>42186</v>
@@ -12277,14 +12277,14 @@
         <v>1</v>
       </c>
       <c r="J258" s="20" t="s">
+        <v>718</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+      <c r="L258" s="75" t="s">
         <v>719</v>
       </c>
-      <c r="K258">
-        <v>1</v>
-      </c>
-      <c r="L258" s="75" t="s">
-        <v>720</v>
-      </c>
       <c r="M258">
         <v>1</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>1</v>
       </c>
       <c r="O258" s="42" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="P258" t="s">
         <v>47</v>
@@ -12301,7 +12301,7 @@
         <v>0</v>
       </c>
       <c r="S258" s="96" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="U258" s="75">
         <v>1</v>
@@ -12311,10 +12311,10 @@
       <c r="A259" s="54"/>
       <c r="B259" s="21"/>
       <c r="E259" t="s">
+        <v>724</v>
+      </c>
+      <c r="F259" s="22" t="s">
         <v>725</v>
-      </c>
-      <c r="F259" s="22" t="s">
-        <v>726</v>
       </c>
       <c r="H259" s="49">
         <v>42341</v>
@@ -12324,20 +12324,20 @@
       </c>
       <c r="J259" s="20"/>
       <c r="L259" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="260" spans="1:26" ht="20">
       <c r="A260" s="54"/>
       <c r="B260" s="21"/>
       <c r="E260" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F260" t="s">
+        <v>726</v>
+      </c>
+      <c r="G260" s="21" t="s">
         <v>727</v>
-      </c>
-      <c r="G260" s="21" t="s">
-        <v>728</v>
       </c>
       <c r="H260" s="49">
         <v>43143</v>
@@ -12346,14 +12346,14 @@
         <v>1</v>
       </c>
       <c r="J260" s="20" t="s">
+        <v>718</v>
+      </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
+      <c r="L260" t="s">
         <v>719</v>
       </c>
-      <c r="K260">
-        <v>1</v>
-      </c>
-      <c r="L260" t="s">
-        <v>720</v>
-      </c>
       <c r="M260">
         <v>1</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>1</v>
       </c>
       <c r="O260" s="42" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="P260" t="s">
         <v>47</v>
@@ -12375,10 +12375,10 @@
     </row>
     <row r="261" spans="1:26" ht="23">
       <c r="A261" s="73" t="s">
+        <v>728</v>
+      </c>
+      <c r="B261" s="74" t="s">
         <v>729</v>
-      </c>
-      <c r="B261" s="74" t="s">
-        <v>730</v>
       </c>
       <c r="C261" s="75"/>
       <c r="D261" s="75"/>
@@ -12394,7 +12394,7 @@
       </c>
       <c r="K261" s="75"/>
       <c r="L261" s="41" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M261" s="75"/>
       <c r="N261" s="75"/>
@@ -12409,20 +12409,20 @@
         <v>1</v>
       </c>
       <c r="X261" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="262" spans="1:26" ht="23">
       <c r="A262" s="54"/>
       <c r="B262" s="21"/>
       <c r="E262" t="s">
+        <v>732</v>
+      </c>
+      <c r="F262" t="s">
         <v>733</v>
       </c>
-      <c r="F262" t="s">
+      <c r="G262" t="s">
         <v>734</v>
-      </c>
-      <c r="G262" t="s">
-        <v>735</v>
       </c>
       <c r="H262" s="32">
         <v>38412</v>
@@ -12437,7 +12437,7 @@
         <v>1</v>
       </c>
       <c r="L262" s="41" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M262">
         <v>1</v>
@@ -12446,7 +12446,7 @@
         <v>1</v>
       </c>
       <c r="O262" s="45" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="P262" t="s">
         <v>47</v>
@@ -12462,13 +12462,13 @@
       <c r="A263" s="54"/>
       <c r="B263" s="21"/>
       <c r="E263" t="s">
+        <v>736</v>
+      </c>
+      <c r="F263" s="71" t="s">
         <v>737</v>
       </c>
-      <c r="F263" s="71" t="s">
+      <c r="G263" t="s">
         <v>738</v>
-      </c>
-      <c r="G263" t="s">
-        <v>739</v>
       </c>
       <c r="H263" s="94">
         <v>40915</v>
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="L263" s="71" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M263">
         <v>1</v>
@@ -12492,7 +12492,7 @@
         <v>1</v>
       </c>
       <c r="O263" s="71" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="P263" t="s">
         <v>113</v>
@@ -12511,16 +12511,16 @@
       <c r="A264" s="54"/>
       <c r="B264" s="21"/>
       <c r="E264" t="s">
+        <v>740</v>
+      </c>
+      <c r="F264" s="45" t="s">
         <v>741</v>
       </c>
-      <c r="F264" s="45" t="s">
+      <c r="G264" t="s">
         <v>742</v>
       </c>
-      <c r="G264" t="s">
+      <c r="H264" s="49" t="s">
         <v>743</v>
-      </c>
-      <c r="H264" s="49" t="s">
-        <v>744</v>
       </c>
       <c r="I264">
         <v>1</v>
@@ -12532,7 +12532,7 @@
         <v>1</v>
       </c>
       <c r="L264" s="41" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M264">
         <v>1</v>
@@ -12541,7 +12541,7 @@
         <v>1</v>
       </c>
       <c r="O264" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="P264" t="s">
         <v>47</v>
@@ -12555,10 +12555,10 @@
     </row>
     <row r="265" spans="1:26" ht="33">
       <c r="A265" s="73" t="s">
+        <v>745</v>
+      </c>
+      <c r="B265" s="74" t="s">
         <v>746</v>
-      </c>
-      <c r="B265" s="74" t="s">
-        <v>747</v>
       </c>
       <c r="C265" s="75"/>
       <c r="D265" s="75">
@@ -12572,11 +12572,11 @@
       </c>
       <c r="I265" s="75"/>
       <c r="J265" s="75" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K265" s="75"/>
       <c r="L265" s="44" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="M265" s="75"/>
       <c r="N265" s="75"/>
@@ -12595,10 +12595,10 @@
       <c r="A266" s="73"/>
       <c r="B266" s="21"/>
       <c r="F266" t="s">
+        <v>749</v>
+      </c>
+      <c r="G266" t="s">
         <v>750</v>
-      </c>
-      <c r="G266" t="s">
-        <v>751</v>
       </c>
       <c r="H266" s="49">
         <v>39600</v>
@@ -12607,16 +12607,16 @@
         <v>1</v>
       </c>
       <c r="J266" s="20" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K266">
         <v>1</v>
       </c>
       <c r="L266" s="97" t="s">
+        <v>751</v>
+      </c>
+      <c r="X266" t="s">
         <v>752</v>
-      </c>
-      <c r="X266" t="s">
-        <v>753</v>
       </c>
       <c r="Z266">
         <v>1</v>
@@ -12624,10 +12624,10 @@
     </row>
     <row r="267" spans="1:26" ht="19">
       <c r="A267" s="73" t="s">
+        <v>753</v>
+      </c>
+      <c r="B267" s="74" t="s">
         <v>754</v>
-      </c>
-      <c r="B267" s="74" t="s">
-        <v>755</v>
       </c>
       <c r="C267" s="75"/>
       <c r="D267" s="75">
@@ -12645,7 +12645,7 @@
       </c>
       <c r="K267" s="75"/>
       <c r="L267" s="33" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M267" s="75"/>
       <c r="N267" s="75"/>
@@ -12655,20 +12655,20 @@
       <c r="R267" s="75"/>
       <c r="S267" s="75"/>
       <c r="T267" s="75" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="U267" s="75"/>
       <c r="V267" s="75"/>
     </row>
     <row r="268" spans="1:26">
       <c r="A268" s="73" t="s">
+        <v>757</v>
+      </c>
+      <c r="B268" s="74" t="s">
         <v>758</v>
       </c>
-      <c r="B268" s="74" t="s">
+      <c r="C268" s="75" t="s">
         <v>759</v>
-      </c>
-      <c r="C268" s="75" t="s">
-        <v>760</v>
       </c>
       <c r="D268" s="75"/>
       <c r="E268" s="75"/>
@@ -12687,17 +12687,17 @@
       <c r="R268" s="75"/>
       <c r="S268" s="75"/>
       <c r="T268" s="75" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="U268" s="75"/>
       <c r="V268" s="75"/>
     </row>
     <row r="269" spans="1:26" ht="33">
       <c r="A269" s="75" t="s">
+        <v>760</v>
+      </c>
+      <c r="B269" s="74" t="s">
         <v>761</v>
-      </c>
-      <c r="B269" s="74" t="s">
-        <v>762</v>
       </c>
       <c r="C269" s="75"/>
       <c r="D269" s="75"/>
@@ -12709,11 +12709,11 @@
       </c>
       <c r="I269" s="75"/>
       <c r="J269" s="75" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K269" s="75"/>
       <c r="L269" s="98" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M269" s="75"/>
       <c r="N269" s="75"/>
@@ -12731,7 +12731,7 @@
     <row r="270" spans="1:26" ht="33">
       <c r="B270" s="21"/>
       <c r="G270" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H270" s="49"/>
       <c r="L270" s="98"/>
@@ -12743,17 +12743,17 @@
     <row r="271" spans="1:26" ht="33">
       <c r="B271" s="21"/>
       <c r="G271" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H271" s="49"/>
       <c r="J271" s="75" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K271">
         <v>1</v>
       </c>
       <c r="L271" s="98" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M271">
         <v>1</v>
@@ -12762,7 +12762,7 @@
         <v>1</v>
       </c>
       <c r="O271" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="P271" t="s">
         <v>41</v>
@@ -12776,10 +12776,10 @@
     </row>
     <row r="272" spans="1:26" ht="19">
       <c r="A272" s="75" t="s">
+        <v>766</v>
+      </c>
+      <c r="B272" s="74" t="s">
         <v>767</v>
-      </c>
-      <c r="B272" s="74" t="s">
-        <v>768</v>
       </c>
       <c r="C272" s="75"/>
       <c r="D272" s="75">
@@ -12793,11 +12793,11 @@
       </c>
       <c r="I272" s="75"/>
       <c r="J272" s="75" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K272" s="75"/>
       <c r="L272" s="75" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M272" s="75"/>
       <c r="N272" s="75"/>
@@ -12815,40 +12815,40 @@
     <row r="273" spans="1:27" ht="19">
       <c r="B273" s="21"/>
       <c r="F273" t="s">
+        <v>770</v>
+      </c>
+      <c r="G273" t="s">
         <v>771</v>
       </c>
-      <c r="G273" t="s">
+      <c r="H273" s="99" t="s">
         <v>772</v>
       </c>
-      <c r="H273" s="99" t="s">
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273" t="s">
+        <v>768</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+      <c r="L273" t="s">
+        <v>769</v>
+      </c>
+      <c r="M273">
+        <v>1</v>
+      </c>
+      <c r="N273">
+        <v>1</v>
+      </c>
+      <c r="O273" t="s">
         <v>773</v>
-      </c>
-      <c r="I273">
-        <v>1</v>
-      </c>
-      <c r="J273" t="s">
-        <v>769</v>
-      </c>
-      <c r="K273">
-        <v>1</v>
-      </c>
-      <c r="L273" t="s">
-        <v>770</v>
-      </c>
-      <c r="M273">
-        <v>1</v>
-      </c>
-      <c r="N273">
-        <v>1</v>
-      </c>
-      <c r="O273" t="s">
-        <v>774</v>
       </c>
       <c r="P273" t="s">
         <v>41</v>
       </c>
       <c r="S273" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="U273">
         <v>1</v>
@@ -12857,29 +12857,29 @@
     <row r="274" spans="1:27" ht="19">
       <c r="B274" s="21"/>
       <c r="E274" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H274" s="99"/>
       <c r="P274" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="275" spans="1:27" ht="19">
       <c r="B275" s="21"/>
       <c r="E275" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H275" s="99"/>
       <c r="P275" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="276" spans="1:27" ht="33">
       <c r="A276" s="75" t="s">
+        <v>778</v>
+      </c>
+      <c r="B276" s="74" t="s">
         <v>779</v>
-      </c>
-      <c r="B276" s="74" t="s">
-        <v>780</v>
       </c>
       <c r="C276" s="75"/>
       <c r="D276" s="75">
@@ -12893,11 +12893,11 @@
       </c>
       <c r="I276" s="75"/>
       <c r="J276" s="75" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K276" s="75"/>
       <c r="L276" s="44" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="M276" s="75"/>
       <c r="N276" s="75"/>
@@ -12914,10 +12914,10 @@
     </row>
     <row r="277" spans="1:27" ht="23">
       <c r="A277" s="100" t="s">
+        <v>781</v>
+      </c>
+      <c r="B277" s="74" t="s">
         <v>782</v>
-      </c>
-      <c r="B277" s="74" t="s">
-        <v>783</v>
       </c>
       <c r="C277" s="75"/>
       <c r="D277" s="75"/>
@@ -12929,11 +12929,11 @@
       </c>
       <c r="I277" s="75"/>
       <c r="J277" s="75" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K277" s="75"/>
       <c r="L277" s="41" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M277" s="75"/>
       <c r="N277" s="75"/>
@@ -12958,10 +12958,10 @@
     </row>
     <row r="279" spans="1:27" ht="23">
       <c r="A279" s="75" t="s">
+        <v>784</v>
+      </c>
+      <c r="B279" s="74" t="s">
         <v>785</v>
-      </c>
-      <c r="B279" s="74" t="s">
-        <v>786</v>
       </c>
       <c r="C279" s="75"/>
       <c r="D279" s="75">
@@ -12979,7 +12979,7 @@
       </c>
       <c r="K279" s="75"/>
       <c r="L279" s="41" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="M279" s="75"/>
       <c r="N279" s="75"/>
@@ -13004,10 +13004,10 @@
     </row>
     <row r="281" spans="1:27" ht="18">
       <c r="A281" s="75" t="s">
+        <v>787</v>
+      </c>
+      <c r="B281" s="74" t="s">
         <v>788</v>
-      </c>
-      <c r="B281" s="74" t="s">
-        <v>789</v>
       </c>
       <c r="C281" s="75"/>
       <c r="D281" s="75">
@@ -13021,11 +13021,11 @@
       </c>
       <c r="I281" s="75"/>
       <c r="J281" s="75" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K281" s="75"/>
       <c r="L281" s="33" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M281" s="75"/>
       <c r="N281" s="75"/>
@@ -13050,10 +13050,10 @@
     </row>
     <row r="283" spans="1:27">
       <c r="A283" s="75" t="s">
+        <v>790</v>
+      </c>
+      <c r="B283" s="75" t="s">
         <v>791</v>
-      </c>
-      <c r="B283" s="75" t="s">
-        <v>792</v>
       </c>
       <c r="C283" s="75"/>
       <c r="D283" s="75"/>
@@ -13073,17 +13073,17 @@
       <c r="R283" s="75"/>
       <c r="S283" s="75"/>
       <c r="T283" s="75" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="U283" s="75"/>
       <c r="V283" s="75"/>
     </row>
     <row r="284" spans="1:27">
       <c r="A284" s="75" t="s">
+        <v>793</v>
+      </c>
+      <c r="B284" s="74" t="s">
         <v>794</v>
-      </c>
-      <c r="B284" s="74" t="s">
-        <v>795</v>
       </c>
       <c r="C284" s="75"/>
       <c r="D284" s="75"/>
@@ -13115,10 +13115,10 @@
     </row>
     <row r="286" spans="1:27">
       <c r="A286" s="75" t="s">
+        <v>795</v>
+      </c>
+      <c r="B286" s="74" t="s">
         <v>796</v>
-      </c>
-      <c r="B286" s="74" t="s">
-        <v>797</v>
       </c>
       <c r="C286" s="75"/>
       <c r="D286" s="75"/>
@@ -13138,7 +13138,7 @@
       <c r="R286" s="75"/>
       <c r="S286" s="75"/>
       <c r="T286" s="75" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="U286" s="75"/>
       <c r="V286" s="75"/>
@@ -13148,10 +13148,10 @@
     </row>
     <row r="287" spans="1:27">
       <c r="A287" s="75" t="s">
+        <v>798</v>
+      </c>
+      <c r="B287" s="74" t="s">
         <v>799</v>
-      </c>
-      <c r="B287" s="74" t="s">
-        <v>800</v>
       </c>
       <c r="C287" s="75"/>
       <c r="D287" s="75"/>
@@ -13181,10 +13181,10 @@
     </row>
     <row r="288" spans="1:27">
       <c r="A288" s="75" t="s">
+        <v>800</v>
+      </c>
+      <c r="B288" s="74" t="s">
         <v>801</v>
-      </c>
-      <c r="B288" s="74" t="s">
-        <v>802</v>
       </c>
       <c r="C288" s="75"/>
       <c r="D288" s="75">
@@ -13219,10 +13219,10 @@
     </row>
     <row r="290" spans="1:27" ht="19">
       <c r="A290" s="75" t="s">
+        <v>802</v>
+      </c>
+      <c r="B290" s="74" t="s">
         <v>803</v>
-      </c>
-      <c r="B290" s="74" t="s">
-        <v>804</v>
       </c>
       <c r="C290" s="75"/>
       <c r="D290" s="101">
@@ -13254,10 +13254,10 @@
     </row>
     <row r="291" spans="1:27">
       <c r="A291" s="75" t="s">
+        <v>804</v>
+      </c>
+      <c r="B291" s="74" t="s">
         <v>805</v>
-      </c>
-      <c r="B291" s="74" t="s">
-        <v>806</v>
       </c>
       <c r="C291" s="75"/>
       <c r="D291" s="75"/>

--- a/Allmatching.xlsx
+++ b/Allmatching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DE3B43-B5AC-AE48-9643-808B1D7A8C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964B890B-9871-2048-9AD6-0A7ACF94554B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25100" windowHeight="16520" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
+    <workbookView xWindow="440" yWindow="500" windowWidth="25100" windowHeight="16520" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3493,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F0353-714E-C24F-9141-2C52DBDF8C59}">
   <dimension ref="A1:AA291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O86" workbookViewId="0">
-      <selection activeCell="X168" sqref="X168"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Allmatching.xlsx
+++ b/Allmatching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964B890B-9871-2048-9AD6-0A7ACF94554B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB20304B-6678-DC48-B256-B7A02F8A4B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="500" windowWidth="25100" windowHeight="16520" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
   </bookViews>
@@ -3493,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F0353-714E-C24F-9141-2C52DBDF8C59}">
   <dimension ref="A1:AA291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Allmatching.xlsx
+++ b/Allmatching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEC7369-43EA-B24A-B7F0-82A1B075981C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A884D1C6-EFB1-B74B-9F31-5A34C66FD017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="500" windowWidth="20540" windowHeight="16480" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
   </bookViews>
@@ -3504,11 +3504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F0353-714E-C24F-9141-2C52DBDF8C59}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F299" sqref="F299"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3631,7 +3630,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="19" hidden="1">
+    <row r="3" spans="1:26" ht="19">
       <c r="A3" s="17" t="s">
         <v>32</v>
       </c>
@@ -3669,7 +3668,7 @@
       </c>
       <c r="V3" s="17"/>
     </row>
-    <row r="4" spans="1:26" ht="23" hidden="1">
+    <row r="4" spans="1:26" ht="23">
       <c r="B4" s="21"/>
       <c r="F4" s="22" t="s">
         <v>37</v>
@@ -3720,7 +3719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="24" hidden="1">
+    <row r="5" spans="1:26" ht="24">
       <c r="B5" s="21"/>
       <c r="F5" s="25" t="s">
         <v>42</v>
@@ -3771,7 +3770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="24" hidden="1">
+    <row r="6" spans="1:26" ht="24">
       <c r="B6" s="21"/>
       <c r="F6" s="25" t="s">
         <v>48</v>
@@ -3787,7 +3786,7 @@
       <c r="N6" s="20"/>
       <c r="S6" s="25"/>
     </row>
-    <row r="7" spans="1:26" ht="30" hidden="1">
+    <row r="7" spans="1:26" ht="30">
       <c r="A7" s="17" t="s">
         <v>50</v>
       </c>
@@ -3830,7 +3829,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="23" hidden="1">
+    <row r="8" spans="1:26" ht="23">
       <c r="B8" s="29"/>
       <c r="D8" s="30"/>
       <c r="E8" t="s">
@@ -3840,7 +3839,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="30" hidden="1">
+    <row r="9" spans="1:26" ht="30">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -3883,7 +3882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="23" hidden="1">
+    <row r="10" spans="1:26" ht="23">
       <c r="B10" s="29"/>
       <c r="D10" s="30"/>
       <c r="E10" t="s">
@@ -3893,7 +3892,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:26" hidden="1">
+    <row r="11" spans="1:26">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
@@ -3936,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" hidden="1">
+    <row r="12" spans="1:26">
       <c r="B12" s="21"/>
       <c r="D12" s="31" t="s">
         <v>66</v>
@@ -3951,7 +3950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="19" hidden="1">
+    <row r="13" spans="1:26" ht="19">
       <c r="A13" s="17" t="s">
         <v>68</v>
       </c>
@@ -3996,7 +3995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="19" hidden="1">
+    <row r="14" spans="1:26" ht="19">
       <c r="B14" s="21"/>
       <c r="F14" s="20" t="s">
         <v>71</v>
@@ -4017,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="19" hidden="1">
+    <row r="15" spans="1:26" ht="19">
       <c r="B15" s="21"/>
       <c r="D15" s="31" t="s">
         <v>74</v>
@@ -4074,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="19" hidden="1">
+    <row r="16" spans="1:26" ht="19">
       <c r="B16" s="21"/>
       <c r="F16" s="22" t="s">
         <v>81</v>
@@ -4110,7 +4109,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="19" hidden="1">
+    <row r="17" spans="1:24" ht="19">
       <c r="B17" s="21"/>
       <c r="F17" s="34"/>
       <c r="G17" s="35" t="s">
@@ -4122,7 +4121,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="19" hidden="1">
+    <row r="18" spans="1:24" ht="19">
       <c r="B18" s="21"/>
       <c r="F18" s="34"/>
       <c r="G18" s="35" t="s">
@@ -4131,7 +4130,7 @@
       <c r="H18" s="32"/>
       <c r="J18" s="33"/>
     </row>
-    <row r="19" spans="1:24" ht="19" hidden="1">
+    <row r="19" spans="1:24" ht="19">
       <c r="B19" s="21"/>
       <c r="F19" s="34"/>
       <c r="G19" s="35" t="s">
@@ -4140,7 +4139,7 @@
       <c r="H19" s="32"/>
       <c r="J19" s="33"/>
     </row>
-    <row r="20" spans="1:24" ht="35" hidden="1">
+    <row r="20" spans="1:24" ht="35">
       <c r="A20" s="17" t="s">
         <v>87</v>
       </c>
@@ -4178,7 +4177,7 @@
       </c>
       <c r="V20" s="17"/>
     </row>
-    <row r="21" spans="1:24" ht="30" hidden="1">
+    <row r="21" spans="1:24" ht="30">
       <c r="B21" s="21"/>
       <c r="F21" s="20" t="s">
         <v>91</v>
@@ -4226,7 +4225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="30" hidden="1">
+    <row r="22" spans="1:24" ht="30">
       <c r="A22" s="17" t="s">
         <v>95</v>
       </c>
@@ -4264,7 +4263,7 @@
       </c>
       <c r="V22" s="17"/>
     </row>
-    <row r="23" spans="1:24" ht="30" hidden="1">
+    <row r="23" spans="1:24" ht="30">
       <c r="F23" t="s">
         <v>99</v>
       </c>
@@ -4308,12 +4307,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:24" hidden="1">
+    <row r="24" spans="1:24">
       <c r="L24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="23" hidden="1">
+    <row r="25" spans="1:24" ht="23">
       <c r="A25" s="17" t="s">
         <v>104</v>
       </c>
@@ -4353,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="20" hidden="1">
+    <row r="26" spans="1:24" ht="20">
       <c r="B26" s="21"/>
       <c r="F26" t="s">
         <v>108</v>
@@ -4395,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="19" hidden="1">
+    <row r="27" spans="1:24" ht="19">
       <c r="A27" s="17" t="s">
         <v>113</v>
       </c>
@@ -4433,7 +4432,7 @@
       </c>
       <c r="V27" s="17"/>
     </row>
-    <row r="28" spans="1:24" ht="20" hidden="1">
+    <row r="28" spans="1:24" ht="20">
       <c r="B28" s="21"/>
       <c r="F28" t="s">
         <v>117</v>
@@ -4481,7 +4480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="33" hidden="1">
+    <row r="29" spans="1:24" ht="33">
       <c r="A29" s="17" t="s">
         <v>121</v>
       </c>
@@ -4519,7 +4518,7 @@
       </c>
       <c r="V29" s="17"/>
     </row>
-    <row r="30" spans="1:24" ht="24" hidden="1">
+    <row r="30" spans="1:24" ht="24">
       <c r="B30" s="21"/>
       <c r="F30" s="21" t="s">
         <v>124</v>
@@ -4567,7 +4566,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="23" hidden="1">
+    <row r="31" spans="1:24" ht="23">
       <c r="A31" s="17" t="s">
         <v>129</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="23" hidden="1">
+    <row r="32" spans="1:24" ht="23">
       <c r="B32" s="21"/>
       <c r="F32" s="21" t="s">
         <v>134</v>
@@ -4658,7 +4657,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="23" hidden="1">
+    <row r="33" spans="1:25" ht="23">
       <c r="A33" s="17" t="s">
         <v>140</v>
       </c>
@@ -4699,7 +4698,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="19" hidden="1">
+    <row r="34" spans="1:25" ht="19">
       <c r="B34" s="21"/>
       <c r="F34" t="s">
         <v>145</v>
@@ -4717,7 +4716,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="19" hidden="1">
+    <row r="35" spans="1:25" ht="19">
       <c r="B35" s="21"/>
       <c r="F35" t="s">
         <v>149</v>
@@ -4730,7 +4729,7 @@
       </c>
       <c r="L35" s="20"/>
     </row>
-    <row r="36" spans="1:25" hidden="1">
+    <row r="36" spans="1:25">
       <c r="A36" s="17" t="s">
         <v>150</v>
       </c>
@@ -4771,7 +4770,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="24" hidden="1">
+    <row r="37" spans="1:25" ht="24">
       <c r="B37" s="21"/>
       <c r="F37" t="s">
         <v>153</v>
@@ -4784,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="24" hidden="1">
+    <row r="38" spans="1:25" ht="24">
       <c r="B38" s="21"/>
       <c r="F38" t="s">
         <v>155</v>
@@ -4797,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="24" hidden="1">
+    <row r="39" spans="1:25" ht="24">
       <c r="B39" s="21"/>
       <c r="F39" t="s">
         <v>156</v>
@@ -4810,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="19" hidden="1">
+    <row r="40" spans="1:25" ht="19">
       <c r="A40" s="17" t="s">
         <v>157</v>
       </c>
@@ -4848,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="23" hidden="1">
+    <row r="41" spans="1:25" ht="23">
       <c r="B41" s="21"/>
       <c r="F41" t="s">
         <v>162</v>
@@ -4887,7 +4886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:25" hidden="1">
+    <row r="42" spans="1:25">
       <c r="A42" s="17" t="s">
         <v>166</v>
       </c>
@@ -4925,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="23" hidden="1">
+    <row r="43" spans="1:25" ht="23">
       <c r="B43" s="21"/>
       <c r="F43" t="s">
         <v>162</v>
@@ -4964,7 +4963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="19" hidden="1">
+    <row r="44" spans="1:25" ht="19">
       <c r="A44" s="17" t="s">
         <v>168</v>
       </c>
@@ -5002,7 +5001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="23" hidden="1">
+    <row r="45" spans="1:25" ht="23">
       <c r="B45" s="21"/>
       <c r="F45" t="s">
         <v>162</v>
@@ -5041,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:25" hidden="1">
+    <row r="46" spans="1:25">
       <c r="A46" s="17" t="s">
         <v>169</v>
       </c>
@@ -5079,7 +5078,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="23" hidden="1">
+    <row r="47" spans="1:25" ht="23">
       <c r="A47" s="17" t="s">
         <v>174</v>
       </c>
@@ -5120,7 +5119,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="23" hidden="1">
+    <row r="48" spans="1:25" ht="23">
       <c r="B48" s="21"/>
       <c r="H48" s="39">
         <v>41243</v>
@@ -5130,7 +5129,7 @@
       </c>
       <c r="L48" s="41"/>
     </row>
-    <row r="49" spans="1:27" hidden="1">
+    <row r="49" spans="1:27">
       <c r="A49" s="17" t="s">
         <v>179</v>
       </c>
@@ -5168,7 +5167,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="30" hidden="1">
+    <row r="50" spans="1:27" ht="30">
       <c r="A50" s="17" t="s">
         <v>182</v>
       </c>
@@ -5213,7 +5212,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="23" hidden="1">
+    <row r="51" spans="1:27" ht="23">
       <c r="A51" s="17" t="s">
         <v>188</v>
       </c>
@@ -5254,7 +5253,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="33" hidden="1">
+    <row r="52" spans="1:27" ht="33">
       <c r="A52" s="17" t="s">
         <v>193</v>
       </c>
@@ -5292,7 +5291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="33" hidden="1">
+    <row r="53" spans="1:27" ht="33">
       <c r="B53" s="21"/>
       <c r="F53" s="20" t="s">
         <v>198</v>
@@ -5334,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="46" hidden="1">
+    <row r="54" spans="1:27" ht="46">
       <c r="A54" s="17" t="s">
         <v>201</v>
       </c>
@@ -5372,7 +5371,7 @@
       </c>
       <c r="V54" s="17"/>
     </row>
-    <row r="55" spans="1:27" s="44" customFormat="1" ht="46" hidden="1">
+    <row r="55" spans="1:27" s="44" customFormat="1" ht="46">
       <c r="F55" s="44" t="s">
         <v>205</v>
       </c>
@@ -5416,7 +5415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:27" s="44" customFormat="1" ht="46" hidden="1">
+    <row r="56" spans="1:27" s="44" customFormat="1" ht="46">
       <c r="F56" s="102" t="s">
         <v>209</v>
       </c>
@@ -5435,7 +5434,7 @@
       </c>
       <c r="R56" s="52"/>
     </row>
-    <row r="57" spans="1:27" s="44" customFormat="1" ht="46" hidden="1">
+    <row r="57" spans="1:27" s="44" customFormat="1" ht="46">
       <c r="F57" s="44" t="s">
         <v>210</v>
       </c>
@@ -5448,7 +5447,7 @@
       </c>
       <c r="R57" s="52"/>
     </row>
-    <row r="58" spans="1:27" s="44" customFormat="1" ht="46" hidden="1">
+    <row r="58" spans="1:27" s="44" customFormat="1" ht="46">
       <c r="F58" s="44" t="s">
         <v>211</v>
       </c>
@@ -5461,7 +5460,7 @@
       </c>
       <c r="R58" s="52"/>
     </row>
-    <row r="59" spans="1:27" ht="19" hidden="1">
+    <row r="59" spans="1:27" ht="19">
       <c r="A59" s="17" t="s">
         <v>212</v>
       </c>
@@ -5502,7 +5501,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="19" hidden="1">
+    <row r="60" spans="1:27" ht="19">
       <c r="A60" s="17" t="s">
         <v>215</v>
       </c>
@@ -5545,7 +5544,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="61" spans="1:27" hidden="1">
+    <row r="61" spans="1:27">
       <c r="F61" t="s">
         <v>219</v>
       </c>
@@ -5562,7 +5561,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="23" hidden="1">
+    <row r="62" spans="1:27" ht="23">
       <c r="A62" s="17" t="s">
         <v>222</v>
       </c>
@@ -5599,7 +5598,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="23" hidden="1">
+    <row r="63" spans="1:27" ht="23">
       <c r="A63" s="17" t="s">
         <v>226</v>
       </c>
@@ -5717,7 +5716,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="23" hidden="1">
+    <row r="65" spans="1:26" ht="23">
       <c r="A65" s="53" t="s">
         <v>229</v>
       </c>
@@ -5753,7 +5752,7 @@
       <c r="U65" s="17"/>
       <c r="V65" s="17"/>
     </row>
-    <row r="66" spans="1:26" hidden="1">
+    <row r="66" spans="1:26">
       <c r="A66" s="54"/>
       <c r="B66" s="21"/>
       <c r="C66" s="54"/>
@@ -5765,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="19" hidden="1">
+    <row r="67" spans="1:26" ht="19">
       <c r="A67" s="54"/>
       <c r="B67" s="21"/>
       <c r="C67" s="54"/>
@@ -5774,7 +5773,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:26" hidden="1">
+    <row r="68" spans="1:26">
       <c r="A68" s="53" t="s">
         <v>235</v>
       </c>
@@ -5810,7 +5809,7 @@
       <c r="U68" s="17"/>
       <c r="V68" s="17"/>
     </row>
-    <row r="69" spans="1:26" ht="19" hidden="1">
+    <row r="69" spans="1:26" ht="19">
       <c r="A69" s="54"/>
       <c r="B69" s="21"/>
       <c r="C69" s="54"/>
@@ -5826,7 +5825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="19" hidden="1">
+    <row r="70" spans="1:26" ht="19">
       <c r="A70" s="54"/>
       <c r="B70" s="21"/>
       <c r="C70" s="54"/>
@@ -5853,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26" hidden="1">
+    <row r="71" spans="1:26">
       <c r="A71" s="53" t="s">
         <v>243</v>
       </c>
@@ -5895,7 +5894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="23" hidden="1">
+    <row r="72" spans="1:26" ht="23">
       <c r="A72" s="54"/>
       <c r="B72" s="21"/>
       <c r="C72" s="54"/>
@@ -5940,7 +5939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="19" hidden="1">
+    <row r="73" spans="1:26" ht="19">
       <c r="A73" s="54"/>
       <c r="B73" s="21"/>
       <c r="C73" s="54"/>
@@ -5991,7 +5990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="23" hidden="1">
+    <row r="74" spans="1:26" ht="23">
       <c r="A74" s="53" t="s">
         <v>257</v>
       </c>
@@ -6027,7 +6026,7 @@
       </c>
       <c r="V74" s="17"/>
     </row>
-    <row r="75" spans="1:26" ht="25" hidden="1">
+    <row r="75" spans="1:26" ht="25">
       <c r="A75" s="54"/>
       <c r="B75" s="54"/>
       <c r="C75" s="54"/>
@@ -6073,7 +6072,7 @@
       </c>
       <c r="V75" s="17"/>
     </row>
-    <row r="76" spans="1:26" ht="25" hidden="1">
+    <row r="76" spans="1:26" ht="25">
       <c r="A76" s="54"/>
       <c r="B76" s="54"/>
       <c r="C76" s="54"/>
@@ -6123,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="23" hidden="1">
+    <row r="77" spans="1:26" ht="23">
       <c r="A77" s="53" t="s">
         <v>271</v>
       </c>
@@ -6159,7 +6158,7 @@
       </c>
       <c r="V77" s="17"/>
     </row>
-    <row r="78" spans="1:26" ht="25" hidden="1">
+    <row r="78" spans="1:26" ht="25">
       <c r="A78" s="54"/>
       <c r="B78" s="21"/>
       <c r="C78" s="54"/>
@@ -6205,7 +6204,7 @@
       </c>
       <c r="V78" s="17"/>
     </row>
-    <row r="79" spans="1:26" ht="19" hidden="1">
+    <row r="79" spans="1:26" ht="19">
       <c r="A79" s="53" t="s">
         <v>273</v>
       </c>
@@ -6241,7 +6240,7 @@
       <c r="U79" s="17"/>
       <c r="V79" s="17"/>
     </row>
-    <row r="80" spans="1:26" ht="23" hidden="1">
+    <row r="80" spans="1:26" ht="23">
       <c r="A80" s="53" t="s">
         <v>276</v>
       </c>
@@ -6277,7 +6276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="23" hidden="1">
+    <row r="81" spans="1:24" ht="23">
       <c r="A81" s="54"/>
       <c r="B81" s="21"/>
       <c r="C81" s="54"/>
@@ -6316,7 +6315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="30" hidden="1">
+    <row r="82" spans="1:24" ht="30">
       <c r="A82" s="54"/>
       <c r="B82" s="21"/>
       <c r="C82" s="54"/>
@@ -6361,7 +6360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="23" hidden="1">
+    <row r="83" spans="1:24" ht="23">
       <c r="A83" s="53" t="s">
         <v>286</v>
       </c>
@@ -6397,7 +6396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="23" hidden="1">
+    <row r="84" spans="1:24" ht="23">
       <c r="A84" s="54"/>
       <c r="B84" s="21"/>
       <c r="C84" s="54"/>
@@ -6442,7 +6441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="23" hidden="1">
+    <row r="85" spans="1:24" ht="23">
       <c r="A85" s="54"/>
       <c r="B85" s="21"/>
       <c r="C85" s="54"/>
@@ -6487,7 +6486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="23" hidden="1">
+    <row r="86" spans="1:24" ht="23">
       <c r="A86" s="53" t="s">
         <v>295</v>
       </c>
@@ -6523,7 +6522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="30" hidden="1">
+    <row r="87" spans="1:24" ht="30">
       <c r="A87" s="54"/>
       <c r="B87" s="21"/>
       <c r="C87" s="54"/>
@@ -6568,7 +6567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="30" hidden="1">
+    <row r="88" spans="1:24" ht="30">
       <c r="A88" s="53" t="s">
         <v>297</v>
       </c>
@@ -6604,7 +6603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="23" hidden="1">
+    <row r="89" spans="1:24" ht="23">
       <c r="A89" s="54"/>
       <c r="B89" s="21"/>
       <c r="C89" s="54"/>
@@ -6649,7 +6648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="23" hidden="1">
+    <row r="90" spans="1:24" ht="23">
       <c r="A90" s="54"/>
       <c r="B90" s="21"/>
       <c r="C90" s="54"/>
@@ -6694,7 +6693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="23" hidden="1">
+    <row r="91" spans="1:24" ht="23">
       <c r="A91" s="53" t="s">
         <v>300</v>
       </c>
@@ -6736,7 +6735,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="23" hidden="1">
+    <row r="92" spans="1:24" ht="23">
       <c r="A92" s="54"/>
       <c r="B92" s="21"/>
       <c r="C92" s="54"/>
@@ -6781,7 +6780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="23" hidden="1">
+    <row r="93" spans="1:24" ht="23">
       <c r="A93" s="54"/>
       <c r="B93" s="21"/>
       <c r="C93" s="54"/>
@@ -6829,7 +6828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="19" hidden="1">
+    <row r="94" spans="1:24" ht="19">
       <c r="A94" s="53" t="s">
         <v>303</v>
       </c>
@@ -6863,7 +6862,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="19" hidden="1">
+    <row r="95" spans="1:24" ht="19">
       <c r="A95" s="53" t="s">
         <v>307</v>
       </c>
@@ -6899,7 +6898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="23" hidden="1">
+    <row r="96" spans="1:24" ht="23">
       <c r="A96" s="54"/>
       <c r="B96" s="21"/>
       <c r="C96" s="54"/>
@@ -6944,7 +6943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:25" hidden="1">
+    <row r="97" spans="1:25">
       <c r="A97" s="53" t="s">
         <v>312</v>
       </c>
@@ -6980,7 +6979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:25" hidden="1">
+    <row r="98" spans="1:25">
       <c r="A98" s="54"/>
       <c r="B98" s="21"/>
       <c r="C98" s="54"/>
@@ -7025,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="19" hidden="1">
+    <row r="99" spans="1:25" ht="19">
       <c r="A99" s="53" t="s">
         <v>318</v>
       </c>
@@ -7061,7 +7060,7 @@
       </c>
       <c r="V99" s="17"/>
     </row>
-    <row r="100" spans="1:25" ht="19" hidden="1">
+    <row r="100" spans="1:25" ht="19">
       <c r="A100" s="54"/>
       <c r="B100" s="21"/>
       <c r="C100" s="54"/>
@@ -7078,7 +7077,7 @@
       <c r="J100" s="20"/>
       <c r="L100" s="20"/>
     </row>
-    <row r="101" spans="1:25" ht="19" hidden="1">
+    <row r="101" spans="1:25" ht="19">
       <c r="A101" s="54"/>
       <c r="B101" s="21"/>
       <c r="C101" s="54"/>
@@ -7127,7 +7126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="30" hidden="1">
+    <row r="102" spans="1:25" ht="30">
       <c r="A102" s="53" t="s">
         <v>326</v>
       </c>
@@ -7163,7 +7162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="30" hidden="1">
+    <row r="103" spans="1:25" ht="30">
       <c r="A103" s="54"/>
       <c r="B103" s="21"/>
       <c r="C103" s="54"/>
@@ -7208,7 +7207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="30" hidden="1">
+    <row r="104" spans="1:25" ht="30">
       <c r="A104" s="54"/>
       <c r="B104" s="21"/>
       <c r="C104" s="54"/>
@@ -7256,7 +7255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="18" hidden="1">
+    <row r="105" spans="1:25" ht="18">
       <c r="A105" s="53" t="s">
         <v>337</v>
       </c>
@@ -7295,7 +7294,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="30" hidden="1">
+    <row r="106" spans="1:25" ht="30">
       <c r="A106" s="53" t="s">
         <v>341</v>
       </c>
@@ -7334,7 +7333,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="19" hidden="1">
+    <row r="107" spans="1:25" ht="19">
       <c r="A107" s="53" t="s">
         <v>344</v>
       </c>
@@ -7370,7 +7369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="20" hidden="1">
+    <row r="108" spans="1:25" ht="20">
       <c r="A108" s="54"/>
       <c r="B108" s="21"/>
       <c r="C108" s="54"/>
@@ -7419,7 +7418,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="19" hidden="1">
+    <row r="109" spans="1:25" ht="19">
       <c r="A109" s="53" t="s">
         <v>352</v>
       </c>
@@ -7455,7 +7454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="20" hidden="1">
+    <row r="110" spans="1:25" ht="20">
       <c r="A110" s="54"/>
       <c r="B110" s="21"/>
       <c r="C110" s="54"/>
@@ -7497,7 +7496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="33" hidden="1">
+    <row r="111" spans="1:25" ht="33">
       <c r="A111" s="53" t="s">
         <v>354</v>
       </c>
@@ -7533,7 +7532,7 @@
       </c>
       <c r="V111" s="17"/>
     </row>
-    <row r="112" spans="1:25" ht="33" hidden="1">
+    <row r="112" spans="1:25" ht="33">
       <c r="A112" s="54"/>
       <c r="B112" s="21"/>
       <c r="C112" s="54"/>
@@ -7581,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:26" ht="33" hidden="1">
+    <row r="113" spans="1:26" ht="33">
       <c r="A113" s="54"/>
       <c r="B113" s="21"/>
       <c r="C113" s="54"/>
@@ -7614,7 +7613,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="114" spans="1:26" ht="33" hidden="1">
+    <row r="114" spans="1:26" ht="33">
       <c r="A114" s="53" t="s">
         <v>363</v>
       </c>
@@ -7650,7 +7649,7 @@
       </c>
       <c r="V114" s="17"/>
     </row>
-    <row r="115" spans="1:26" ht="33" hidden="1">
+    <row r="115" spans="1:26" ht="33">
       <c r="A115" s="54"/>
       <c r="B115" s="21"/>
       <c r="C115" s="54"/>
@@ -7698,7 +7697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:26" ht="33" hidden="1">
+    <row r="116" spans="1:26" ht="33">
       <c r="A116" s="54"/>
       <c r="B116" s="21"/>
       <c r="C116" s="54"/>
@@ -7731,7 +7730,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="1:26" hidden="1">
+    <row r="117" spans="1:26">
       <c r="A117" s="53" t="s">
         <v>365</v>
       </c>
@@ -7765,7 +7764,7 @@
       <c r="U117" s="17"/>
       <c r="V117" s="17"/>
     </row>
-    <row r="118" spans="1:26" ht="30" hidden="1">
+    <row r="118" spans="1:26" ht="30">
       <c r="A118" s="53" t="s">
         <v>369</v>
       </c>
@@ -7801,7 +7800,7 @@
       <c r="U118" s="17"/>
       <c r="V118" s="17"/>
     </row>
-    <row r="119" spans="1:26" ht="23" hidden="1">
+    <row r="119" spans="1:26" ht="23">
       <c r="A119" s="54"/>
       <c r="B119" s="21"/>
       <c r="C119" s="54"/>
@@ -7819,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:26" ht="23" hidden="1">
+    <row r="120" spans="1:26" ht="23">
       <c r="A120" s="54"/>
       <c r="B120" s="21"/>
       <c r="C120" s="54"/>
@@ -7833,7 +7832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:26" ht="30" hidden="1">
+    <row r="121" spans="1:26" ht="30">
       <c r="A121" s="53" t="s">
         <v>375</v>
       </c>
@@ -7872,7 +7871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:26" hidden="1">
+    <row r="122" spans="1:26">
       <c r="A122" s="54"/>
       <c r="B122" s="21"/>
       <c r="C122" s="54"/>
@@ -7885,7 +7884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:26" ht="40" hidden="1">
+    <row r="123" spans="1:26" ht="40">
       <c r="A123" s="53" t="s">
         <v>380</v>
       </c>
@@ -7923,7 +7922,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="124" spans="1:26" ht="30" hidden="1">
+    <row r="124" spans="1:26" ht="30">
       <c r="A124" s="53" t="s">
         <v>385</v>
       </c>
@@ -7961,7 +7960,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="125" spans="1:26" hidden="1">
+    <row r="125" spans="1:26">
       <c r="A125" s="53" t="s">
         <v>389</v>
       </c>
@@ -7993,7 +7992,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="126" spans="1:26" ht="19" hidden="1">
+    <row r="126" spans="1:26" ht="19">
       <c r="A126" s="53" t="s">
         <v>393</v>
       </c>
@@ -8029,7 +8028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:26" hidden="1">
+    <row r="127" spans="1:26">
       <c r="A127" s="54"/>
       <c r="B127" s="21"/>
       <c r="C127" s="54"/>
@@ -8041,7 +8040,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="128" spans="1:26" hidden="1">
+    <row r="128" spans="1:26">
       <c r="A128" s="54"/>
       <c r="B128" s="21"/>
       <c r="C128" s="54"/>
@@ -8053,7 +8052,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="129" spans="1:27" ht="25" hidden="1">
+    <row r="129" spans="1:27" ht="25">
       <c r="A129" s="54"/>
       <c r="B129" s="21"/>
       <c r="C129" s="54"/>
@@ -8101,7 +8100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:27" ht="30" hidden="1">
+    <row r="130" spans="1:27" ht="30">
       <c r="A130" s="53" t="s">
         <v>404</v>
       </c>
@@ -8137,7 +8136,7 @@
       <c r="U130" s="17"/>
       <c r="V130" s="17"/>
     </row>
-    <row r="131" spans="1:27" ht="18" hidden="1">
+    <row r="131" spans="1:27" ht="18">
       <c r="A131" s="53" t="s">
         <v>408</v>
       </c>
@@ -8172,7 +8171,7 @@
       </c>
       <c r="V131" s="17"/>
     </row>
-    <row r="132" spans="1:27" ht="19" hidden="1">
+    <row r="132" spans="1:27" ht="19">
       <c r="A132" s="54"/>
       <c r="B132" s="21"/>
       <c r="C132" s="54"/>
@@ -8217,7 +8216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:27" ht="18" hidden="1">
+    <row r="133" spans="1:27" ht="18">
       <c r="A133" s="53" t="s">
         <v>415</v>
       </c>
@@ -8256,7 +8255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:27" ht="23" hidden="1">
+    <row r="134" spans="1:27" ht="23">
       <c r="A134" s="54"/>
       <c r="B134" s="21"/>
       <c r="C134" s="54"/>
@@ -8298,7 +8297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:27" ht="19" hidden="1">
+    <row r="135" spans="1:27" ht="19">
       <c r="A135" s="54"/>
       <c r="B135" s="21"/>
       <c r="C135" s="54"/>
@@ -8352,7 +8351,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="18" hidden="1">
+    <row r="136" spans="1:27" ht="18">
       <c r="A136" s="53" t="s">
         <v>419</v>
       </c>
@@ -8388,7 +8387,7 @@
       </c>
       <c r="V136" s="17"/>
     </row>
-    <row r="137" spans="1:27" s="54" customFormat="1" ht="23" hidden="1">
+    <row r="137" spans="1:27" s="54" customFormat="1" ht="23">
       <c r="E137" s="54" t="s">
         <v>423</v>
       </c>
@@ -8426,7 +8425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:27" s="54" customFormat="1" ht="18" hidden="1">
+    <row r="138" spans="1:27" s="54" customFormat="1" ht="18">
       <c r="G138" s="54" t="s">
         <v>429</v>
       </c>
@@ -8458,7 +8457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:27" ht="19" hidden="1">
+    <row r="139" spans="1:27" ht="19">
       <c r="A139" s="53" t="s">
         <v>431</v>
       </c>
@@ -8494,7 +8493,7 @@
       <c r="U139" s="17"/>
       <c r="V139" s="17"/>
     </row>
-    <row r="140" spans="1:27" ht="23" hidden="1">
+    <row r="140" spans="1:27" ht="23">
       <c r="A140" s="53" t="s">
         <v>436</v>
       </c>
@@ -8539,7 +8538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:27" hidden="1">
+    <row r="141" spans="1:27">
       <c r="A141" s="54"/>
       <c r="B141" s="21"/>
       <c r="C141" s="54"/>
@@ -8548,7 +8547,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="142" spans="1:27" hidden="1">
+    <row r="142" spans="1:27">
       <c r="A142" s="53" t="s">
         <v>441</v>
       </c>
@@ -8578,7 +8577,7 @@
       <c r="U142" s="17"/>
       <c r="V142" s="17"/>
     </row>
-    <row r="143" spans="1:27" hidden="1">
+    <row r="143" spans="1:27">
       <c r="A143" s="53" t="s">
         <v>444</v>
       </c>
@@ -8613,12 +8612,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:27" s="54" customFormat="1" hidden="1">
+    <row r="144" spans="1:27" s="54" customFormat="1">
       <c r="G144" s="54" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="145" spans="1:27" ht="23" hidden="1">
+    <row r="145" spans="1:27" ht="23">
       <c r="A145" s="53" t="s">
         <v>447</v>
       </c>
@@ -8654,7 +8653,7 @@
       <c r="U145" s="17"/>
       <c r="V145" s="17"/>
     </row>
-    <row r="146" spans="1:27" hidden="1">
+    <row r="146" spans="1:27">
       <c r="A146" s="53" t="s">
         <v>451</v>
       </c>
@@ -8687,7 +8686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:27" hidden="1">
+    <row r="147" spans="1:27">
       <c r="A147" s="54"/>
       <c r="B147" s="21"/>
       <c r="C147" s="54"/>
@@ -8696,7 +8695,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="148" spans="1:27" ht="18" hidden="1">
+    <row r="148" spans="1:27" ht="18">
       <c r="A148" s="53" t="s">
         <v>453</v>
       </c>
@@ -8732,7 +8731,7 @@
       </c>
       <c r="V148" s="17"/>
     </row>
-    <row r="149" spans="1:27" ht="18" hidden="1">
+    <row r="149" spans="1:27" ht="18">
       <c r="A149" s="54"/>
       <c r="B149" s="21"/>
       <c r="C149" s="54"/>
@@ -8774,7 +8773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:27" ht="18" hidden="1">
+    <row r="150" spans="1:27" ht="18">
       <c r="A150" s="53" t="s">
         <v>459</v>
       </c>
@@ -8848,7 +8847,7 @@
       <c r="U151" s="17"/>
       <c r="V151" s="17"/>
     </row>
-    <row r="152" spans="1:27" ht="20" hidden="1">
+    <row r="152" spans="1:27" ht="20">
       <c r="A152" s="53" t="s">
         <v>468</v>
       </c>
@@ -8881,7 +8880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:27" ht="19" hidden="1">
+    <row r="153" spans="1:27" ht="19">
       <c r="A153" s="53" t="s">
         <v>471</v>
       </c>
@@ -8923,7 +8922,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="154" spans="1:27" ht="19" hidden="1">
+    <row r="154" spans="1:27" ht="19">
       <c r="A154" s="54"/>
       <c r="B154" s="21"/>
       <c r="C154" s="54"/>
@@ -8962,7 +8961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:27" ht="19" hidden="1">
+    <row r="155" spans="1:27" ht="19">
       <c r="A155" s="54"/>
       <c r="B155" s="21"/>
       <c r="C155" s="54"/>
@@ -8978,7 +8977,7 @@
       </c>
       <c r="L155" s="20"/>
     </row>
-    <row r="156" spans="1:27" ht="19" hidden="1">
+    <row r="156" spans="1:27" ht="19">
       <c r="A156" s="54"/>
       <c r="B156" s="21"/>
       <c r="C156" s="54"/>
@@ -8994,7 +8993,7 @@
       </c>
       <c r="L156" s="20"/>
     </row>
-    <row r="157" spans="1:27" ht="19" hidden="1">
+    <row r="157" spans="1:27" ht="19">
       <c r="A157" s="54"/>
       <c r="B157" s="21"/>
       <c r="C157" s="54"/>
@@ -9007,7 +9006,7 @@
       </c>
       <c r="L157" s="20"/>
     </row>
-    <row r="158" spans="1:27" ht="30" hidden="1">
+    <row r="158" spans="1:27" ht="30">
       <c r="F158" s="55" t="s">
         <v>487</v>
       </c>
@@ -9048,7 +9047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:27" ht="30" hidden="1">
+    <row r="159" spans="1:27" ht="30">
       <c r="G159" s="34" t="s">
         <v>490</v>
       </c>
@@ -9061,7 +9060,7 @@
       <c r="J159" s="48"/>
       <c r="L159" s="20"/>
     </row>
-    <row r="160" spans="1:27" ht="19" hidden="1">
+    <row r="160" spans="1:27" ht="19">
       <c r="A160" s="53" t="s">
         <v>491</v>
       </c>
@@ -9100,7 +9099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:26" ht="19" hidden="1">
+    <row r="161" spans="1:26" ht="19">
       <c r="A161" s="54"/>
       <c r="B161" s="21"/>
       <c r="C161" s="54"/>
@@ -9139,7 +9138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:26" ht="19" hidden="1">
+    <row r="162" spans="1:26" ht="19">
       <c r="A162" s="54"/>
       <c r="B162" s="21"/>
       <c r="C162" s="54"/>
@@ -9155,7 +9154,7 @@
       </c>
       <c r="L162" s="20"/>
     </row>
-    <row r="163" spans="1:26" ht="19" hidden="1">
+    <row r="163" spans="1:26" ht="19">
       <c r="A163" s="54"/>
       <c r="B163" s="21"/>
       <c r="C163" s="54"/>
@@ -9171,7 +9170,7 @@
       </c>
       <c r="L163" s="20"/>
     </row>
-    <row r="164" spans="1:26" ht="19" hidden="1">
+    <row r="164" spans="1:26" ht="19">
       <c r="A164" s="54"/>
       <c r="B164" s="21"/>
       <c r="C164" s="54"/>
@@ -9184,7 +9183,7 @@
       </c>
       <c r="L164" s="20"/>
     </row>
-    <row r="165" spans="1:26" ht="30" hidden="1">
+    <row r="165" spans="1:26" ht="30">
       <c r="F165" s="55" t="s">
         <v>487</v>
       </c>
@@ -9225,7 +9224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:26" ht="30" hidden="1">
+    <row r="166" spans="1:26" ht="30">
       <c r="G166" s="34" t="s">
         <v>490</v>
       </c>
@@ -9238,7 +9237,7 @@
       <c r="J166" s="48"/>
       <c r="L166" s="20"/>
     </row>
-    <row r="167" spans="1:26" ht="19" hidden="1">
+    <row r="167" spans="1:26" ht="19">
       <c r="A167" s="53" t="s">
         <v>493</v>
       </c>
@@ -9277,7 +9276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:26" ht="19" hidden="1">
+    <row r="168" spans="1:26" ht="19">
       <c r="A168" s="54"/>
       <c r="B168" s="21"/>
       <c r="C168" s="54"/>
@@ -9319,7 +9318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:26" ht="23" hidden="1">
+    <row r="169" spans="1:26" ht="23">
       <c r="A169" s="53" t="s">
         <v>498</v>
       </c>
@@ -9358,7 +9357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:26" ht="19" hidden="1">
+    <row r="170" spans="1:26" ht="19">
       <c r="A170" s="54"/>
       <c r="B170" s="21"/>
       <c r="C170" s="54"/>
@@ -9397,7 +9396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:26" ht="19" hidden="1">
+    <row r="171" spans="1:26" ht="19">
       <c r="A171" s="54"/>
       <c r="B171" s="21"/>
       <c r="C171" s="54"/>
@@ -9413,7 +9412,7 @@
       </c>
       <c r="L171" s="20"/>
     </row>
-    <row r="172" spans="1:26" ht="19" hidden="1">
+    <row r="172" spans="1:26" ht="19">
       <c r="A172" s="54"/>
       <c r="B172" s="21"/>
       <c r="C172" s="54"/>
@@ -9429,7 +9428,7 @@
       </c>
       <c r="L172" s="20"/>
     </row>
-    <row r="173" spans="1:26" ht="19" hidden="1">
+    <row r="173" spans="1:26" ht="19">
       <c r="A173" s="54"/>
       <c r="B173" s="21"/>
       <c r="C173" s="54"/>
@@ -9442,7 +9441,7 @@
       </c>
       <c r="L173" s="20"/>
     </row>
-    <row r="174" spans="1:26" ht="30" hidden="1">
+    <row r="174" spans="1:26" ht="30">
       <c r="F174" s="55" t="s">
         <v>487</v>
       </c>
@@ -9483,7 +9482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:26" ht="30" hidden="1">
+    <row r="175" spans="1:26" ht="30">
       <c r="G175" s="34" t="s">
         <v>490</v>
       </c>
@@ -9496,7 +9495,7 @@
       <c r="J175" s="48"/>
       <c r="L175" s="20"/>
     </row>
-    <row r="176" spans="1:26" ht="23" hidden="1">
+    <row r="176" spans="1:26" ht="23">
       <c r="A176" s="53" t="s">
         <v>501</v>
       </c>
@@ -9535,7 +9534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:26" ht="19" hidden="1">
+    <row r="177" spans="1:26" ht="19">
       <c r="A177" s="54"/>
       <c r="B177" s="21"/>
       <c r="C177" s="54"/>
@@ -9574,7 +9573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:26" ht="19" hidden="1">
+    <row r="178" spans="1:26" ht="19">
       <c r="A178" s="54"/>
       <c r="B178" s="21"/>
       <c r="C178" s="54"/>
@@ -9590,7 +9589,7 @@
       </c>
       <c r="L178" s="20"/>
     </row>
-    <row r="179" spans="1:26" ht="19" hidden="1">
+    <row r="179" spans="1:26" ht="19">
       <c r="A179" s="54"/>
       <c r="B179" s="21"/>
       <c r="C179" s="54"/>
@@ -9606,7 +9605,7 @@
       </c>
       <c r="L179" s="20"/>
     </row>
-    <row r="180" spans="1:26" ht="19" hidden="1">
+    <row r="180" spans="1:26" ht="19">
       <c r="A180" s="54"/>
       <c r="B180" s="21"/>
       <c r="C180" s="54"/>
@@ -9619,7 +9618,7 @@
       </c>
       <c r="L180" s="20"/>
     </row>
-    <row r="181" spans="1:26" ht="30" hidden="1">
+    <row r="181" spans="1:26" ht="30">
       <c r="F181" s="55" t="s">
         <v>487</v>
       </c>
@@ -9660,7 +9659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:26" ht="30" hidden="1">
+    <row r="182" spans="1:26" ht="30">
       <c r="G182" s="34" t="s">
         <v>490</v>
       </c>
@@ -9673,7 +9672,7 @@
       <c r="J182" s="48"/>
       <c r="L182" s="20"/>
     </row>
-    <row r="183" spans="1:26" ht="19" hidden="1">
+    <row r="183" spans="1:26" ht="19">
       <c r="A183" s="53" t="s">
         <v>503</v>
       </c>
@@ -9703,7 +9702,7 @@
       <c r="U183" s="17"/>
       <c r="V183" s="17"/>
     </row>
-    <row r="184" spans="1:26" ht="18" hidden="1">
+    <row r="184" spans="1:26" ht="18">
       <c r="A184" s="53" t="s">
         <v>506</v>
       </c>
@@ -9894,7 +9893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:26" hidden="1">
+    <row r="189" spans="1:26">
       <c r="A189" s="53" t="s">
         <v>520</v>
       </c>
@@ -9924,7 +9923,7 @@
       <c r="U189" s="17"/>
       <c r="V189" s="17"/>
     </row>
-    <row r="190" spans="1:26" ht="23" hidden="1">
+    <row r="190" spans="1:26" ht="23">
       <c r="A190" s="53" t="s">
         <v>523</v>
       </c>
@@ -9960,7 +9959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:26" ht="20" hidden="1">
+    <row r="191" spans="1:26" ht="20">
       <c r="F191" t="s">
         <v>526</v>
       </c>
@@ -10001,7 +10000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:26" ht="19" hidden="1">
+    <row r="192" spans="1:26" ht="19">
       <c r="F192" s="22" t="s">
         <v>529</v>
       </c>
@@ -10015,7 +10014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:27" ht="19" hidden="1">
+    <row r="193" spans="1:27" ht="19">
       <c r="G193" s="72" t="s">
         <v>532</v>
       </c>
@@ -10107,7 +10106,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="195" spans="1:27" ht="19" hidden="1">
+    <row r="195" spans="1:27" ht="19">
       <c r="A195" s="73" t="s">
         <v>535</v>
       </c>
@@ -10143,7 +10142,7 @@
       </c>
       <c r="V195" s="75"/>
     </row>
-    <row r="196" spans="1:27" ht="21" hidden="1">
+    <row r="196" spans="1:27" ht="21">
       <c r="A196" s="54"/>
       <c r="B196" s="21"/>
       <c r="F196" s="77" t="s">
@@ -10192,7 +10191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:27" ht="23" hidden="1">
+    <row r="197" spans="1:27" ht="23">
       <c r="A197" s="73" t="s">
         <v>544</v>
       </c>
@@ -10228,7 +10227,7 @@
       </c>
       <c r="V197" s="75"/>
     </row>
-    <row r="198" spans="1:27" ht="23" hidden="1">
+    <row r="198" spans="1:27" ht="23">
       <c r="A198" s="41"/>
       <c r="C198" s="41"/>
       <c r="F198" s="20" t="s">
@@ -10277,7 +10276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:27" ht="23" hidden="1">
+    <row r="199" spans="1:27" ht="23">
       <c r="A199" s="41"/>
       <c r="C199" s="41"/>
       <c r="F199" s="20" t="s">
@@ -10291,7 +10290,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="200" spans="1:27" ht="33" hidden="1">
+    <row r="200" spans="1:27" ht="33">
       <c r="A200" s="73" t="s">
         <v>553</v>
       </c>
@@ -10327,7 +10326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:27" ht="33" hidden="1">
+    <row r="201" spans="1:27" ht="33">
       <c r="B201" s="21"/>
       <c r="F201" s="20" t="s">
         <v>198</v>
@@ -10369,7 +10368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:27" ht="33" hidden="1">
+    <row r="202" spans="1:27" ht="33">
       <c r="A202" s="73" t="s">
         <v>555</v>
       </c>
@@ -10405,7 +10404,7 @@
       <c r="U202" s="75"/>
       <c r="V202" s="75"/>
     </row>
-    <row r="203" spans="1:27" ht="40" hidden="1">
+    <row r="203" spans="1:27" ht="40">
       <c r="A203" s="73" t="s">
         <v>559</v>
       </c>
@@ -10443,7 +10442,7 @@
       </c>
       <c r="V203" s="75"/>
     </row>
-    <row r="204" spans="1:27" ht="23" hidden="1">
+    <row r="204" spans="1:27" ht="23">
       <c r="A204" s="54"/>
       <c r="B204" s="21"/>
       <c r="F204" t="s">
@@ -10492,7 +10491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:27" hidden="1">
+    <row r="205" spans="1:27">
       <c r="A205" s="54"/>
       <c r="B205" s="21"/>
       <c r="F205" t="s">
@@ -10502,7 +10501,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="206" spans="1:27" ht="19" hidden="1">
+    <row r="206" spans="1:27" ht="19">
       <c r="A206" s="73" t="s">
         <v>568</v>
       </c>
@@ -10538,7 +10537,7 @@
       <c r="U206" s="75"/>
       <c r="V206" s="75"/>
     </row>
-    <row r="207" spans="1:27" ht="19" hidden="1">
+    <row r="207" spans="1:27" ht="19">
       <c r="A207" s="54"/>
       <c r="B207" s="81"/>
       <c r="F207" t="s">
@@ -10551,7 +10550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:27" ht="23" hidden="1">
+    <row r="208" spans="1:27" ht="23">
       <c r="A208" s="73" t="s">
         <v>573</v>
       </c>
@@ -10589,7 +10588,7 @@
       <c r="U208" s="75"/>
       <c r="V208" s="75"/>
     </row>
-    <row r="209" spans="1:27" ht="23" hidden="1">
+    <row r="209" spans="1:27" ht="23">
       <c r="A209" s="54"/>
       <c r="B209" s="21"/>
       <c r="E209" t="s">
@@ -10620,7 +10619,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="210" spans="1:27" ht="23" hidden="1">
+    <row r="210" spans="1:27" ht="23">
       <c r="A210" s="54"/>
       <c r="B210" s="21"/>
       <c r="E210" t="s">
@@ -10634,7 +10633,7 @@
       </c>
       <c r="L210" s="41"/>
     </row>
-    <row r="211" spans="1:27" ht="23" hidden="1">
+    <row r="211" spans="1:27" ht="23">
       <c r="A211" s="54"/>
       <c r="B211" s="21"/>
       <c r="E211" t="s">
@@ -10651,7 +10650,7 @@
       </c>
       <c r="L211" s="41"/>
     </row>
-    <row r="212" spans="1:27" ht="30" hidden="1">
+    <row r="212" spans="1:27" ht="30">
       <c r="A212" s="73" t="s">
         <v>583</v>
       </c>
@@ -10690,7 +10689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:27" ht="40" hidden="1">
+    <row r="213" spans="1:27" ht="40">
       <c r="A213" s="73" t="s">
         <v>587</v>
       </c>
@@ -10726,7 +10725,7 @@
       </c>
       <c r="V213" s="75"/>
     </row>
-    <row r="214" spans="1:27" ht="40" hidden="1">
+    <row r="214" spans="1:27" ht="40">
       <c r="A214" s="54"/>
       <c r="B214" s="21"/>
       <c r="F214" t="s">
@@ -10769,7 +10768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:27" ht="23" hidden="1">
+    <row r="215" spans="1:27" ht="23">
       <c r="A215" s="73" t="s">
         <v>595</v>
       </c>
@@ -10810,7 +10809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:27" ht="23" hidden="1">
+    <row r="216" spans="1:27" ht="23">
       <c r="A216" s="54"/>
       <c r="B216" s="21"/>
       <c r="G216" t="s">
@@ -10847,7 +10846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:27" ht="19" hidden="1">
+    <row r="217" spans="1:27" ht="19">
       <c r="A217" s="54"/>
       <c r="B217" s="21"/>
       <c r="F217" t="s">
@@ -10862,7 +10861,7 @@
       <c r="O217" s="84"/>
       <c r="U217" s="75"/>
     </row>
-    <row r="218" spans="1:27" ht="25" hidden="1">
+    <row r="218" spans="1:27" ht="25">
       <c r="A218" s="54"/>
       <c r="B218" s="21"/>
       <c r="E218" t="s">
@@ -10911,7 +10910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:27" hidden="1">
+    <row r="219" spans="1:27">
       <c r="A219" s="54"/>
       <c r="B219" s="21"/>
       <c r="E219" t="s">
@@ -10924,7 +10923,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="220" spans="1:27" ht="23" hidden="1">
+    <row r="220" spans="1:27" ht="23">
       <c r="A220" s="73" t="s">
         <v>613</v>
       </c>
@@ -10960,7 +10959,7 @@
       </c>
       <c r="V220" s="75"/>
     </row>
-    <row r="221" spans="1:27" ht="23" hidden="1">
+    <row r="221" spans="1:27" ht="23">
       <c r="A221" s="54"/>
       <c r="B221" s="21"/>
       <c r="G221" t="s">
@@ -10997,7 +10996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:27" ht="19" hidden="1">
+    <row r="222" spans="1:27" ht="19">
       <c r="A222" s="54"/>
       <c r="B222" s="21"/>
       <c r="F222" t="s">
@@ -11012,7 +11011,7 @@
       <c r="O222" s="84"/>
       <c r="U222" s="75"/>
     </row>
-    <row r="223" spans="1:27" ht="25" hidden="1">
+    <row r="223" spans="1:27" ht="25">
       <c r="A223" s="54"/>
       <c r="B223" s="21"/>
       <c r="E223" t="s">
@@ -11061,7 +11060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:27" hidden="1">
+    <row r="224" spans="1:27">
       <c r="A224" s="54"/>
       <c r="B224" s="21"/>
       <c r="D224" t="s">
@@ -11074,7 +11073,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="225" spans="1:27" ht="19" hidden="1">
+    <row r="225" spans="1:27" ht="19">
       <c r="A225" s="73" t="s">
         <v>616</v>
       </c>
@@ -11110,7 +11109,7 @@
       </c>
       <c r="V225" s="75"/>
     </row>
-    <row r="226" spans="1:27" ht="24" hidden="1">
+    <row r="226" spans="1:27" ht="24">
       <c r="A226" s="54"/>
       <c r="B226" s="21"/>
       <c r="E226" t="s">
@@ -11150,7 +11149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:27" ht="24" hidden="1">
+    <row r="227" spans="1:27" ht="24">
       <c r="A227" s="54"/>
       <c r="B227" s="21"/>
       <c r="D227" t="s">
@@ -11163,7 +11162,7 @@
       <c r="O227" s="86"/>
       <c r="S227" s="86"/>
     </row>
-    <row r="228" spans="1:27" ht="23" hidden="1">
+    <row r="228" spans="1:27" ht="23">
       <c r="A228" s="73" t="s">
         <v>625</v>
       </c>
@@ -11201,7 +11200,7 @@
       </c>
       <c r="V228" s="75"/>
     </row>
-    <row r="229" spans="1:27" ht="23" hidden="1">
+    <row r="229" spans="1:27" ht="23">
       <c r="A229" s="54"/>
       <c r="B229" s="21"/>
       <c r="G229" t="s">
@@ -11241,7 +11240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:27" ht="19" hidden="1">
+    <row r="230" spans="1:27" ht="19">
       <c r="A230" s="54"/>
       <c r="B230" s="21"/>
       <c r="F230" t="s">
@@ -11256,7 +11255,7 @@
       <c r="O230" s="84"/>
       <c r="U230" s="75"/>
     </row>
-    <row r="231" spans="1:27" ht="25" hidden="1">
+    <row r="231" spans="1:27" ht="25">
       <c r="A231" s="54"/>
       <c r="B231" s="21"/>
       <c r="E231" t="s">
@@ -11305,7 +11304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:27" hidden="1">
+    <row r="232" spans="1:27">
       <c r="A232" s="54"/>
       <c r="B232" s="21"/>
       <c r="D232" t="s">
@@ -11318,7 +11317,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="233" spans="1:27" ht="23" hidden="1">
+    <row r="233" spans="1:27" ht="23">
       <c r="A233" s="73" t="s">
         <v>628</v>
       </c>
@@ -11354,7 +11353,7 @@
       </c>
       <c r="V233" s="75"/>
     </row>
-    <row r="234" spans="1:27" ht="17" hidden="1">
+    <row r="234" spans="1:27" ht="17">
       <c r="A234" s="54"/>
       <c r="B234" s="88"/>
       <c r="G234" t="s">
@@ -11403,7 +11402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:27" ht="30" hidden="1">
+    <row r="235" spans="1:27" ht="30">
       <c r="A235" s="73" t="s">
         <v>636</v>
       </c>
@@ -11441,7 +11440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:27" ht="20" hidden="1">
+    <row r="236" spans="1:27" ht="20">
       <c r="A236" s="54"/>
       <c r="B236" s="21"/>
       <c r="G236" s="21" t="s">
@@ -11481,7 +11480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:27" ht="23" hidden="1">
+    <row r="237" spans="1:27" ht="23">
       <c r="A237" s="73" t="s">
         <v>642</v>
       </c>
@@ -11520,7 +11519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:27" ht="23" hidden="1">
+    <row r="238" spans="1:27" ht="23">
       <c r="A238" s="73" t="s">
         <v>646</v>
       </c>
@@ -11561,7 +11560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:27" ht="19" hidden="1">
+    <row r="239" spans="1:27" ht="19">
       <c r="A239" s="73" t="s">
         <v>650</v>
       </c>
@@ -11632,7 +11631,7 @@
       <c r="U240" s="75"/>
       <c r="V240" s="75"/>
     </row>
-    <row r="241" spans="1:24" ht="19" hidden="1">
+    <row r="241" spans="1:24" ht="19">
       <c r="A241" s="73" t="s">
         <v>657</v>
       </c>
@@ -11668,7 +11667,7 @@
       <c r="U241" s="75"/>
       <c r="V241" s="75"/>
     </row>
-    <row r="242" spans="1:24" ht="19" hidden="1">
+    <row r="242" spans="1:24" ht="19">
       <c r="A242" s="54"/>
       <c r="B242" s="21"/>
       <c r="F242" t="s">
@@ -11806,7 +11805,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="246" spans="1:24" ht="18" hidden="1">
+    <row r="246" spans="1:24" ht="18">
       <c r="A246" s="73" t="s">
         <v>675</v>
       </c>
@@ -11842,7 +11841,7 @@
       <c r="U246" s="75"/>
       <c r="V246" s="75"/>
     </row>
-    <row r="247" spans="1:24" ht="30" hidden="1">
+    <row r="247" spans="1:24" ht="30">
       <c r="A247" s="73" t="s">
         <v>679</v>
       </c>
@@ -11880,7 +11879,7 @@
       <c r="U247" s="75"/>
       <c r="V247" s="75"/>
     </row>
-    <row r="248" spans="1:24" ht="18" hidden="1">
+    <row r="248" spans="1:24" ht="18">
       <c r="A248" s="73" t="s">
         <v>683</v>
       </c>
@@ -11916,7 +11915,7 @@
       </c>
       <c r="V248" s="75"/>
     </row>
-    <row r="249" spans="1:24" ht="20" hidden="1">
+    <row r="249" spans="1:24" ht="20">
       <c r="A249" s="54"/>
       <c r="B249" s="21"/>
       <c r="E249" t="s">
@@ -11965,7 +11964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="30" hidden="1">
+    <row r="250" spans="1:24" ht="30">
       <c r="A250" s="92" t="s">
         <v>693</v>
       </c>
@@ -12002,7 +12001,7 @@
       <c r="U250" s="75"/>
       <c r="V250" s="75"/>
     </row>
-    <row r="251" spans="1:24" ht="19" hidden="1">
+    <row r="251" spans="1:24" ht="19">
       <c r="A251" s="73" t="s">
         <v>698</v>
       </c>
@@ -12040,7 +12039,7 @@
       </c>
       <c r="V251" s="75"/>
     </row>
-    <row r="252" spans="1:24" ht="19" hidden="1">
+    <row r="252" spans="1:24" ht="19">
       <c r="A252" s="54"/>
       <c r="B252" s="21"/>
       <c r="F252" s="20" t="s">
@@ -12077,7 +12076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:24" ht="19" hidden="1">
+    <row r="253" spans="1:24" ht="19">
       <c r="A253" s="54"/>
       <c r="B253" s="21"/>
       <c r="F253" s="22" t="s">
@@ -12117,7 +12116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="19" hidden="1">
+    <row r="254" spans="1:24" ht="19">
       <c r="A254" s="54"/>
       <c r="B254" s="21"/>
       <c r="F254" s="32" t="s">
@@ -12157,7 +12156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:24" hidden="1">
+    <row r="255" spans="1:24">
       <c r="A255" s="73" t="s">
         <v>706</v>
       </c>
@@ -12195,7 +12194,7 @@
       </c>
       <c r="V255" s="75"/>
     </row>
-    <row r="256" spans="1:24" ht="23" hidden="1">
+    <row r="256" spans="1:24" ht="23">
       <c r="A256" s="54"/>
       <c r="B256" s="21"/>
       <c r="F256" t="s">
@@ -12241,7 +12240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:26" ht="19" hidden="1">
+    <row r="257" spans="1:26" ht="19">
       <c r="A257" s="73" t="s">
         <v>714</v>
       </c>
@@ -12277,7 +12276,7 @@
       </c>
       <c r="V257" s="75"/>
     </row>
-    <row r="258" spans="1:26" ht="20" hidden="1">
+    <row r="258" spans="1:26" ht="20">
       <c r="A258" s="54"/>
       <c r="B258" s="21"/>
       <c r="F258" t="s">
@@ -12323,7 +12322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:26" ht="19" hidden="1">
+    <row r="259" spans="1:26" ht="19">
       <c r="A259" s="54"/>
       <c r="B259" s="21"/>
       <c r="E259" t="s">
@@ -12343,7 +12342,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="260" spans="1:26" ht="20" hidden="1">
+    <row r="260" spans="1:26" ht="20">
       <c r="A260" s="54"/>
       <c r="B260" s="21"/>
       <c r="E260" t="s">
@@ -12389,7 +12388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:26" ht="23" hidden="1">
+    <row r="261" spans="1:26" ht="23">
       <c r="A261" s="73" t="s">
         <v>726</v>
       </c>
@@ -12428,7 +12427,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="262" spans="1:26" ht="23" hidden="1">
+    <row r="262" spans="1:26" ht="23">
       <c r="A262" s="54"/>
       <c r="B262" s="21"/>
       <c r="E262" t="s">
@@ -12474,7 +12473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:26" ht="23" hidden="1">
+    <row r="263" spans="1:26" ht="23">
       <c r="A263" s="54"/>
       <c r="B263" s="21"/>
       <c r="E263" t="s">
@@ -12523,7 +12522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:26" ht="23" hidden="1">
+    <row r="264" spans="1:26" ht="23">
       <c r="A264" s="54"/>
       <c r="B264" s="21"/>
       <c r="E264" t="s">
@@ -12569,7 +12568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:26" ht="33" hidden="1">
+    <row r="265" spans="1:26" ht="33">
       <c r="A265" s="73" t="s">
         <v>743</v>
       </c>
@@ -12607,7 +12606,7 @@
       <c r="U265" s="75"/>
       <c r="V265" s="75"/>
     </row>
-    <row r="266" spans="1:26" ht="23" hidden="1">
+    <row r="266" spans="1:26" ht="23">
       <c r="A266" s="73"/>
       <c r="B266" s="21"/>
       <c r="F266" t="s">
@@ -12638,7 +12637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:26" ht="19" hidden="1">
+    <row r="267" spans="1:26" ht="19">
       <c r="A267" s="73" t="s">
         <v>751</v>
       </c>
@@ -12676,7 +12675,7 @@
       <c r="U267" s="75"/>
       <c r="V267" s="75"/>
     </row>
-    <row r="268" spans="1:26" hidden="1">
+    <row r="268" spans="1:26">
       <c r="A268" s="73" t="s">
         <v>755</v>
       </c>
@@ -12708,7 +12707,7 @@
       <c r="U268" s="75"/>
       <c r="V268" s="75"/>
     </row>
-    <row r="269" spans="1:26" ht="33" hidden="1">
+    <row r="269" spans="1:26" ht="33">
       <c r="A269" s="75" t="s">
         <v>758</v>
       </c>
@@ -12744,7 +12743,7 @@
       </c>
       <c r="V269" s="75"/>
     </row>
-    <row r="270" spans="1:26" ht="33" hidden="1">
+    <row r="270" spans="1:26" ht="33">
       <c r="B270" s="21"/>
       <c r="G270" t="s">
         <v>761</v>
@@ -12756,7 +12755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:26" ht="33" hidden="1">
+    <row r="271" spans="1:26" ht="33">
       <c r="B271" s="21"/>
       <c r="G271" t="s">
         <v>762</v>
@@ -12790,7 +12789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:26" ht="19" hidden="1">
+    <row r="272" spans="1:26" ht="19">
       <c r="A272" s="75" t="s">
         <v>764</v>
       </c>
@@ -12828,7 +12827,7 @@
       </c>
       <c r="V272" s="75"/>
     </row>
-    <row r="273" spans="1:27" ht="19" hidden="1">
+    <row r="273" spans="1:27" ht="19">
       <c r="B273" s="21"/>
       <c r="F273" t="s">
         <v>768</v>
@@ -12873,7 +12872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:27" ht="19" hidden="1">
+    <row r="274" spans="1:27" ht="19">
       <c r="B274" s="21"/>
       <c r="E274" t="s">
         <v>772</v>
@@ -12883,7 +12882,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="275" spans="1:27" ht="19" hidden="1">
+    <row r="275" spans="1:27" ht="19">
       <c r="B275" s="21"/>
       <c r="E275" t="s">
         <v>774</v>
@@ -12893,7 +12892,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="276" spans="1:27" ht="33" hidden="1">
+    <row r="276" spans="1:27" ht="33">
       <c r="A276" s="75" t="s">
         <v>775</v>
       </c>
@@ -12931,7 +12930,7 @@
       <c r="U276" s="75"/>
       <c r="V276" s="75"/>
     </row>
-    <row r="277" spans="1:27" ht="23" hidden="1">
+    <row r="277" spans="1:27" ht="23">
       <c r="A277" s="100" t="s">
         <v>778</v>
       </c>
@@ -12967,7 +12966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:27" ht="23" hidden="1">
+    <row r="278" spans="1:27" ht="23">
       <c r="B278" s="21"/>
       <c r="G278" t="s">
         <v>440</v>
@@ -12975,7 +12974,7 @@
       <c r="H278" s="23"/>
       <c r="L278" s="41"/>
     </row>
-    <row r="279" spans="1:27" ht="23" hidden="1">
+    <row r="279" spans="1:27" ht="23">
       <c r="A279" s="75" t="s">
         <v>781</v>
       </c>
@@ -13013,7 +13012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:27" ht="23" hidden="1">
+    <row r="280" spans="1:27" ht="23">
       <c r="B280" s="21"/>
       <c r="G280" t="s">
         <v>440</v>
@@ -13021,7 +13020,7 @@
       <c r="H280" s="49"/>
       <c r="L280" s="41"/>
     </row>
-    <row r="281" spans="1:27" ht="18" hidden="1">
+    <row r="281" spans="1:27" ht="18">
       <c r="A281" s="75" t="s">
         <v>784</v>
       </c>
@@ -13059,7 +13058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:27" ht="18" hidden="1">
+    <row r="282" spans="1:27" ht="18">
       <c r="B282" s="21"/>
       <c r="G282" t="s">
         <v>440</v>
@@ -13067,7 +13066,7 @@
       <c r="H282" s="49"/>
       <c r="L282" s="33"/>
     </row>
-    <row r="283" spans="1:27" hidden="1">
+    <row r="283" spans="1:27">
       <c r="A283" s="75" t="s">
         <v>787</v>
       </c>
@@ -13097,7 +13096,7 @@
       <c r="U283" s="75"/>
       <c r="V283" s="75"/>
     </row>
-    <row r="284" spans="1:27" hidden="1">
+    <row r="284" spans="1:27">
       <c r="A284" s="75" t="s">
         <v>790</v>
       </c>
@@ -13127,12 +13126,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:27" hidden="1">
+    <row r="285" spans="1:27">
       <c r="G285" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="286" spans="1:27" hidden="1">
+    <row r="286" spans="1:27">
       <c r="A286" s="75" t="s">
         <v>792</v>
       </c>
@@ -13165,7 +13164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:27" hidden="1">
+    <row r="287" spans="1:27">
       <c r="A287" s="75" t="s">
         <v>795</v>
       </c>
@@ -13198,7 +13197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:27" hidden="1">
+    <row r="288" spans="1:27">
       <c r="A288" s="75" t="s">
         <v>797</v>
       </c>
@@ -13230,13 +13229,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:27" hidden="1">
+    <row r="289" spans="1:27">
       <c r="B289" s="21"/>
       <c r="G289" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="290" spans="1:27" ht="19" hidden="1">
+    <row r="290" spans="1:27" ht="19">
       <c r="A290" s="75" t="s">
         <v>799</v>
       </c>
@@ -13271,7 +13270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:27" hidden="1">
+    <row r="291" spans="1:27">
       <c r="A291" s="75" t="s">
         <v>801</v>
       </c>
@@ -13305,17 +13304,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA291" xr:uid="{ED2F0353-714E-C24F-9141-2C52DBDF8C59}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Indication"/>
-        <filter val="MS"/>
-        <filter val="PMS"/>
-        <filter val="RMS"/>
-        <filter val="RRMS"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AA291" xr:uid="{ED2F0353-714E-C24F-9141-2C52DBDF8C59}"/>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" display="https://doi.org/10.1212/wnl.0000000000004209" xr:uid="{E445371E-3F4A-1F4A-ADE4-3703F334DC94}"/>
     <hyperlink ref="B11" r:id="rId2" display="https://doi.org/10.1212/wnl.0000000000003478" xr:uid="{49733D1E-43BF-5A4F-9188-818740F4136A}"/>

--- a/Allmatching.xlsx
+++ b/Allmatching.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35264C48-4588-034D-A6D5-546E28256CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F0B84D-2DF6-334F-B359-4D28BAC1E046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25940" windowHeight="16480" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
   </bookViews>
@@ -2945,7 +2945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -3050,24 +3050,17 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3094,7 +3087,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3382,7 +3375,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3393,17 +3386,16 @@
   <dimension ref="A1:AK288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="M173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q116" sqref="Q116"/>
+      <selection pane="bottomRight" activeCell="P193" sqref="P193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="19" customWidth="1"/>
-    <col min="3" max="13" width="10.83203125" style="19"/>
-    <col min="14" max="14" width="10.83203125" style="81"/>
+    <col min="3" max="14" width="10.83203125" style="19"/>
     <col min="15" max="15" width="37.1640625" style="19" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="19"/>
     <col min="17" max="17" width="15.6640625" style="19" bestFit="1" customWidth="1"/>
@@ -3412,8 +3404,7 @@
     <col min="22" max="23" width="10.83203125" style="19"/>
     <col min="24" max="24" width="42.1640625" style="19" customWidth="1"/>
     <col min="25" max="25" width="15.33203125" style="19" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" style="81"/>
-    <col min="27" max="16384" width="10.83203125" style="19"/>
+    <col min="26" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3425,7 +3416,6 @@
       <c r="H1" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="N1" s="80"/>
       <c r="O1" s="3" t="s">
         <v>1</v>
       </c>
@@ -3467,22 +3457,22 @@
       <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="84" t="s">
         <v>814</v>
       </c>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="84" t="s">
         <v>820</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>806</v>
       </c>
-      <c r="I2" s="88" t="s">
+      <c r="I2" s="84" t="s">
         <v>809</v>
       </c>
-      <c r="J2" s="88" t="s">
+      <c r="J2" s="84" t="s">
         <v>821</v>
       </c>
-      <c r="K2" s="88" t="s">
+      <c r="K2" s="84" t="s">
         <v>810</v>
       </c>
       <c r="L2" s="10" t="s">
@@ -3491,7 +3481,7 @@
       <c r="M2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="83" t="s">
+      <c r="N2" s="10" t="s">
         <v>792</v>
       </c>
       <c r="O2" s="9" t="s">
@@ -3555,7 +3545,7 @@
       <c r="AI2" s="18" t="s">
         <v>793</v>
       </c>
-      <c r="AJ2" s="86"/>
+      <c r="AJ2" s="82"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
@@ -3614,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="24"/>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O4" s="25" t="s">
@@ -3668,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="24"/>
-      <c r="N5" s="81" t="s">
+      <c r="N5" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O5" s="27" t="s">
@@ -3722,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="24"/>
-      <c r="N6" s="81" t="s">
+      <c r="N6" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O6" s="27" t="s">
@@ -3969,12 +3959,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="24"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
       <c r="G12" s="47">
         <v>1</v>
       </c>
-      <c r="H12" s="96" t="s">
+      <c r="H12" s="91" t="s">
         <v>807</v>
       </c>
       <c r="I12" s="47">
@@ -4062,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="24"/>
-      <c r="N14" s="81" t="s">
+      <c r="N14" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O14" s="23" t="s">
@@ -4093,29 +4081,28 @@
         <v>1</v>
       </c>
       <c r="C15" s="24"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81">
-        <v>1</v>
-      </c>
-      <c r="G15" s="81">
-        <v>1</v>
-      </c>
-      <c r="H15" s="81" t="s">
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19" t="s">
         <v>807</v>
       </c>
-      <c r="I15" s="81">
-        <v>1</v>
-      </c>
-      <c r="J15" s="81" t="s">
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="K15" s="81">
+      <c r="K15" s="19">
         <v>64</v>
       </c>
-      <c r="L15" s="81">
+      <c r="L15" s="19">
         <v>2</v>
       </c>
-      <c r="N15" s="91" t="s">
+      <c r="N15" s="86" t="s">
         <v>822</v>
       </c>
       <c r="O15" s="23" t="s">
@@ -4172,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="24"/>
-      <c r="N16" s="81" t="s">
+      <c r="N16" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O16" s="25" t="s">
@@ -4218,7 +4205,7 @@
       <c r="G17" s="19">
         <v>1</v>
       </c>
-      <c r="H17" s="87" t="s">
+      <c r="H17" s="83" t="s">
         <v>807</v>
       </c>
       <c r="I17" s="19">
@@ -4234,7 +4221,7 @@
         <v>63</v>
       </c>
       <c r="O17" s="30"/>
-      <c r="P17" s="84" t="s">
+      <c r="P17" s="80" t="s">
         <v>80</v>
       </c>
       <c r="Q17" s="29"/>
@@ -4252,10 +4239,10 @@
       <c r="G18" s="19">
         <v>0</v>
       </c>
-      <c r="H18" s="89" t="s">
+      <c r="H18" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="I18" s="89">
+      <c r="I18" s="19">
         <v>1</v>
       </c>
       <c r="J18" s="19" t="s">
@@ -4268,7 +4255,7 @@
         <v>63</v>
       </c>
       <c r="O18" s="30"/>
-      <c r="P18" s="84" t="s">
+      <c r="P18" s="80" t="s">
         <v>82</v>
       </c>
       <c r="Q18" s="29"/>
@@ -4332,7 +4319,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="N20" s="81" t="s">
+      <c r="N20" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O20" s="23" t="s">
@@ -4437,7 +4424,7 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="N22" s="81" t="s">
+      <c r="N22" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O22" s="19" t="s">
@@ -4554,7 +4541,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="N25" s="81" t="s">
+      <c r="N25" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O25" s="19" t="s">
@@ -4654,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="N27" s="81" t="s">
+      <c r="N27" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O27" s="19" t="s">
@@ -4760,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="N29" s="81" t="s">
+      <c r="N29" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O29" s="24" t="s">
@@ -4868,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="N31" s="81" t="s">
+      <c r="N31" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O31" s="24" t="s">
@@ -4977,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="N33" s="81" t="s">
+      <c r="N33" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O33" s="19" t="s">
@@ -5192,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="24"/>
-      <c r="N40" s="81" t="s">
+      <c r="N40" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O40" s="19" t="s">
@@ -5286,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="N42" s="81" t="s">
+      <c r="N42" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O42" s="19" t="s">
@@ -5380,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="24"/>
-      <c r="N44" s="81" t="s">
+      <c r="N44" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O44" s="19" t="s">
@@ -5761,7 +5748,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="24"/>
-      <c r="N52" s="81" t="s">
+      <c r="N52" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O52" s="23" t="s">
@@ -5860,7 +5847,7 @@
       <c r="B54" t="s">
         <v>598</v>
       </c>
-      <c r="N54" s="81" t="s">
+      <c r="N54" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O54" s="27" t="s">
@@ -5910,7 +5897,7 @@
       <c r="B55" t="s">
         <v>598</v>
       </c>
-      <c r="N55" s="81" t="s">
+      <c r="N55" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O55" s="42" t="s">
@@ -5933,7 +5920,7 @@
       <c r="B56" t="s">
         <v>598</v>
       </c>
-      <c r="N56" s="81" t="s">
+      <c r="N56" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O56" s="27" t="s">
@@ -5951,7 +5938,7 @@
       <c r="B57" t="s">
         <v>598</v>
       </c>
-      <c r="N57" s="81" t="s">
+      <c r="N57" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O57" s="27" t="s">
@@ -6081,7 +6068,7 @@
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="N60" s="81" t="s">
+      <c r="N60" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O60" s="19" t="s">
@@ -6411,7 +6398,7 @@
       <c r="J68" s="23"/>
       <c r="K68" s="23"/>
       <c r="L68" s="23"/>
-      <c r="N68" s="81" t="s">
+      <c r="N68" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O68" s="19" t="s">
@@ -6578,7 +6565,7 @@
       <c r="L71" s="23">
         <v>2</v>
       </c>
-      <c r="N71" s="91" t="s">
+      <c r="N71" s="86" t="s">
         <v>822</v>
       </c>
       <c r="O71" s="19" t="s">
@@ -6617,7 +6604,7 @@
       <c r="Z71" s="49">
         <v>0</v>
       </c>
-      <c r="AB71" s="85" t="s">
+      <c r="AB71" s="81" t="s">
         <v>250</v>
       </c>
       <c r="AG71" s="19">
@@ -6689,7 +6676,7 @@
       <c r="J73" s="23"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
-      <c r="N73" s="81" t="s">
+      <c r="N73" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O73" s="23" t="s">
@@ -6874,7 +6861,7 @@
       <c r="J76" s="23"/>
       <c r="K76" s="23"/>
       <c r="L76" s="23"/>
-      <c r="N76" s="81" t="s">
+      <c r="N76" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O76" s="23" t="s">
@@ -7035,7 +7022,7 @@
       <c r="J79" s="23"/>
       <c r="K79" s="23"/>
       <c r="L79" s="23"/>
-      <c r="N79" s="81" t="s">
+      <c r="N79" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O79" s="19" t="s">
@@ -7087,7 +7074,7 @@
       <c r="J80" s="23"/>
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
-      <c r="N80" s="81" t="s">
+      <c r="N80" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O80" s="19" t="s">
@@ -7195,7 +7182,7 @@
       <c r="J82" s="23"/>
       <c r="K82" s="23"/>
       <c r="L82" s="23"/>
-      <c r="N82" s="81" t="s">
+      <c r="N82" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O82" s="19" t="s">
@@ -7253,7 +7240,7 @@
       <c r="J83" s="23"/>
       <c r="K83" s="23"/>
       <c r="L83" s="23"/>
-      <c r="N83" s="81" t="s">
+      <c r="N83" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O83" s="19" t="s">
@@ -7361,7 +7348,7 @@
       <c r="J85" s="23"/>
       <c r="K85" s="23"/>
       <c r="L85" s="23"/>
-      <c r="N85" s="81" t="s">
+      <c r="N85" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O85" s="19" t="s">
@@ -7469,7 +7456,7 @@
       <c r="J87" s="23"/>
       <c r="K87" s="23"/>
       <c r="L87" s="23"/>
-      <c r="N87" s="81" t="s">
+      <c r="N87" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O87" s="19" t="s">
@@ -7527,7 +7514,7 @@
       <c r="J88" s="23"/>
       <c r="K88" s="23"/>
       <c r="L88" s="23"/>
-      <c r="N88" s="81" t="s">
+      <c r="N88" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O88" s="19" t="s">
@@ -7638,7 +7625,7 @@
       <c r="J90" s="23"/>
       <c r="K90" s="23"/>
       <c r="L90" s="23"/>
-      <c r="N90" s="81" t="s">
+      <c r="N90" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O90" s="19" t="s">
@@ -7696,7 +7683,7 @@
       <c r="J91" s="23"/>
       <c r="K91" s="23"/>
       <c r="L91" s="23"/>
-      <c r="N91" s="81" t="s">
+      <c r="N91" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O91" s="19" t="s">
@@ -7852,7 +7839,7 @@
       <c r="J94" s="23"/>
       <c r="K94" s="23"/>
       <c r="L94" s="23"/>
-      <c r="N94" s="81" t="s">
+      <c r="N94" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O94" s="19" t="s">
@@ -7960,7 +7947,7 @@
       <c r="J96" s="23"/>
       <c r="K96" s="23"/>
       <c r="L96" s="23"/>
-      <c r="N96" s="81" t="s">
+      <c r="N96" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O96" s="19" t="s">
@@ -8068,7 +8055,7 @@
       <c r="J98" s="23"/>
       <c r="K98" s="23"/>
       <c r="L98" s="23"/>
-      <c r="N98" s="81" t="s">
+      <c r="N98" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O98" s="19" t="s">
@@ -8105,7 +8092,7 @@
       <c r="M99" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="N99" s="81" t="s">
+      <c r="N99" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O99" s="19" t="s">
@@ -8214,7 +8201,7 @@
       <c r="J101" s="23"/>
       <c r="K101" s="23"/>
       <c r="L101" s="23"/>
-      <c r="N101" s="81" t="s">
+      <c r="N101" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O101" s="19" t="s">
@@ -8272,7 +8259,7 @@
       <c r="J102" s="23"/>
       <c r="K102" s="23"/>
       <c r="L102" s="23"/>
-      <c r="N102" s="81" t="s">
+      <c r="N102" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O102" s="30" t="s">
@@ -8483,7 +8470,7 @@
       <c r="J106" s="23"/>
       <c r="K106" s="23"/>
       <c r="L106" s="23"/>
-      <c r="N106" s="81" t="s">
+      <c r="N106" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O106" s="27" t="s">
@@ -8594,7 +8581,7 @@
       <c r="J108" s="23"/>
       <c r="K108" s="23"/>
       <c r="L108" s="23"/>
-      <c r="N108" s="81" t="s">
+      <c r="N108" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O108" s="27" t="s">
@@ -8699,7 +8686,7 @@
       <c r="J110" s="23"/>
       <c r="K110" s="23"/>
       <c r="L110" s="23"/>
-      <c r="N110" s="81" t="s">
+      <c r="N110" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O110" s="27" t="s">
@@ -8760,7 +8747,7 @@
       <c r="J111" s="23"/>
       <c r="K111" s="23"/>
       <c r="L111" s="23"/>
-      <c r="N111" s="81" t="s">
+      <c r="N111" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O111" s="27" t="s">
@@ -8857,7 +8844,7 @@
       <c r="J113" s="23"/>
       <c r="K113" s="23"/>
       <c r="L113" s="23"/>
-      <c r="N113" s="81" t="s">
+      <c r="N113" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O113" s="27" t="s">
@@ -8918,7 +8905,7 @@
       <c r="J114" s="23"/>
       <c r="K114" s="23"/>
       <c r="L114" s="23"/>
-      <c r="N114" s="81" t="s">
+      <c r="N114" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O114" s="27" t="s">
@@ -9063,7 +9050,7 @@
       <c r="J117" s="23"/>
       <c r="K117" s="23"/>
       <c r="L117" s="23"/>
-      <c r="N117" s="81" t="s">
+      <c r="N117" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O117" s="27" t="s">
@@ -9435,18 +9422,18 @@
       <c r="D126" s="23"/>
       <c r="E126" s="23"/>
       <c r="F126" s="23"/>
-      <c r="G126" s="82">
+      <c r="G126" s="23">
         <v>0</v>
       </c>
-      <c r="H126" s="82" t="s">
+      <c r="H126" s="23" t="s">
         <v>808</v>
       </c>
-      <c r="I126" s="82">
-        <v>1</v>
-      </c>
-      <c r="J126" s="82"/>
-      <c r="K126" s="82"/>
-      <c r="L126" s="82">
+      <c r="I126" s="23">
+        <v>1</v>
+      </c>
+      <c r="J126" s="23"/>
+      <c r="K126" s="23"/>
+      <c r="L126" s="23">
         <v>2</v>
       </c>
       <c r="N126" s="49" t="s">
@@ -9484,7 +9471,7 @@
       <c r="L127" s="23">
         <v>2</v>
       </c>
-      <c r="N127" s="91" t="s">
+      <c r="N127" s="86" t="s">
         <v>822</v>
       </c>
       <c r="O127" s="30" t="s">
@@ -9641,7 +9628,7 @@
       <c r="J130" s="23"/>
       <c r="K130" s="23"/>
       <c r="L130" s="23"/>
-      <c r="N130" s="81" t="s">
+      <c r="N130" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O130" s="23" t="s">
@@ -9820,7 +9807,7 @@
       <c r="L133" s="23">
         <v>2</v>
       </c>
-      <c r="N133" s="91" t="s">
+      <c r="N133" s="86" t="s">
         <v>822</v>
       </c>
       <c r="O133" s="19" t="s">
@@ -9935,7 +9922,7 @@
       <c r="J135" s="44" t="s">
         <v>817</v>
       </c>
-      <c r="K135" s="90">
+      <c r="K135" s="85">
         <v>2589</v>
       </c>
       <c r="L135" s="44">
@@ -9983,7 +9970,7 @@
       <c r="B136">
         <v>1</v>
       </c>
-      <c r="N136" s="81" t="s">
+      <c r="N136" s="19" t="s">
         <v>13</v>
       </c>
       <c r="P136" s="23" t="s">
@@ -10247,7 +10234,6 @@
       <c r="B142">
         <v>1</v>
       </c>
-      <c r="N142" s="82"/>
       <c r="P142" s="23" t="s">
         <v>431</v>
       </c>
@@ -10441,7 +10427,7 @@
       <c r="J147" s="23"/>
       <c r="K147" s="23"/>
       <c r="L147" s="23"/>
-      <c r="N147" s="81" t="s">
+      <c r="N147" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O147" s="19" t="s">
@@ -10699,7 +10685,7 @@
       <c r="J152" s="23"/>
       <c r="K152" s="23"/>
       <c r="L152" s="23"/>
-      <c r="O152" s="81" t="s">
+      <c r="O152" s="19" t="s">
         <v>478</v>
       </c>
       <c r="P152" s="30" t="s">
@@ -10726,7 +10712,7 @@
       <c r="W152" s="19">
         <v>0</v>
       </c>
-      <c r="X152" s="81" t="s">
+      <c r="X152" s="19" t="s">
         <v>63</v>
       </c>
       <c r="Z152" s="49"/>
@@ -10825,7 +10811,7 @@
       <c r="B156">
         <v>1</v>
       </c>
-      <c r="O156" s="81" t="s">
+      <c r="O156" s="19" t="s">
         <v>478</v>
       </c>
       <c r="P156" s="30" t="s">
@@ -10945,7 +10931,7 @@
       <c r="J159" s="23"/>
       <c r="K159" s="23"/>
       <c r="L159" s="23"/>
-      <c r="O159" s="81" t="s">
+      <c r="O159" s="19" t="s">
         <v>478</v>
       </c>
       <c r="P159" s="30" t="s">
@@ -10972,7 +10958,7 @@
       <c r="W159" s="19">
         <v>0</v>
       </c>
-      <c r="X159" s="81" t="s">
+      <c r="X159" s="19" t="s">
         <v>63</v>
       </c>
       <c r="Z159" s="49"/>
@@ -11071,7 +11057,7 @@
       <c r="B163">
         <v>1</v>
       </c>
-      <c r="O163" s="81" t="s">
+      <c r="O163" s="19" t="s">
         <v>478</v>
       </c>
       <c r="P163" s="30" t="s">
@@ -11191,7 +11177,7 @@
       <c r="H166" s="23" t="s">
         <v>807</v>
       </c>
-      <c r="I166" s="92">
+      <c r="I166" s="87">
         <v>0</v>
       </c>
       <c r="J166" s="23"/>
@@ -11302,7 +11288,7 @@
       <c r="J168" s="23"/>
       <c r="K168" s="23"/>
       <c r="L168" s="23"/>
-      <c r="O168" s="81" t="s">
+      <c r="O168" s="19" t="s">
         <v>478</v>
       </c>
       <c r="P168" s="30" t="s">
@@ -11428,7 +11414,7 @@
       <c r="B172">
         <v>1</v>
       </c>
-      <c r="O172" s="81" t="s">
+      <c r="O172" s="19" t="s">
         <v>478</v>
       </c>
       <c r="P172" s="30" t="s">
@@ -11548,7 +11534,7 @@
       <c r="J175" s="23"/>
       <c r="K175" s="23"/>
       <c r="L175" s="23"/>
-      <c r="O175" s="81" t="s">
+      <c r="O175" s="19" t="s">
         <v>478</v>
       </c>
       <c r="P175" s="30" t="s">
@@ -11575,7 +11561,7 @@
       <c r="W175" s="19">
         <v>0</v>
       </c>
-      <c r="X175" s="81" t="s">
+      <c r="X175" s="19" t="s">
         <v>63</v>
       </c>
       <c r="Z175" s="49"/>
@@ -11674,7 +11660,7 @@
       <c r="B179">
         <v>1</v>
       </c>
-      <c r="O179" s="81" t="s">
+      <c r="O179" s="19" t="s">
         <v>478</v>
       </c>
       <c r="P179" s="30" t="s">
@@ -12142,7 +12128,7 @@
       <c r="B189">
         <v>1</v>
       </c>
-      <c r="N189" s="81" t="s">
+      <c r="N189" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O189" s="19" t="s">
@@ -12189,7 +12175,7 @@
       <c r="B190">
         <v>1</v>
       </c>
-      <c r="N190" s="81" t="s">
+      <c r="N190" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O190" s="2" t="s">
@@ -12284,7 +12270,7 @@
         <v>1</v>
       </c>
       <c r="C193" s="24"/>
-      <c r="N193" s="81" t="s">
+      <c r="N193" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O193" s="27" t="s">
@@ -12511,7 +12497,7 @@
         <v>1</v>
       </c>
       <c r="C198" s="24"/>
-      <c r="N198" s="81" t="s">
+      <c r="N198" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O198" s="23" t="s">
@@ -12662,7 +12648,7 @@
         <v>1</v>
       </c>
       <c r="C201" s="24"/>
-      <c r="N201" s="81" t="s">
+      <c r="N201" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O201" s="19" t="s">
@@ -12717,7 +12703,7 @@
         <v>1</v>
       </c>
       <c r="C202" s="24"/>
-      <c r="N202" s="81" t="s">
+      <c r="N202" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O202" s="19" t="s">
@@ -12784,7 +12770,7 @@
         <v>598</v>
       </c>
       <c r="C204" s="23"/>
-      <c r="N204" s="81" t="s">
+      <c r="N204" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O204" s="19" t="s">
@@ -12862,7 +12848,7 @@
       <c r="M206" s="19" t="s">
         <v>566</v>
       </c>
-      <c r="N206" s="81" t="s">
+      <c r="N206" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O206" s="19" t="s">
@@ -12924,7 +12910,7 @@
       <c r="M208" s="19" t="s">
         <v>566</v>
       </c>
-      <c r="N208" s="81" t="s">
+      <c r="N208" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O208" s="2" t="s">
@@ -13051,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="C211" s="24"/>
-      <c r="N211" s="81" t="s">
+      <c r="N211" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O211" s="19" t="s">
@@ -13153,7 +13139,7 @@
         <v>1</v>
       </c>
       <c r="C213" s="24"/>
-      <c r="N213" s="81" t="s">
+      <c r="N213" s="19" t="s">
         <v>13</v>
       </c>
       <c r="P213" s="19" t="s">
@@ -13196,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="C214" s="24"/>
-      <c r="N214" s="81" t="s">
+      <c r="N214" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O214" s="19" t="s">
@@ -13223,7 +13209,7 @@
       <c r="M215" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="N215" s="81" t="s">
+      <c r="N215" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O215" s="19" t="s">
@@ -13347,7 +13333,7 @@
         <v>1</v>
       </c>
       <c r="C218" s="24"/>
-      <c r="N218" s="81" t="s">
+      <c r="N218" s="19" t="s">
         <v>13</v>
       </c>
       <c r="P218" s="19" t="s">
@@ -13390,7 +13376,7 @@
         <v>1</v>
       </c>
       <c r="C219" s="24"/>
-      <c r="N219" s="81" t="s">
+      <c r="N219" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O219" s="19" t="s">
@@ -13417,7 +13403,7 @@
       <c r="M220" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="N220" s="81" t="s">
+      <c r="N220" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O220" s="19" t="s">
@@ -13544,7 +13530,7 @@
       <c r="M223" s="19" t="s">
         <v>606</v>
       </c>
-      <c r="N223" s="81" t="s">
+      <c r="N223" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O223" s="19" t="s">
@@ -13594,7 +13580,7 @@
       <c r="M224" s="23" t="s">
         <v>609</v>
       </c>
-      <c r="N224" s="82"/>
+      <c r="N224" s="23"/>
       <c r="Q224" s="29"/>
       <c r="W224" s="19">
         <v>0</v>
@@ -13661,7 +13647,7 @@
         <v>1</v>
       </c>
       <c r="C226" s="24"/>
-      <c r="N226" s="81" t="s">
+      <c r="N226" s="19" t="s">
         <v>13</v>
       </c>
       <c r="P226" s="19" t="s">
@@ -13707,7 +13693,7 @@
         <v>1</v>
       </c>
       <c r="C227" s="24"/>
-      <c r="N227" s="81" t="s">
+      <c r="N227" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O227" s="19" t="s">
@@ -13734,7 +13720,7 @@
       <c r="M228" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="N228" s="81" t="s">
+      <c r="N228" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O228" s="19" t="s">
@@ -13965,7 +13951,7 @@
         <v>1</v>
       </c>
       <c r="C233" s="24"/>
-      <c r="N233" s="81" t="s">
+      <c r="N233" s="19" t="s">
         <v>13</v>
       </c>
       <c r="P233" s="24" t="s">
@@ -14342,7 +14328,7 @@
         <v>1</v>
       </c>
       <c r="C241" s="24"/>
-      <c r="N241" s="81" t="s">
+      <c r="N241" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O241" s="19" t="s">
@@ -14604,7 +14590,7 @@
       <c r="M246" s="19" t="s">
         <v>670</v>
       </c>
-      <c r="N246" s="81" t="s">
+      <c r="N246" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O246" s="19" t="s">
@@ -14759,7 +14745,7 @@
         <v>1</v>
       </c>
       <c r="C249" s="24"/>
-      <c r="N249" s="81" t="s">
+      <c r="N249" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O249" s="23" t="s">
@@ -14803,7 +14789,7 @@
         <v>1</v>
       </c>
       <c r="C250" s="24"/>
-      <c r="N250" s="81" t="s">
+      <c r="N250" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O250" s="25" t="s">
@@ -14850,7 +14836,7 @@
         <v>1</v>
       </c>
       <c r="C251" s="24"/>
-      <c r="N251" s="81" t="s">
+      <c r="N251" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O251" s="29" t="s">
@@ -15055,7 +15041,7 @@
         <v>1</v>
       </c>
       <c r="C255" s="24"/>
-      <c r="N255" s="81" t="s">
+      <c r="N255" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O255" s="19" t="s">
@@ -15139,7 +15125,7 @@
       <c r="M257" s="19" t="s">
         <v>670</v>
       </c>
-      <c r="N257" s="81" t="s">
+      <c r="N257" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O257" s="19" t="s">
@@ -15317,7 +15303,7 @@
       <c r="N260" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="O260" s="93" t="s">
+      <c r="O260" s="88" t="s">
         <v>719</v>
       </c>
       <c r="P260" s="19" t="s">
@@ -15387,7 +15373,7 @@
       <c r="N261" s="47" t="s">
         <v>827</v>
       </c>
-      <c r="O261" s="94" t="s">
+      <c r="O261" s="89" t="s">
         <v>722</v>
       </c>
       <c r="P261" s="19" t="s">
@@ -15485,7 +15471,7 @@
         <v>1</v>
       </c>
       <c r="C263" s="24"/>
-      <c r="N263" s="81" t="s">
+      <c r="N263" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O263" s="19" t="s">
@@ -15710,7 +15696,7 @@
       <c r="H268" s="19" t="s">
         <v>807</v>
       </c>
-      <c r="I268" s="95">
+      <c r="I268" s="90">
         <v>0</v>
       </c>
       <c r="N268" s="49" t="s">
@@ -15806,7 +15792,7 @@
         <v>1</v>
       </c>
       <c r="C270" s="24"/>
-      <c r="N270" s="81" t="s">
+      <c r="N270" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O270" s="19" t="s">
@@ -15859,7 +15845,7 @@
         <v>1</v>
       </c>
       <c r="C271" s="24"/>
-      <c r="N271" s="81" t="s">
+      <c r="N271" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O271" s="19" t="s">
@@ -15876,7 +15862,7 @@
         <v>1</v>
       </c>
       <c r="C272" s="24"/>
-      <c r="N272" s="81" t="s">
+      <c r="N272" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O272" s="2" t="s">

--- a/Allmatching.xlsx
+++ b/Allmatching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15234FB2-B5AC-E94D-80ED-ECE4E98CD6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF41F1D-28B3-E149-B5B4-9268EF61DBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
+    <workbookView xWindow="31280" yWindow="500" windowWidth="34480" windowHeight="21100" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="1047">
   <si>
     <t>Phase 3 info</t>
   </si>
@@ -3390,12 +3390,18 @@
   <si>
     <t>natalizumab</t>
   </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>primaryish-don’t use these terms</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="53">
+  <fonts count="52">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3724,12 +3730,6 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -4035,48 +4035,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4408,11 +4367,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AK379"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B289" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J297" sqref="J296:J297"/>
+      <selection pane="bottomRight" activeCell="M306" sqref="M306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4573,7 +4532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" hidden="1">
       <c r="A3" s="20" t="s">
         <v>29</v>
       </c>
@@ -4625,7 +4584,7 @@
       <c r="AF3" s="20"/>
       <c r="AG3" s="20"/>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" hidden="1">
       <c r="B4">
         <v>1</v>
       </c>
@@ -4679,7 +4638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" hidden="1">
       <c r="B5">
         <v>1</v>
       </c>
@@ -4733,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" hidden="1">
       <c r="B6">
         <v>1</v>
       </c>
@@ -4758,7 +4717,7 @@
       <c r="Z6" s="49"/>
       <c r="AB6" s="27"/>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" hidden="1">
       <c r="A7" s="20" t="s">
         <v>47</v>
       </c>
@@ -4815,7 +4774,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" hidden="1">
       <c r="B8">
         <v>1</v>
       </c>
@@ -4842,7 +4801,7 @@
       </c>
       <c r="Z8" s="49"/>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" hidden="1">
       <c r="A9" s="20" t="s">
         <v>56</v>
       </c>
@@ -4899,7 +4858,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" hidden="1">
       <c r="B10">
         <v>1</v>
       </c>
@@ -4926,7 +4885,7 @@
       </c>
       <c r="Z10" s="49"/>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" hidden="1">
       <c r="A11" s="20" t="s">
         <v>58</v>
       </c>
@@ -5015,7 +4974,7 @@
       </c>
       <c r="Z12" s="49"/>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" hidden="1">
       <c r="A13" s="20" t="s">
         <v>65</v>
       </c>
@@ -5071,7 +5030,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" hidden="1">
       <c r="B14">
         <v>1</v>
       </c>
@@ -5180,7 +5139,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" hidden="1">
       <c r="B16">
         <v>1</v>
       </c>
@@ -5288,7 +5247,7 @@
       <c r="S18" s="23"/>
       <c r="Z18" s="49"/>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" hidden="1">
       <c r="A19" s="20" t="s">
         <v>82</v>
       </c>
@@ -5340,7 +5299,7 @@
       <c r="AF19" s="20"/>
       <c r="AG19" s="20"/>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" hidden="1">
       <c r="B20">
         <v>1</v>
       </c>
@@ -5394,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" hidden="1">
       <c r="A21" s="20" t="s">
         <v>90</v>
       </c>
@@ -5446,7 +5405,7 @@
       <c r="AF21" s="20"/>
       <c r="AG21" s="20"/>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" hidden="1">
       <c r="B22">
         <v>1</v>
       </c>
@@ -5496,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" hidden="1">
       <c r="B23">
         <v>1</v>
       </c>
@@ -5508,7 +5467,7 @@
       </c>
       <c r="Z23" s="49"/>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" hidden="1">
       <c r="A24" s="20" t="s">
         <v>99</v>
       </c>
@@ -5562,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" hidden="1">
       <c r="B25">
         <v>1</v>
       </c>
@@ -5610,7 +5569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" hidden="1">
       <c r="A26" s="20" t="s">
         <v>108</v>
       </c>
@@ -5662,7 +5621,7 @@
       <c r="AF26" s="20"/>
       <c r="AG26" s="20"/>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" hidden="1">
       <c r="B27">
         <v>1</v>
       </c>
@@ -5716,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" hidden="1">
       <c r="A28" s="20" t="s">
         <v>116</v>
       </c>
@@ -5768,7 +5727,7 @@
       <c r="AF28" s="20"/>
       <c r="AG28" s="20"/>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" hidden="1">
       <c r="B29">
         <v>1</v>
       </c>
@@ -5822,7 +5781,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" hidden="1">
       <c r="A30" s="20" t="s">
         <v>124</v>
       </c>
@@ -5876,7 +5835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" hidden="1">
       <c r="B31">
         <v>1</v>
       </c>
@@ -5930,7 +5889,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" hidden="1">
       <c r="A32" s="20" t="s">
         <v>135</v>
       </c>
@@ -5985,7 +5944,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" hidden="1">
       <c r="B33">
         <v>1</v>
       </c>
@@ -6013,7 +5972,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" hidden="1">
       <c r="B34">
         <v>1</v>
       </c>
@@ -6033,7 +5992,7 @@
       </c>
       <c r="Z34" s="49"/>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" hidden="1">
       <c r="A35" s="20" t="s">
         <v>145</v>
       </c>
@@ -6088,7 +6047,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" hidden="1">
       <c r="B36">
         <v>1</v>
       </c>
@@ -6108,7 +6067,7 @@
       </c>
       <c r="Z36" s="49"/>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" hidden="1">
       <c r="B37">
         <v>1</v>
       </c>
@@ -6128,7 +6087,7 @@
       </c>
       <c r="Z37" s="49"/>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" hidden="1">
       <c r="B38">
         <v>1</v>
       </c>
@@ -6148,7 +6107,7 @@
       </c>
       <c r="Z38" s="49"/>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" hidden="1">
       <c r="A39" s="20" t="s">
         <v>152</v>
       </c>
@@ -6200,7 +6159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" hidden="1">
       <c r="B40">
         <v>1</v>
       </c>
@@ -6242,7 +6201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" hidden="1">
       <c r="A41" s="20" t="s">
         <v>161</v>
       </c>
@@ -6294,7 +6253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" hidden="1">
       <c r="B42">
         <v>1</v>
       </c>
@@ -6336,7 +6295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" hidden="1">
       <c r="A43" s="20" t="s">
         <v>163</v>
       </c>
@@ -6388,7 +6347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" hidden="1">
       <c r="B44">
         <v>1</v>
       </c>
@@ -6482,7 +6441,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" hidden="1">
       <c r="A46" s="20" t="s">
         <v>169</v>
       </c>
@@ -6537,7 +6496,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" hidden="1">
       <c r="B47">
         <v>1</v>
       </c>
@@ -6717,7 +6676,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" hidden="1">
       <c r="A51" s="20" t="s">
         <v>187</v>
       </c>
@@ -6769,7 +6728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" hidden="1">
       <c r="B52">
         <v>1</v>
       </c>
@@ -6978,7 +6937,7 @@
       </c>
       <c r="Z57" s="74"/>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" hidden="1">
       <c r="A58" s="20" t="s">
         <v>206</v>
       </c>
@@ -7090,7 +7049,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" hidden="1">
       <c r="B60">
         <v>1</v>
       </c>
@@ -7219,7 +7178,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" hidden="1">
       <c r="A63" s="46" t="s">
         <v>222</v>
       </c>
@@ -7304,7 +7263,7 @@
       </c>
       <c r="Z64" s="49"/>
     </row>
-    <row r="65" spans="1:33">
+    <row r="65" spans="1:33" hidden="1">
       <c r="A65" s="23"/>
       <c r="B65">
         <v>1</v>
@@ -7327,7 +7286,7 @@
       </c>
       <c r="Z65" s="49"/>
     </row>
-    <row r="66" spans="1:33">
+    <row r="66" spans="1:33" hidden="1">
       <c r="A66" s="46" t="s">
         <v>228</v>
       </c>
@@ -7386,14 +7345,15 @@
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23">
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44">
         <v>4</v>
       </c>
+      <c r="M67" s="47"/>
       <c r="N67" s="47" t="s">
         <v>818</v>
       </c>
@@ -7409,7 +7369,7 @@
       <c r="U67" s="23"/>
       <c r="Z67" s="49"/>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:33" hidden="1">
       <c r="A68" s="23"/>
       <c r="B68">
         <v>1</v>
@@ -7453,7 +7413,7 @@
       </c>
       <c r="Z68" s="49"/>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:33" hidden="1">
       <c r="A69" s="46" t="s">
         <v>236</v>
       </c>
@@ -7637,7 +7597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:33" hidden="1">
       <c r="A72" s="46" t="s">
         <v>250</v>
       </c>
@@ -7687,7 +7647,7 @@
       <c r="AF72" s="20"/>
       <c r="AG72" s="20"/>
     </row>
-    <row r="73" spans="1:33">
+    <row r="73" spans="1:33" hidden="1">
       <c r="A73" s="23"/>
       <c r="B73">
         <v>1</v>
@@ -7822,7 +7782,7 @@
       <c r="AF74" s="20"/>
       <c r="AG74" s="20"/>
     </row>
-    <row r="75" spans="1:33">
+    <row r="75" spans="1:33" hidden="1">
       <c r="A75" s="46" t="s">
         <v>264</v>
       </c>
@@ -7872,7 +7832,7 @@
       <c r="AF75" s="20"/>
       <c r="AG75" s="20"/>
     </row>
-    <row r="76" spans="1:33">
+    <row r="76" spans="1:33" hidden="1">
       <c r="A76" s="23"/>
       <c r="B76">
         <v>1</v>
@@ -7933,7 +7893,7 @@
       <c r="AF76" s="20"/>
       <c r="AG76" s="20"/>
     </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:33" hidden="1">
       <c r="A77" s="46" t="s">
         <v>266</v>
       </c>
@@ -7983,7 +7943,7 @@
       <c r="AF77" s="20"/>
       <c r="AG77" s="20"/>
     </row>
-    <row r="78" spans="1:33">
+    <row r="78" spans="1:33" hidden="1">
       <c r="A78" s="46" t="s">
         <v>269</v>
       </c>
@@ -8033,7 +7993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:33">
+    <row r="79" spans="1:33" hidden="1">
       <c r="A79" s="23"/>
       <c r="B79">
         <v>1</v>
@@ -8085,7 +8045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:33">
+    <row r="80" spans="1:33" hidden="1">
       <c r="A80" s="23"/>
       <c r="B80">
         <v>1</v>
@@ -8143,7 +8103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:34" hidden="1">
       <c r="A81" s="46" t="s">
         <v>279</v>
       </c>
@@ -8193,7 +8153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:34" hidden="1">
       <c r="A82" s="23"/>
       <c r="B82">
         <v>1</v>
@@ -8251,7 +8211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:34" hidden="1">
       <c r="A83" s="23"/>
       <c r="B83">
         <v>1</v>
@@ -8309,7 +8269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:34" hidden="1">
       <c r="A84" s="46" t="s">
         <v>288</v>
       </c>
@@ -8359,7 +8319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:34" hidden="1">
       <c r="A85" s="23"/>
       <c r="B85">
         <v>1</v>
@@ -8417,7 +8377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:34" hidden="1">
       <c r="A86" s="46" t="s">
         <v>290</v>
       </c>
@@ -8467,7 +8427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:34" hidden="1">
       <c r="A87" s="23"/>
       <c r="B87">
         <v>1</v>
@@ -8525,7 +8485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:34" hidden="1">
       <c r="A88" s="23"/>
       <c r="B88">
         <v>1</v>
@@ -8583,7 +8543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:34" hidden="1">
       <c r="A89" s="46" t="s">
         <v>293</v>
       </c>
@@ -8636,7 +8596,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:34" hidden="1">
       <c r="A90" s="23"/>
       <c r="B90">
         <v>1</v>
@@ -8694,7 +8654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:34" hidden="1">
       <c r="A91" s="23"/>
       <c r="B91">
         <v>1</v>
@@ -8800,7 +8760,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:34" hidden="1">
       <c r="A93" s="46" t="s">
         <v>300</v>
       </c>
@@ -8850,7 +8810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:34" hidden="1">
       <c r="A94" s="23"/>
       <c r="B94">
         <v>1</v>
@@ -8908,7 +8868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:34" hidden="1">
       <c r="A95" s="46" t="s">
         <v>305</v>
       </c>
@@ -8958,7 +8918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:34" hidden="1">
       <c r="A96" s="23"/>
       <c r="B96">
         <v>1</v>
@@ -9016,7 +8976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:35">
+    <row r="97" spans="1:35" hidden="1">
       <c r="A97" s="46" t="s">
         <v>311</v>
       </c>
@@ -9066,7 +9026,7 @@
       <c r="AF97" s="20"/>
       <c r="AG97" s="20"/>
     </row>
-    <row r="98" spans="1:35">
+    <row r="98" spans="1:35" hidden="1">
       <c r="A98" s="23"/>
       <c r="B98">
         <v>1</v>
@@ -9100,7 +9060,7 @@
       </c>
       <c r="Z98" s="49"/>
     </row>
-    <row r="99" spans="1:35">
+    <row r="99" spans="1:35" hidden="1">
       <c r="A99" s="23"/>
       <c r="B99">
         <v>1</v>
@@ -9162,7 +9122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:35">
+    <row r="100" spans="1:35" hidden="1">
       <c r="A100" s="46" t="s">
         <v>319</v>
       </c>
@@ -9212,7 +9172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:35">
+    <row r="101" spans="1:35" hidden="1">
       <c r="A101" s="23"/>
       <c r="B101">
         <v>1</v>
@@ -9270,7 +9230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:35">
+    <row r="102" spans="1:35" hidden="1">
       <c r="A102" s="23"/>
       <c r="B102">
         <v>1</v>
@@ -9331,7 +9291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:35">
+    <row r="103" spans="1:35" hidden="1">
       <c r="A103" s="46" t="s">
         <v>330</v>
       </c>
@@ -9381,7 +9341,7 @@
       <c r="AF103" s="20"/>
       <c r="AG103" s="20"/>
     </row>
-    <row r="104" spans="1:35">
+    <row r="104" spans="1:35" hidden="1">
       <c r="A104" s="46" t="s">
         <v>333</v>
       </c>
@@ -9431,7 +9391,7 @@
       <c r="AF104" s="20"/>
       <c r="AG104" s="20"/>
     </row>
-    <row r="105" spans="1:35">
+    <row r="105" spans="1:35" hidden="1">
       <c r="A105" s="46" t="s">
         <v>336</v>
       </c>
@@ -9481,7 +9441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:35">
+    <row r="106" spans="1:35" hidden="1">
       <c r="A106" s="23"/>
       <c r="B106">
         <v>1</v>
@@ -9542,7 +9502,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="107" spans="1:35">
+    <row r="107" spans="1:35" hidden="1">
       <c r="A107" s="46" t="s">
         <v>344</v>
       </c>
@@ -9592,7 +9552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:35">
+    <row r="108" spans="1:35" hidden="1">
       <c r="A108" s="23"/>
       <c r="B108">
         <v>1</v>
@@ -9647,7 +9607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:35">
+    <row r="109" spans="1:35" hidden="1">
       <c r="A109" s="46" t="s">
         <v>346</v>
       </c>
@@ -9697,7 +9657,7 @@
       <c r="AF109" s="20"/>
       <c r="AG109" s="20"/>
     </row>
-    <row r="110" spans="1:35">
+    <row r="110" spans="1:35" hidden="1">
       <c r="A110" s="23"/>
       <c r="B110">
         <v>1</v>
@@ -9758,7 +9718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:35">
+    <row r="111" spans="1:35" hidden="1">
       <c r="A111" s="23"/>
       <c r="B111">
         <v>1</v>
@@ -9805,7 +9765,7 @@
       </c>
       <c r="Z111" s="49"/>
     </row>
-    <row r="112" spans="1:35">
+    <row r="112" spans="1:35" hidden="1">
       <c r="A112" s="46" t="s">
         <v>355</v>
       </c>
@@ -9855,7 +9815,7 @@
       <c r="AF112" s="20"/>
       <c r="AG112" s="20"/>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:36" hidden="1">
       <c r="A113" s="23"/>
       <c r="B113">
         <v>1</v>
@@ -9916,7 +9876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:36" hidden="1">
       <c r="A114" s="23"/>
       <c r="B114">
         <v>1</v>
@@ -10011,7 +9971,7 @@
       <c r="AF115" s="20"/>
       <c r="AG115" s="20"/>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:36" hidden="1">
       <c r="A116" s="46" t="s">
         <v>361</v>
       </c>
@@ -10061,7 +10021,7 @@
       <c r="AF116" s="20"/>
       <c r="AG116" s="20"/>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:36" hidden="1">
       <c r="A117" s="23"/>
       <c r="B117">
         <v>1</v>
@@ -10363,7 +10323,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="124" spans="1:36">
+    <row r="124" spans="1:36" hidden="1">
       <c r="A124" s="46" t="s">
         <v>385</v>
       </c>
@@ -10413,7 +10373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:36" hidden="1">
       <c r="A125" s="23"/>
       <c r="B125">
         <v>1</v>
@@ -10540,7 +10500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:36">
+    <row r="128" spans="1:36" hidden="1">
       <c r="A128" s="46" t="s">
         <v>395</v>
       </c>
@@ -10697,7 +10657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:37">
+    <row r="131" spans="1:37" hidden="1">
       <c r="A131" s="46" t="s">
         <v>406</v>
       </c>
@@ -10771,7 +10731,9 @@
       <c r="K132" s="23">
         <v>159</v>
       </c>
-      <c r="L132" s="23"/>
+      <c r="L132" s="23">
+        <v>2</v>
+      </c>
       <c r="N132" s="49" t="s">
         <v>62</v>
       </c>
@@ -10823,7 +10785,9 @@
       <c r="F133" s="23">
         <v>1</v>
       </c>
-      <c r="G133" s="23"/>
+      <c r="G133" s="23">
+        <v>0</v>
+      </c>
       <c r="H133" s="23" t="s">
         <v>807</v>
       </c>
@@ -10882,7 +10846,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="134" spans="1:37">
+    <row r="134" spans="1:37" hidden="1">
       <c r="A134" s="46" t="s">
         <v>410</v>
       </c>
@@ -10992,7 +10956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:37" s="23" customFormat="1">
+    <row r="136" spans="1:37" s="23" customFormat="1" hidden="1">
       <c r="B136">
         <v>1</v>
       </c>
@@ -11031,7 +10995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:37">
+    <row r="137" spans="1:37" hidden="1">
       <c r="A137" s="46" t="s">
         <v>421</v>
       </c>
@@ -11081,7 +11045,7 @@
       <c r="AF137" s="20"/>
       <c r="AG137" s="20"/>
     </row>
-    <row r="138" spans="1:37">
+    <row r="138" spans="1:37" hidden="1">
       <c r="A138" s="46" t="s">
         <v>426</v>
       </c>
@@ -11140,7 +11104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:37">
+    <row r="139" spans="1:37" hidden="1">
       <c r="A139" s="23"/>
       <c r="B139">
         <v>1</v>
@@ -11207,7 +11171,7 @@
       <c r="AF140" s="20"/>
       <c r="AG140" s="20"/>
     </row>
-    <row r="141" spans="1:37">
+    <row r="141" spans="1:37" hidden="1">
       <c r="A141" s="46" t="s">
         <v>434</v>
       </c>
@@ -11256,7 +11220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:37" s="23" customFormat="1">
+    <row r="142" spans="1:37" s="23" customFormat="1" hidden="1">
       <c r="B142">
         <v>1</v>
       </c>
@@ -11318,7 +11282,7 @@
       <c r="AF143" s="20"/>
       <c r="AG143" s="20"/>
     </row>
-    <row r="144" spans="1:37">
+    <row r="144" spans="1:37" hidden="1">
       <c r="A144" s="46" t="s">
         <v>441</v>
       </c>
@@ -11365,7 +11329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:37">
+    <row r="145" spans="1:37" hidden="1">
       <c r="A145" s="23"/>
       <c r="B145">
         <v>1</v>
@@ -11596,7 +11560,7 @@
       <c r="AF149" s="20"/>
       <c r="AG149" s="20"/>
     </row>
-    <row r="150" spans="1:37">
+    <row r="150" spans="1:37" hidden="1">
       <c r="A150" s="46" t="s">
         <v>458</v>
       </c>
@@ -11643,7 +11607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:37">
+    <row r="151" spans="1:37" hidden="1">
       <c r="A151" s="46" t="s">
         <v>461</v>
       </c>
@@ -11696,7 +11660,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="152" spans="1:37">
+    <row r="152" spans="1:37" hidden="1">
       <c r="A152" s="23"/>
       <c r="B152">
         <v>1</v>
@@ -11746,7 +11710,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="153" spans="1:37">
+    <row r="153" spans="1:37" hidden="1">
       <c r="A153" s="23"/>
       <c r="B153">
         <v>1</v>
@@ -11776,7 +11740,7 @@
       </c>
       <c r="Z153" s="49"/>
     </row>
-    <row r="154" spans="1:37">
+    <row r="154" spans="1:37" hidden="1">
       <c r="A154" s="23"/>
       <c r="B154">
         <v>1</v>
@@ -11806,7 +11770,7 @@
       </c>
       <c r="Z154" s="49"/>
     </row>
-    <row r="155" spans="1:37">
+    <row r="155" spans="1:37" hidden="1">
       <c r="A155" s="23"/>
       <c r="B155">
         <v>1</v>
@@ -11833,7 +11797,7 @@
       </c>
       <c r="Z155" s="49"/>
     </row>
-    <row r="156" spans="1:37">
+    <row r="156" spans="1:37" hidden="1">
       <c r="B156">
         <v>1</v>
       </c>
@@ -11872,7 +11836,7 @@
       </c>
       <c r="Z156" s="49"/>
     </row>
-    <row r="157" spans="1:37">
+    <row r="157" spans="1:37" hidden="1">
       <c r="B157">
         <v>1</v>
       </c>
@@ -11892,7 +11856,7 @@
       </c>
       <c r="Z157" s="49"/>
     </row>
-    <row r="158" spans="1:37">
+    <row r="158" spans="1:37" hidden="1">
       <c r="A158" s="46" t="s">
         <v>481</v>
       </c>
@@ -11942,7 +11906,7 @@
       <c r="AF158" s="20"/>
       <c r="AG158" s="20"/>
     </row>
-    <row r="159" spans="1:37">
+    <row r="159" spans="1:37" hidden="1">
       <c r="A159" s="23"/>
       <c r="B159">
         <v>1</v>
@@ -11992,7 +11956,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="160" spans="1:37">
+    <row r="160" spans="1:37" hidden="1">
       <c r="A160" s="23"/>
       <c r="B160">
         <v>1</v>
@@ -12022,7 +11986,7 @@
       </c>
       <c r="Z160" s="49"/>
     </row>
-    <row r="161" spans="1:34">
+    <row r="161" spans="1:34" hidden="1">
       <c r="A161" s="23"/>
       <c r="B161">
         <v>1</v>
@@ -12052,7 +12016,7 @@
       </c>
       <c r="Z161" s="49"/>
     </row>
-    <row r="162" spans="1:34">
+    <row r="162" spans="1:34" hidden="1">
       <c r="A162" s="23"/>
       <c r="B162">
         <v>1</v>
@@ -12079,7 +12043,7 @@
       </c>
       <c r="Z162" s="49"/>
     </row>
-    <row r="163" spans="1:34">
+    <row r="163" spans="1:34" hidden="1">
       <c r="B163">
         <v>1</v>
       </c>
@@ -12118,7 +12082,7 @@
       </c>
       <c r="Z163" s="49"/>
     </row>
-    <row r="164" spans="1:34">
+    <row r="164" spans="1:34" hidden="1">
       <c r="B164">
         <v>1</v>
       </c>
@@ -12138,7 +12102,7 @@
       </c>
       <c r="Z164" s="49"/>
     </row>
-    <row r="165" spans="1:34">
+    <row r="165" spans="1:34" hidden="1">
       <c r="A165" s="46" t="s">
         <v>483</v>
       </c>
@@ -12249,7 +12213,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="167" spans="1:34">
+    <row r="167" spans="1:34" hidden="1">
       <c r="A167" s="46" t="s">
         <v>488</v>
       </c>
@@ -12299,7 +12263,7 @@
       <c r="AF167" s="20"/>
       <c r="AG167" s="20"/>
     </row>
-    <row r="168" spans="1:34">
+    <row r="168" spans="1:34" hidden="1">
       <c r="A168" s="23"/>
       <c r="B168">
         <v>1</v>
@@ -12349,7 +12313,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="169" spans="1:34">
+    <row r="169" spans="1:34" hidden="1">
       <c r="A169" s="23"/>
       <c r="B169">
         <v>1</v>
@@ -12379,7 +12343,7 @@
       </c>
       <c r="Z169" s="49"/>
     </row>
-    <row r="170" spans="1:34">
+    <row r="170" spans="1:34" hidden="1">
       <c r="A170" s="23"/>
       <c r="B170">
         <v>1</v>
@@ -12409,7 +12373,7 @@
       </c>
       <c r="Z170" s="49"/>
     </row>
-    <row r="171" spans="1:34">
+    <row r="171" spans="1:34" hidden="1">
       <c r="A171" s="23"/>
       <c r="B171">
         <v>1</v>
@@ -12436,7 +12400,7 @@
       </c>
       <c r="Z171" s="49"/>
     </row>
-    <row r="172" spans="1:34">
+    <row r="172" spans="1:34" hidden="1">
       <c r="B172">
         <v>1</v>
       </c>
@@ -12475,7 +12439,7 @@
       </c>
       <c r="Z172" s="49"/>
     </row>
-    <row r="173" spans="1:34">
+    <row r="173" spans="1:34" hidden="1">
       <c r="B173">
         <v>1</v>
       </c>
@@ -12495,7 +12459,7 @@
       </c>
       <c r="Z173" s="49"/>
     </row>
-    <row r="174" spans="1:34">
+    <row r="174" spans="1:34" hidden="1">
       <c r="A174" s="46" t="s">
         <v>491</v>
       </c>
@@ -12545,7 +12509,7 @@
       <c r="AF174" s="20"/>
       <c r="AG174" s="20"/>
     </row>
-    <row r="175" spans="1:34">
+    <row r="175" spans="1:34" hidden="1">
       <c r="A175" s="23"/>
       <c r="B175">
         <v>1</v>
@@ -12595,7 +12559,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="176" spans="1:34">
+    <row r="176" spans="1:34" hidden="1">
       <c r="A176" s="23"/>
       <c r="B176">
         <v>1</v>
@@ -12625,7 +12589,7 @@
       </c>
       <c r="Z176" s="49"/>
     </row>
-    <row r="177" spans="1:33">
+    <row r="177" spans="1:33" hidden="1">
       <c r="A177" s="23"/>
       <c r="B177">
         <v>1</v>
@@ -12655,7 +12619,7 @@
       </c>
       <c r="Z177" s="49"/>
     </row>
-    <row r="178" spans="1:33">
+    <row r="178" spans="1:33" hidden="1">
       <c r="A178" s="23"/>
       <c r="B178">
         <v>1</v>
@@ -12682,7 +12646,7 @@
       </c>
       <c r="Z178" s="49"/>
     </row>
-    <row r="179" spans="1:33">
+    <row r="179" spans="1:33" hidden="1">
       <c r="B179">
         <v>1</v>
       </c>
@@ -12721,7 +12685,7 @@
       </c>
       <c r="Z179" s="49"/>
     </row>
-    <row r="180" spans="1:33">
+    <row r="180" spans="1:33" hidden="1">
       <c r="B180">
         <v>1</v>
       </c>
@@ -12835,7 +12799,7 @@
       <c r="AF182" s="20"/>
       <c r="AG182" s="20"/>
     </row>
-    <row r="183" spans="1:33">
+    <row r="183" spans="1:33" hidden="1">
       <c r="A183" s="46" t="s">
         <v>500</v>
       </c>
@@ -12946,7 +12910,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="185" spans="1:33">
+    <row r="185" spans="1:33" hidden="1">
       <c r="A185" s="46" t="s">
         <v>507</v>
       </c>
@@ -13100,7 +13064,7 @@
       <c r="AF187" s="20"/>
       <c r="AG187" s="20"/>
     </row>
-    <row r="188" spans="1:33">
+    <row r="188" spans="1:33" hidden="1">
       <c r="A188" s="46" t="s">
         <v>513</v>
       </c>
@@ -13150,7 +13114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:33">
+    <row r="189" spans="1:33" hidden="1">
       <c r="B189">
         <v>1</v>
       </c>
@@ -13197,7 +13161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:33">
+    <row r="190" spans="1:33" hidden="1">
       <c r="B190">
         <v>1</v>
       </c>
@@ -13221,7 +13185,7 @@
       </c>
       <c r="Z190" s="49"/>
     </row>
-    <row r="191" spans="1:33">
+    <row r="191" spans="1:33" hidden="1">
       <c r="B191">
         <v>1</v>
       </c>
@@ -13242,7 +13206,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="192" spans="1:33">
+    <row r="192" spans="1:33" hidden="1">
       <c r="A192" s="58" t="s">
         <v>524</v>
       </c>
@@ -13290,7 +13254,7 @@
       </c>
       <c r="AG192" s="60"/>
     </row>
-    <row r="193" spans="1:33">
+    <row r="193" spans="1:33" hidden="1">
       <c r="A193" s="23"/>
       <c r="B193">
         <v>1</v>
@@ -13345,7 +13309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:33">
+    <row r="194" spans="1:33" hidden="1">
       <c r="A194" s="58" t="s">
         <v>533</v>
       </c>
@@ -13395,7 +13359,7 @@
       <c r="AF194" s="60"/>
       <c r="AG194" s="60"/>
     </row>
-    <row r="195" spans="1:33">
+    <row r="195" spans="1:33" hidden="1">
       <c r="A195" s="32"/>
       <c r="B195">
         <v>1</v>
@@ -13453,6 +13417,20 @@
         <v>1</v>
       </c>
       <c r="D196" s="32"/>
+      <c r="G196" s="20">
+        <v>0</v>
+      </c>
+      <c r="H196" s="20" t="s">
+        <v>807</v>
+      </c>
+      <c r="I196" s="20">
+        <v>1</v>
+      </c>
+      <c r="J196" s="20"/>
+      <c r="K196" s="20"/>
+      <c r="L196" s="20">
+        <v>2</v>
+      </c>
       <c r="N196" s="49" t="s">
         <v>824</v>
       </c>
@@ -13468,7 +13446,7 @@
       </c>
       <c r="Z196" s="49"/>
     </row>
-    <row r="197" spans="1:33">
+    <row r="197" spans="1:33" hidden="1">
       <c r="A197" s="58" t="s">
         <v>542</v>
       </c>
@@ -13518,7 +13496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:33">
+    <row r="198" spans="1:33" hidden="1">
       <c r="B198">
         <v>1</v>
       </c>
@@ -13566,7 +13544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:33">
+    <row r="199" spans="1:33" hidden="1">
       <c r="A199" s="58" t="s">
         <v>544</v>
       </c>
@@ -13616,7 +13594,7 @@
       <c r="AF199" s="60"/>
       <c r="AG199" s="60"/>
     </row>
-    <row r="200" spans="1:33">
+    <row r="200" spans="1:33" hidden="1">
       <c r="A200" s="58" t="s">
         <v>548</v>
       </c>
@@ -13668,7 +13646,7 @@
       <c r="AF200" s="60"/>
       <c r="AG200" s="60"/>
     </row>
-    <row r="201" spans="1:33">
+    <row r="201" spans="1:33" hidden="1">
       <c r="A201" s="23"/>
       <c r="B201">
         <v>1</v>
@@ -13723,7 +13701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:33">
+    <row r="202" spans="1:33" hidden="1">
       <c r="A202" s="23"/>
       <c r="B202">
         <v>1</v>
@@ -13813,7 +13791,7 @@
       </c>
       <c r="Z204" s="49"/>
     </row>
-    <row r="205" spans="1:33">
+    <row r="205" spans="1:33" hidden="1">
       <c r="A205" s="58" t="s">
         <v>562</v>
       </c>
@@ -13865,7 +13843,7 @@
       <c r="AF205" s="60"/>
       <c r="AG205" s="60"/>
     </row>
-    <row r="206" spans="1:33">
+    <row r="206" spans="1:33" hidden="1">
       <c r="A206" s="23"/>
       <c r="B206">
         <v>1</v>
@@ -13903,7 +13881,7 @@
       </c>
       <c r="Z206" s="49"/>
     </row>
-    <row r="207" spans="1:33">
+    <row r="207" spans="1:33" hidden="1">
       <c r="A207" s="23"/>
       <c r="B207">
         <v>1</v>
@@ -13927,7 +13905,7 @@
       </c>
       <c r="Z207" s="49"/>
     </row>
-    <row r="208" spans="1:33">
+    <row r="208" spans="1:33" hidden="1">
       <c r="A208" s="23"/>
       <c r="B208">
         <v>1</v>
@@ -13954,7 +13932,7 @@
       </c>
       <c r="Z208" s="49"/>
     </row>
-    <row r="209" spans="1:37">
+    <row r="209" spans="1:37" hidden="1">
       <c r="A209" s="58" t="s">
         <v>571</v>
       </c>
@@ -14007,7 +13985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:37">
+    <row r="210" spans="1:37" hidden="1">
       <c r="A210" s="58" t="s">
         <v>575</v>
       </c>
@@ -14057,7 +14035,7 @@
       <c r="AF210" s="60"/>
       <c r="AG210" s="60"/>
     </row>
-    <row r="211" spans="1:37">
+    <row r="211" spans="1:37" hidden="1">
       <c r="A211" s="23"/>
       <c r="B211">
         <v>1</v>
@@ -14107,7 +14085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:37">
+    <row r="212" spans="1:37" hidden="1">
       <c r="A212" s="58" t="s">
         <v>583</v>
       </c>
@@ -14159,7 +14137,7 @@
       <c r="AF212" s="60"/>
       <c r="AG212" s="60"/>
     </row>
-    <row r="213" spans="1:37">
+    <row r="213" spans="1:37" hidden="1">
       <c r="A213" s="23"/>
       <c r="B213">
         <v>1</v>
@@ -14202,7 +14180,7 @@
       <c r="AE213" s="60"/>
       <c r="AF213" s="60"/>
     </row>
-    <row r="214" spans="1:37">
+    <row r="214" spans="1:37" hidden="1">
       <c r="A214" s="23"/>
       <c r="B214">
         <v>1</v>
@@ -14226,7 +14204,7 @@
       <c r="AE214" s="60"/>
       <c r="AF214" s="60"/>
     </row>
-    <row r="215" spans="1:37">
+    <row r="215" spans="1:37" hidden="1">
       <c r="A215" s="23"/>
       <c r="B215">
         <v>1</v>
@@ -14283,7 +14261,7 @@
       <c r="AE215" s="60"/>
       <c r="AF215" s="60"/>
     </row>
-    <row r="216" spans="1:37">
+    <row r="216" spans="1:37" hidden="1">
       <c r="A216" s="23"/>
       <c r="B216">
         <v>1</v>
@@ -14303,7 +14281,7 @@
       </c>
       <c r="Z216" s="49"/>
     </row>
-    <row r="217" spans="1:37">
+    <row r="217" spans="1:37" hidden="1">
       <c r="A217" s="58" t="s">
         <v>598</v>
       </c>
@@ -14353,7 +14331,7 @@
       <c r="AF217" s="60"/>
       <c r="AG217" s="60"/>
     </row>
-    <row r="218" spans="1:37">
+    <row r="218" spans="1:37" hidden="1">
       <c r="A218" s="23"/>
       <c r="B218">
         <v>1</v>
@@ -14396,7 +14374,7 @@
       <c r="AE218" s="60"/>
       <c r="AF218" s="60"/>
     </row>
-    <row r="219" spans="1:37">
+    <row r="219" spans="1:37" hidden="1">
       <c r="A219" s="23"/>
       <c r="B219">
         <v>1</v>
@@ -14420,7 +14398,7 @@
       <c r="AE219" s="60"/>
       <c r="AF219" s="60"/>
     </row>
-    <row r="220" spans="1:37">
+    <row r="220" spans="1:37" hidden="1">
       <c r="A220" s="23"/>
       <c r="B220">
         <v>1</v>
@@ -14477,7 +14455,7 @@
       <c r="AE220" s="60"/>
       <c r="AF220" s="60"/>
     </row>
-    <row r="221" spans="1:37">
+    <row r="221" spans="1:37" hidden="1">
       <c r="A221" s="23"/>
       <c r="B221">
         <v>1</v>
@@ -14497,7 +14475,7 @@
       </c>
       <c r="Z221" s="49"/>
     </row>
-    <row r="222" spans="1:37">
+    <row r="222" spans="1:37" hidden="1">
       <c r="A222" s="58" t="s">
         <v>601</v>
       </c>
@@ -14547,7 +14525,7 @@
       <c r="AF222" s="60"/>
       <c r="AG222" s="60"/>
     </row>
-    <row r="223" spans="1:37">
+    <row r="223" spans="1:37" hidden="1">
       <c r="A223" s="23"/>
       <c r="B223">
         <v>1</v>
@@ -14594,7 +14572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:37">
+    <row r="224" spans="1:37" hidden="1">
       <c r="A224" s="23"/>
       <c r="B224">
         <v>1</v>
@@ -14615,7 +14593,7 @@
       <c r="Z224" s="49"/>
       <c r="AB224" s="67"/>
     </row>
-    <row r="225" spans="1:37">
+    <row r="225" spans="1:37" hidden="1">
       <c r="A225" s="58" t="s">
         <v>609</v>
       </c>
@@ -14667,7 +14645,7 @@
       <c r="AF225" s="60"/>
       <c r="AG225" s="60"/>
     </row>
-    <row r="226" spans="1:37">
+    <row r="226" spans="1:37" hidden="1">
       <c r="A226" s="23"/>
       <c r="B226">
         <v>1</v>
@@ -14713,7 +14691,7 @@
       <c r="AE226" s="60"/>
       <c r="AF226" s="60"/>
     </row>
-    <row r="227" spans="1:37">
+    <row r="227" spans="1:37" hidden="1">
       <c r="A227" s="23"/>
       <c r="B227">
         <v>1</v>
@@ -14737,7 +14715,7 @@
       <c r="AE227" s="60"/>
       <c r="AF227" s="60"/>
     </row>
-    <row r="228" spans="1:37">
+    <row r="228" spans="1:37" hidden="1">
       <c r="A228" s="23"/>
       <c r="B228">
         <v>1</v>
@@ -14794,7 +14772,7 @@
       <c r="AE228" s="60"/>
       <c r="AF228" s="60"/>
     </row>
-    <row r="229" spans="1:37">
+    <row r="229" spans="1:37" hidden="1">
       <c r="A229" s="23"/>
       <c r="B229">
         <v>1</v>
@@ -14919,7 +14897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:37">
+    <row r="232" spans="1:37" hidden="1">
       <c r="A232" s="58" t="s">
         <v>620</v>
       </c>
@@ -14971,7 +14949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:37">
+    <row r="233" spans="1:37" hidden="1">
       <c r="A233" s="23"/>
       <c r="B233">
         <v>1</v>
@@ -15172,7 +15150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:37">
+    <row r="237" spans="1:37" hidden="1">
       <c r="A237" s="58" t="s">
         <v>637</v>
       </c>
@@ -15298,7 +15276,7 @@
       </c>
       <c r="Z239" s="49"/>
     </row>
-    <row r="240" spans="1:37">
+    <row r="240" spans="1:37" hidden="1">
       <c r="A240" s="58" t="s">
         <v>647</v>
       </c>
@@ -15348,7 +15326,7 @@
       <c r="AF240" s="60"/>
       <c r="AG240" s="60"/>
     </row>
-    <row r="241" spans="1:34">
+    <row r="241" spans="1:34" hidden="1">
       <c r="A241" s="23"/>
       <c r="B241">
         <v>1</v>
@@ -15402,7 +15380,7 @@
       <c r="AE241" s="49"/>
       <c r="AF241" s="49"/>
     </row>
-    <row r="242" spans="1:34">
+    <row r="242" spans="1:34" hidden="1">
       <c r="A242" s="58" t="s">
         <v>654</v>
       </c>
@@ -15557,7 +15535,7 @@
       <c r="AF244" s="60"/>
       <c r="AG244" s="60"/>
     </row>
-    <row r="245" spans="1:34">
+    <row r="245" spans="1:34" hidden="1">
       <c r="A245" s="58" t="s">
         <v>666</v>
       </c>
@@ -15607,7 +15585,7 @@
       <c r="AF245" s="60"/>
       <c r="AG245" s="60"/>
     </row>
-    <row r="246" spans="1:34">
+    <row r="246" spans="1:34" hidden="1">
       <c r="A246" s="23"/>
       <c r="B246">
         <v>1</v>
@@ -15713,7 +15691,7 @@
       <c r="AF247" s="60"/>
       <c r="AG247" s="60"/>
     </row>
-    <row r="248" spans="1:34">
+    <row r="248" spans="1:34" hidden="1">
       <c r="A248" s="58" t="s">
         <v>681</v>
       </c>
@@ -15765,7 +15743,7 @@
       <c r="AF248" s="60"/>
       <c r="AG248" s="60"/>
     </row>
-    <row r="249" spans="1:34">
+    <row r="249" spans="1:34" hidden="1">
       <c r="A249" s="23"/>
       <c r="B249">
         <v>1</v>
@@ -15809,7 +15787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:34">
+    <row r="250" spans="1:34" hidden="1">
       <c r="A250" s="23"/>
       <c r="B250">
         <v>1</v>
@@ -15856,7 +15834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:34">
+    <row r="251" spans="1:34" hidden="1">
       <c r="A251" s="23"/>
       <c r="B251">
         <v>1</v>
@@ -16011,7 +15989,7 @@
       <c r="AE253" s="60"/>
       <c r="AF253" s="60"/>
     </row>
-    <row r="254" spans="1:34">
+    <row r="254" spans="1:34" hidden="1">
       <c r="A254" s="58" t="s">
         <v>697</v>
       </c>
@@ -16061,7 +16039,7 @@
       <c r="AF254" s="60"/>
       <c r="AG254" s="60"/>
     </row>
-    <row r="255" spans="1:34">
+    <row r="255" spans="1:34" hidden="1">
       <c r="A255" s="23"/>
       <c r="B255">
         <v>1</v>
@@ -16115,7 +16093,7 @@
       <c r="AE255" s="60"/>
       <c r="AF255" s="60"/>
     </row>
-    <row r="256" spans="1:34">
+    <row r="256" spans="1:34" hidden="1">
       <c r="A256" s="23"/>
       <c r="B256">
         <v>1</v>
@@ -16142,7 +16120,7 @@
       </c>
       <c r="Z256" s="49"/>
     </row>
-    <row r="257" spans="1:36">
+    <row r="257" spans="1:36" hidden="1">
       <c r="A257" s="23"/>
       <c r="B257">
         <v>1</v>
@@ -16196,7 +16174,7 @@
       <c r="AE257" s="60"/>
       <c r="AF257" s="60"/>
     </row>
-    <row r="258" spans="1:36">
+    <row r="258" spans="1:36" hidden="1">
       <c r="A258" s="58" t="s">
         <v>709</v>
       </c>
@@ -16249,7 +16227,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="259" spans="1:36">
+    <row r="259" spans="1:36" hidden="1">
       <c r="A259" s="23"/>
       <c r="B259">
         <v>1</v>
@@ -16439,7 +16417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:36">
+    <row r="262" spans="1:36" hidden="1">
       <c r="A262" s="58" t="s">
         <v>725</v>
       </c>
@@ -16491,7 +16469,7 @@
       <c r="AF262" s="60"/>
       <c r="AG262" s="60"/>
     </row>
-    <row r="263" spans="1:36">
+    <row r="263" spans="1:36" hidden="1">
       <c r="A263" s="58"/>
       <c r="B263">
         <v>1</v>
@@ -16624,7 +16602,7 @@
       <c r="AF265" s="60"/>
       <c r="AG265" s="60"/>
     </row>
-    <row r="266" spans="1:36">
+    <row r="266" spans="1:36" hidden="1">
       <c r="A266" s="60" t="s">
         <v>739</v>
       </c>
@@ -16725,6 +16703,9 @@
       <c r="I268" s="89">
         <v>0</v>
       </c>
+      <c r="L268" s="19">
+        <v>2</v>
+      </c>
       <c r="N268" s="49" t="s">
         <v>62</v>
       </c>
@@ -16761,7 +16742,7 @@
       <c r="AF268" s="49"/>
       <c r="AJ268" s="47"/>
     </row>
-    <row r="269" spans="1:36">
+    <row r="269" spans="1:36" hidden="1">
       <c r="A269" s="60" t="s">
         <v>745</v>
       </c>
@@ -16813,7 +16794,7 @@
       <c r="AF269" s="60"/>
       <c r="AG269" s="60"/>
     </row>
-    <row r="270" spans="1:36">
+    <row r="270" spans="1:36" hidden="1">
       <c r="B270">
         <v>1</v>
       </c>
@@ -16866,7 +16847,7 @@
       <c r="AE270" s="49"/>
       <c r="AF270" s="49"/>
     </row>
-    <row r="271" spans="1:36">
+    <row r="271" spans="1:36" hidden="1">
       <c r="B271">
         <v>1</v>
       </c>
@@ -16883,7 +16864,7 @@
       </c>
       <c r="Z271" s="49"/>
     </row>
-    <row r="272" spans="1:36">
+    <row r="272" spans="1:36" hidden="1">
       <c r="B272">
         <v>1</v>
       </c>
@@ -16952,7 +16933,7 @@
       <c r="AF273" s="60"/>
       <c r="AG273" s="60"/>
     </row>
-    <row r="274" spans="1:37">
+    <row r="274" spans="1:37" hidden="1">
       <c r="A274" s="76" t="s">
         <v>759</v>
       </c>
@@ -17002,7 +16983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:37">
+    <row r="275" spans="1:37" hidden="1">
       <c r="B275">
         <v>1</v>
       </c>
@@ -17017,7 +16998,7 @@
       </c>
       <c r="Z275" s="49"/>
     </row>
-    <row r="276" spans="1:37">
+    <row r="276" spans="1:37" hidden="1">
       <c r="A276" s="60" t="s">
         <v>762</v>
       </c>
@@ -17069,7 +17050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:37">
+    <row r="277" spans="1:37" hidden="1">
       <c r="B277">
         <v>1</v>
       </c>
@@ -17084,7 +17065,7 @@
       </c>
       <c r="Z277" s="49"/>
     </row>
-    <row r="278" spans="1:37">
+    <row r="278" spans="1:37" hidden="1">
       <c r="A278" s="60" t="s">
         <v>765</v>
       </c>
@@ -17136,7 +17117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:37">
+    <row r="279" spans="1:37" hidden="1">
       <c r="B279">
         <v>1</v>
       </c>
@@ -17195,7 +17176,7 @@
       <c r="AF280" s="60"/>
       <c r="AG280" s="60"/>
     </row>
-    <row r="281" spans="1:37">
+    <row r="281" spans="1:37" hidden="1">
       <c r="A281" s="60" t="s">
         <v>771</v>
       </c>
@@ -17239,7 +17220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:37">
+    <row r="282" spans="1:37" hidden="1">
       <c r="B282">
         <v>1</v>
       </c>
@@ -17345,7 +17326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:37">
+    <row r="285" spans="1:37" hidden="1">
       <c r="A285" s="60" t="s">
         <v>778</v>
       </c>
@@ -17391,7 +17372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:37">
+    <row r="286" spans="1:37" hidden="1">
       <c r="B286">
         <v>1</v>
       </c>
@@ -17500,7 +17481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:37" customFormat="1" ht="23">
+    <row r="289" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A289" s="91" t="s">
         <v>828</v>
       </c>
@@ -17535,7 +17516,9 @@
         <v>830</v>
       </c>
       <c r="V289" s="93"/>
-      <c r="W289" s="93"/>
+      <c r="W289" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X289" s="93"/>
       <c r="Y289" s="93"/>
       <c r="Z289" s="93"/>
@@ -17553,13 +17536,16 @@
       <c r="AJ289" s="93"/>
       <c r="AK289" s="93"/>
     </row>
-    <row r="290" spans="1:37" customFormat="1" ht="19">
+    <row r="290" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A290" s="96"/>
       <c r="B290" s="96">
         <v>1</v>
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="96"/>
+      <c r="N290" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="O290" t="s">
         <v>831</v>
       </c>
@@ -17575,7 +17561,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="291" spans="1:37" customFormat="1" ht="19">
+    <row r="291" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A291" s="91" t="s">
         <v>833</v>
       </c>
@@ -17610,7 +17596,9 @@
         <v>836</v>
       </c>
       <c r="V291" s="93"/>
-      <c r="W291" s="93"/>
+      <c r="W291" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X291" s="93"/>
       <c r="Y291" s="93"/>
       <c r="Z291" s="93"/>
@@ -17630,13 +17618,16 @@
       <c r="AJ291" s="93"/>
       <c r="AK291" s="93"/>
     </row>
-    <row r="292" spans="1:37" customFormat="1" ht="19">
+    <row r="292" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A292" s="96"/>
       <c r="B292" s="96">
         <v>1</v>
       </c>
       <c r="C292" s="1"/>
       <c r="D292" s="96"/>
+      <c r="N292" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O292" s="99" t="s">
         <v>753</v>
       </c>
@@ -17647,19 +17638,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:37" customFormat="1" ht="19">
+    <row r="293" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A293" s="96"/>
       <c r="B293" s="96">
         <v>1</v>
       </c>
       <c r="C293" s="1"/>
       <c r="D293" s="96"/>
+      <c r="N293" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O293" s="99" t="s">
         <v>755</v>
       </c>
       <c r="Q293" s="94"/>
     </row>
-    <row r="294" spans="1:37" customFormat="1" ht="19">
+    <row r="294" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A294" s="91" t="s">
         <v>837</v>
       </c>
@@ -17694,7 +17688,9 @@
         <v>551</v>
       </c>
       <c r="V294" s="93"/>
-      <c r="W294" s="93"/>
+      <c r="W294" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X294" s="93"/>
       <c r="Y294" s="93"/>
       <c r="Z294" s="93"/>
@@ -17712,12 +17708,15 @@
       <c r="AJ294" s="93"/>
       <c r="AK294" s="93"/>
     </row>
-    <row r="295" spans="1:37" customFormat="1" ht="23">
+    <row r="295" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A295" s="96"/>
       <c r="B295" s="96">
         <v>1</v>
       </c>
       <c r="C295" s="1"/>
+      <c r="N295" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O295" t="s">
         <v>552</v>
       </c>
@@ -17764,12 +17763,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:37" customFormat="1">
+    <row r="296" spans="1:37" customFormat="1" hidden="1">
       <c r="A296" s="96"/>
       <c r="B296" s="96">
         <v>1</v>
       </c>
       <c r="C296" s="1"/>
+      <c r="N296" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O296" t="s">
         <v>556</v>
       </c>
@@ -17777,7 +17779,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="297" spans="1:37" customFormat="1" ht="19">
+    <row r="297" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A297" s="91" t="s">
         <v>839</v>
       </c>
@@ -17812,7 +17814,9 @@
         <v>841</v>
       </c>
       <c r="V297" s="93"/>
-      <c r="W297" s="93"/>
+      <c r="W297" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X297" s="93"/>
       <c r="Y297" s="93"/>
       <c r="Z297" s="93"/>
@@ -17832,7 +17836,7 @@
       <c r="AJ297" s="93"/>
       <c r="AK297" s="93"/>
     </row>
-    <row r="298" spans="1:37" customFormat="1" ht="19">
+    <row r="298" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A298" s="96"/>
       <c r="B298" s="96">
         <v>1</v>
@@ -17845,7 +17849,7 @@
       <c r="Q298" s="101"/>
       <c r="U298" s="97"/>
     </row>
-    <row r="299" spans="1:37" customFormat="1" ht="19">
+    <row r="299" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A299" s="91" t="s">
         <v>843</v>
       </c>
@@ -17880,7 +17884,9 @@
         <v>845</v>
       </c>
       <c r="V299" s="93"/>
-      <c r="W299" s="93"/>
+      <c r="W299" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X299" s="93"/>
       <c r="Y299" s="93"/>
       <c r="Z299" s="93"/>
@@ -17898,12 +17904,15 @@
       <c r="AJ299" s="93"/>
       <c r="AK299" s="93"/>
     </row>
-    <row r="300" spans="1:37" customFormat="1" ht="23">
+    <row r="300" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A300" s="96"/>
       <c r="B300" s="96">
         <v>1</v>
       </c>
       <c r="C300" s="1"/>
+      <c r="N300" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="P300" t="s">
         <v>587</v>
       </c>
@@ -17940,12 +17949,15 @@
       <c r="AE300" s="104"/>
       <c r="AF300" s="104"/>
     </row>
-    <row r="301" spans="1:37" customFormat="1" ht="19">
+    <row r="301" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A301" s="96"/>
       <c r="B301" s="96">
         <v>1</v>
       </c>
       <c r="C301" s="1"/>
+      <c r="N301" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O301" t="s">
         <v>590</v>
       </c>
@@ -17960,14 +17972,14 @@
       <c r="AE301" s="104"/>
       <c r="AF301" s="104"/>
     </row>
-    <row r="302" spans="1:37" customFormat="1" ht="25">
+    <row r="302" spans="1:37" customFormat="1" ht="25" hidden="1">
       <c r="A302" s="96"/>
       <c r="B302" s="96">
         <v>1</v>
       </c>
       <c r="C302" s="1"/>
-      <c r="N302" t="s">
-        <v>592</v>
+      <c r="N302" s="96" t="s">
+        <v>12</v>
       </c>
       <c r="O302" t="s">
         <v>593</v>
@@ -18014,7 +18026,7 @@
       <c r="AE302" s="104"/>
       <c r="AF302" s="104"/>
     </row>
-    <row r="303" spans="1:37" customFormat="1">
+    <row r="303" spans="1:37" customFormat="1" hidden="1">
       <c r="A303" s="96"/>
       <c r="B303" s="96">
         <v>1</v>
@@ -18030,7 +18042,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="304" spans="1:37" customFormat="1" ht="23">
+    <row r="304" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A304" s="91" t="s">
         <v>850</v>
       </c>
@@ -18067,7 +18079,9 @@
         <v>853</v>
       </c>
       <c r="V304" s="93"/>
-      <c r="W304" s="93"/>
+      <c r="W304" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X304" s="93"/>
       <c r="Y304" s="93"/>
       <c r="Z304" s="93"/>
@@ -18087,7 +18101,7 @@
       <c r="AJ304" s="93"/>
       <c r="AK304" s="93"/>
     </row>
-    <row r="305" spans="1:37" customFormat="1" ht="19">
+    <row r="305" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A305" s="91" t="s">
         <v>854</v>
       </c>
@@ -18122,7 +18136,9 @@
         <v>856</v>
       </c>
       <c r="V305" s="93"/>
-      <c r="W305" s="93"/>
+      <c r="W305" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X305" s="93"/>
       <c r="Y305" s="93"/>
       <c r="Z305" s="93"/>
@@ -18149,6 +18165,27 @@
       </c>
       <c r="C306" s="1"/>
       <c r="D306" s="96"/>
+      <c r="G306" s="93">
+        <v>1</v>
+      </c>
+      <c r="H306" s="93" t="s">
+        <v>806</v>
+      </c>
+      <c r="I306" s="93">
+        <v>1</v>
+      </c>
+      <c r="J306" s="93" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K306" s="93">
+        <v>216</v>
+      </c>
+      <c r="L306" s="93">
+        <v>2</v>
+      </c>
+      <c r="N306" t="s">
+        <v>1045</v>
+      </c>
       <c r="O306" t="s">
         <v>858</v>
       </c>
@@ -18175,6 +18212,27 @@
       </c>
       <c r="C307" s="1"/>
       <c r="D307" s="96"/>
+      <c r="G307" s="93">
+        <v>1</v>
+      </c>
+      <c r="H307" s="93" t="s">
+        <v>806</v>
+      </c>
+      <c r="I307" s="93">
+        <v>1</v>
+      </c>
+      <c r="J307" s="93" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K307" s="93">
+        <v>14</v>
+      </c>
+      <c r="L307" s="93">
+        <v>2</v>
+      </c>
+      <c r="N307" t="s">
+        <v>1045</v>
+      </c>
       <c r="O307" s="1" t="s">
         <v>859</v>
       </c>
@@ -18194,7 +18252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:37" customFormat="1" ht="19">
+    <row r="308" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A308" s="91" t="s">
         <v>860</v>
       </c>
@@ -18229,7 +18287,9 @@
         <v>862</v>
       </c>
       <c r="V308" s="93"/>
-      <c r="W308" s="93"/>
+      <c r="W308" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X308" s="93"/>
       <c r="Y308" s="93"/>
       <c r="Z308" s="93"/>
@@ -18247,7 +18307,7 @@
       <c r="AJ308" s="93"/>
       <c r="AK308" s="93"/>
     </row>
-    <row r="309" spans="1:37" customFormat="1">
+    <row r="309" spans="1:37" customFormat="1" hidden="1">
       <c r="A309" s="91" t="s">
         <v>863</v>
       </c>
@@ -18282,7 +18342,9 @@
         <v>865</v>
       </c>
       <c r="V309" s="93"/>
-      <c r="W309" s="93"/>
+      <c r="W309" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X309" s="93"/>
       <c r="Y309" s="93"/>
       <c r="Z309" s="93"/>
@@ -18300,13 +18362,16 @@
       <c r="AJ309" s="93"/>
       <c r="AK309" s="93"/>
     </row>
-    <row r="310" spans="1:37" customFormat="1" ht="30">
+    <row r="310" spans="1:37" customFormat="1" ht="30" hidden="1">
       <c r="A310" s="96"/>
       <c r="B310" s="96">
         <v>1</v>
       </c>
       <c r="C310" s="1"/>
       <c r="D310" s="96"/>
+      <c r="N310" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O310" t="s">
         <v>866</v>
       </c>
@@ -18350,7 +18415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:37" customFormat="1" ht="30">
+    <row r="311" spans="1:37" customFormat="1" ht="30" hidden="1">
       <c r="A311" s="91" t="s">
         <v>871</v>
       </c>
@@ -18385,7 +18450,9 @@
         <v>873</v>
       </c>
       <c r="V311" s="93"/>
-      <c r="W311" s="93"/>
+      <c r="W311" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X311" s="93"/>
       <c r="Y311" s="93"/>
       <c r="Z311" s="93"/>
@@ -18403,7 +18470,7 @@
       <c r="AJ311" s="93"/>
       <c r="AK311" s="93"/>
     </row>
-    <row r="312" spans="1:37" customFormat="1" ht="19">
+    <row r="312" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A312" s="93" t="s">
         <v>874</v>
       </c>
@@ -18438,7 +18505,9 @@
         <v>877</v>
       </c>
       <c r="V312" s="93"/>
-      <c r="W312" s="93"/>
+      <c r="W312" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X312" s="93"/>
       <c r="Y312" s="93"/>
       <c r="Z312" s="93"/>
@@ -18456,11 +18525,14 @@
       <c r="AJ312" s="93"/>
       <c r="AK312" s="93"/>
     </row>
-    <row r="313" spans="1:37" customFormat="1" ht="19">
+    <row r="313" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="B313" s="91">
         <v>1</v>
       </c>
       <c r="C313" s="1"/>
+      <c r="N313" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O313" t="s">
         <v>878</v>
       </c>
@@ -18501,7 +18573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:37" customFormat="1" ht="19">
+    <row r="314" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A314" s="93" t="s">
         <v>883</v>
       </c>
@@ -18536,7 +18608,9 @@
         <v>886</v>
       </c>
       <c r="V314" s="93"/>
-      <c r="W314" s="93"/>
+      <c r="W314" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X314" s="93"/>
       <c r="Y314" s="93"/>
       <c r="Z314" s="93"/>
@@ -18554,11 +18628,14 @@
       <c r="AJ314" s="93"/>
       <c r="AK314" s="93"/>
     </row>
-    <row r="315" spans="1:37" customFormat="1" ht="23">
+    <row r="315" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B315">
         <v>1</v>
       </c>
       <c r="C315" s="1"/>
+      <c r="N315" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O315" t="s">
         <v>887</v>
       </c>
@@ -18599,7 +18676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:37" customFormat="1" ht="23">
+    <row r="316" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A316" s="93" t="s">
         <v>890</v>
       </c>
@@ -18634,7 +18711,9 @@
         <v>886</v>
       </c>
       <c r="V316" s="93"/>
-      <c r="W316" s="93"/>
+      <c r="W316" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X316" s="93"/>
       <c r="Y316" s="93"/>
       <c r="Z316" s="93"/>
@@ -18652,11 +18731,14 @@
       <c r="AJ316" s="93"/>
       <c r="AK316" s="93"/>
     </row>
-    <row r="317" spans="1:37" customFormat="1" ht="23">
+    <row r="317" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B317" s="93">
         <v>1</v>
       </c>
       <c r="C317" s="1"/>
+      <c r="N317" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O317" t="s">
         <v>887</v>
       </c>
@@ -18697,7 +18779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:37" customFormat="1" ht="40">
+    <row r="318" spans="1:37" customFormat="1" ht="40" hidden="1">
       <c r="A318" s="93" t="s">
         <v>892</v>
       </c>
@@ -18732,7 +18814,9 @@
         <v>895</v>
       </c>
       <c r="V318" s="93"/>
-      <c r="W318" s="93"/>
+      <c r="W318" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X318" s="93"/>
       <c r="Y318" s="93"/>
       <c r="Z318" s="93"/>
@@ -18750,7 +18834,7 @@
       <c r="AJ318" s="93"/>
       <c r="AK318" s="93"/>
     </row>
-    <row r="319" spans="1:37" customFormat="1">
+    <row r="319" spans="1:37" customFormat="1" hidden="1">
       <c r="B319" s="93">
         <v>1</v>
       </c>
@@ -18759,9 +18843,12 @@
         <v>896</v>
       </c>
     </row>
-    <row r="320" spans="1:37" customFormat="1" ht="19">
+    <row r="320" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="B320" s="93">
         <v>1</v>
+      </c>
+      <c r="N320" s="96" t="s">
+        <v>12</v>
       </c>
       <c r="O320" t="s">
         <v>897</v>
@@ -18803,7 +18890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:37" customFormat="1" ht="23">
+    <row r="321" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A321" s="93" t="s">
         <v>901</v>
       </c>
@@ -18838,7 +18925,9 @@
         <v>904</v>
       </c>
       <c r="V321" s="93"/>
-      <c r="W321" s="93"/>
+      <c r="W321" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X321" s="93"/>
       <c r="Y321" s="93"/>
       <c r="Z321" s="93"/>
@@ -18856,11 +18945,14 @@
       <c r="AJ321" s="93"/>
       <c r="AK321" s="93"/>
     </row>
-    <row r="322" spans="1:37" customFormat="1" ht="23">
+    <row r="322" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B322" s="93">
         <v>1</v>
       </c>
       <c r="C322" s="1"/>
+      <c r="N322" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O322" t="s">
         <v>905</v>
       </c>
@@ -18901,7 +18993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:37" customFormat="1" ht="35">
+    <row r="323" spans="1:37" customFormat="1" ht="35" hidden="1">
       <c r="A323" s="93" t="s">
         <v>910</v>
       </c>
@@ -18936,7 +19028,9 @@
         <v>912</v>
       </c>
       <c r="V323" s="93"/>
-      <c r="W323" s="93"/>
+      <c r="W323" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X323" s="93"/>
       <c r="Y323" s="93"/>
       <c r="Z323" s="93"/>
@@ -18954,11 +19048,14 @@
       <c r="AJ323" s="93"/>
       <c r="AK323" s="93"/>
     </row>
-    <row r="324" spans="1:37" customFormat="1" ht="35">
+    <row r="324" spans="1:37" customFormat="1" ht="35" hidden="1">
       <c r="B324" s="93">
         <v>1</v>
       </c>
       <c r="C324" s="1"/>
+      <c r="N324" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O324" t="s">
         <v>651</v>
       </c>
@@ -18999,7 +19096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:37" customFormat="1" ht="23">
+    <row r="325" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A325" s="93" t="s">
         <v>915</v>
       </c>
@@ -19034,7 +19131,9 @@
         <v>917</v>
       </c>
       <c r="V325" s="93"/>
-      <c r="W325" s="93"/>
+      <c r="W325" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X325" s="93"/>
       <c r="Y325" s="93"/>
       <c r="Z325" s="93"/>
@@ -19052,11 +19151,14 @@
       <c r="AJ325" s="93"/>
       <c r="AK325" s="93"/>
     </row>
-    <row r="326" spans="1:37" customFormat="1" ht="23">
+    <row r="326" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B326" s="93">
         <v>1</v>
       </c>
       <c r="C326" s="1"/>
+      <c r="N326" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O326" t="s">
         <v>918</v>
       </c>
@@ -19097,7 +19199,7 @@
       <c r="AF326" s="99"/>
       <c r="AG326" s="99"/>
     </row>
-    <row r="327" spans="1:37" customFormat="1" ht="23">
+    <row r="327" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A327" s="93" t="s">
         <v>922</v>
       </c>
@@ -19132,7 +19234,9 @@
         <v>917</v>
       </c>
       <c r="V327" s="93"/>
-      <c r="W327" s="93"/>
+      <c r="W327" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X327" s="93"/>
       <c r="Y327" s="93"/>
       <c r="Z327" s="93"/>
@@ -19150,11 +19254,14 @@
       <c r="AJ327" s="93"/>
       <c r="AK327" s="93"/>
     </row>
-    <row r="328" spans="1:37" customFormat="1" ht="23">
+    <row r="328" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B328" s="93">
         <v>1</v>
       </c>
       <c r="C328" s="1"/>
+      <c r="N328" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O328" t="s">
         <v>918</v>
       </c>
@@ -19195,7 +19302,7 @@
       <c r="AF328" s="99"/>
       <c r="AG328" s="99"/>
     </row>
-    <row r="329" spans="1:37" customFormat="1" ht="23">
+    <row r="329" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A329" s="93" t="s">
         <v>923</v>
       </c>
@@ -19230,7 +19337,9 @@
         <v>925</v>
       </c>
       <c r="V329" s="93"/>
-      <c r="W329" s="93"/>
+      <c r="W329" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X329" s="93"/>
       <c r="Y329" s="93"/>
       <c r="Z329" s="93"/>
@@ -19248,11 +19357,14 @@
       <c r="AJ329" s="93"/>
       <c r="AK329" s="93"/>
     </row>
-    <row r="330" spans="1:37" customFormat="1" ht="23">
+    <row r="330" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B330" s="93">
         <v>1</v>
       </c>
       <c r="C330" s="1"/>
+      <c r="N330" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O330" s="2" t="s">
         <v>926</v>
       </c>
@@ -19290,7 +19402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:37" customFormat="1" ht="23">
+    <row r="331" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A331" s="93" t="s">
         <v>929</v>
       </c>
@@ -19325,7 +19437,9 @@
         <v>925</v>
       </c>
       <c r="V331" s="93"/>
-      <c r="W331" s="93"/>
+      <c r="W331" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X331" s="93"/>
       <c r="Y331" s="93"/>
       <c r="Z331" s="93"/>
@@ -19343,9 +19457,12 @@
       <c r="AJ331" s="93"/>
       <c r="AK331" s="93"/>
     </row>
-    <row r="332" spans="1:37" customFormat="1" ht="23">
+    <row r="332" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B332" s="93">
         <v>1</v>
+      </c>
+      <c r="N332" s="96" t="s">
+        <v>12</v>
       </c>
       <c r="O332" s="2" t="s">
         <v>930</v>
@@ -19384,7 +19501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:37" customFormat="1" ht="23">
+    <row r="333" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A333" s="93" t="s">
         <v>931</v>
       </c>
@@ -19419,7 +19536,9 @@
         <v>933</v>
       </c>
       <c r="V333" s="93"/>
-      <c r="W333" s="93"/>
+      <c r="W333" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X333" s="93"/>
       <c r="Y333" s="93"/>
       <c r="Z333" s="93"/>
@@ -19437,11 +19556,14 @@
       <c r="AJ333" s="93"/>
       <c r="AK333" s="93"/>
     </row>
-    <row r="334" spans="1:37" customFormat="1" ht="23">
+    <row r="334" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B334" s="93">
         <v>1</v>
       </c>
       <c r="C334" s="1"/>
+      <c r="N334" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O334" s="117" t="s">
         <v>934</v>
       </c>
@@ -19482,7 +19604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:37" customFormat="1" ht="23">
+    <row r="335" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A335" s="93" t="s">
         <v>936</v>
       </c>
@@ -19517,7 +19639,9 @@
         <v>933</v>
       </c>
       <c r="V335" s="93"/>
-      <c r="W335" s="93"/>
+      <c r="W335" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X335" s="93"/>
       <c r="Y335" s="93"/>
       <c r="Z335" s="93"/>
@@ -19535,11 +19659,14 @@
       <c r="AJ335" s="93"/>
       <c r="AK335" s="93"/>
     </row>
-    <row r="336" spans="1:37" customFormat="1" ht="23">
+    <row r="336" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B336" s="93">
         <v>1</v>
       </c>
       <c r="C336" s="1"/>
+      <c r="N336" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O336" s="117" t="s">
         <v>934</v>
       </c>
@@ -19580,7 +19707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:37" customFormat="1" ht="19">
+    <row r="337" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A337" s="93" t="s">
         <v>939</v>
       </c>
@@ -19615,7 +19742,9 @@
         <v>942</v>
       </c>
       <c r="V337" s="93"/>
-      <c r="W337" s="93"/>
+      <c r="W337" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X337" s="93"/>
       <c r="Y337" s="93"/>
       <c r="Z337" s="93"/>
@@ -19633,11 +19762,14 @@
       <c r="AJ337" s="93"/>
       <c r="AK337" s="93"/>
     </row>
-    <row r="338" spans="1:37" customFormat="1" ht="21">
+    <row r="338" spans="1:37" customFormat="1" ht="21" hidden="1">
       <c r="B338" s="93">
         <v>1</v>
       </c>
       <c r="C338" s="1"/>
+      <c r="N338" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O338" s="2" t="s">
         <v>943</v>
       </c>
@@ -19678,7 +19810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:37" customFormat="1">
+    <row r="339" spans="1:37" customFormat="1" hidden="1">
       <c r="B339" s="93">
         <v>1</v>
       </c>
@@ -19687,7 +19819,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="340" spans="1:37" customFormat="1" ht="23">
+    <row r="340" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A340" s="93" t="s">
         <v>948</v>
       </c>
@@ -19722,7 +19854,9 @@
         <v>925</v>
       </c>
       <c r="V340" s="93"/>
-      <c r="W340" s="93"/>
+      <c r="W340" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X340" s="93"/>
       <c r="Y340" s="93"/>
       <c r="Z340" s="93"/>
@@ -19740,7 +19874,7 @@
       <c r="AJ340" s="93"/>
       <c r="AK340" s="93"/>
     </row>
-    <row r="341" spans="1:37" customFormat="1" ht="19">
+    <row r="341" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A341" s="93" t="s">
         <v>951</v>
       </c>
@@ -19775,7 +19909,9 @@
         <v>954</v>
       </c>
       <c r="V341" s="93"/>
-      <c r="W341" s="93"/>
+      <c r="W341" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X341" s="93"/>
       <c r="Y341" s="93"/>
       <c r="Z341" s="93"/>
@@ -19793,11 +19929,14 @@
       <c r="AJ341" s="93"/>
       <c r="AK341" s="93"/>
     </row>
-    <row r="342" spans="1:37" customFormat="1" ht="20">
+    <row r="342" spans="1:37" customFormat="1" ht="20" hidden="1">
       <c r="B342" s="93">
         <v>1</v>
       </c>
       <c r="C342" s="1"/>
+      <c r="N342" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O342" s="117" t="s">
         <v>955</v>
       </c>
@@ -19838,7 +19977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:37" customFormat="1" ht="19">
+    <row r="343" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A343" s="93" t="s">
         <v>959</v>
       </c>
@@ -19873,7 +20012,9 @@
         <v>962</v>
       </c>
       <c r="V343" s="93"/>
-      <c r="W343" s="93"/>
+      <c r="W343" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X343" s="93"/>
       <c r="Y343" s="93"/>
       <c r="Z343" s="93"/>
@@ -19891,11 +20032,14 @@
       <c r="AJ343" s="93"/>
       <c r="AK343" s="93"/>
     </row>
-    <row r="344" spans="1:37" customFormat="1" ht="23">
+    <row r="344" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B344" s="93">
         <v>1</v>
       </c>
       <c r="C344" s="1"/>
+      <c r="N344" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O344" t="s">
         <v>963</v>
       </c>
@@ -19936,7 +20080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:37" customFormat="1" ht="19">
+    <row r="345" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A345" s="93" t="s">
         <v>967</v>
       </c>
@@ -19971,7 +20115,9 @@
         <v>895</v>
       </c>
       <c r="V345" s="93"/>
-      <c r="W345" s="93"/>
+      <c r="W345" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X345" s="93"/>
       <c r="Y345" s="93"/>
       <c r="Z345" s="93"/>
@@ -19989,7 +20135,7 @@
       <c r="AJ345" s="93"/>
       <c r="AK345" s="93"/>
     </row>
-    <row r="346" spans="1:37" customFormat="1">
+    <row r="346" spans="1:37" customFormat="1" hidden="1">
       <c r="B346" s="93">
         <v>1</v>
       </c>
@@ -19998,9 +20144,12 @@
         <v>896</v>
       </c>
     </row>
-    <row r="347" spans="1:37" customFormat="1" ht="19">
+    <row r="347" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="B347" s="93">
         <v>1</v>
+      </c>
+      <c r="N347" s="96" t="s">
+        <v>12</v>
       </c>
       <c r="O347" t="s">
         <v>897</v>
@@ -20042,7 +20191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:37" customFormat="1" ht="19">
+    <row r="348" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A348" s="93" t="s">
         <v>969</v>
       </c>
@@ -20077,7 +20226,9 @@
         <v>972</v>
       </c>
       <c r="V348" s="93"/>
-      <c r="W348" s="93"/>
+      <c r="W348" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X348" s="93"/>
       <c r="Y348" s="93"/>
       <c r="Z348" s="93"/>
@@ -20095,11 +20246,14 @@
       <c r="AJ348" s="93"/>
       <c r="AK348" s="93"/>
     </row>
-    <row r="349" spans="1:37" customFormat="1" ht="21">
+    <row r="349" spans="1:37" customFormat="1" ht="21" hidden="1">
       <c r="B349" s="93">
         <v>1</v>
       </c>
       <c r="C349" s="96"/>
+      <c r="N349" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O349" s="120" t="s">
         <v>973</v>
       </c>
@@ -20128,7 +20282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:37" customFormat="1" ht="23">
+    <row r="350" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A350" s="93" t="s">
         <v>976</v>
       </c>
@@ -20163,7 +20317,9 @@
         <v>979</v>
       </c>
       <c r="V350" s="93"/>
-      <c r="W350" s="93"/>
+      <c r="W350" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X350" s="93"/>
       <c r="Y350" s="93"/>
       <c r="Z350" s="93"/>
@@ -20181,7 +20337,7 @@
       <c r="AJ350" s="93"/>
       <c r="AK350" s="93"/>
     </row>
-    <row r="351" spans="1:37" customFormat="1" ht="23">
+    <row r="351" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B351" s="93">
         <v>1</v>
       </c>
@@ -20194,6 +20350,9 @@
       <c r="K351" s="96"/>
       <c r="L351" s="96"/>
       <c r="M351" s="96"/>
+      <c r="N351" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="P351" t="s">
         <v>980</v>
       </c>
@@ -20212,11 +20371,14 @@
       <c r="V351">
         <v>1</v>
       </c>
+      <c r="W351">
+        <v>1</v>
+      </c>
       <c r="AC351">
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:37" customFormat="1" ht="23">
+    <row r="352" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A352" s="91" t="s">
         <v>981</v>
       </c>
@@ -20251,7 +20413,9 @@
         <v>983</v>
       </c>
       <c r="V352" s="93"/>
-      <c r="W352" s="93"/>
+      <c r="W352" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X352" s="93"/>
       <c r="Y352" s="93"/>
       <c r="Z352" s="93"/>
@@ -20269,7 +20433,7 @@
       <c r="AJ352" s="93"/>
       <c r="AK352" s="93"/>
     </row>
-    <row r="353" spans="1:37" customFormat="1" ht="19">
+    <row r="353" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A353" s="91" t="s">
         <v>984</v>
       </c>
@@ -20304,7 +20468,9 @@
         <v>985</v>
       </c>
       <c r="V353" s="93"/>
-      <c r="W353" s="93"/>
+      <c r="W353" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X353" s="93"/>
       <c r="Y353" s="93"/>
       <c r="Z353" s="93"/>
@@ -20322,7 +20488,7 @@
       <c r="AJ353" s="93"/>
       <c r="AK353" s="93"/>
     </row>
-    <row r="354" spans="1:37" customFormat="1" ht="23">
+    <row r="354" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A354" s="91" t="s">
         <v>986</v>
       </c>
@@ -20357,7 +20523,9 @@
         <v>298</v>
       </c>
       <c r="V354" s="93"/>
-      <c r="W354" s="93"/>
+      <c r="W354" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X354" s="93"/>
       <c r="Y354" s="93"/>
       <c r="Z354" s="93"/>
@@ -20375,7 +20543,7 @@
       <c r="AJ354" s="93"/>
       <c r="AK354" s="93"/>
     </row>
-    <row r="355" spans="1:37" customFormat="1" ht="20">
+    <row r="355" spans="1:37" customFormat="1" ht="20" hidden="1">
       <c r="A355" s="96"/>
       <c r="B355" s="96">
         <v>1</v>
@@ -20390,6 +20558,9 @@
       <c r="K355" s="96"/>
       <c r="L355" s="96"/>
       <c r="M355" s="96"/>
+      <c r="N355" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O355" t="s">
         <v>302</v>
       </c>
@@ -20433,7 +20604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:37" customFormat="1" ht="23">
+    <row r="356" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A356" s="96"/>
       <c r="B356" s="96">
         <v>1</v>
@@ -20448,6 +20619,9 @@
       <c r="K356" s="96"/>
       <c r="L356" s="96"/>
       <c r="M356" s="96"/>
+      <c r="N356" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O356" t="s">
         <v>307</v>
       </c>
@@ -20488,7 +20662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:37" customFormat="1" ht="23">
+    <row r="357" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A357" s="91" t="s">
         <v>995</v>
       </c>
@@ -20523,7 +20697,9 @@
         <v>998</v>
       </c>
       <c r="V357" s="93"/>
-      <c r="W357" s="93"/>
+      <c r="W357" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X357" s="93"/>
       <c r="Y357" s="93"/>
       <c r="Z357" s="93"/>
@@ -20541,7 +20717,7 @@
       <c r="AJ357" s="93"/>
       <c r="AK357" s="93"/>
     </row>
-    <row r="358" spans="1:37" customFormat="1" ht="20">
+    <row r="358" spans="1:37" customFormat="1" ht="20" hidden="1">
       <c r="A358" s="96"/>
       <c r="B358" s="96">
         <v>1</v>
@@ -20556,6 +20732,9 @@
       <c r="K358" s="96"/>
       <c r="L358" s="96"/>
       <c r="M358" s="96"/>
+      <c r="N358" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O358" t="s">
         <v>302</v>
       </c>
@@ -20599,7 +20778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:37" customFormat="1" ht="23">
+    <row r="359" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A359" s="96"/>
       <c r="B359" s="96">
         <v>1</v>
@@ -20614,6 +20793,9 @@
       <c r="K359" s="96"/>
       <c r="L359" s="96"/>
       <c r="M359" s="96"/>
+      <c r="N359" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O359" t="s">
         <v>307</v>
       </c>
@@ -20654,7 +20836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:37" customFormat="1" ht="23">
+    <row r="360" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A360" s="91" t="s">
         <v>999</v>
       </c>
@@ -20689,7 +20871,9 @@
         <v>1001</v>
       </c>
       <c r="V360" s="93"/>
-      <c r="W360" s="93"/>
+      <c r="W360" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X360" s="93"/>
       <c r="Y360" s="93"/>
       <c r="Z360" s="93"/>
@@ -20707,7 +20891,7 @@
       <c r="AJ360" s="93"/>
       <c r="AK360" s="93"/>
     </row>
-    <row r="361" spans="1:37" customFormat="1" ht="23">
+    <row r="361" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A361" s="96"/>
       <c r="B361" s="96">
         <v>1</v>
@@ -20723,6 +20907,9 @@
       <c r="K361" s="96"/>
       <c r="L361" s="96"/>
       <c r="M361" s="96"/>
+      <c r="N361" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O361" t="s">
         <v>1002</v>
       </c>
@@ -20763,7 +20950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:37" customFormat="1" ht="19">
+    <row r="362" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A362" s="91" t="s">
         <v>1005</v>
       </c>
@@ -20798,7 +20985,9 @@
         <v>1008</v>
       </c>
       <c r="V362" s="93"/>
-      <c r="W362" s="93"/>
+      <c r="W362" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X362" s="93"/>
       <c r="Y362" s="93"/>
       <c r="Z362" s="93"/>
@@ -20816,7 +21005,7 @@
       <c r="AJ362" s="93"/>
       <c r="AK362" s="93"/>
     </row>
-    <row r="363" spans="1:37" customFormat="1" ht="23">
+    <row r="363" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A363" s="91" t="s">
         <v>381</v>
       </c>
@@ -20851,7 +21040,9 @@
         <v>1010</v>
       </c>
       <c r="V363" s="93"/>
-      <c r="W363" s="93"/>
+      <c r="W363" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X363" s="93"/>
       <c r="Y363" s="93"/>
       <c r="Z363" s="93"/>
@@ -20869,7 +21060,7 @@
       <c r="AJ363" s="93"/>
       <c r="AK363" s="93"/>
     </row>
-    <row r="364" spans="1:37" customFormat="1" ht="23">
+    <row r="364" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A364" s="91" t="s">
         <v>437</v>
       </c>
@@ -20896,7 +21087,9 @@
       <c r="T364" s="93"/>
       <c r="U364" s="95"/>
       <c r="V364" s="93"/>
-      <c r="W364" s="93"/>
+      <c r="W364" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X364" s="93"/>
       <c r="Y364" s="93"/>
       <c r="Z364" s="93"/>
@@ -20914,7 +21107,7 @@
       <c r="AJ364" s="93"/>
       <c r="AK364" s="93"/>
     </row>
-    <row r="365" spans="1:37" customFormat="1">
+    <row r="365" spans="1:37" customFormat="1" hidden="1">
       <c r="A365" s="96"/>
       <c r="B365" s="96">
         <v>1</v>
@@ -20937,7 +21130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:37" customFormat="1" ht="19">
+    <row r="366" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A366" s="91" t="s">
         <v>1011</v>
       </c>
@@ -20970,7 +21163,9 @@
         <v>1013</v>
       </c>
       <c r="V366" s="93"/>
-      <c r="W366" s="93"/>
+      <c r="W366" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X366" s="93"/>
       <c r="Y366" s="93"/>
       <c r="Z366" s="93"/>
@@ -20988,7 +21183,7 @@
       <c r="AJ366" s="93"/>
       <c r="AK366" s="93"/>
     </row>
-    <row r="367" spans="1:37" customFormat="1" ht="23">
+    <row r="367" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A367" s="96"/>
       <c r="B367" s="96">
         <v>1</v>
@@ -21002,6 +21197,9 @@
       <c r="K367" s="96"/>
       <c r="L367" s="96"/>
       <c r="M367" s="96"/>
+      <c r="N367" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O367" s="124" t="s">
         <v>1014</v>
       </c>
@@ -21042,7 +21240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:37" customFormat="1" ht="19">
+    <row r="368" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A368" s="91" t="s">
         <v>1017</v>
       </c>
@@ -21077,7 +21275,9 @@
         <v>1019</v>
       </c>
       <c r="V368" s="93"/>
-      <c r="W368" s="93"/>
+      <c r="W368" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X368" s="93"/>
       <c r="Y368" s="93"/>
       <c r="Z368" s="93"/>
@@ -21095,7 +21295,7 @@
       <c r="AJ368" s="93"/>
       <c r="AK368" s="93"/>
     </row>
-    <row r="369" spans="1:37" customFormat="1">
+    <row r="369" spans="1:37" customFormat="1" hidden="1">
       <c r="A369" s="96"/>
       <c r="B369" s="96">
         <v>1</v>
@@ -21147,7 +21347,7 @@
       <c r="AF369" s="19"/>
       <c r="AG369" s="19"/>
     </row>
-    <row r="370" spans="1:37" customFormat="1" ht="23">
+    <row r="370" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A370" s="91" t="s">
         <v>557</v>
       </c>
@@ -21182,7 +21382,9 @@
         <v>1021</v>
       </c>
       <c r="V370" s="93"/>
-      <c r="W370" s="93"/>
+      <c r="W370" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X370" s="93"/>
       <c r="Y370" s="93"/>
       <c r="Z370" s="93"/>
@@ -21200,7 +21402,7 @@
       <c r="AJ370" s="93"/>
       <c r="AK370" s="93"/>
     </row>
-    <row r="371" spans="1:37" customFormat="1" ht="23">
+    <row r="371" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A371" s="96"/>
       <c r="B371" s="96">
         <v>1</v>
@@ -21244,7 +21446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:37" customFormat="1" ht="23">
+    <row r="372" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A372" s="96"/>
       <c r="B372" s="96">
         <v>1</v>
@@ -21280,7 +21482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:37" customFormat="1" ht="23">
+    <row r="373" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A373" s="91" t="s">
         <v>1026</v>
       </c>
@@ -21315,7 +21517,9 @@
         <v>1028</v>
       </c>
       <c r="V373" s="93"/>
-      <c r="W373" s="93"/>
+      <c r="W373" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X373" s="93"/>
       <c r="Y373" s="93"/>
       <c r="Z373" s="93"/>
@@ -21333,7 +21537,7 @@
       <c r="AJ373" s="93"/>
       <c r="AK373" s="93"/>
     </row>
-    <row r="374" spans="1:37" customFormat="1" ht="23">
+    <row r="374" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A374" s="96"/>
       <c r="B374" s="96">
         <v>1</v>
@@ -21358,7 +21562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:37" customFormat="1" ht="23">
+    <row r="375" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A375" s="91" t="s">
         <v>1029</v>
       </c>
@@ -21393,7 +21597,9 @@
         <v>983</v>
       </c>
       <c r="V375" s="93"/>
-      <c r="W375" s="93"/>
+      <c r="W375" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X375" s="93"/>
       <c r="Y375" s="93"/>
       <c r="Z375" s="93"/>
@@ -21466,7 +21672,7 @@
       <c r="AJ376" s="93"/>
       <c r="AK376" s="93"/>
     </row>
-    <row r="377" spans="1:37" customFormat="1" ht="23">
+    <row r="377" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A377" s="91" t="s">
         <v>1035</v>
       </c>
@@ -21501,7 +21707,9 @@
         <v>1037</v>
       </c>
       <c r="V377" s="93"/>
-      <c r="W377" s="93"/>
+      <c r="W377" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X377" s="93"/>
       <c r="Y377" s="93"/>
       <c r="Z377" s="93"/>
@@ -21519,7 +21727,7 @@
       <c r="AJ377" s="93"/>
       <c r="AK377" s="93"/>
     </row>
-    <row r="378" spans="1:37" customFormat="1" ht="23">
+    <row r="378" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A378" s="96"/>
       <c r="B378" s="96">
         <v>1</v>
@@ -21534,6 +21742,9 @@
       <c r="K378" s="96"/>
       <c r="L378" s="96"/>
       <c r="M378" s="96"/>
+      <c r="N378" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="O378" t="s">
         <v>1038</v>
       </c>
@@ -21629,6 +21840,24 @@
       <filters>
         <filter val="1"/>
         <filter val="include"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="?"/>
+        <filter val="??"/>
+        <filter val="p1/2"/>
+        <filter val="P3"/>
+        <filter val="P4"/>
+        <filter val="Phase?"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="22">
+      <filters blank="1">
+        <filter val="1"/>
+        <filter val="itself"/>
+        <filter val="no results"/>
+        <filter val="p3"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Allmatching.xlsx
+++ b/Allmatching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF41F1D-28B3-E149-B5B4-9268EF61DBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D946F6A5-A1DD-BD45-8046-B5D6E5F1696A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31280" yWindow="500" windowWidth="34480" windowHeight="21100" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
   </bookViews>
@@ -3019,9 +3019,6 @@
     <t>responder rate, defined as the proportion of ublituximab-treated patients with ⩾95% peripheral CD19+ B-cell depletion from baseline within 2weeks after the second ublituximab infusion</t>
   </si>
   <si>
-    <t>surrogate-validate?</t>
-  </si>
-  <si>
     <t>NCT03277261</t>
   </si>
   <si>
@@ -3395,6 +3392,9 @@
   </si>
   <si>
     <t>primaryish-don’t use these terms</t>
+  </si>
+  <si>
+    <t>surrogate-validate</t>
   </si>
 </sst>
 </file>
@@ -3871,7 +3871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4030,6 +4030,8 @@
     <xf numFmtId="0" fontId="51" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4364,14 +4366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F0353-714E-C24F-9141-2C52DBDF8C59}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AK379"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="R322" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M306" sqref="M306"/>
+      <selection pane="bottomRight" activeCell="X326" sqref="X326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4526,13 +4527,13 @@
         <v>792</v>
       </c>
       <c r="AJ2" s="119" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AK2" s="119" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:37" hidden="1">
+    <row r="3" spans="1:37">
       <c r="A3" s="20" t="s">
         <v>29</v>
       </c>
@@ -4584,7 +4585,7 @@
       <c r="AF3" s="20"/>
       <c r="AG3" s="20"/>
     </row>
-    <row r="4" spans="1:37" hidden="1">
+    <row r="4" spans="1:37">
       <c r="B4">
         <v>1</v>
       </c>
@@ -4638,7 +4639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" hidden="1">
+    <row r="5" spans="1:37">
       <c r="B5">
         <v>1</v>
       </c>
@@ -4692,7 +4693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" hidden="1">
+    <row r="6" spans="1:37">
       <c r="B6">
         <v>1</v>
       </c>
@@ -4717,7 +4718,7 @@
       <c r="Z6" s="49"/>
       <c r="AB6" s="27"/>
     </row>
-    <row r="7" spans="1:37" hidden="1">
+    <row r="7" spans="1:37">
       <c r="A7" s="20" t="s">
         <v>47</v>
       </c>
@@ -4774,7 +4775,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:37" hidden="1">
+    <row r="8" spans="1:37">
       <c r="B8">
         <v>1</v>
       </c>
@@ -4801,7 +4802,7 @@
       </c>
       <c r="Z8" s="49"/>
     </row>
-    <row r="9" spans="1:37" hidden="1">
+    <row r="9" spans="1:37">
       <c r="A9" s="20" t="s">
         <v>56</v>
       </c>
@@ -4858,7 +4859,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:37" hidden="1">
+    <row r="10" spans="1:37">
       <c r="B10">
         <v>1</v>
       </c>
@@ -4885,7 +4886,7 @@
       </c>
       <c r="Z10" s="49"/>
     </row>
-    <row r="11" spans="1:37" hidden="1">
+    <row r="11" spans="1:37">
       <c r="A11" s="20" t="s">
         <v>58</v>
       </c>
@@ -4974,7 +4975,7 @@
       </c>
       <c r="Z12" s="49"/>
     </row>
-    <row r="13" spans="1:37" hidden="1">
+    <row r="13" spans="1:37">
       <c r="A13" s="20" t="s">
         <v>65</v>
       </c>
@@ -5030,7 +5031,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:37" hidden="1">
+    <row r="14" spans="1:37">
       <c r="B14">
         <v>1</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:37" hidden="1">
+    <row r="16" spans="1:37">
       <c r="B16">
         <v>1</v>
       </c>
@@ -5247,7 +5248,7 @@
       <c r="S18" s="23"/>
       <c r="Z18" s="49"/>
     </row>
-    <row r="19" spans="1:35" hidden="1">
+    <row r="19" spans="1:35">
       <c r="A19" s="20" t="s">
         <v>82</v>
       </c>
@@ -5299,7 +5300,7 @@
       <c r="AF19" s="20"/>
       <c r="AG19" s="20"/>
     </row>
-    <row r="20" spans="1:35" hidden="1">
+    <row r="20" spans="1:35">
       <c r="B20">
         <v>1</v>
       </c>
@@ -5353,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:35" hidden="1">
+    <row r="21" spans="1:35">
       <c r="A21" s="20" t="s">
         <v>90</v>
       </c>
@@ -5405,7 +5406,7 @@
       <c r="AF21" s="20"/>
       <c r="AG21" s="20"/>
     </row>
-    <row r="22" spans="1:35" hidden="1">
+    <row r="22" spans="1:35">
       <c r="B22">
         <v>1</v>
       </c>
@@ -5455,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:35" hidden="1">
+    <row r="23" spans="1:35">
       <c r="B23">
         <v>1</v>
       </c>
@@ -5467,7 +5468,7 @@
       </c>
       <c r="Z23" s="49"/>
     </row>
-    <row r="24" spans="1:35" hidden="1">
+    <row r="24" spans="1:35">
       <c r="A24" s="20" t="s">
         <v>99</v>
       </c>
@@ -5521,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:35" hidden="1">
+    <row r="25" spans="1:35">
       <c r="B25">
         <v>1</v>
       </c>
@@ -5569,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:35" hidden="1">
+    <row r="26" spans="1:35">
       <c r="A26" s="20" t="s">
         <v>108</v>
       </c>
@@ -5621,7 +5622,7 @@
       <c r="AF26" s="20"/>
       <c r="AG26" s="20"/>
     </row>
-    <row r="27" spans="1:35" hidden="1">
+    <row r="27" spans="1:35">
       <c r="B27">
         <v>1</v>
       </c>
@@ -5675,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:35" hidden="1">
+    <row r="28" spans="1:35">
       <c r="A28" s="20" t="s">
         <v>116</v>
       </c>
@@ -5727,7 +5728,7 @@
       <c r="AF28" s="20"/>
       <c r="AG28" s="20"/>
     </row>
-    <row r="29" spans="1:35" hidden="1">
+    <row r="29" spans="1:35">
       <c r="B29">
         <v>1</v>
       </c>
@@ -5781,7 +5782,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:35" hidden="1">
+    <row r="30" spans="1:35">
       <c r="A30" s="20" t="s">
         <v>124</v>
       </c>
@@ -5835,7 +5836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:35" hidden="1">
+    <row r="31" spans="1:35">
       <c r="B31">
         <v>1</v>
       </c>
@@ -5889,7 +5890,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:35" hidden="1">
+    <row r="32" spans="1:35">
       <c r="A32" s="20" t="s">
         <v>135</v>
       </c>
@@ -5944,7 +5945,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:35" hidden="1">
+    <row r="33" spans="1:35">
       <c r="B33">
         <v>1</v>
       </c>
@@ -5972,7 +5973,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:35" hidden="1">
+    <row r="34" spans="1:35">
       <c r="B34">
         <v>1</v>
       </c>
@@ -5992,7 +5993,7 @@
       </c>
       <c r="Z34" s="49"/>
     </row>
-    <row r="35" spans="1:35" hidden="1">
+    <row r="35" spans="1:35">
       <c r="A35" s="20" t="s">
         <v>145</v>
       </c>
@@ -6047,7 +6048,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:35" hidden="1">
+    <row r="36" spans="1:35">
       <c r="B36">
         <v>1</v>
       </c>
@@ -6067,7 +6068,7 @@
       </c>
       <c r="Z36" s="49"/>
     </row>
-    <row r="37" spans="1:35" hidden="1">
+    <row r="37" spans="1:35">
       <c r="B37">
         <v>1</v>
       </c>
@@ -6087,7 +6088,7 @@
       </c>
       <c r="Z37" s="49"/>
     </row>
-    <row r="38" spans="1:35" hidden="1">
+    <row r="38" spans="1:35">
       <c r="B38">
         <v>1</v>
       </c>
@@ -6107,7 +6108,7 @@
       </c>
       <c r="Z38" s="49"/>
     </row>
-    <row r="39" spans="1:35" hidden="1">
+    <row r="39" spans="1:35">
       <c r="A39" s="20" t="s">
         <v>152</v>
       </c>
@@ -6159,7 +6160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:35" hidden="1">
+    <row r="40" spans="1:35">
       <c r="B40">
         <v>1</v>
       </c>
@@ -6201,7 +6202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:35" hidden="1">
+    <row r="41" spans="1:35">
       <c r="A41" s="20" t="s">
         <v>161</v>
       </c>
@@ -6253,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:35" hidden="1">
+    <row r="42" spans="1:35">
       <c r="B42">
         <v>1</v>
       </c>
@@ -6295,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:35" hidden="1">
+    <row r="43" spans="1:35">
       <c r="A43" s="20" t="s">
         <v>163</v>
       </c>
@@ -6347,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:35" hidden="1">
+    <row r="44" spans="1:35">
       <c r="B44">
         <v>1</v>
       </c>
@@ -6389,7 +6390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:35" hidden="1">
+    <row r="45" spans="1:35">
       <c r="A45" s="20" t="s">
         <v>164</v>
       </c>
@@ -6441,7 +6442,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:35" hidden="1">
+    <row r="46" spans="1:35">
       <c r="A46" s="20" t="s">
         <v>169</v>
       </c>
@@ -6496,7 +6497,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:35" hidden="1">
+    <row r="47" spans="1:35">
       <c r="B47">
         <v>1</v>
       </c>
@@ -6513,7 +6514,7 @@
       </c>
       <c r="Z47" s="49"/>
     </row>
-    <row r="48" spans="1:35" hidden="1">
+    <row r="48" spans="1:35">
       <c r="A48" s="20" t="s">
         <v>174</v>
       </c>
@@ -6565,7 +6566,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:35" hidden="1">
+    <row r="49" spans="1:35">
       <c r="A49" s="20" t="s">
         <v>177</v>
       </c>
@@ -6621,7 +6622,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:35" hidden="1">
+    <row r="50" spans="1:35">
       <c r="A50" s="20" t="s">
         <v>182</v>
       </c>
@@ -6676,7 +6677,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:35" hidden="1">
+    <row r="51" spans="1:35">
       <c r="A51" s="20" t="s">
         <v>187</v>
       </c>
@@ -6728,7 +6729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:35" hidden="1">
+    <row r="52" spans="1:35">
       <c r="B52">
         <v>1</v>
       </c>
@@ -6776,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:35" hidden="1">
+    <row r="53" spans="1:35">
       <c r="A53" s="20" t="s">
         <v>195</v>
       </c>
@@ -6828,7 +6829,7 @@
       <c r="AF53" s="20"/>
       <c r="AG53" s="20"/>
     </row>
-    <row r="54" spans="1:35" s="27" customFormat="1" hidden="1">
+    <row r="54" spans="1:35" s="27" customFormat="1">
       <c r="B54" t="s">
         <v>597</v>
       </c>
@@ -6878,7 +6879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:35" s="27" customFormat="1" hidden="1">
+    <row r="55" spans="1:35" s="27" customFormat="1">
       <c r="B55" t="s">
         <v>597</v>
       </c>
@@ -6901,7 +6902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:35" s="27" customFormat="1" hidden="1">
+    <row r="56" spans="1:35" s="27" customFormat="1">
       <c r="B56" t="s">
         <v>597</v>
       </c>
@@ -6919,7 +6920,7 @@
       </c>
       <c r="Z56" s="74"/>
     </row>
-    <row r="57" spans="1:35" s="27" customFormat="1" hidden="1">
+    <row r="57" spans="1:35" s="27" customFormat="1">
       <c r="B57" t="s">
         <v>597</v>
       </c>
@@ -6937,7 +6938,7 @@
       </c>
       <c r="Z57" s="74"/>
     </row>
-    <row r="58" spans="1:35" hidden="1">
+    <row r="58" spans="1:35">
       <c r="A58" s="20" t="s">
         <v>206</v>
       </c>
@@ -6992,7 +6993,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:35" hidden="1">
+    <row r="59" spans="1:35">
       <c r="A59" s="20" t="s">
         <v>209</v>
       </c>
@@ -7049,7 +7050,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:35" hidden="1">
+    <row r="60" spans="1:35">
       <c r="B60">
         <v>1</v>
       </c>
@@ -7076,7 +7077,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:35" hidden="1">
+    <row r="61" spans="1:35">
       <c r="A61" s="20" t="s">
         <v>216</v>
       </c>
@@ -7127,7 +7128,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:35" hidden="1">
+    <row r="62" spans="1:35">
       <c r="A62" s="20" t="s">
         <v>220</v>
       </c>
@@ -7178,7 +7179,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:35" hidden="1">
+    <row r="63" spans="1:35">
       <c r="A63" s="46" t="s">
         <v>222</v>
       </c>
@@ -7263,7 +7264,7 @@
       </c>
       <c r="Z64" s="49"/>
     </row>
-    <row r="65" spans="1:33" hidden="1">
+    <row r="65" spans="1:33">
       <c r="A65" s="23"/>
       <c r="B65">
         <v>1</v>
@@ -7286,7 +7287,7 @@
       </c>
       <c r="Z65" s="49"/>
     </row>
-    <row r="66" spans="1:33" hidden="1">
+    <row r="66" spans="1:33">
       <c r="A66" s="46" t="s">
         <v>228</v>
       </c>
@@ -7369,7 +7370,7 @@
       <c r="U67" s="23"/>
       <c r="Z67" s="49"/>
     </row>
-    <row r="68" spans="1:33" hidden="1">
+    <row r="68" spans="1:33">
       <c r="A68" s="23"/>
       <c r="B68">
         <v>1</v>
@@ -7413,7 +7414,7 @@
       </c>
       <c r="Z68" s="49"/>
     </row>
-    <row r="69" spans="1:33" hidden="1">
+    <row r="69" spans="1:33">
       <c r="A69" s="46" t="s">
         <v>236</v>
       </c>
@@ -7597,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:33" hidden="1">
+    <row r="72" spans="1:33">
       <c r="A72" s="46" t="s">
         <v>250</v>
       </c>
@@ -7647,7 +7648,7 @@
       <c r="AF72" s="20"/>
       <c r="AG72" s="20"/>
     </row>
-    <row r="73" spans="1:33" hidden="1">
+    <row r="73" spans="1:33">
       <c r="A73" s="23"/>
       <c r="B73">
         <v>1</v>
@@ -7782,7 +7783,7 @@
       <c r="AF74" s="20"/>
       <c r="AG74" s="20"/>
     </row>
-    <row r="75" spans="1:33" hidden="1">
+    <row r="75" spans="1:33">
       <c r="A75" s="46" t="s">
         <v>264</v>
       </c>
@@ -7832,7 +7833,7 @@
       <c r="AF75" s="20"/>
       <c r="AG75" s="20"/>
     </row>
-    <row r="76" spans="1:33" hidden="1">
+    <row r="76" spans="1:33">
       <c r="A76" s="23"/>
       <c r="B76">
         <v>1</v>
@@ -7893,7 +7894,7 @@
       <c r="AF76" s="20"/>
       <c r="AG76" s="20"/>
     </row>
-    <row r="77" spans="1:33" hidden="1">
+    <row r="77" spans="1:33">
       <c r="A77" s="46" t="s">
         <v>266</v>
       </c>
@@ -7943,7 +7944,7 @@
       <c r="AF77" s="20"/>
       <c r="AG77" s="20"/>
     </row>
-    <row r="78" spans="1:33" hidden="1">
+    <row r="78" spans="1:33">
       <c r="A78" s="46" t="s">
         <v>269</v>
       </c>
@@ -7993,7 +7994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:33" hidden="1">
+    <row r="79" spans="1:33">
       <c r="A79" s="23"/>
       <c r="B79">
         <v>1</v>
@@ -8045,7 +8046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:33" hidden="1">
+    <row r="80" spans="1:33">
       <c r="A80" s="23"/>
       <c r="B80">
         <v>1</v>
@@ -8103,7 +8104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:34" hidden="1">
+    <row r="81" spans="1:34">
       <c r="A81" s="46" t="s">
         <v>279</v>
       </c>
@@ -8153,7 +8154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:34" hidden="1">
+    <row r="82" spans="1:34">
       <c r="A82" s="23"/>
       <c r="B82">
         <v>1</v>
@@ -8211,7 +8212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:34" hidden="1">
+    <row r="83" spans="1:34">
       <c r="A83" s="23"/>
       <c r="B83">
         <v>1</v>
@@ -8269,7 +8270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:34" hidden="1">
+    <row r="84" spans="1:34">
       <c r="A84" s="46" t="s">
         <v>288</v>
       </c>
@@ -8319,7 +8320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:34" hidden="1">
+    <row r="85" spans="1:34">
       <c r="A85" s="23"/>
       <c r="B85">
         <v>1</v>
@@ -8377,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:34" hidden="1">
+    <row r="86" spans="1:34">
       <c r="A86" s="46" t="s">
         <v>290</v>
       </c>
@@ -8427,7 +8428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:34" hidden="1">
+    <row r="87" spans="1:34">
       <c r="A87" s="23"/>
       <c r="B87">
         <v>1</v>
@@ -8485,7 +8486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:34" hidden="1">
+    <row r="88" spans="1:34">
       <c r="A88" s="23"/>
       <c r="B88">
         <v>1</v>
@@ -8543,7 +8544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:34" hidden="1">
+    <row r="89" spans="1:34">
       <c r="A89" s="46" t="s">
         <v>293</v>
       </c>
@@ -8596,7 +8597,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="1:34" hidden="1">
+    <row r="90" spans="1:34">
       <c r="A90" s="23"/>
       <c r="B90">
         <v>1</v>
@@ -8654,7 +8655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:34" hidden="1">
+    <row r="91" spans="1:34">
       <c r="A91" s="23"/>
       <c r="B91">
         <v>1</v>
@@ -8712,7 +8713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:34" hidden="1">
+    <row r="92" spans="1:34">
       <c r="A92" s="46" t="s">
         <v>296</v>
       </c>
@@ -8760,7 +8761,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="93" spans="1:34" hidden="1">
+    <row r="93" spans="1:34">
       <c r="A93" s="46" t="s">
         <v>300</v>
       </c>
@@ -8810,7 +8811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:34" hidden="1">
+    <row r="94" spans="1:34">
       <c r="A94" s="23"/>
       <c r="B94">
         <v>1</v>
@@ -8868,7 +8869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:34" hidden="1">
+    <row r="95" spans="1:34">
       <c r="A95" s="46" t="s">
         <v>305</v>
       </c>
@@ -8918,7 +8919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:34" hidden="1">
+    <row r="96" spans="1:34">
       <c r="A96" s="23"/>
       <c r="B96">
         <v>1</v>
@@ -8976,7 +8977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:35" hidden="1">
+    <row r="97" spans="1:35">
       <c r="A97" s="46" t="s">
         <v>311</v>
       </c>
@@ -9026,7 +9027,7 @@
       <c r="AF97" s="20"/>
       <c r="AG97" s="20"/>
     </row>
-    <row r="98" spans="1:35" hidden="1">
+    <row r="98" spans="1:35">
       <c r="A98" s="23"/>
       <c r="B98">
         <v>1</v>
@@ -9060,7 +9061,7 @@
       </c>
       <c r="Z98" s="49"/>
     </row>
-    <row r="99" spans="1:35" hidden="1">
+    <row r="99" spans="1:35">
       <c r="A99" s="23"/>
       <c r="B99">
         <v>1</v>
@@ -9122,7 +9123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:35" hidden="1">
+    <row r="100" spans="1:35">
       <c r="A100" s="46" t="s">
         <v>319</v>
       </c>
@@ -9172,7 +9173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:35" hidden="1">
+    <row r="101" spans="1:35">
       <c r="A101" s="23"/>
       <c r="B101">
         <v>1</v>
@@ -9230,7 +9231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:35" hidden="1">
+    <row r="102" spans="1:35">
       <c r="A102" s="23"/>
       <c r="B102">
         <v>1</v>
@@ -9291,7 +9292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:35" hidden="1">
+    <row r="103" spans="1:35">
       <c r="A103" s="46" t="s">
         <v>330</v>
       </c>
@@ -9341,7 +9342,7 @@
       <c r="AF103" s="20"/>
       <c r="AG103" s="20"/>
     </row>
-    <row r="104" spans="1:35" hidden="1">
+    <row r="104" spans="1:35">
       <c r="A104" s="46" t="s">
         <v>333</v>
       </c>
@@ -9391,7 +9392,7 @@
       <c r="AF104" s="20"/>
       <c r="AG104" s="20"/>
     </row>
-    <row r="105" spans="1:35" hidden="1">
+    <row r="105" spans="1:35">
       <c r="A105" s="46" t="s">
         <v>336</v>
       </c>
@@ -9441,7 +9442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:35" hidden="1">
+    <row r="106" spans="1:35">
       <c r="A106" s="23"/>
       <c r="B106">
         <v>1</v>
@@ -9502,7 +9503,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="107" spans="1:35" hidden="1">
+    <row r="107" spans="1:35">
       <c r="A107" s="46" t="s">
         <v>344</v>
       </c>
@@ -9552,7 +9553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:35" hidden="1">
+    <row r="108" spans="1:35">
       <c r="A108" s="23"/>
       <c r="B108">
         <v>1</v>
@@ -9607,7 +9608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:35" hidden="1">
+    <row r="109" spans="1:35">
       <c r="A109" s="46" t="s">
         <v>346</v>
       </c>
@@ -9657,7 +9658,7 @@
       <c r="AF109" s="20"/>
       <c r="AG109" s="20"/>
     </row>
-    <row r="110" spans="1:35" hidden="1">
+    <row r="110" spans="1:35">
       <c r="A110" s="23"/>
       <c r="B110">
         <v>1</v>
@@ -9718,7 +9719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:35" hidden="1">
+    <row r="111" spans="1:35">
       <c r="A111" s="23"/>
       <c r="B111">
         <v>1</v>
@@ -9765,7 +9766,7 @@
       </c>
       <c r="Z111" s="49"/>
     </row>
-    <row r="112" spans="1:35" hidden="1">
+    <row r="112" spans="1:35">
       <c r="A112" s="46" t="s">
         <v>355</v>
       </c>
@@ -9815,7 +9816,7 @@
       <c r="AF112" s="20"/>
       <c r="AG112" s="20"/>
     </row>
-    <row r="113" spans="1:36" hidden="1">
+    <row r="113" spans="1:36">
       <c r="A113" s="23"/>
       <c r="B113">
         <v>1</v>
@@ -9876,7 +9877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:36" hidden="1">
+    <row r="114" spans="1:36">
       <c r="A114" s="23"/>
       <c r="B114">
         <v>1</v>
@@ -9923,7 +9924,7 @@
       </c>
       <c r="Z114" s="49"/>
     </row>
-    <row r="115" spans="1:36" hidden="1">
+    <row r="115" spans="1:36">
       <c r="A115" s="46" t="s">
         <v>357</v>
       </c>
@@ -9971,7 +9972,7 @@
       <c r="AF115" s="20"/>
       <c r="AG115" s="20"/>
     </row>
-    <row r="116" spans="1:36" hidden="1">
+    <row r="116" spans="1:36">
       <c r="A116" s="46" t="s">
         <v>361</v>
       </c>
@@ -10021,7 +10022,7 @@
       <c r="AF116" s="20"/>
       <c r="AG116" s="20"/>
     </row>
-    <row r="117" spans="1:36" hidden="1">
+    <row r="117" spans="1:36">
       <c r="A117" s="23"/>
       <c r="B117">
         <v>1</v>
@@ -10093,7 +10094,7 @@
       <c r="Q118" s="29"/>
       <c r="Z118" s="49"/>
     </row>
-    <row r="119" spans="1:36" hidden="1">
+    <row r="119" spans="1:36">
       <c r="A119" s="46" t="s">
         <v>367</v>
       </c>
@@ -10146,7 +10147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:36" hidden="1">
+    <row r="120" spans="1:36">
       <c r="A120" s="23"/>
       <c r="B120" t="s">
         <v>597</v>
@@ -10173,7 +10174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:36" hidden="1">
+    <row r="121" spans="1:36">
       <c r="A121" s="46" t="s">
         <v>372</v>
       </c>
@@ -10225,7 +10226,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="122" spans="1:36" hidden="1">
+    <row r="122" spans="1:36">
       <c r="A122" s="46" t="s">
         <v>377</v>
       </c>
@@ -10277,7 +10278,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="123" spans="1:36" hidden="1">
+    <row r="123" spans="1:36">
       <c r="A123" s="46" t="s">
         <v>381</v>
       </c>
@@ -10323,7 +10324,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="124" spans="1:36" hidden="1">
+    <row r="124" spans="1:36">
       <c r="A124" s="46" t="s">
         <v>385</v>
       </c>
@@ -10373,7 +10374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:36" hidden="1">
+    <row r="125" spans="1:36">
       <c r="A125" s="23"/>
       <c r="B125">
         <v>1</v>
@@ -10500,7 +10501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:36" hidden="1">
+    <row r="128" spans="1:36">
       <c r="A128" s="46" t="s">
         <v>395</v>
       </c>
@@ -10550,7 +10551,7 @@
       <c r="AF128" s="20"/>
       <c r="AG128" s="20"/>
     </row>
-    <row r="129" spans="1:37" hidden="1">
+    <row r="129" spans="1:37">
       <c r="A129" s="46" t="s">
         <v>399</v>
       </c>
@@ -10599,7 +10600,7 @@
       <c r="AF129" s="20"/>
       <c r="AG129" s="20"/>
     </row>
-    <row r="130" spans="1:37" hidden="1">
+    <row r="130" spans="1:37">
       <c r="A130" s="23"/>
       <c r="B130" t="s">
         <v>597</v>
@@ -10657,7 +10658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:37" hidden="1">
+    <row r="131" spans="1:37">
       <c r="A131" s="46" t="s">
         <v>406</v>
       </c>
@@ -10846,7 +10847,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="134" spans="1:37" hidden="1">
+    <row r="134" spans="1:37">
       <c r="A134" s="46" t="s">
         <v>410</v>
       </c>
@@ -10956,7 +10957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:37" s="23" customFormat="1" hidden="1">
+    <row r="136" spans="1:37" s="23" customFormat="1">
       <c r="B136">
         <v>1</v>
       </c>
@@ -10995,7 +10996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:37" hidden="1">
+    <row r="137" spans="1:37">
       <c r="A137" s="46" t="s">
         <v>421</v>
       </c>
@@ -11045,7 +11046,7 @@
       <c r="AF137" s="20"/>
       <c r="AG137" s="20"/>
     </row>
-    <row r="138" spans="1:37" hidden="1">
+    <row r="138" spans="1:37">
       <c r="A138" s="46" t="s">
         <v>426</v>
       </c>
@@ -11104,7 +11105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:37" hidden="1">
+    <row r="139" spans="1:37">
       <c r="A139" s="23"/>
       <c r="B139">
         <v>1</v>
@@ -11127,7 +11128,7 @@
       </c>
       <c r="Z139" s="49"/>
     </row>
-    <row r="140" spans="1:37" hidden="1">
+    <row r="140" spans="1:37">
       <c r="A140" s="46" t="s">
         <v>431</v>
       </c>
@@ -11171,7 +11172,7 @@
       <c r="AF140" s="20"/>
       <c r="AG140" s="20"/>
     </row>
-    <row r="141" spans="1:37" hidden="1">
+    <row r="141" spans="1:37">
       <c r="A141" s="46" t="s">
         <v>434</v>
       </c>
@@ -11220,7 +11221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:37" s="23" customFormat="1" hidden="1">
+    <row r="142" spans="1:37" s="23" customFormat="1">
       <c r="B142">
         <v>1</v>
       </c>
@@ -11232,7 +11233,7 @@
       </c>
       <c r="Z142" s="78"/>
     </row>
-    <row r="143" spans="1:37" hidden="1">
+    <row r="143" spans="1:37">
       <c r="A143" s="46" t="s">
         <v>437</v>
       </c>
@@ -11282,7 +11283,7 @@
       <c r="AF143" s="20"/>
       <c r="AG143" s="20"/>
     </row>
-    <row r="144" spans="1:37" hidden="1">
+    <row r="144" spans="1:37">
       <c r="A144" s="46" t="s">
         <v>441</v>
       </c>
@@ -11329,7 +11330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:37" hidden="1">
+    <row r="145" spans="1:37">
       <c r="A145" s="23"/>
       <c r="B145">
         <v>1</v>
@@ -11352,7 +11353,7 @@
       </c>
       <c r="Z145" s="49"/>
     </row>
-    <row r="146" spans="1:37" hidden="1">
+    <row r="146" spans="1:37">
       <c r="A146" s="46" t="s">
         <v>443</v>
       </c>
@@ -11402,7 +11403,7 @@
       <c r="AF146" s="20"/>
       <c r="AG146" s="20"/>
     </row>
-    <row r="147" spans="1:37" hidden="1">
+    <row r="147" spans="1:37">
       <c r="A147" s="23"/>
       <c r="B147" t="s">
         <v>597</v>
@@ -11458,7 +11459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:37" hidden="1">
+    <row r="148" spans="1:37">
       <c r="A148" s="46" t="s">
         <v>449</v>
       </c>
@@ -11510,7 +11511,7 @@
       <c r="AF148" s="20"/>
       <c r="AG148" s="20"/>
     </row>
-    <row r="149" spans="1:37" hidden="1">
+    <row r="149" spans="1:37">
       <c r="A149" s="46" t="s">
         <v>453</v>
       </c>
@@ -11560,7 +11561,7 @@
       <c r="AF149" s="20"/>
       <c r="AG149" s="20"/>
     </row>
-    <row r="150" spans="1:37" hidden="1">
+    <row r="150" spans="1:37">
       <c r="A150" s="46" t="s">
         <v>458</v>
       </c>
@@ -11607,7 +11608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:37" hidden="1">
+    <row r="151" spans="1:37">
       <c r="A151" s="46" t="s">
         <v>461</v>
       </c>
@@ -11660,7 +11661,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="152" spans="1:37" hidden="1">
+    <row r="152" spans="1:37">
       <c r="A152" s="23"/>
       <c r="B152">
         <v>1</v>
@@ -11710,7 +11711,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="153" spans="1:37" hidden="1">
+    <row r="153" spans="1:37">
       <c r="A153" s="23"/>
       <c r="B153">
         <v>1</v>
@@ -11740,7 +11741,7 @@
       </c>
       <c r="Z153" s="49"/>
     </row>
-    <row r="154" spans="1:37" hidden="1">
+    <row r="154" spans="1:37">
       <c r="A154" s="23"/>
       <c r="B154">
         <v>1</v>
@@ -11770,7 +11771,7 @@
       </c>
       <c r="Z154" s="49"/>
     </row>
-    <row r="155" spans="1:37" hidden="1">
+    <row r="155" spans="1:37">
       <c r="A155" s="23"/>
       <c r="B155">
         <v>1</v>
@@ -11797,7 +11798,7 @@
       </c>
       <c r="Z155" s="49"/>
     </row>
-    <row r="156" spans="1:37" hidden="1">
+    <row r="156" spans="1:37">
       <c r="B156">
         <v>1</v>
       </c>
@@ -11836,7 +11837,7 @@
       </c>
       <c r="Z156" s="49"/>
     </row>
-    <row r="157" spans="1:37" hidden="1">
+    <row r="157" spans="1:37">
       <c r="B157">
         <v>1</v>
       </c>
@@ -11856,7 +11857,7 @@
       </c>
       <c r="Z157" s="49"/>
     </row>
-    <row r="158" spans="1:37" hidden="1">
+    <row r="158" spans="1:37">
       <c r="A158" s="46" t="s">
         <v>481</v>
       </c>
@@ -11906,7 +11907,7 @@
       <c r="AF158" s="20"/>
       <c r="AG158" s="20"/>
     </row>
-    <row r="159" spans="1:37" hidden="1">
+    <row r="159" spans="1:37">
       <c r="A159" s="23"/>
       <c r="B159">
         <v>1</v>
@@ -11956,7 +11957,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="160" spans="1:37" hidden="1">
+    <row r="160" spans="1:37">
       <c r="A160" s="23"/>
       <c r="B160">
         <v>1</v>
@@ -11986,7 +11987,7 @@
       </c>
       <c r="Z160" s="49"/>
     </row>
-    <row r="161" spans="1:34" hidden="1">
+    <row r="161" spans="1:34">
       <c r="A161" s="23"/>
       <c r="B161">
         <v>1</v>
@@ -12016,7 +12017,7 @@
       </c>
       <c r="Z161" s="49"/>
     </row>
-    <row r="162" spans="1:34" hidden="1">
+    <row r="162" spans="1:34">
       <c r="A162" s="23"/>
       <c r="B162">
         <v>1</v>
@@ -12043,7 +12044,7 @@
       </c>
       <c r="Z162" s="49"/>
     </row>
-    <row r="163" spans="1:34" hidden="1">
+    <row r="163" spans="1:34">
       <c r="B163">
         <v>1</v>
       </c>
@@ -12082,7 +12083,7 @@
       </c>
       <c r="Z163" s="49"/>
     </row>
-    <row r="164" spans="1:34" hidden="1">
+    <row r="164" spans="1:34">
       <c r="B164">
         <v>1</v>
       </c>
@@ -12102,7 +12103,7 @@
       </c>
       <c r="Z164" s="49"/>
     </row>
-    <row r="165" spans="1:34" hidden="1">
+    <row r="165" spans="1:34">
       <c r="A165" s="46" t="s">
         <v>483</v>
       </c>
@@ -12213,7 +12214,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="167" spans="1:34" hidden="1">
+    <row r="167" spans="1:34">
       <c r="A167" s="46" t="s">
         <v>488</v>
       </c>
@@ -12263,7 +12264,7 @@
       <c r="AF167" s="20"/>
       <c r="AG167" s="20"/>
     </row>
-    <row r="168" spans="1:34" hidden="1">
+    <row r="168" spans="1:34">
       <c r="A168" s="23"/>
       <c r="B168">
         <v>1</v>
@@ -12313,7 +12314,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="169" spans="1:34" hidden="1">
+    <row r="169" spans="1:34">
       <c r="A169" s="23"/>
       <c r="B169">
         <v>1</v>
@@ -12343,7 +12344,7 @@
       </c>
       <c r="Z169" s="49"/>
     </row>
-    <row r="170" spans="1:34" hidden="1">
+    <row r="170" spans="1:34">
       <c r="A170" s="23"/>
       <c r="B170">
         <v>1</v>
@@ -12373,7 +12374,7 @@
       </c>
       <c r="Z170" s="49"/>
     </row>
-    <row r="171" spans="1:34" hidden="1">
+    <row r="171" spans="1:34">
       <c r="A171" s="23"/>
       <c r="B171">
         <v>1</v>
@@ -12400,7 +12401,7 @@
       </c>
       <c r="Z171" s="49"/>
     </row>
-    <row r="172" spans="1:34" hidden="1">
+    <row r="172" spans="1:34">
       <c r="B172">
         <v>1</v>
       </c>
@@ -12439,7 +12440,7 @@
       </c>
       <c r="Z172" s="49"/>
     </row>
-    <row r="173" spans="1:34" hidden="1">
+    <row r="173" spans="1:34">
       <c r="B173">
         <v>1</v>
       </c>
@@ -12459,7 +12460,7 @@
       </c>
       <c r="Z173" s="49"/>
     </row>
-    <row r="174" spans="1:34" hidden="1">
+    <row r="174" spans="1:34">
       <c r="A174" s="46" t="s">
         <v>491</v>
       </c>
@@ -12509,7 +12510,7 @@
       <c r="AF174" s="20"/>
       <c r="AG174" s="20"/>
     </row>
-    <row r="175" spans="1:34" hidden="1">
+    <row r="175" spans="1:34">
       <c r="A175" s="23"/>
       <c r="B175">
         <v>1</v>
@@ -12559,7 +12560,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="176" spans="1:34" hidden="1">
+    <row r="176" spans="1:34">
       <c r="A176" s="23"/>
       <c r="B176">
         <v>1</v>
@@ -12589,7 +12590,7 @@
       </c>
       <c r="Z176" s="49"/>
     </row>
-    <row r="177" spans="1:33" hidden="1">
+    <row r="177" spans="1:33">
       <c r="A177" s="23"/>
       <c r="B177">
         <v>1</v>
@@ -12619,7 +12620,7 @@
       </c>
       <c r="Z177" s="49"/>
     </row>
-    <row r="178" spans="1:33" hidden="1">
+    <row r="178" spans="1:33">
       <c r="A178" s="23"/>
       <c r="B178">
         <v>1</v>
@@ -12646,7 +12647,7 @@
       </c>
       <c r="Z178" s="49"/>
     </row>
-    <row r="179" spans="1:33" hidden="1">
+    <row r="179" spans="1:33">
       <c r="B179">
         <v>1</v>
       </c>
@@ -12685,7 +12686,7 @@
       </c>
       <c r="Z179" s="49"/>
     </row>
-    <row r="180" spans="1:33" hidden="1">
+    <row r="180" spans="1:33">
       <c r="B180">
         <v>1</v>
       </c>
@@ -12705,7 +12706,7 @@
       </c>
       <c r="Z180" s="49"/>
     </row>
-    <row r="181" spans="1:33" hidden="1">
+    <row r="181" spans="1:33">
       <c r="A181" s="46" t="s">
         <v>493</v>
       </c>
@@ -12749,7 +12750,7 @@
       <c r="AF181" s="20"/>
       <c r="AG181" s="20"/>
     </row>
-    <row r="182" spans="1:33" hidden="1">
+    <row r="182" spans="1:33">
       <c r="A182" s="46" t="s">
         <v>496</v>
       </c>
@@ -12799,7 +12800,7 @@
       <c r="AF182" s="20"/>
       <c r="AG182" s="20"/>
     </row>
-    <row r="183" spans="1:33" hidden="1">
+    <row r="183" spans="1:33">
       <c r="A183" s="46" t="s">
         <v>500</v>
       </c>
@@ -12910,7 +12911,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="185" spans="1:33" hidden="1">
+    <row r="185" spans="1:33">
       <c r="A185" s="46" t="s">
         <v>507</v>
       </c>
@@ -13020,7 +13021,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="187" spans="1:33" hidden="1">
+    <row r="187" spans="1:33">
       <c r="A187" s="46" t="s">
         <v>510</v>
       </c>
@@ -13064,7 +13065,7 @@
       <c r="AF187" s="20"/>
       <c r="AG187" s="20"/>
     </row>
-    <row r="188" spans="1:33" hidden="1">
+    <row r="188" spans="1:33">
       <c r="A188" s="46" t="s">
         <v>513</v>
       </c>
@@ -13114,7 +13115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:33" hidden="1">
+    <row r="189" spans="1:33">
       <c r="B189">
         <v>1</v>
       </c>
@@ -13161,7 +13162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:33" hidden="1">
+    <row r="190" spans="1:33">
       <c r="B190">
         <v>1</v>
       </c>
@@ -13185,7 +13186,7 @@
       </c>
       <c r="Z190" s="49"/>
     </row>
-    <row r="191" spans="1:33" hidden="1">
+    <row r="191" spans="1:33">
       <c r="B191">
         <v>1</v>
       </c>
@@ -13206,7 +13207,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="192" spans="1:33" hidden="1">
+    <row r="192" spans="1:33">
       <c r="A192" s="58" t="s">
         <v>524</v>
       </c>
@@ -13254,7 +13255,7 @@
       </c>
       <c r="AG192" s="60"/>
     </row>
-    <row r="193" spans="1:33" hidden="1">
+    <row r="193" spans="1:33">
       <c r="A193" s="23"/>
       <c r="B193">
         <v>1</v>
@@ -13309,7 +13310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:33" hidden="1">
+    <row r="194" spans="1:33">
       <c r="A194" s="58" t="s">
         <v>533</v>
       </c>
@@ -13359,7 +13360,7 @@
       <c r="AF194" s="60"/>
       <c r="AG194" s="60"/>
     </row>
-    <row r="195" spans="1:33" hidden="1">
+    <row r="195" spans="1:33">
       <c r="A195" s="32"/>
       <c r="B195">
         <v>1</v>
@@ -13446,7 +13447,7 @@
       </c>
       <c r="Z196" s="49"/>
     </row>
-    <row r="197" spans="1:33" hidden="1">
+    <row r="197" spans="1:33">
       <c r="A197" s="58" t="s">
         <v>542</v>
       </c>
@@ -13496,7 +13497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:33" hidden="1">
+    <row r="198" spans="1:33">
       <c r="B198">
         <v>1</v>
       </c>
@@ -13544,7 +13545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:33" hidden="1">
+    <row r="199" spans="1:33">
       <c r="A199" s="58" t="s">
         <v>544</v>
       </c>
@@ -13594,7 +13595,7 @@
       <c r="AF199" s="60"/>
       <c r="AG199" s="60"/>
     </row>
-    <row r="200" spans="1:33" hidden="1">
+    <row r="200" spans="1:33">
       <c r="A200" s="58" t="s">
         <v>548</v>
       </c>
@@ -13646,7 +13647,7 @@
       <c r="AF200" s="60"/>
       <c r="AG200" s="60"/>
     </row>
-    <row r="201" spans="1:33" hidden="1">
+    <row r="201" spans="1:33">
       <c r="A201" s="23"/>
       <c r="B201">
         <v>1</v>
@@ -13701,7 +13702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:33" hidden="1">
+    <row r="202" spans="1:33">
       <c r="A202" s="23"/>
       <c r="B202">
         <v>1</v>
@@ -13718,7 +13719,7 @@
       </c>
       <c r="Z202" s="49"/>
     </row>
-    <row r="203" spans="1:33" hidden="1">
+    <row r="203" spans="1:33">
       <c r="A203" s="58" t="s">
         <v>557</v>
       </c>
@@ -13768,7 +13769,7 @@
       <c r="AF203" s="60"/>
       <c r="AG203" s="60"/>
     </row>
-    <row r="204" spans="1:33" hidden="1">
+    <row r="204" spans="1:33">
       <c r="A204" s="23"/>
       <c r="B204" t="s">
         <v>597</v>
@@ -13791,7 +13792,7 @@
       </c>
       <c r="Z204" s="49"/>
     </row>
-    <row r="205" spans="1:33" hidden="1">
+    <row r="205" spans="1:33">
       <c r="A205" s="58" t="s">
         <v>562</v>
       </c>
@@ -13843,7 +13844,7 @@
       <c r="AF205" s="60"/>
       <c r="AG205" s="60"/>
     </row>
-    <row r="206" spans="1:33" hidden="1">
+    <row r="206" spans="1:33">
       <c r="A206" s="23"/>
       <c r="B206">
         <v>1</v>
@@ -13881,7 +13882,7 @@
       </c>
       <c r="Z206" s="49"/>
     </row>
-    <row r="207" spans="1:33" hidden="1">
+    <row r="207" spans="1:33">
       <c r="A207" s="23"/>
       <c r="B207">
         <v>1</v>
@@ -13905,7 +13906,7 @@
       </c>
       <c r="Z207" s="49"/>
     </row>
-    <row r="208" spans="1:33" hidden="1">
+    <row r="208" spans="1:33">
       <c r="A208" s="23"/>
       <c r="B208">
         <v>1</v>
@@ -13932,7 +13933,7 @@
       </c>
       <c r="Z208" s="49"/>
     </row>
-    <row r="209" spans="1:37" hidden="1">
+    <row r="209" spans="1:37">
       <c r="A209" s="58" t="s">
         <v>571</v>
       </c>
@@ -13985,7 +13986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:37" hidden="1">
+    <row r="210" spans="1:37">
       <c r="A210" s="58" t="s">
         <v>575</v>
       </c>
@@ -14035,7 +14036,7 @@
       <c r="AF210" s="60"/>
       <c r="AG210" s="60"/>
     </row>
-    <row r="211" spans="1:37" hidden="1">
+    <row r="211" spans="1:37">
       <c r="A211" s="23"/>
       <c r="B211">
         <v>1</v>
@@ -14085,7 +14086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:37" hidden="1">
+    <row r="212" spans="1:37">
       <c r="A212" s="58" t="s">
         <v>583</v>
       </c>
@@ -14137,7 +14138,7 @@
       <c r="AF212" s="60"/>
       <c r="AG212" s="60"/>
     </row>
-    <row r="213" spans="1:37" hidden="1">
+    <row r="213" spans="1:37">
       <c r="A213" s="23"/>
       <c r="B213">
         <v>1</v>
@@ -14180,7 +14181,7 @@
       <c r="AE213" s="60"/>
       <c r="AF213" s="60"/>
     </row>
-    <row r="214" spans="1:37" hidden="1">
+    <row r="214" spans="1:37">
       <c r="A214" s="23"/>
       <c r="B214">
         <v>1</v>
@@ -14204,7 +14205,7 @@
       <c r="AE214" s="60"/>
       <c r="AF214" s="60"/>
     </row>
-    <row r="215" spans="1:37" hidden="1">
+    <row r="215" spans="1:37">
       <c r="A215" s="23"/>
       <c r="B215">
         <v>1</v>
@@ -14261,7 +14262,7 @@
       <c r="AE215" s="60"/>
       <c r="AF215" s="60"/>
     </row>
-    <row r="216" spans="1:37" hidden="1">
+    <row r="216" spans="1:37">
       <c r="A216" s="23"/>
       <c r="B216">
         <v>1</v>
@@ -14281,7 +14282,7 @@
       </c>
       <c r="Z216" s="49"/>
     </row>
-    <row r="217" spans="1:37" hidden="1">
+    <row r="217" spans="1:37">
       <c r="A217" s="58" t="s">
         <v>598</v>
       </c>
@@ -14331,7 +14332,7 @@
       <c r="AF217" s="60"/>
       <c r="AG217" s="60"/>
     </row>
-    <row r="218" spans="1:37" hidden="1">
+    <row r="218" spans="1:37">
       <c r="A218" s="23"/>
       <c r="B218">
         <v>1</v>
@@ -14374,7 +14375,7 @@
       <c r="AE218" s="60"/>
       <c r="AF218" s="60"/>
     </row>
-    <row r="219" spans="1:37" hidden="1">
+    <row r="219" spans="1:37">
       <c r="A219" s="23"/>
       <c r="B219">
         <v>1</v>
@@ -14398,7 +14399,7 @@
       <c r="AE219" s="60"/>
       <c r="AF219" s="60"/>
     </row>
-    <row r="220" spans="1:37" hidden="1">
+    <row r="220" spans="1:37">
       <c r="A220" s="23"/>
       <c r="B220">
         <v>1</v>
@@ -14455,7 +14456,7 @@
       <c r="AE220" s="60"/>
       <c r="AF220" s="60"/>
     </row>
-    <row r="221" spans="1:37" hidden="1">
+    <row r="221" spans="1:37">
       <c r="A221" s="23"/>
       <c r="B221">
         <v>1</v>
@@ -14475,7 +14476,7 @@
       </c>
       <c r="Z221" s="49"/>
     </row>
-    <row r="222" spans="1:37" hidden="1">
+    <row r="222" spans="1:37">
       <c r="A222" s="58" t="s">
         <v>601</v>
       </c>
@@ -14525,7 +14526,7 @@
       <c r="AF222" s="60"/>
       <c r="AG222" s="60"/>
     </row>
-    <row r="223" spans="1:37" hidden="1">
+    <row r="223" spans="1:37">
       <c r="A223" s="23"/>
       <c r="B223">
         <v>1</v>
@@ -14572,7 +14573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:37" hidden="1">
+    <row r="224" spans="1:37">
       <c r="A224" s="23"/>
       <c r="B224">
         <v>1</v>
@@ -14593,7 +14594,7 @@
       <c r="Z224" s="49"/>
       <c r="AB224" s="67"/>
     </row>
-    <row r="225" spans="1:37" hidden="1">
+    <row r="225" spans="1:37">
       <c r="A225" s="58" t="s">
         <v>609</v>
       </c>
@@ -14645,7 +14646,7 @@
       <c r="AF225" s="60"/>
       <c r="AG225" s="60"/>
     </row>
-    <row r="226" spans="1:37" hidden="1">
+    <row r="226" spans="1:37">
       <c r="A226" s="23"/>
       <c r="B226">
         <v>1</v>
@@ -14691,7 +14692,7 @@
       <c r="AE226" s="60"/>
       <c r="AF226" s="60"/>
     </row>
-    <row r="227" spans="1:37" hidden="1">
+    <row r="227" spans="1:37">
       <c r="A227" s="23"/>
       <c r="B227">
         <v>1</v>
@@ -14715,7 +14716,7 @@
       <c r="AE227" s="60"/>
       <c r="AF227" s="60"/>
     </row>
-    <row r="228" spans="1:37" hidden="1">
+    <row r="228" spans="1:37">
       <c r="A228" s="23"/>
       <c r="B228">
         <v>1</v>
@@ -14772,7 +14773,7 @@
       <c r="AE228" s="60"/>
       <c r="AF228" s="60"/>
     </row>
-    <row r="229" spans="1:37" hidden="1">
+    <row r="229" spans="1:37">
       <c r="A229" s="23"/>
       <c r="B229">
         <v>1</v>
@@ -14792,7 +14793,7 @@
       </c>
       <c r="Z229" s="49"/>
     </row>
-    <row r="230" spans="1:37" hidden="1">
+    <row r="230" spans="1:37">
       <c r="A230" s="58" t="s">
         <v>612</v>
       </c>
@@ -14842,7 +14843,7 @@
       <c r="AF230" s="60"/>
       <c r="AG230" s="60"/>
     </row>
-    <row r="231" spans="1:37" hidden="1">
+    <row r="231" spans="1:37">
       <c r="A231" s="23"/>
       <c r="B231" t="s">
         <v>597</v>
@@ -14897,7 +14898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:37" hidden="1">
+    <row r="232" spans="1:37">
       <c r="A232" s="58" t="s">
         <v>620</v>
       </c>
@@ -14949,7 +14950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:37" hidden="1">
+    <row r="233" spans="1:37">
       <c r="A233" s="23"/>
       <c r="B233">
         <v>1</v>
@@ -14995,7 +14996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:37" hidden="1">
+    <row r="234" spans="1:37">
       <c r="A234" s="58" t="s">
         <v>626</v>
       </c>
@@ -15048,7 +15049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:37" hidden="1">
+    <row r="235" spans="1:37">
       <c r="A235" s="58" t="s">
         <v>630</v>
       </c>
@@ -15103,7 +15104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:37" hidden="1">
+    <row r="236" spans="1:37">
       <c r="A236" s="58" t="s">
         <v>634</v>
       </c>
@@ -15150,7 +15151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:37" hidden="1">
+    <row r="237" spans="1:37">
       <c r="A237" s="58" t="s">
         <v>637</v>
       </c>
@@ -15202,7 +15203,7 @@
       <c r="AF237" s="60"/>
       <c r="AG237" s="60"/>
     </row>
-    <row r="238" spans="1:37" hidden="1">
+    <row r="238" spans="1:37">
       <c r="A238" s="58" t="s">
         <v>641</v>
       </c>
@@ -15252,7 +15253,7 @@
       <c r="AF238" s="60"/>
       <c r="AG238" s="60"/>
     </row>
-    <row r="239" spans="1:37" hidden="1">
+    <row r="239" spans="1:37">
       <c r="A239" s="23"/>
       <c r="B239" t="s">
         <v>597</v>
@@ -15276,7 +15277,7 @@
       </c>
       <c r="Z239" s="49"/>
     </row>
-    <row r="240" spans="1:37" hidden="1">
+    <row r="240" spans="1:37">
       <c r="A240" s="58" t="s">
         <v>647</v>
       </c>
@@ -15326,7 +15327,7 @@
       <c r="AF240" s="60"/>
       <c r="AG240" s="60"/>
     </row>
-    <row r="241" spans="1:34" hidden="1">
+    <row r="241" spans="1:34">
       <c r="A241" s="23"/>
       <c r="B241">
         <v>1</v>
@@ -15380,7 +15381,7 @@
       <c r="AE241" s="49"/>
       <c r="AF241" s="49"/>
     </row>
-    <row r="242" spans="1:34" hidden="1">
+    <row r="242" spans="1:34">
       <c r="A242" s="58" t="s">
         <v>654</v>
       </c>
@@ -15433,7 +15434,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="243" spans="1:34" hidden="1">
+    <row r="243" spans="1:34">
       <c r="A243" s="58" t="s">
         <v>658</v>
       </c>
@@ -15483,7 +15484,7 @@
       <c r="AF243" s="60"/>
       <c r="AG243" s="60"/>
     </row>
-    <row r="244" spans="1:34" hidden="1">
+    <row r="244" spans="1:34">
       <c r="A244" s="58" t="s">
         <v>662</v>
       </c>
@@ -15535,7 +15536,7 @@
       <c r="AF244" s="60"/>
       <c r="AG244" s="60"/>
     </row>
-    <row r="245" spans="1:34" hidden="1">
+    <row r="245" spans="1:34">
       <c r="A245" s="58" t="s">
         <v>666</v>
       </c>
@@ -15585,7 +15586,7 @@
       <c r="AF245" s="60"/>
       <c r="AG245" s="60"/>
     </row>
-    <row r="246" spans="1:34" hidden="1">
+    <row r="246" spans="1:34">
       <c r="A246" s="23"/>
       <c r="B246">
         <v>1</v>
@@ -15640,7 +15641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:34" hidden="1">
+    <row r="247" spans="1:34">
       <c r="A247" s="71" t="s">
         <v>676</v>
       </c>
@@ -15691,7 +15692,7 @@
       <c r="AF247" s="60"/>
       <c r="AG247" s="60"/>
     </row>
-    <row r="248" spans="1:34" hidden="1">
+    <row r="248" spans="1:34">
       <c r="A248" s="58" t="s">
         <v>681</v>
       </c>
@@ -15743,7 +15744,7 @@
       <c r="AF248" s="60"/>
       <c r="AG248" s="60"/>
     </row>
-    <row r="249" spans="1:34" hidden="1">
+    <row r="249" spans="1:34">
       <c r="A249" s="23"/>
       <c r="B249">
         <v>1</v>
@@ -15787,7 +15788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:34" hidden="1">
+    <row r="250" spans="1:34">
       <c r="A250" s="23"/>
       <c r="B250">
         <v>1</v>
@@ -15834,7 +15835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:34" hidden="1">
+    <row r="251" spans="1:34">
       <c r="A251" s="23"/>
       <c r="B251">
         <v>1</v>
@@ -15883,7 +15884,7 @@
       <c r="AE251" s="60"/>
       <c r="AF251" s="60"/>
     </row>
-    <row r="252" spans="1:34" hidden="1">
+    <row r="252" spans="1:34">
       <c r="A252" s="58" t="s">
         <v>689</v>
       </c>
@@ -15935,7 +15936,7 @@
       <c r="AF252" s="60"/>
       <c r="AG252" s="60"/>
     </row>
-    <row r="253" spans="1:34" hidden="1">
+    <row r="253" spans="1:34">
       <c r="A253" s="23"/>
       <c r="B253" t="s">
         <v>597</v>
@@ -15989,7 +15990,7 @@
       <c r="AE253" s="60"/>
       <c r="AF253" s="60"/>
     </row>
-    <row r="254" spans="1:34" hidden="1">
+    <row r="254" spans="1:34">
       <c r="A254" s="58" t="s">
         <v>697</v>
       </c>
@@ -16039,7 +16040,7 @@
       <c r="AF254" s="60"/>
       <c r="AG254" s="60"/>
     </row>
-    <row r="255" spans="1:34" hidden="1">
+    <row r="255" spans="1:34">
       <c r="A255" s="23"/>
       <c r="B255">
         <v>1</v>
@@ -16093,7 +16094,7 @@
       <c r="AE255" s="60"/>
       <c r="AF255" s="60"/>
     </row>
-    <row r="256" spans="1:34" hidden="1">
+    <row r="256" spans="1:34">
       <c r="A256" s="23"/>
       <c r="B256">
         <v>1</v>
@@ -16120,7 +16121,7 @@
       </c>
       <c r="Z256" s="49"/>
     </row>
-    <row r="257" spans="1:36" hidden="1">
+    <row r="257" spans="1:36">
       <c r="A257" s="23"/>
       <c r="B257">
         <v>1</v>
@@ -16174,7 +16175,7 @@
       <c r="AE257" s="60"/>
       <c r="AF257" s="60"/>
     </row>
-    <row r="258" spans="1:36" hidden="1">
+    <row r="258" spans="1:36">
       <c r="A258" s="58" t="s">
         <v>709</v>
       </c>
@@ -16227,7 +16228,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="259" spans="1:36" hidden="1">
+    <row r="259" spans="1:36">
       <c r="A259" s="23"/>
       <c r="B259">
         <v>1</v>
@@ -16417,7 +16418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:36" hidden="1">
+    <row r="262" spans="1:36">
       <c r="A262" s="58" t="s">
         <v>725</v>
       </c>
@@ -16469,7 +16470,7 @@
       <c r="AF262" s="60"/>
       <c r="AG262" s="60"/>
     </row>
-    <row r="263" spans="1:36" hidden="1">
+    <row r="263" spans="1:36">
       <c r="A263" s="58"/>
       <c r="B263">
         <v>1</v>
@@ -16504,7 +16505,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="264" spans="1:36" hidden="1">
+    <row r="264" spans="1:36">
       <c r="A264" s="58" t="s">
         <v>732</v>
       </c>
@@ -16556,7 +16557,7 @@
       <c r="AF264" s="60"/>
       <c r="AG264" s="60"/>
     </row>
-    <row r="265" spans="1:36" hidden="1">
+    <row r="265" spans="1:36">
       <c r="A265" s="58" t="s">
         <v>736</v>
       </c>
@@ -16602,7 +16603,7 @@
       <c r="AF265" s="60"/>
       <c r="AG265" s="60"/>
     </row>
-    <row r="266" spans="1:36" hidden="1">
+    <row r="266" spans="1:36">
       <c r="A266" s="60" t="s">
         <v>739</v>
       </c>
@@ -16742,7 +16743,7 @@
       <c r="AF268" s="49"/>
       <c r="AJ268" s="47"/>
     </row>
-    <row r="269" spans="1:36" hidden="1">
+    <row r="269" spans="1:36">
       <c r="A269" s="60" t="s">
         <v>745</v>
       </c>
@@ -16794,7 +16795,7 @@
       <c r="AF269" s="60"/>
       <c r="AG269" s="60"/>
     </row>
-    <row r="270" spans="1:36" hidden="1">
+    <row r="270" spans="1:36">
       <c r="B270">
         <v>1</v>
       </c>
@@ -16832,22 +16833,22 @@
       <c r="X270" s="19" t="s">
         <v>790</v>
       </c>
-      <c r="Y270" s="49" t="s">
+      <c r="Y270" s="128" t="s">
         <v>787</v>
       </c>
-      <c r="Z270" s="49"/>
-      <c r="AA270" s="49"/>
-      <c r="AB270" s="49" t="s">
+      <c r="Z270" s="128"/>
+      <c r="AA270" s="128"/>
+      <c r="AB270" s="128" t="s">
         <v>752</v>
       </c>
-      <c r="AC270" s="49"/>
+      <c r="AC270" s="128"/>
       <c r="AD270" s="49">
         <v>1</v>
       </c>
       <c r="AE270" s="49"/>
       <c r="AF270" s="49"/>
     </row>
-    <row r="271" spans="1:36" hidden="1">
+    <row r="271" spans="1:36">
       <c r="B271">
         <v>1</v>
       </c>
@@ -16864,7 +16865,7 @@
       </c>
       <c r="Z271" s="49"/>
     </row>
-    <row r="272" spans="1:36" hidden="1">
+    <row r="272" spans="1:36">
       <c r="B272">
         <v>1</v>
       </c>
@@ -16881,7 +16882,7 @@
       </c>
       <c r="Z272" s="49"/>
     </row>
-    <row r="273" spans="1:37" hidden="1">
+    <row r="273" spans="1:37">
       <c r="A273" s="60" t="s">
         <v>756</v>
       </c>
@@ -16933,7 +16934,7 @@
       <c r="AF273" s="60"/>
       <c r="AG273" s="60"/>
     </row>
-    <row r="274" spans="1:37" hidden="1">
+    <row r="274" spans="1:37">
       <c r="A274" s="76" t="s">
         <v>759</v>
       </c>
@@ -16983,7 +16984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:37" hidden="1">
+    <row r="275" spans="1:37">
       <c r="B275">
         <v>1</v>
       </c>
@@ -16998,7 +16999,7 @@
       </c>
       <c r="Z275" s="49"/>
     </row>
-    <row r="276" spans="1:37" hidden="1">
+    <row r="276" spans="1:37">
       <c r="A276" s="60" t="s">
         <v>762</v>
       </c>
@@ -17050,7 +17051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:37" hidden="1">
+    <row r="277" spans="1:37">
       <c r="B277">
         <v>1</v>
       </c>
@@ -17065,7 +17066,7 @@
       </c>
       <c r="Z277" s="49"/>
     </row>
-    <row r="278" spans="1:37" hidden="1">
+    <row r="278" spans="1:37">
       <c r="A278" s="60" t="s">
         <v>765</v>
       </c>
@@ -17117,7 +17118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:37" hidden="1">
+    <row r="279" spans="1:37">
       <c r="B279">
         <v>1</v>
       </c>
@@ -17132,7 +17133,7 @@
       </c>
       <c r="Z279" s="49"/>
     </row>
-    <row r="280" spans="1:37" hidden="1">
+    <row r="280" spans="1:37">
       <c r="A280" s="60" t="s">
         <v>768</v>
       </c>
@@ -17176,7 +17177,7 @@
       <c r="AF280" s="60"/>
       <c r="AG280" s="60"/>
     </row>
-    <row r="281" spans="1:37" hidden="1">
+    <row r="281" spans="1:37">
       <c r="A281" s="60" t="s">
         <v>771</v>
       </c>
@@ -17220,7 +17221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:37" hidden="1">
+    <row r="282" spans="1:37">
       <c r="B282">
         <v>1</v>
       </c>
@@ -17232,7 +17233,7 @@
       </c>
       <c r="Z282" s="49"/>
     </row>
-    <row r="283" spans="1:37" hidden="1">
+    <row r="283" spans="1:37">
       <c r="A283" s="60" t="s">
         <v>773</v>
       </c>
@@ -17279,7 +17280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:37" hidden="1">
+    <row r="284" spans="1:37">
       <c r="A284" s="60" t="s">
         <v>776</v>
       </c>
@@ -17326,7 +17327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:37" hidden="1">
+    <row r="285" spans="1:37">
       <c r="A285" s="60" t="s">
         <v>778</v>
       </c>
@@ -17372,7 +17373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:37" hidden="1">
+    <row r="286" spans="1:37">
       <c r="B286">
         <v>1</v>
       </c>
@@ -17385,7 +17386,7 @@
       </c>
       <c r="Z286" s="49"/>
     </row>
-    <row r="287" spans="1:37" hidden="1">
+    <row r="287" spans="1:37">
       <c r="A287" s="60" t="s">
         <v>780</v>
       </c>
@@ -17434,7 +17435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:37" hidden="1">
+    <row r="288" spans="1:37">
       <c r="A288" s="60" t="s">
         <v>782</v>
       </c>
@@ -17481,7 +17482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="289" spans="1:37" customFormat="1" ht="23">
       <c r="A289" s="91" t="s">
         <v>828</v>
       </c>
@@ -17536,7 +17537,7 @@
       <c r="AJ289" s="93"/>
       <c r="AK289" s="93"/>
     </row>
-    <row r="290" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="290" spans="1:37" customFormat="1" ht="19">
       <c r="A290" s="96"/>
       <c r="B290" s="96">
         <v>1</v>
@@ -17561,7 +17562,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="291" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="291" spans="1:37" customFormat="1" ht="19">
       <c r="A291" s="91" t="s">
         <v>833</v>
       </c>
@@ -17618,7 +17619,7 @@
       <c r="AJ291" s="93"/>
       <c r="AK291" s="93"/>
     </row>
-    <row r="292" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="292" spans="1:37" customFormat="1" ht="19">
       <c r="A292" s="96"/>
       <c r="B292" s="96">
         <v>1</v>
@@ -17638,7 +17639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="293" spans="1:37" customFormat="1" ht="19">
       <c r="A293" s="96"/>
       <c r="B293" s="96">
         <v>1</v>
@@ -17653,7 +17654,7 @@
       </c>
       <c r="Q293" s="94"/>
     </row>
-    <row r="294" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="294" spans="1:37" customFormat="1" ht="19">
       <c r="A294" s="91" t="s">
         <v>837</v>
       </c>
@@ -17708,7 +17709,7 @@
       <c r="AJ294" s="93"/>
       <c r="AK294" s="93"/>
     </row>
-    <row r="295" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="295" spans="1:37" customFormat="1" ht="23">
       <c r="A295" s="96"/>
       <c r="B295" s="96">
         <v>1</v>
@@ -17763,7 +17764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:37" customFormat="1" hidden="1">
+    <row r="296" spans="1:37" customFormat="1">
       <c r="A296" s="96"/>
       <c r="B296" s="96">
         <v>1</v>
@@ -17779,7 +17780,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="297" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="297" spans="1:37" customFormat="1" ht="19">
       <c r="A297" s="91" t="s">
         <v>839</v>
       </c>
@@ -17836,7 +17837,7 @@
       <c r="AJ297" s="93"/>
       <c r="AK297" s="93"/>
     </row>
-    <row r="298" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="298" spans="1:37" customFormat="1" ht="19">
       <c r="A298" s="96"/>
       <c r="B298" s="96">
         <v>1</v>
@@ -17849,7 +17850,7 @@
       <c r="Q298" s="101"/>
       <c r="U298" s="97"/>
     </row>
-    <row r="299" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="299" spans="1:37" customFormat="1" ht="19">
       <c r="A299" s="91" t="s">
         <v>843</v>
       </c>
@@ -17904,7 +17905,7 @@
       <c r="AJ299" s="93"/>
       <c r="AK299" s="93"/>
     </row>
-    <row r="300" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="300" spans="1:37" customFormat="1" ht="23">
       <c r="A300" s="96"/>
       <c r="B300" s="96">
         <v>1</v>
@@ -17949,7 +17950,7 @@
       <c r="AE300" s="104"/>
       <c r="AF300" s="104"/>
     </row>
-    <row r="301" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="301" spans="1:37" customFormat="1" ht="19">
       <c r="A301" s="96"/>
       <c r="B301" s="96">
         <v>1</v>
@@ -17972,7 +17973,7 @@
       <c r="AE301" s="104"/>
       <c r="AF301" s="104"/>
     </row>
-    <row r="302" spans="1:37" customFormat="1" ht="25" hidden="1">
+    <row r="302" spans="1:37" customFormat="1" ht="25">
       <c r="A302" s="96"/>
       <c r="B302" s="96">
         <v>1</v>
@@ -18026,7 +18027,7 @@
       <c r="AE302" s="104"/>
       <c r="AF302" s="104"/>
     </row>
-    <row r="303" spans="1:37" customFormat="1" hidden="1">
+    <row r="303" spans="1:37" customFormat="1">
       <c r="A303" s="96"/>
       <c r="B303" s="96">
         <v>1</v>
@@ -18042,7 +18043,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="304" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="304" spans="1:37" customFormat="1" ht="23">
       <c r="A304" s="91" t="s">
         <v>850</v>
       </c>
@@ -18101,7 +18102,7 @@
       <c r="AJ304" s="93"/>
       <c r="AK304" s="93"/>
     </row>
-    <row r="305" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="305" spans="1:37" customFormat="1" ht="19">
       <c r="A305" s="91" t="s">
         <v>854</v>
       </c>
@@ -18175,7 +18176,7 @@
         <v>1</v>
       </c>
       <c r="J306" s="93" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K306" s="93">
         <v>216</v>
@@ -18184,7 +18185,7 @@
         <v>2</v>
       </c>
       <c r="N306" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="O306" t="s">
         <v>858</v>
@@ -18222,7 +18223,7 @@
         <v>1</v>
       </c>
       <c r="J307" s="93" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K307" s="93">
         <v>14</v>
@@ -18231,7 +18232,7 @@
         <v>2</v>
       </c>
       <c r="N307" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="O307" s="1" t="s">
         <v>859</v>
@@ -18252,7 +18253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="308" spans="1:37" customFormat="1" ht="19">
       <c r="A308" s="91" t="s">
         <v>860</v>
       </c>
@@ -18307,7 +18308,7 @@
       <c r="AJ308" s="93"/>
       <c r="AK308" s="93"/>
     </row>
-    <row r="309" spans="1:37" customFormat="1" hidden="1">
+    <row r="309" spans="1:37" customFormat="1">
       <c r="A309" s="91" t="s">
         <v>863</v>
       </c>
@@ -18362,7 +18363,7 @@
       <c r="AJ309" s="93"/>
       <c r="AK309" s="93"/>
     </row>
-    <row r="310" spans="1:37" customFormat="1" ht="30" hidden="1">
+    <row r="310" spans="1:37" customFormat="1" ht="30">
       <c r="A310" s="96"/>
       <c r="B310" s="96">
         <v>1</v>
@@ -18415,7 +18416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:37" customFormat="1" ht="30" hidden="1">
+    <row r="311" spans="1:37" customFormat="1" ht="30">
       <c r="A311" s="91" t="s">
         <v>871</v>
       </c>
@@ -18470,7 +18471,7 @@
       <c r="AJ311" s="93"/>
       <c r="AK311" s="93"/>
     </row>
-    <row r="312" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="312" spans="1:37" customFormat="1" ht="19">
       <c r="A312" s="93" t="s">
         <v>874</v>
       </c>
@@ -18525,7 +18526,7 @@
       <c r="AJ312" s="93"/>
       <c r="AK312" s="93"/>
     </row>
-    <row r="313" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="313" spans="1:37" customFormat="1" ht="19">
       <c r="B313" s="91">
         <v>1</v>
       </c>
@@ -18573,7 +18574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="314" spans="1:37" customFormat="1" ht="19">
       <c r="A314" s="93" t="s">
         <v>883</v>
       </c>
@@ -18628,7 +18629,7 @@
       <c r="AJ314" s="93"/>
       <c r="AK314" s="93"/>
     </row>
-    <row r="315" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="315" spans="1:37" customFormat="1" ht="23">
       <c r="B315">
         <v>1</v>
       </c>
@@ -18676,7 +18677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="316" spans="1:37" customFormat="1" ht="23">
       <c r="A316" s="93" t="s">
         <v>890</v>
       </c>
@@ -18731,7 +18732,7 @@
       <c r="AJ316" s="93"/>
       <c r="AK316" s="93"/>
     </row>
-    <row r="317" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="317" spans="1:37" customFormat="1" ht="23">
       <c r="B317" s="93">
         <v>1</v>
       </c>
@@ -18779,7 +18780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:37" customFormat="1" ht="40" hidden="1">
+    <row r="318" spans="1:37" customFormat="1" ht="40">
       <c r="A318" s="93" t="s">
         <v>892</v>
       </c>
@@ -18834,7 +18835,7 @@
       <c r="AJ318" s="93"/>
       <c r="AK318" s="93"/>
     </row>
-    <row r="319" spans="1:37" customFormat="1" hidden="1">
+    <row r="319" spans="1:37" customFormat="1">
       <c r="B319" s="93">
         <v>1</v>
       </c>
@@ -18843,7 +18844,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="320" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="320" spans="1:37" customFormat="1" ht="19">
       <c r="B320" s="93">
         <v>1</v>
       </c>
@@ -18890,7 +18891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="321" spans="1:37" customFormat="1" ht="23">
       <c r="A321" s="93" t="s">
         <v>901</v>
       </c>
@@ -18945,7 +18946,7 @@
       <c r="AJ321" s="93"/>
       <c r="AK321" s="93"/>
     </row>
-    <row r="322" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="322" spans="1:37" customFormat="1" ht="23">
       <c r="B322" s="93">
         <v>1</v>
       </c>
@@ -18993,7 +18994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:37" customFormat="1" ht="35" hidden="1">
+    <row r="323" spans="1:37" customFormat="1" ht="35">
       <c r="A323" s="93" t="s">
         <v>910</v>
       </c>
@@ -19048,7 +19049,7 @@
       <c r="AJ323" s="93"/>
       <c r="AK323" s="93"/>
     </row>
-    <row r="324" spans="1:37" customFormat="1" ht="35" hidden="1">
+    <row r="324" spans="1:37" customFormat="1" ht="35">
       <c r="B324" s="93">
         <v>1</v>
       </c>
@@ -19096,7 +19097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="325" spans="1:37" customFormat="1" ht="23">
       <c r="A325" s="93" t="s">
         <v>915</v>
       </c>
@@ -19151,7 +19152,7 @@
       <c r="AJ325" s="93"/>
       <c r="AK325" s="93"/>
     </row>
-    <row r="326" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="326" spans="1:37" customFormat="1" ht="23">
       <c r="B326" s="93">
         <v>1</v>
       </c>
@@ -19189,8 +19190,8 @@
       <c r="X326" t="s">
         <v>920</v>
       </c>
-      <c r="Y326" s="99" t="s">
-        <v>921</v>
+      <c r="Y326" s="129" t="s">
+        <v>1046</v>
       </c>
       <c r="AD326" s="99">
         <v>1</v>
@@ -19199,9 +19200,9 @@
       <c r="AF326" s="99"/>
       <c r="AG326" s="99"/>
     </row>
-    <row r="327" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="327" spans="1:37" customFormat="1" ht="23">
       <c r="A327" s="93" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B327" s="93">
         <v>1</v>
@@ -19254,7 +19255,7 @@
       <c r="AJ327" s="93"/>
       <c r="AK327" s="93"/>
     </row>
-    <row r="328" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="328" spans="1:37" customFormat="1" ht="23">
       <c r="B328" s="93">
         <v>1</v>
       </c>
@@ -19292,8 +19293,8 @@
       <c r="X328" t="s">
         <v>920</v>
       </c>
-      <c r="Y328" s="99" t="s">
-        <v>921</v>
+      <c r="Y328" s="129" t="s">
+        <v>1046</v>
       </c>
       <c r="AD328" s="99">
         <v>1</v>
@@ -19302,15 +19303,15 @@
       <c r="AF328" s="99"/>
       <c r="AG328" s="99"/>
     </row>
-    <row r="329" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="329" spans="1:37" customFormat="1" ht="23">
       <c r="A329" s="93" t="s">
+        <v>922</v>
+      </c>
+      <c r="B329" s="93">
+        <v>1</v>
+      </c>
+      <c r="C329" s="92" t="s">
         <v>923</v>
-      </c>
-      <c r="B329" s="93">
-        <v>1</v>
-      </c>
-      <c r="C329" s="92" t="s">
-        <v>924</v>
       </c>
       <c r="D329" s="93"/>
       <c r="E329" s="93"/>
@@ -19334,7 +19335,7 @@
       </c>
       <c r="T329" s="93"/>
       <c r="U329" s="95" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="V329" s="93"/>
       <c r="W329" s="20" t="s">
@@ -19357,7 +19358,7 @@
       <c r="AJ329" s="93"/>
       <c r="AK329" s="93"/>
     </row>
-    <row r="330" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="330" spans="1:37" customFormat="1" ht="23">
       <c r="B330" s="93">
         <v>1</v>
       </c>
@@ -19366,10 +19367,10 @@
         <v>12</v>
       </c>
       <c r="O330" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="P330" t="s">
         <v>926</v>
-      </c>
-      <c r="P330" t="s">
-        <v>927</v>
       </c>
       <c r="Q330" s="114">
         <v>39646</v>
@@ -19381,7 +19382,7 @@
         <v>894</v>
       </c>
       <c r="U330" s="95" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="V330">
         <v>1</v>
@@ -19390,7 +19391,7 @@
         <v>1</v>
       </c>
       <c r="X330" s="115" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="Y330" t="s">
         <v>882</v>
@@ -19402,15 +19403,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="331" spans="1:37" customFormat="1" ht="23">
       <c r="A331" s="93" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B331" s="93">
         <v>1</v>
       </c>
       <c r="C331" s="93" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D331" s="93"/>
       <c r="E331" s="93"/>
@@ -19434,7 +19435,7 @@
       </c>
       <c r="T331" s="93"/>
       <c r="U331" s="95" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="V331" s="93"/>
       <c r="W331" s="20" t="s">
@@ -19457,7 +19458,7 @@
       <c r="AJ331" s="93"/>
       <c r="AK331" s="93"/>
     </row>
-    <row r="332" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="332" spans="1:37" customFormat="1" ht="23">
       <c r="B332" s="93">
         <v>1</v>
       </c>
@@ -19465,10 +19466,10 @@
         <v>12</v>
       </c>
       <c r="O332" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="P332" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="Q332" s="114">
         <v>39646</v>
@@ -19480,7 +19481,7 @@
         <v>894</v>
       </c>
       <c r="U332" s="95" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="V332">
         <v>1</v>
@@ -19489,7 +19490,7 @@
         <v>1</v>
       </c>
       <c r="X332" s="115" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="Y332" t="s">
         <v>882</v>
@@ -19501,15 +19502,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="333" spans="1:37" customFormat="1" ht="23">
       <c r="A333" s="93" t="s">
+        <v>930</v>
+      </c>
+      <c r="B333" s="93">
+        <v>1</v>
+      </c>
+      <c r="C333" s="92" t="s">
         <v>931</v>
-      </c>
-      <c r="B333" s="93">
-        <v>1</v>
-      </c>
-      <c r="C333" s="92" t="s">
-        <v>932</v>
       </c>
       <c r="D333" s="93"/>
       <c r="E333" s="93"/>
@@ -19533,7 +19534,7 @@
       </c>
       <c r="T333" s="93"/>
       <c r="U333" s="98" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="V333" s="93"/>
       <c r="W333" s="20" t="s">
@@ -19556,7 +19557,7 @@
       <c r="AJ333" s="93"/>
       <c r="AK333" s="93"/>
     </row>
-    <row r="334" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="334" spans="1:37" customFormat="1" ht="23">
       <c r="B334" s="93">
         <v>1</v>
       </c>
@@ -19565,10 +19566,10 @@
         <v>12</v>
       </c>
       <c r="O334" s="117" t="s">
+        <v>933</v>
+      </c>
+      <c r="P334" t="s">
         <v>934</v>
-      </c>
-      <c r="P334" t="s">
-        <v>935</v>
       </c>
       <c r="Q334" s="94">
         <v>38261</v>
@@ -19583,7 +19584,7 @@
         <v>1</v>
       </c>
       <c r="U334" s="98" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="V334">
         <v>1</v>
@@ -19592,7 +19593,7 @@
         <v>1</v>
       </c>
       <c r="X334" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="Y334" t="s">
         <v>882</v>
@@ -19604,15 +19605,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="335" spans="1:37" customFormat="1" ht="23">
       <c r="A335" s="93" t="s">
+        <v>935</v>
+      </c>
+      <c r="B335" s="93">
+        <v>1</v>
+      </c>
+      <c r="C335" s="92" t="s">
         <v>936</v>
-      </c>
-      <c r="B335" s="93">
-        <v>1</v>
-      </c>
-      <c r="C335" s="92" t="s">
-        <v>937</v>
       </c>
       <c r="D335" s="93"/>
       <c r="E335" s="93"/>
@@ -19628,7 +19629,7 @@
       <c r="O335" s="93"/>
       <c r="P335" s="93"/>
       <c r="Q335" s="97" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="R335" s="93"/>
       <c r="S335" s="95" t="s">
@@ -19636,7 +19637,7 @@
       </c>
       <c r="T335" s="93"/>
       <c r="U335" s="98" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="V335" s="93"/>
       <c r="W335" s="20" t="s">
@@ -19659,7 +19660,7 @@
       <c r="AJ335" s="93"/>
       <c r="AK335" s="93"/>
     </row>
-    <row r="336" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="336" spans="1:37" customFormat="1" ht="23">
       <c r="B336" s="93">
         <v>1</v>
       </c>
@@ -19668,10 +19669,10 @@
         <v>12</v>
       </c>
       <c r="O336" s="117" t="s">
+        <v>933</v>
+      </c>
+      <c r="P336" t="s">
         <v>934</v>
-      </c>
-      <c r="P336" t="s">
-        <v>935</v>
       </c>
       <c r="Q336" s="94">
         <v>38261</v>
@@ -19686,7 +19687,7 @@
         <v>1</v>
       </c>
       <c r="U336" s="98" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="V336">
         <v>1</v>
@@ -19695,7 +19696,7 @@
         <v>1</v>
       </c>
       <c r="X336" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="Y336" t="s">
         <v>882</v>
@@ -19707,15 +19708,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="337" spans="1:37" customFormat="1" ht="19">
       <c r="A337" s="93" t="s">
+        <v>938</v>
+      </c>
+      <c r="B337" s="93">
+        <v>1</v>
+      </c>
+      <c r="C337" s="92" t="s">
         <v>939</v>
-      </c>
-      <c r="B337" s="93">
-        <v>1</v>
-      </c>
-      <c r="C337" s="92" t="s">
-        <v>940</v>
       </c>
       <c r="D337" s="93"/>
       <c r="E337" s="93"/>
@@ -19735,11 +19736,11 @@
       </c>
       <c r="R337" s="93"/>
       <c r="S337" s="97" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="T337" s="93"/>
       <c r="U337" s="98" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="V337" s="93"/>
       <c r="W337" s="20" t="s">
@@ -19762,7 +19763,7 @@
       <c r="AJ337" s="93"/>
       <c r="AK337" s="93"/>
     </row>
-    <row r="338" spans="1:37" customFormat="1" ht="21" hidden="1">
+    <row r="338" spans="1:37" customFormat="1" ht="21">
       <c r="B338" s="93">
         <v>1</v>
       </c>
@@ -19771,10 +19772,10 @@
         <v>12</v>
       </c>
       <c r="O338" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="P338" t="s">
         <v>943</v>
-      </c>
-      <c r="P338" t="s">
-        <v>944</v>
       </c>
       <c r="Q338" s="94">
         <v>38412</v>
@@ -19783,22 +19784,22 @@
         <v>1</v>
       </c>
       <c r="S338" s="97" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="T338">
         <v>1</v>
       </c>
       <c r="U338" s="98" t="s">
+        <v>944</v>
+      </c>
+      <c r="V338">
+        <v>1</v>
+      </c>
+      <c r="W338">
+        <v>1</v>
+      </c>
+      <c r="X338" s="115" t="s">
         <v>945</v>
-      </c>
-      <c r="V338">
-        <v>1</v>
-      </c>
-      <c r="W338">
-        <v>1</v>
-      </c>
-      <c r="X338" s="115" t="s">
-        <v>946</v>
       </c>
       <c r="Y338" t="s">
         <v>882</v>
@@ -19810,24 +19811,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:37" customFormat="1" hidden="1">
+    <row r="339" spans="1:37" customFormat="1">
       <c r="B339" s="93">
         <v>1</v>
       </c>
       <c r="C339" s="1"/>
       <c r="P339" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="340" spans="1:37" customFormat="1" ht="23">
+      <c r="A340" s="93" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="340" spans="1:37" customFormat="1" ht="23" hidden="1">
-      <c r="A340" s="93" t="s">
+      <c r="B340" s="93">
+        <v>1</v>
+      </c>
+      <c r="C340" s="92" t="s">
         <v>948</v>
-      </c>
-      <c r="B340" s="93">
-        <v>1</v>
-      </c>
-      <c r="C340" s="92" t="s">
-        <v>949</v>
       </c>
       <c r="D340" s="93"/>
       <c r="E340" s="93"/>
@@ -19847,11 +19848,11 @@
       </c>
       <c r="R340" s="93"/>
       <c r="S340" s="93" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="T340" s="93"/>
       <c r="U340" s="95" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="V340" s="93"/>
       <c r="W340" s="20" t="s">
@@ -19874,15 +19875,15 @@
       <c r="AJ340" s="93"/>
       <c r="AK340" s="93"/>
     </row>
-    <row r="341" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="341" spans="1:37" customFormat="1" ht="19">
       <c r="A341" s="93" t="s">
+        <v>950</v>
+      </c>
+      <c r="B341" s="93">
+        <v>1</v>
+      </c>
+      <c r="C341" s="92" t="s">
         <v>951</v>
-      </c>
-      <c r="B341" s="93">
-        <v>1</v>
-      </c>
-      <c r="C341" s="92" t="s">
-        <v>952</v>
       </c>
       <c r="D341" s="93"/>
       <c r="E341" s="93"/>
@@ -19902,11 +19903,11 @@
       </c>
       <c r="R341" s="93"/>
       <c r="S341" s="93" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="T341" s="93"/>
       <c r="U341" s="93" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="V341" s="93"/>
       <c r="W341" s="20" t="s">
@@ -19929,7 +19930,7 @@
       <c r="AJ341" s="93"/>
       <c r="AK341" s="93"/>
     </row>
-    <row r="342" spans="1:37" customFormat="1" ht="20" hidden="1">
+    <row r="342" spans="1:37" customFormat="1" ht="20">
       <c r="B342" s="93">
         <v>1</v>
       </c>
@@ -19938,10 +19939,10 @@
         <v>12</v>
       </c>
       <c r="O342" s="117" t="s">
+        <v>954</v>
+      </c>
+      <c r="P342" t="s">
         <v>955</v>
-      </c>
-      <c r="P342" t="s">
-        <v>956</v>
       </c>
       <c r="Q342" s="94">
         <v>39479</v>
@@ -19950,22 +19951,22 @@
         <v>1</v>
       </c>
       <c r="S342" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="T342">
         <v>1</v>
       </c>
       <c r="U342" s="97" t="s">
+        <v>956</v>
+      </c>
+      <c r="V342">
+        <v>1</v>
+      </c>
+      <c r="W342">
+        <v>1</v>
+      </c>
+      <c r="X342" s="117" t="s">
         <v>957</v>
-      </c>
-      <c r="V342">
-        <v>1</v>
-      </c>
-      <c r="W342">
-        <v>1</v>
-      </c>
-      <c r="X342" s="117" t="s">
-        <v>958</v>
       </c>
       <c r="Y342" t="s">
         <v>107</v>
@@ -19977,15 +19978,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="343" spans="1:37" customFormat="1" ht="19">
       <c r="A343" s="93" t="s">
+        <v>958</v>
+      </c>
+      <c r="B343" s="93">
+        <v>1</v>
+      </c>
+      <c r="C343" s="92" t="s">
         <v>959</v>
-      </c>
-      <c r="B343" s="93">
-        <v>1</v>
-      </c>
-      <c r="C343" s="92" t="s">
-        <v>960</v>
       </c>
       <c r="D343" s="93"/>
       <c r="E343" s="93"/>
@@ -20005,11 +20006,11 @@
       </c>
       <c r="R343" s="93"/>
       <c r="S343" s="93" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="T343" s="93"/>
       <c r="U343" s="97" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="V343" s="93"/>
       <c r="W343" s="20" t="s">
@@ -20032,7 +20033,7 @@
       <c r="AJ343" s="93"/>
       <c r="AK343" s="93"/>
     </row>
-    <row r="344" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="344" spans="1:37" customFormat="1" ht="23">
       <c r="B344" s="93">
         <v>1</v>
       </c>
@@ -20041,10 +20042,10 @@
         <v>12</v>
       </c>
       <c r="O344" t="s">
+        <v>962</v>
+      </c>
+      <c r="P344" t="s">
         <v>963</v>
-      </c>
-      <c r="P344" t="s">
-        <v>964</v>
       </c>
       <c r="Q344" s="94">
         <v>38504</v>
@@ -20053,22 +20054,22 @@
         <v>1</v>
       </c>
       <c r="S344" s="118" t="s">
+        <v>964</v>
+      </c>
+      <c r="T344">
+        <v>1</v>
+      </c>
+      <c r="U344" s="118" t="s">
+        <v>961</v>
+      </c>
+      <c r="V344">
+        <v>1</v>
+      </c>
+      <c r="W344">
+        <v>1</v>
+      </c>
+      <c r="X344" s="118" t="s">
         <v>965</v>
-      </c>
-      <c r="T344">
-        <v>1</v>
-      </c>
-      <c r="U344" s="118" t="s">
-        <v>962</v>
-      </c>
-      <c r="V344">
-        <v>1</v>
-      </c>
-      <c r="W344">
-        <v>1</v>
-      </c>
-      <c r="X344" s="118" t="s">
-        <v>966</v>
       </c>
       <c r="Y344" t="s">
         <v>882</v>
@@ -20080,9 +20081,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="345" spans="1:37" customFormat="1" ht="19">
       <c r="A345" s="93" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B345" s="93">
         <v>1</v>
@@ -20135,7 +20136,7 @@
       <c r="AJ345" s="93"/>
       <c r="AK345" s="93"/>
     </row>
-    <row r="346" spans="1:37" customFormat="1" hidden="1">
+    <row r="346" spans="1:37" customFormat="1">
       <c r="B346" s="93">
         <v>1</v>
       </c>
@@ -20144,7 +20145,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="347" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="347" spans="1:37" customFormat="1" ht="19">
       <c r="B347" s="93">
         <v>1</v>
       </c>
@@ -20191,15 +20192,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="348" spans="1:37" customFormat="1" ht="19">
       <c r="A348" s="93" t="s">
+        <v>968</v>
+      </c>
+      <c r="B348" s="93">
+        <v>1</v>
+      </c>
+      <c r="C348" s="91" t="s">
         <v>969</v>
-      </c>
-      <c r="B348" s="93">
-        <v>1</v>
-      </c>
-      <c r="C348" s="91" t="s">
-        <v>970</v>
       </c>
       <c r="D348" s="93"/>
       <c r="E348" s="93"/>
@@ -20219,11 +20220,11 @@
       </c>
       <c r="R348" s="93"/>
       <c r="S348" s="97" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="T348" s="93"/>
       <c r="U348" s="97" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="V348" s="93"/>
       <c r="W348" s="20" t="s">
@@ -20246,7 +20247,7 @@
       <c r="AJ348" s="93"/>
       <c r="AK348" s="93"/>
     </row>
-    <row r="349" spans="1:37" customFormat="1" ht="21" hidden="1">
+    <row r="349" spans="1:37" customFormat="1" ht="21">
       <c r="B349" s="93">
         <v>1</v>
       </c>
@@ -20255,10 +20256,10 @@
         <v>12</v>
       </c>
       <c r="O349" s="120" t="s">
+        <v>972</v>
+      </c>
+      <c r="P349" s="120" t="s">
         <v>973</v>
-      </c>
-      <c r="P349" s="120" t="s">
-        <v>974</v>
       </c>
       <c r="Q349" s="94">
         <v>38200</v>
@@ -20267,7 +20268,7 @@
         <v>1</v>
       </c>
       <c r="S349" s="97" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="T349">
         <v>1</v>
@@ -20282,15 +20283,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="350" spans="1:37" customFormat="1" ht="23">
       <c r="A350" s="93" t="s">
+        <v>975</v>
+      </c>
+      <c r="B350" s="93">
+        <v>1</v>
+      </c>
+      <c r="C350" s="93" t="s">
         <v>976</v>
-      </c>
-      <c r="B350" s="93">
-        <v>1</v>
-      </c>
-      <c r="C350" s="93" t="s">
-        <v>977</v>
       </c>
       <c r="D350" s="93"/>
       <c r="E350" s="91"/>
@@ -20310,11 +20311,11 @@
       </c>
       <c r="R350" s="93"/>
       <c r="S350" s="95" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="T350" s="93"/>
       <c r="U350" s="95" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V350" s="93"/>
       <c r="W350" s="20" t="s">
@@ -20337,7 +20338,7 @@
       <c r="AJ350" s="93"/>
       <c r="AK350" s="93"/>
     </row>
-    <row r="351" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="351" spans="1:37" customFormat="1" ht="23">
       <c r="B351" s="93">
         <v>1</v>
       </c>
@@ -20354,20 +20355,20 @@
         <v>12</v>
       </c>
       <c r="P351" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="Q351" s="121">
         <v>43678</v>
       </c>
       <c r="S351" s="95" t="s">
+        <v>977</v>
+      </c>
+      <c r="T351">
+        <v>1</v>
+      </c>
+      <c r="U351" s="95" t="s">
         <v>978</v>
       </c>
-      <c r="T351">
-        <v>1</v>
-      </c>
-      <c r="U351" s="95" t="s">
-        <v>979</v>
-      </c>
       <c r="V351">
         <v>1</v>
       </c>
@@ -20378,15 +20379,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="352" spans="1:37" customFormat="1" ht="23">
       <c r="A352" s="91" t="s">
+        <v>980</v>
+      </c>
+      <c r="B352" s="91">
+        <v>1</v>
+      </c>
+      <c r="C352" s="93" t="s">
         <v>981</v>
-      </c>
-      <c r="B352" s="91">
-        <v>1</v>
-      </c>
-      <c r="C352" s="93" t="s">
-        <v>982</v>
       </c>
       <c r="D352" s="91"/>
       <c r="E352" s="93"/>
@@ -20410,7 +20411,7 @@
       </c>
       <c r="T352" s="93"/>
       <c r="U352" s="98" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="V352" s="93"/>
       <c r="W352" s="20" t="s">
@@ -20433,9 +20434,9 @@
       <c r="AJ352" s="93"/>
       <c r="AK352" s="93"/>
     </row>
-    <row r="353" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="353" spans="1:37" customFormat="1" ht="19">
       <c r="A353" s="91" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B353" s="91">
         <v>1</v>
@@ -20465,7 +20466,7 @@
       </c>
       <c r="T353" s="93"/>
       <c r="U353" s="97" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="V353" s="93"/>
       <c r="W353" s="20" t="s">
@@ -20488,15 +20489,15 @@
       <c r="AJ353" s="93"/>
       <c r="AK353" s="93"/>
     </row>
-    <row r="354" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="354" spans="1:37" customFormat="1" ht="23">
       <c r="A354" s="91" t="s">
+        <v>985</v>
+      </c>
+      <c r="B354" s="91">
+        <v>1</v>
+      </c>
+      <c r="C354" s="93" t="s">
         <v>986</v>
-      </c>
-      <c r="B354" s="91">
-        <v>1</v>
-      </c>
-      <c r="C354" s="93" t="s">
-        <v>987</v>
       </c>
       <c r="D354" s="91"/>
       <c r="E354" s="91"/>
@@ -20516,7 +20517,7 @@
       </c>
       <c r="R354" s="93"/>
       <c r="S354" s="95" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="T354" s="93"/>
       <c r="U354" s="98" t="s">
@@ -20543,7 +20544,7 @@
       <c r="AJ354" s="93"/>
       <c r="AK354" s="93"/>
     </row>
-    <row r="355" spans="1:37" customFormat="1" ht="20" hidden="1">
+    <row r="355" spans="1:37" customFormat="1" ht="20">
       <c r="A355" s="96"/>
       <c r="B355" s="96">
         <v>1</v>
@@ -20565,7 +20566,7 @@
         <v>302</v>
       </c>
       <c r="P355" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="Q355" s="114">
         <v>41670</v>
@@ -20574,7 +20575,7 @@
         <v>1</v>
       </c>
       <c r="S355" s="97" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="T355" s="99">
         <v>1</v>
@@ -20589,7 +20590,7 @@
         <v>1</v>
       </c>
       <c r="X355" s="122" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="Y355" t="s">
         <v>107</v>
@@ -20598,13 +20599,13 @@
         <v>1</v>
       </c>
       <c r="AA355" s="99" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AG355">
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="356" spans="1:37" customFormat="1" ht="23">
       <c r="A356" s="96"/>
       <c r="B356" s="96">
         <v>1</v>
@@ -20626,7 +20627,7 @@
         <v>307</v>
       </c>
       <c r="P356" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="Q356" s="114">
         <v>41670</v>
@@ -20635,7 +20636,7 @@
         <v>1</v>
       </c>
       <c r="S356" s="95" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="T356" s="99">
         <v>1</v>
@@ -20650,7 +20651,7 @@
         <v>1</v>
       </c>
       <c r="X356" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="Y356" t="s">
         <v>107</v>
@@ -20662,15 +20663,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="357" spans="1:37" customFormat="1" ht="23">
       <c r="A357" s="91" t="s">
+        <v>994</v>
+      </c>
+      <c r="B357" s="91">
+        <v>1</v>
+      </c>
+      <c r="C357" s="93" t="s">
         <v>995</v>
-      </c>
-      <c r="B357" s="91">
-        <v>1</v>
-      </c>
-      <c r="C357" s="93" t="s">
-        <v>996</v>
       </c>
       <c r="D357" s="91"/>
       <c r="E357" s="91"/>
@@ -20690,11 +20691,11 @@
       </c>
       <c r="R357" s="93"/>
       <c r="S357" s="95" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="T357" s="93"/>
       <c r="U357" s="95" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="V357" s="93"/>
       <c r="W357" s="20" t="s">
@@ -20717,7 +20718,7 @@
       <c r="AJ357" s="93"/>
       <c r="AK357" s="93"/>
     </row>
-    <row r="358" spans="1:37" customFormat="1" ht="20" hidden="1">
+    <row r="358" spans="1:37" customFormat="1" ht="20">
       <c r="A358" s="96"/>
       <c r="B358" s="96">
         <v>1</v>
@@ -20739,7 +20740,7 @@
         <v>302</v>
       </c>
       <c r="P358" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="Q358" s="114">
         <v>41670</v>
@@ -20748,7 +20749,7 @@
         <v>1</v>
       </c>
       <c r="S358" s="97" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="T358" s="99">
         <v>1</v>
@@ -20763,7 +20764,7 @@
         <v>1</v>
       </c>
       <c r="X358" s="122" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="Y358" t="s">
         <v>107</v>
@@ -20772,13 +20773,13 @@
         <v>1</v>
       </c>
       <c r="AA358" s="99" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AG358">
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="359" spans="1:37" customFormat="1" ht="23">
       <c r="A359" s="96"/>
       <c r="B359" s="96">
         <v>1</v>
@@ -20800,7 +20801,7 @@
         <v>307</v>
       </c>
       <c r="P359" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="Q359" s="114">
         <v>41670</v>
@@ -20809,7 +20810,7 @@
         <v>1</v>
       </c>
       <c r="S359" s="95" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="T359" s="99">
         <v>1</v>
@@ -20824,7 +20825,7 @@
         <v>1</v>
       </c>
       <c r="X359" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="Y359" t="s">
         <v>107</v>
@@ -20836,9 +20837,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="360" spans="1:37" customFormat="1" ht="23">
       <c r="A360" s="91" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B360" s="91">
         <v>1</v>
@@ -20864,11 +20865,11 @@
       </c>
       <c r="R360" s="93"/>
       <c r="S360" s="95" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="T360" s="93"/>
       <c r="U360" s="98" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="V360" s="93"/>
       <c r="W360" s="20" t="s">
@@ -20891,7 +20892,7 @@
       <c r="AJ360" s="93"/>
       <c r="AK360" s="93"/>
     </row>
-    <row r="361" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="361" spans="1:37" customFormat="1" ht="23">
       <c r="A361" s="96"/>
       <c r="B361" s="96">
         <v>1</v>
@@ -20911,10 +20912,10 @@
         <v>12</v>
       </c>
       <c r="O361" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P361" t="s">
         <v>1002</v>
-      </c>
-      <c r="P361" t="s">
-        <v>1003</v>
       </c>
       <c r="Q361" s="94">
         <v>40817</v>
@@ -20923,14 +20924,14 @@
         <v>1</v>
       </c>
       <c r="S361" s="95" t="s">
+        <v>999</v>
+      </c>
+      <c r="T361">
+        <v>1</v>
+      </c>
+      <c r="U361" s="98" t="s">
         <v>1000</v>
       </c>
-      <c r="T361">
-        <v>1</v>
-      </c>
-      <c r="U361" s="98" t="s">
-        <v>1001</v>
-      </c>
       <c r="V361">
         <v>1</v>
       </c>
@@ -20938,7 +20939,7 @@
         <v>1</v>
       </c>
       <c r="X361" s="97" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="Y361" t="s">
         <v>107</v>
@@ -20950,15 +20951,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="362" spans="1:37" customFormat="1" ht="19">
       <c r="A362" s="91" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B362" s="91">
+        <v>1</v>
+      </c>
+      <c r="C362" s="93" t="s">
         <v>1005</v>
-      </c>
-      <c r="B362" s="91">
-        <v>1</v>
-      </c>
-      <c r="C362" s="93" t="s">
-        <v>1006</v>
       </c>
       <c r="D362" s="91"/>
       <c r="E362" s="91"/>
@@ -20978,11 +20979,11 @@
       </c>
       <c r="R362" s="93"/>
       <c r="S362" s="97" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="T362" s="93"/>
       <c r="U362" s="98" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="V362" s="93"/>
       <c r="W362" s="20" t="s">
@@ -21005,7 +21006,7 @@
       <c r="AJ362" s="93"/>
       <c r="AK362" s="93"/>
     </row>
-    <row r="363" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="363" spans="1:37" customFormat="1" ht="23">
       <c r="A363" s="91" t="s">
         <v>381</v>
       </c>
@@ -21013,7 +21014,7 @@
         <v>1</v>
       </c>
       <c r="C363" s="123" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D363" s="91"/>
       <c r="E363" s="91"/>
@@ -21033,11 +21034,11 @@
       </c>
       <c r="R363" s="93"/>
       <c r="S363" s="95" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="T363" s="93"/>
       <c r="U363" s="95" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="V363" s="93"/>
       <c r="W363" s="20" t="s">
@@ -21060,7 +21061,7 @@
       <c r="AJ363" s="93"/>
       <c r="AK363" s="93"/>
     </row>
-    <row r="364" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="364" spans="1:37" customFormat="1" ht="23">
       <c r="A364" s="91" t="s">
         <v>437</v>
       </c>
@@ -21107,7 +21108,7 @@
       <c r="AJ364" s="93"/>
       <c r="AK364" s="93"/>
     </row>
-    <row r="365" spans="1:37" customFormat="1" hidden="1">
+    <row r="365" spans="1:37" customFormat="1">
       <c r="A365" s="96"/>
       <c r="B365" s="96">
         <v>1</v>
@@ -21130,9 +21131,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="366" spans="1:37" customFormat="1" ht="19">
       <c r="A366" s="91" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B366" s="91">
         <v>1</v>
@@ -21156,11 +21157,11 @@
       </c>
       <c r="R366" s="93"/>
       <c r="S366" s="97" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="T366" s="93"/>
       <c r="U366" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="V366" s="93"/>
       <c r="W366" s="20" t="s">
@@ -21183,7 +21184,7 @@
       <c r="AJ366" s="93"/>
       <c r="AK366" s="93"/>
     </row>
-    <row r="367" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="367" spans="1:37" customFormat="1" ht="23">
       <c r="A367" s="96"/>
       <c r="B367" s="96">
         <v>1</v>
@@ -21201,10 +21202,10 @@
         <v>12</v>
       </c>
       <c r="O367" s="124" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P367" t="s">
         <v>1014</v>
-      </c>
-      <c r="P367" t="s">
-        <v>1015</v>
       </c>
       <c r="Q367" s="94">
         <v>39114</v>
@@ -21213,14 +21214,14 @@
         <v>1</v>
       </c>
       <c r="S367" s="97" t="s">
+        <v>1011</v>
+      </c>
+      <c r="T367">
+        <v>1</v>
+      </c>
+      <c r="U367" s="95" t="s">
         <v>1012</v>
       </c>
-      <c r="T367">
-        <v>1</v>
-      </c>
-      <c r="U367" s="95" t="s">
-        <v>1013</v>
-      </c>
       <c r="V367">
         <v>1</v>
       </c>
@@ -21228,7 +21229,7 @@
         <v>1</v>
       </c>
       <c r="X367" s="124" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="Y367" t="s">
         <v>43</v>
@@ -21240,15 +21241,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="368" spans="1:37" customFormat="1" ht="19">
       <c r="A368" s="91" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B368" s="91">
+        <v>1</v>
+      </c>
+      <c r="C368" s="93" t="s">
         <v>1017</v>
-      </c>
-      <c r="B368" s="91">
-        <v>1</v>
-      </c>
-      <c r="C368" s="93" t="s">
-        <v>1018</v>
       </c>
       <c r="D368" s="93"/>
       <c r="E368" s="93"/>
@@ -21272,7 +21273,7 @@
       </c>
       <c r="T368" s="93"/>
       <c r="U368" s="98" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="V368" s="93"/>
       <c r="W368" s="20" t="s">
@@ -21295,7 +21296,7 @@
       <c r="AJ368" s="93"/>
       <c r="AK368" s="93"/>
     </row>
-    <row r="369" spans="1:37" customFormat="1" hidden="1">
+    <row r="369" spans="1:37" customFormat="1">
       <c r="A369" s="96"/>
       <c r="B369" s="96">
         <v>1</v>
@@ -21347,7 +21348,7 @@
       <c r="AF369" s="19"/>
       <c r="AG369" s="19"/>
     </row>
-    <row r="370" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="370" spans="1:37" customFormat="1" ht="23">
       <c r="A370" s="91" t="s">
         <v>557</v>
       </c>
@@ -21375,11 +21376,11 @@
       </c>
       <c r="R370" s="93"/>
       <c r="S370" s="95" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="T370" s="93"/>
       <c r="U370" s="95" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="V370" s="93"/>
       <c r="W370" s="20" t="s">
@@ -21402,7 +21403,7 @@
       <c r="AJ370" s="93"/>
       <c r="AK370" s="93"/>
     </row>
-    <row r="371" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="371" spans="1:37" customFormat="1" ht="23">
       <c r="A371" s="96"/>
       <c r="B371" s="96">
         <v>1</v>
@@ -21419,10 +21420,10 @@
       <c r="L371" s="96"/>
       <c r="M371" s="96"/>
       <c r="O371" t="s">
+        <v>1021</v>
+      </c>
+      <c r="P371" t="s">
         <v>1022</v>
-      </c>
-      <c r="P371" t="s">
-        <v>1023</v>
       </c>
       <c r="Q371" s="94">
         <v>38596</v>
@@ -21431,13 +21432,13 @@
         <v>1</v>
       </c>
       <c r="S371" s="95" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="T371">
         <v>1</v>
       </c>
       <c r="U371" s="97" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="V371">
         <v>0</v>
@@ -21446,7 +21447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="372" spans="1:37" customFormat="1" ht="23">
       <c r="A372" s="96"/>
       <c r="B372" s="96">
         <v>1</v>
@@ -21473,7 +21474,7 @@
       </c>
       <c r="S372" s="95"/>
       <c r="U372" s="95" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="V372">
         <v>1</v>
@@ -21482,15 +21483,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="373" spans="1:37" customFormat="1" ht="23">
       <c r="A373" s="91" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B373" s="91">
+        <v>1</v>
+      </c>
+      <c r="C373" s="93" t="s">
         <v>1026</v>
-      </c>
-      <c r="B373" s="91">
-        <v>1</v>
-      </c>
-      <c r="C373" s="93" t="s">
-        <v>1027</v>
       </c>
       <c r="D373" s="91"/>
       <c r="E373" s="91"/>
@@ -21510,11 +21511,11 @@
       </c>
       <c r="R373" s="93"/>
       <c r="S373" s="95" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="T373" s="93"/>
       <c r="U373" s="95" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="V373" s="93"/>
       <c r="W373" s="20" t="s">
@@ -21537,7 +21538,7 @@
       <c r="AJ373" s="93"/>
       <c r="AK373" s="93"/>
     </row>
-    <row r="374" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="374" spans="1:37" customFormat="1" ht="23">
       <c r="A374" s="96"/>
       <c r="B374" s="96">
         <v>1</v>
@@ -21562,15 +21563,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="375" spans="1:37" customFormat="1" ht="23">
       <c r="A375" s="91" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B375" s="91">
+        <v>1</v>
+      </c>
+      <c r="C375" s="91" t="s">
         <v>1029</v>
-      </c>
-      <c r="B375" s="91">
-        <v>1</v>
-      </c>
-      <c r="C375" s="91" t="s">
-        <v>1030</v>
       </c>
       <c r="D375" s="91"/>
       <c r="E375" s="91"/>
@@ -21594,7 +21595,7 @@
       </c>
       <c r="T375" s="93"/>
       <c r="U375" s="98" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="V375" s="93"/>
       <c r="W375" s="20" t="s">
@@ -21617,15 +21618,15 @@
       <c r="AJ375" s="93"/>
       <c r="AK375" s="93"/>
     </row>
-    <row r="376" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="376" spans="1:37" customFormat="1" ht="23">
       <c r="A376" s="93" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B376" s="93" t="s">
         <v>597</v>
       </c>
       <c r="C376" s="93" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D376" s="91"/>
       <c r="E376" s="91"/>
@@ -21639,7 +21640,7 @@
       <c r="M376" s="91"/>
       <c r="N376" s="93"/>
       <c r="O376" s="93" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="P376" s="93"/>
       <c r="Q376" s="94">
@@ -21651,7 +21652,7 @@
       </c>
       <c r="T376" s="93"/>
       <c r="U376" s="95" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="V376" s="93"/>
       <c r="W376" s="93"/>
@@ -21672,15 +21673,15 @@
       <c r="AJ376" s="93"/>
       <c r="AK376" s="93"/>
     </row>
-    <row r="377" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="377" spans="1:37" customFormat="1" ht="23">
       <c r="A377" s="91" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B377" s="91">
         <v>1</v>
       </c>
       <c r="C377" s="93" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D377" s="91"/>
       <c r="E377" s="91"/>
@@ -21700,11 +21701,11 @@
       </c>
       <c r="R377" s="93"/>
       <c r="S377" s="93" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="T377" s="93"/>
       <c r="U377" s="95" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="V377" s="93"/>
       <c r="W377" s="20" t="s">
@@ -21727,7 +21728,7 @@
       <c r="AJ377" s="93"/>
       <c r="AK377" s="93"/>
     </row>
-    <row r="378" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="378" spans="1:37" customFormat="1" ht="23">
       <c r="A378" s="96"/>
       <c r="B378" s="96">
         <v>1</v>
@@ -21746,7 +21747,7 @@
         <v>12</v>
       </c>
       <c r="O378" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="Q378" s="114">
         <v>41969</v>
@@ -21755,13 +21756,13 @@
         <v>1</v>
       </c>
       <c r="S378" s="95" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="T378">
         <v>1</v>
       </c>
       <c r="U378" s="95" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="V378">
         <v>1</v>
@@ -21779,15 +21780,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="379" spans="1:37" customFormat="1" ht="19">
       <c r="A379" s="127" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B379" s="127" t="s">
         <v>597</v>
       </c>
       <c r="C379" s="92" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D379" s="93"/>
       <c r="E379" s="91"/>
@@ -21801,7 +21802,7 @@
       <c r="M379" s="91"/>
       <c r="N379" s="93"/>
       <c r="O379" s="93" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="P379" s="93"/>
       <c r="Q379" s="107">
@@ -21809,11 +21810,11 @@
       </c>
       <c r="R379" s="93"/>
       <c r="S379" s="93" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="T379" s="93"/>
       <c r="U379" s="93" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="V379" s="93"/>
       <c r="W379" s="93"/>
@@ -21835,32 +21836,7 @@
       <c r="AK379" s="93"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK379" xr:uid="{ED2F0353-714E-C24F-9141-2C52DBDF8C59}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1"/>
-        <filter val="include"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="13">
-      <filters>
-        <filter val="?"/>
-        <filter val="??"/>
-        <filter val="p1/2"/>
-        <filter val="P3"/>
-        <filter val="P4"/>
-        <filter val="Phase?"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="22">
-      <filters blank="1">
-        <filter val="1"/>
-        <filter val="itself"/>
-        <filter val="no results"/>
-        <filter val="p3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AK379" xr:uid="{ED2F0353-714E-C24F-9141-2C52DBDF8C59}"/>
   <hyperlinks>
     <hyperlink ref="C13" r:id="rId1" display="https://doi.org/10.1212/wnl.0000000000004209" xr:uid="{E445371E-3F4A-1F4A-ADE4-3703F334DC94}"/>
     <hyperlink ref="C11" r:id="rId2" display="https://doi.org/10.1212/wnl.0000000000003478" xr:uid="{49733D1E-43BF-5A4F-9188-818740F4136A}"/>

--- a/Allmatching.xlsx
+++ b/Allmatching.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D946F6A5-A1DD-BD45-8046-B5D6E5F1696A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F7C640-E6F3-AF40-8E1B-93609741E29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31280" yWindow="500" windowWidth="34480" windowHeight="21100" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
+    <workbookView xWindow="1160" yWindow="780" windowWidth="28800" windowHeight="16440" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AK$379</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AK$415</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="1102">
   <si>
     <t>Phase 3 info</t>
   </si>
@@ -3396,12 +3396,177 @@
   <si>
     <t>surrogate-validate</t>
   </si>
+  <si>
+    <t>ct.gov/ https://alz-journals.onlinelibrary.wiley.com/doi/epdf/10.1002/alz.041198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azeliragon (TTP488) ( PF 04494700) </t>
+  </si>
+  <si>
+    <t>https://www.clinicaltrials.gov/ct2/show/NCT03980730</t>
+  </si>
+  <si>
+    <t>Mild to Moderate Dementia of the Alzheimer's Type</t>
+  </si>
+  <si>
+    <t>NCT00141661</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21192237/</t>
+  </si>
+  <si>
+    <t> PF 04494700</t>
+  </si>
+  <si>
+    <t>https://clinicaltrials.gov/ct2/show/NCT00566397</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24696507/</t>
+  </si>
+  <si>
+    <t>Mild To Moderate Alzheimer's Disease</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>adas cog</t>
+  </si>
+  <si>
+    <t>NCT01973205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no results-skip results section </t>
+  </si>
+  <si>
+    <t>Acetaminophen and Aspirin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pretty much soc but no ct about it </t>
+  </si>
+  <si>
+    <t>NCT01639014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ischemic stroke </t>
+  </si>
+  <si>
+    <t>F2695-Levomilnacipran</t>
+  </si>
+  <si>
+    <t>NCT02322333</t>
+  </si>
+  <si>
+    <t>MLD10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itself </t>
+  </si>
+  <si>
+    <t>Huntingtons</t>
+  </si>
+  <si>
+    <t>Pridopidine (ACR16)</t>
+  </si>
+  <si>
+    <t>NCT01432704</t>
+  </si>
+  <si>
+    <t>NCT00947895</t>
+  </si>
+  <si>
+    <t>relapsing MS</t>
+  </si>
+  <si>
+    <t>Methylprednisolone and Adrenocorticotropin Hormone</t>
+  </si>
+  <si>
+    <t>NCT02547818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALZT-OP1a and b cromolyn and ibuprofen Combination and alone </t>
+  </si>
+  <si>
+    <t>NCT02794168</t>
+  </si>
+  <si>
+    <t>VAS203 (Ronopterin)</t>
+  </si>
+  <si>
+    <t>https://clinicaltrials.gov/ct2/show/NCT02012582</t>
+  </si>
+  <si>
+    <t>Safety and Tolerability </t>
+  </si>
+  <si>
+    <t>NCT01409694</t>
+  </si>
+  <si>
+    <t>Memantine and Vitamin D</t>
+  </si>
+  <si>
+    <t>NCT03068754</t>
+  </si>
+  <si>
+    <t>Acthar® Gel (Acthar</t>
+  </si>
+  <si>
+    <t>Albumin and Immunoglobulin</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>Oxaloacetate</t>
+  </si>
+  <si>
+    <t>https://content.iospress.com/articles/journal-of-alzheimers-disease/jad191302</t>
+  </si>
+  <si>
+    <t>AC-1204 (Tricaprilin)</t>
+  </si>
+  <si>
+    <t>https://movementdisorders.onlinelibrary.wiley.com/doi/10.1002/mds.26159</t>
+  </si>
+  <si>
+    <t>Amantadine extended release and levadopa</t>
+  </si>
+  <si>
+    <t>NCT00664209</t>
+  </si>
+  <si>
+    <t>clartihromycin, amoxicillin, and omeprazole</t>
+  </si>
+  <si>
+    <t>NCT02907177</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dimethyl Fumarate and Ponesimod</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4215282/</t>
+  </si>
+  <si>
+    <t>Ponesimod</t>
+  </si>
+  <si>
+    <t>https://clinicaltrials.gov/ct2/show/NCT01093326</t>
+  </si>
+  <si>
+    <t>NCT01252355</t>
+  </si>
+  <si>
+    <t> Relapsing Multiple Sclerosis</t>
+  </si>
+  <si>
+    <t>Teriflunomide and Interferon-beta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="52">
+  <fonts count="53">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3730,6 +3895,12 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF1C1D1E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -3871,7 +4042,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4030,8 +4201,12 @@
     <xf numFmtId="0" fontId="51" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4366,13 +4541,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F0353-714E-C24F-9141-2C52DBDF8C59}">
-  <dimension ref="A1:AK379"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AK415"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="R322" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="X370" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X326" sqref="X326"/>
+      <selection pane="bottomRight" activeCell="AC289" sqref="AC289:AI412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4424,7 +4600,7 @@
       </c>
       <c r="AG1" s="4"/>
     </row>
-    <row r="2" spans="1:37" ht="85">
+    <row r="2" spans="1:37" ht="85" hidden="1">
       <c r="A2" s="9"/>
       <c r="B2" t="s">
         <v>803</v>
@@ -4585,7 +4761,7 @@
       <c r="AF3" s="20"/>
       <c r="AG3" s="20"/>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" hidden="1">
       <c r="B4">
         <v>1</v>
       </c>
@@ -4639,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" hidden="1">
       <c r="B5">
         <v>1</v>
       </c>
@@ -4693,7 +4869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" hidden="1">
       <c r="B6">
         <v>1</v>
       </c>
@@ -4775,7 +4951,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" hidden="1">
       <c r="B8">
         <v>1</v>
       </c>
@@ -4859,7 +5035,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" hidden="1">
       <c r="B10">
         <v>1</v>
       </c>
@@ -4940,7 +5116,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" hidden="1">
       <c r="B12">
         <v>1</v>
       </c>
@@ -5031,7 +5207,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" hidden="1">
       <c r="B14">
         <v>1</v>
       </c>
@@ -5062,7 +5238,7 @@
       </c>
       <c r="Z14" s="49"/>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" hidden="1">
       <c r="B15">
         <v>1</v>
       </c>
@@ -5140,7 +5316,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" hidden="1">
       <c r="B16">
         <v>1</v>
       </c>
@@ -5183,7 +5359,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" hidden="1">
       <c r="B17">
         <v>1</v>
       </c>
@@ -5217,7 +5393,7 @@
       </c>
       <c r="Z17" s="49"/>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" hidden="1">
       <c r="B18">
         <v>1</v>
       </c>
@@ -5300,7 +5476,7 @@
       <c r="AF19" s="20"/>
       <c r="AG19" s="20"/>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" hidden="1">
       <c r="B20">
         <v>1</v>
       </c>
@@ -5406,7 +5582,7 @@
       <c r="AF21" s="20"/>
       <c r="AG21" s="20"/>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" hidden="1">
       <c r="B22">
         <v>1</v>
       </c>
@@ -5456,7 +5632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" hidden="1">
       <c r="B23">
         <v>1</v>
       </c>
@@ -5522,7 +5698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" hidden="1">
       <c r="B25">
         <v>1</v>
       </c>
@@ -5622,7 +5798,7 @@
       <c r="AF26" s="20"/>
       <c r="AG26" s="20"/>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" hidden="1">
       <c r="B27">
         <v>1</v>
       </c>
@@ -5728,7 +5904,7 @@
       <c r="AF28" s="20"/>
       <c r="AG28" s="20"/>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" hidden="1">
       <c r="B29">
         <v>1</v>
       </c>
@@ -5836,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" hidden="1">
       <c r="B31">
         <v>1</v>
       </c>
@@ -5945,7 +6121,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" hidden="1">
       <c r="B33">
         <v>1</v>
       </c>
@@ -5973,7 +6149,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" hidden="1">
       <c r="B34">
         <v>1</v>
       </c>
@@ -6048,7 +6224,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" hidden="1">
       <c r="B36">
         <v>1</v>
       </c>
@@ -6068,7 +6244,7 @@
       </c>
       <c r="Z36" s="49"/>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" hidden="1">
       <c r="B37">
         <v>1</v>
       </c>
@@ -6088,7 +6264,7 @@
       </c>
       <c r="Z37" s="49"/>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" hidden="1">
       <c r="B38">
         <v>1</v>
       </c>
@@ -6160,7 +6336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" hidden="1">
       <c r="B40">
         <v>1</v>
       </c>
@@ -6254,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" hidden="1">
       <c r="B42">
         <v>1</v>
       </c>
@@ -6348,7 +6524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" hidden="1">
       <c r="B44">
         <v>1</v>
       </c>
@@ -6390,7 +6566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" hidden="1">
       <c r="A45" s="20" t="s">
         <v>164</v>
       </c>
@@ -6497,7 +6673,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" hidden="1">
       <c r="B47">
         <v>1</v>
       </c>
@@ -6514,7 +6690,7 @@
       </c>
       <c r="Z47" s="49"/>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" hidden="1">
       <c r="A48" s="20" t="s">
         <v>174</v>
       </c>
@@ -6566,7 +6742,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" hidden="1">
       <c r="A49" s="20" t="s">
         <v>177</v>
       </c>
@@ -6622,7 +6798,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" hidden="1">
       <c r="A50" s="20" t="s">
         <v>182</v>
       </c>
@@ -6729,7 +6905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" hidden="1">
       <c r="B52">
         <v>1</v>
       </c>
@@ -6777,7 +6953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" hidden="1">
       <c r="A53" s="20" t="s">
         <v>195</v>
       </c>
@@ -6829,7 +7005,7 @@
       <c r="AF53" s="20"/>
       <c r="AG53" s="20"/>
     </row>
-    <row r="54" spans="1:35" s="27" customFormat="1">
+    <row r="54" spans="1:35" s="27" customFormat="1" hidden="1">
       <c r="B54" t="s">
         <v>597</v>
       </c>
@@ -6879,7 +7055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:35" s="27" customFormat="1">
+    <row r="55" spans="1:35" s="27" customFormat="1" hidden="1">
       <c r="B55" t="s">
         <v>597</v>
       </c>
@@ -6902,7 +7078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:35" s="27" customFormat="1">
+    <row r="56" spans="1:35" s="27" customFormat="1" hidden="1">
       <c r="B56" t="s">
         <v>597</v>
       </c>
@@ -6920,7 +7096,7 @@
       </c>
       <c r="Z56" s="74"/>
     </row>
-    <row r="57" spans="1:35" s="27" customFormat="1">
+    <row r="57" spans="1:35" s="27" customFormat="1" hidden="1">
       <c r="B57" t="s">
         <v>597</v>
       </c>
@@ -6993,7 +7169,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" hidden="1">
       <c r="A59" s="20" t="s">
         <v>209</v>
       </c>
@@ -7050,7 +7226,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" hidden="1">
       <c r="B60">
         <v>1</v>
       </c>
@@ -7077,7 +7253,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" hidden="1">
       <c r="A61" s="20" t="s">
         <v>216</v>
       </c>
@@ -7128,7 +7304,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" hidden="1">
       <c r="A62" s="20" t="s">
         <v>220</v>
       </c>
@@ -7229,7 +7405,7 @@
       <c r="AF63" s="20"/>
       <c r="AG63" s="20"/>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" hidden="1">
       <c r="A64" s="23"/>
       <c r="B64">
         <v>1</v>
@@ -7264,7 +7440,7 @@
       </c>
       <c r="Z64" s="49"/>
     </row>
-    <row r="65" spans="1:33">
+    <row r="65" spans="1:33" hidden="1">
       <c r="A65" s="23"/>
       <c r="B65">
         <v>1</v>
@@ -7337,7 +7513,7 @@
       <c r="AF66" s="20"/>
       <c r="AG66" s="20"/>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:33" hidden="1">
       <c r="A67" s="23"/>
       <c r="B67">
         <v>1</v>
@@ -7370,7 +7546,7 @@
       <c r="U67" s="23"/>
       <c r="Z67" s="49"/>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:33" hidden="1">
       <c r="A68" s="23"/>
       <c r="B68">
         <v>1</v>
@@ -7464,7 +7640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:33">
+    <row r="70" spans="1:33" hidden="1">
       <c r="A70" s="23"/>
       <c r="B70">
         <v>1</v>
@@ -7531,7 +7707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:33">
+    <row r="71" spans="1:33" hidden="1">
       <c r="A71" s="23"/>
       <c r="B71">
         <v>1</v>
@@ -7648,7 +7824,7 @@
       <c r="AF72" s="20"/>
       <c r="AG72" s="20"/>
     </row>
-    <row r="73" spans="1:33">
+    <row r="73" spans="1:33" hidden="1">
       <c r="A73" s="23"/>
       <c r="B73">
         <v>1</v>
@@ -7709,7 +7885,7 @@
       <c r="AF73" s="20"/>
       <c r="AG73" s="20"/>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:33" hidden="1">
       <c r="A74" s="23"/>
       <c r="B74">
         <v>1</v>
@@ -7833,7 +8009,7 @@
       <c r="AF75" s="20"/>
       <c r="AG75" s="20"/>
     </row>
-    <row r="76" spans="1:33">
+    <row r="76" spans="1:33" hidden="1">
       <c r="A76" s="23"/>
       <c r="B76">
         <v>1</v>
@@ -7994,7 +8170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:33">
+    <row r="79" spans="1:33" hidden="1">
       <c r="A79" s="23"/>
       <c r="B79">
         <v>1</v>
@@ -8046,7 +8222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:33">
+    <row r="80" spans="1:33" hidden="1">
       <c r="A80" s="23"/>
       <c r="B80">
         <v>1</v>
@@ -8154,7 +8330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:34" hidden="1">
       <c r="A82" s="23"/>
       <c r="B82">
         <v>1</v>
@@ -8212,7 +8388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:34" hidden="1">
       <c r="A83" s="23"/>
       <c r="B83">
         <v>1</v>
@@ -8320,7 +8496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:34" hidden="1">
       <c r="A85" s="23"/>
       <c r="B85">
         <v>1</v>
@@ -8428,7 +8604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:34" hidden="1">
       <c r="A87" s="23"/>
       <c r="B87">
         <v>1</v>
@@ -8486,7 +8662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:34" hidden="1">
       <c r="A88" s="23"/>
       <c r="B88">
         <v>1</v>
@@ -8597,7 +8773,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:34" hidden="1">
       <c r="A90" s="23"/>
       <c r="B90">
         <v>1</v>
@@ -8655,7 +8831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:34" hidden="1">
       <c r="A91" s="23"/>
       <c r="B91">
         <v>1</v>
@@ -8713,7 +8889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:34" hidden="1">
       <c r="A92" s="46" t="s">
         <v>296</v>
       </c>
@@ -8811,7 +8987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:34" hidden="1">
       <c r="A94" s="23"/>
       <c r="B94">
         <v>1</v>
@@ -8919,7 +9095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:34" hidden="1">
       <c r="A96" s="23"/>
       <c r="B96">
         <v>1</v>
@@ -9027,7 +9203,7 @@
       <c r="AF97" s="20"/>
       <c r="AG97" s="20"/>
     </row>
-    <row r="98" spans="1:35">
+    <row r="98" spans="1:35" hidden="1">
       <c r="A98" s="23"/>
       <c r="B98">
         <v>1</v>
@@ -9061,7 +9237,7 @@
       </c>
       <c r="Z98" s="49"/>
     </row>
-    <row r="99" spans="1:35">
+    <row r="99" spans="1:35" hidden="1">
       <c r="A99" s="23"/>
       <c r="B99">
         <v>1</v>
@@ -9173,7 +9349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:35">
+    <row r="101" spans="1:35" hidden="1">
       <c r="A101" s="23"/>
       <c r="B101">
         <v>1</v>
@@ -9231,7 +9407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:35">
+    <row r="102" spans="1:35" hidden="1">
       <c r="A102" s="23"/>
       <c r="B102">
         <v>1</v>
@@ -9442,7 +9618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:35">
+    <row r="106" spans="1:35" hidden="1">
       <c r="A106" s="23"/>
       <c r="B106">
         <v>1</v>
@@ -9553,7 +9729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:35">
+    <row r="108" spans="1:35" hidden="1">
       <c r="A108" s="23"/>
       <c r="B108">
         <v>1</v>
@@ -9658,7 +9834,7 @@
       <c r="AF109" s="20"/>
       <c r="AG109" s="20"/>
     </row>
-    <row r="110" spans="1:35">
+    <row r="110" spans="1:35" hidden="1">
       <c r="A110" s="23"/>
       <c r="B110">
         <v>1</v>
@@ -9719,7 +9895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:35">
+    <row r="111" spans="1:35" hidden="1">
       <c r="A111" s="23"/>
       <c r="B111">
         <v>1</v>
@@ -9816,7 +9992,7 @@
       <c r="AF112" s="20"/>
       <c r="AG112" s="20"/>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:36" hidden="1">
       <c r="A113" s="23"/>
       <c r="B113">
         <v>1</v>
@@ -9877,7 +10053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:36" hidden="1">
       <c r="A114" s="23"/>
       <c r="B114">
         <v>1</v>
@@ -9924,7 +10100,7 @@
       </c>
       <c r="Z114" s="49"/>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:36" hidden="1">
       <c r="A115" s="46" t="s">
         <v>357</v>
       </c>
@@ -10022,7 +10198,7 @@
       <c r="AF116" s="20"/>
       <c r="AG116" s="20"/>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:36" hidden="1">
       <c r="A117" s="23"/>
       <c r="B117">
         <v>1</v>
@@ -10057,7 +10233,7 @@
       </c>
       <c r="Z117" s="49"/>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:36" hidden="1">
       <c r="A118" s="23"/>
       <c r="B118">
         <v>1</v>
@@ -10094,7 +10270,7 @@
       <c r="Q118" s="29"/>
       <c r="Z118" s="49"/>
     </row>
-    <row r="119" spans="1:36">
+    <row r="119" spans="1:36" hidden="1">
       <c r="A119" s="46" t="s">
         <v>367</v>
       </c>
@@ -10147,7 +10323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:36">
+    <row r="120" spans="1:36" hidden="1">
       <c r="A120" s="23"/>
       <c r="B120" t="s">
         <v>597</v>
@@ -10174,7 +10350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:36">
+    <row r="121" spans="1:36" hidden="1">
       <c r="A121" s="46" t="s">
         <v>372</v>
       </c>
@@ -10226,7 +10402,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="122" spans="1:36">
+    <row r="122" spans="1:36" hidden="1">
       <c r="A122" s="46" t="s">
         <v>377</v>
       </c>
@@ -10278,7 +10454,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="123" spans="1:36">
+    <row r="123" spans="1:36" hidden="1">
       <c r="A123" s="46" t="s">
         <v>381</v>
       </c>
@@ -10374,7 +10550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:36" hidden="1">
       <c r="A125" s="23"/>
       <c r="B125">
         <v>1</v>
@@ -10400,7 +10576,7 @@
       </c>
       <c r="Z125" s="49"/>
     </row>
-    <row r="126" spans="1:36">
+    <row r="126" spans="1:36" hidden="1">
       <c r="A126" s="23"/>
       <c r="B126">
         <v>1</v>
@@ -10431,7 +10607,7 @@
       </c>
       <c r="Z126" s="49"/>
     </row>
-    <row r="127" spans="1:36">
+    <row r="127" spans="1:36" hidden="1">
       <c r="A127" s="23"/>
       <c r="B127">
         <v>1</v>
@@ -10551,7 +10727,7 @@
       <c r="AF128" s="20"/>
       <c r="AG128" s="20"/>
     </row>
-    <row r="129" spans="1:37">
+    <row r="129" spans="1:37" hidden="1">
       <c r="A129" s="46" t="s">
         <v>399</v>
       </c>
@@ -10600,7 +10776,7 @@
       <c r="AF129" s="20"/>
       <c r="AG129" s="20"/>
     </row>
-    <row r="130" spans="1:37">
+    <row r="130" spans="1:37" hidden="1">
       <c r="A130" s="23"/>
       <c r="B130" t="s">
         <v>597</v>
@@ -10708,7 +10884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:37">
+    <row r="132" spans="1:37" hidden="1">
       <c r="A132" s="23"/>
       <c r="B132">
         <v>1</v>
@@ -10775,7 +10951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:37">
+    <row r="133" spans="1:37" hidden="1">
       <c r="A133" s="23"/>
       <c r="B133">
         <v>1</v>
@@ -10897,7 +11073,7 @@
       <c r="AF134" s="20"/>
       <c r="AG134" s="20"/>
     </row>
-    <row r="135" spans="1:37" s="23" customFormat="1" ht="21">
+    <row r="135" spans="1:37" s="23" customFormat="1" ht="21" hidden="1">
       <c r="B135">
         <v>1</v>
       </c>
@@ -10957,7 +11133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:37" s="23" customFormat="1">
+    <row r="136" spans="1:37" s="23" customFormat="1" hidden="1">
       <c r="B136">
         <v>1</v>
       </c>
@@ -11105,7 +11281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:37">
+    <row r="139" spans="1:37" hidden="1">
       <c r="A139" s="23"/>
       <c r="B139">
         <v>1</v>
@@ -11128,7 +11304,7 @@
       </c>
       <c r="Z139" s="49"/>
     </row>
-    <row r="140" spans="1:37">
+    <row r="140" spans="1:37" hidden="1">
       <c r="A140" s="46" t="s">
         <v>431</v>
       </c>
@@ -11221,7 +11397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:37" s="23" customFormat="1">
+    <row r="142" spans="1:37" s="23" customFormat="1" hidden="1">
       <c r="B142">
         <v>1</v>
       </c>
@@ -11233,7 +11409,7 @@
       </c>
       <c r="Z142" s="78"/>
     </row>
-    <row r="143" spans="1:37">
+    <row r="143" spans="1:37" hidden="1">
       <c r="A143" s="46" t="s">
         <v>437</v>
       </c>
@@ -11330,7 +11506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:37">
+    <row r="145" spans="1:37" hidden="1">
       <c r="A145" s="23"/>
       <c r="B145">
         <v>1</v>
@@ -11353,7 +11529,7 @@
       </c>
       <c r="Z145" s="49"/>
     </row>
-    <row r="146" spans="1:37">
+    <row r="146" spans="1:37" hidden="1">
       <c r="A146" s="46" t="s">
         <v>443</v>
       </c>
@@ -11403,7 +11579,7 @@
       <c r="AF146" s="20"/>
       <c r="AG146" s="20"/>
     </row>
-    <row r="147" spans="1:37">
+    <row r="147" spans="1:37" hidden="1">
       <c r="A147" s="23"/>
       <c r="B147" t="s">
         <v>597</v>
@@ -11459,7 +11635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:37">
+    <row r="148" spans="1:37" hidden="1">
       <c r="A148" s="46" t="s">
         <v>449</v>
       </c>
@@ -11511,7 +11687,7 @@
       <c r="AF148" s="20"/>
       <c r="AG148" s="20"/>
     </row>
-    <row r="149" spans="1:37">
+    <row r="149" spans="1:37" hidden="1">
       <c r="A149" s="46" t="s">
         <v>453</v>
       </c>
@@ -11661,7 +11837,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="152" spans="1:37">
+    <row r="152" spans="1:37" hidden="1">
       <c r="A152" s="23"/>
       <c r="B152">
         <v>1</v>
@@ -11711,7 +11887,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="153" spans="1:37">
+    <row r="153" spans="1:37" hidden="1">
       <c r="A153" s="23"/>
       <c r="B153">
         <v>1</v>
@@ -11741,7 +11917,7 @@
       </c>
       <c r="Z153" s="49"/>
     </row>
-    <row r="154" spans="1:37">
+    <row r="154" spans="1:37" hidden="1">
       <c r="A154" s="23"/>
       <c r="B154">
         <v>1</v>
@@ -11771,7 +11947,7 @@
       </c>
       <c r="Z154" s="49"/>
     </row>
-    <row r="155" spans="1:37">
+    <row r="155" spans="1:37" hidden="1">
       <c r="A155" s="23"/>
       <c r="B155">
         <v>1</v>
@@ -11798,7 +11974,7 @@
       </c>
       <c r="Z155" s="49"/>
     </row>
-    <row r="156" spans="1:37">
+    <row r="156" spans="1:37" hidden="1">
       <c r="B156">
         <v>1</v>
       </c>
@@ -11837,7 +12013,7 @@
       </c>
       <c r="Z156" s="49"/>
     </row>
-    <row r="157" spans="1:37">
+    <row r="157" spans="1:37" hidden="1">
       <c r="B157">
         <v>1</v>
       </c>
@@ -11907,7 +12083,7 @@
       <c r="AF158" s="20"/>
       <c r="AG158" s="20"/>
     </row>
-    <row r="159" spans="1:37">
+    <row r="159" spans="1:37" hidden="1">
       <c r="A159" s="23"/>
       <c r="B159">
         <v>1</v>
@@ -11957,7 +12133,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="160" spans="1:37">
+    <row r="160" spans="1:37" hidden="1">
       <c r="A160" s="23"/>
       <c r="B160">
         <v>1</v>
@@ -11987,7 +12163,7 @@
       </c>
       <c r="Z160" s="49"/>
     </row>
-    <row r="161" spans="1:34">
+    <row r="161" spans="1:34" hidden="1">
       <c r="A161" s="23"/>
       <c r="B161">
         <v>1</v>
@@ -12017,7 +12193,7 @@
       </c>
       <c r="Z161" s="49"/>
     </row>
-    <row r="162" spans="1:34">
+    <row r="162" spans="1:34" hidden="1">
       <c r="A162" s="23"/>
       <c r="B162">
         <v>1</v>
@@ -12044,7 +12220,7 @@
       </c>
       <c r="Z162" s="49"/>
     </row>
-    <row r="163" spans="1:34">
+    <row r="163" spans="1:34" hidden="1">
       <c r="B163">
         <v>1</v>
       </c>
@@ -12083,7 +12259,7 @@
       </c>
       <c r="Z163" s="49"/>
     </row>
-    <row r="164" spans="1:34">
+    <row r="164" spans="1:34" hidden="1">
       <c r="B164">
         <v>1</v>
       </c>
@@ -12153,7 +12329,7 @@
       <c r="AF165" s="20"/>
       <c r="AG165" s="20"/>
     </row>
-    <row r="166" spans="1:34">
+    <row r="166" spans="1:34" hidden="1">
       <c r="A166" s="23"/>
       <c r="B166">
         <v>1</v>
@@ -12264,7 +12440,7 @@
       <c r="AF167" s="20"/>
       <c r="AG167" s="20"/>
     </row>
-    <row r="168" spans="1:34">
+    <row r="168" spans="1:34" hidden="1">
       <c r="A168" s="23"/>
       <c r="B168">
         <v>1</v>
@@ -12314,7 +12490,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="169" spans="1:34">
+    <row r="169" spans="1:34" hidden="1">
       <c r="A169" s="23"/>
       <c r="B169">
         <v>1</v>
@@ -12344,7 +12520,7 @@
       </c>
       <c r="Z169" s="49"/>
     </row>
-    <row r="170" spans="1:34">
+    <row r="170" spans="1:34" hidden="1">
       <c r="A170" s="23"/>
       <c r="B170">
         <v>1</v>
@@ -12374,7 +12550,7 @@
       </c>
       <c r="Z170" s="49"/>
     </row>
-    <row r="171" spans="1:34">
+    <row r="171" spans="1:34" hidden="1">
       <c r="A171" s="23"/>
       <c r="B171">
         <v>1</v>
@@ -12401,7 +12577,7 @@
       </c>
       <c r="Z171" s="49"/>
     </row>
-    <row r="172" spans="1:34">
+    <row r="172" spans="1:34" hidden="1">
       <c r="B172">
         <v>1</v>
       </c>
@@ -12440,7 +12616,7 @@
       </c>
       <c r="Z172" s="49"/>
     </row>
-    <row r="173" spans="1:34">
+    <row r="173" spans="1:34" hidden="1">
       <c r="B173">
         <v>1</v>
       </c>
@@ -12510,7 +12686,7 @@
       <c r="AF174" s="20"/>
       <c r="AG174" s="20"/>
     </row>
-    <row r="175" spans="1:34">
+    <row r="175" spans="1:34" hidden="1">
       <c r="A175" s="23"/>
       <c r="B175">
         <v>1</v>
@@ -12560,7 +12736,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="176" spans="1:34">
+    <row r="176" spans="1:34" hidden="1">
       <c r="A176" s="23"/>
       <c r="B176">
         <v>1</v>
@@ -12590,7 +12766,7 @@
       </c>
       <c r="Z176" s="49"/>
     </row>
-    <row r="177" spans="1:33">
+    <row r="177" spans="1:33" hidden="1">
       <c r="A177" s="23"/>
       <c r="B177">
         <v>1</v>
@@ -12620,7 +12796,7 @@
       </c>
       <c r="Z177" s="49"/>
     </row>
-    <row r="178" spans="1:33">
+    <row r="178" spans="1:33" hidden="1">
       <c r="A178" s="23"/>
       <c r="B178">
         <v>1</v>
@@ -12647,7 +12823,7 @@
       </c>
       <c r="Z178" s="49"/>
     </row>
-    <row r="179" spans="1:33">
+    <row r="179" spans="1:33" hidden="1">
       <c r="B179">
         <v>1</v>
       </c>
@@ -12686,7 +12862,7 @@
       </c>
       <c r="Z179" s="49"/>
     </row>
-    <row r="180" spans="1:33">
+    <row r="180" spans="1:33" hidden="1">
       <c r="B180">
         <v>1</v>
       </c>
@@ -12706,7 +12882,7 @@
       </c>
       <c r="Z180" s="49"/>
     </row>
-    <row r="181" spans="1:33">
+    <row r="181" spans="1:33" hidden="1">
       <c r="A181" s="46" t="s">
         <v>493</v>
       </c>
@@ -12750,7 +12926,7 @@
       <c r="AF181" s="20"/>
       <c r="AG181" s="20"/>
     </row>
-    <row r="182" spans="1:33">
+    <row r="182" spans="1:33" hidden="1">
       <c r="A182" s="46" t="s">
         <v>496</v>
       </c>
@@ -12850,7 +13026,7 @@
       <c r="AF183" s="20"/>
       <c r="AG183" s="20"/>
     </row>
-    <row r="184" spans="1:33">
+    <row r="184" spans="1:33" hidden="1">
       <c r="A184" s="23"/>
       <c r="B184">
         <v>1</v>
@@ -12960,7 +13136,7 @@
       <c r="AF185" s="20"/>
       <c r="AG185" s="20"/>
     </row>
-    <row r="186" spans="1:33">
+    <row r="186" spans="1:33" hidden="1">
       <c r="A186" s="23"/>
       <c r="B186">
         <v>1</v>
@@ -13021,7 +13197,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="187" spans="1:33">
+    <row r="187" spans="1:33" hidden="1">
       <c r="A187" s="46" t="s">
         <v>510</v>
       </c>
@@ -13115,7 +13291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:33">
+    <row r="189" spans="1:33" hidden="1">
       <c r="B189">
         <v>1</v>
       </c>
@@ -13162,7 +13338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:33">
+    <row r="190" spans="1:33" hidden="1">
       <c r="B190">
         <v>1</v>
       </c>
@@ -13186,7 +13362,7 @@
       </c>
       <c r="Z190" s="49"/>
     </row>
-    <row r="191" spans="1:33">
+    <row r="191" spans="1:33" hidden="1">
       <c r="B191">
         <v>1</v>
       </c>
@@ -13255,7 +13431,7 @@
       </c>
       <c r="AG192" s="60"/>
     </row>
-    <row r="193" spans="1:33">
+    <row r="193" spans="1:33" hidden="1">
       <c r="A193" s="23"/>
       <c r="B193">
         <v>1</v>
@@ -13360,7 +13536,7 @@
       <c r="AF194" s="60"/>
       <c r="AG194" s="60"/>
     </row>
-    <row r="195" spans="1:33">
+    <row r="195" spans="1:33" hidden="1">
       <c r="A195" s="32"/>
       <c r="B195">
         <v>1</v>
@@ -13412,7 +13588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:33">
+    <row r="196" spans="1:33" hidden="1">
       <c r="A196" s="32"/>
       <c r="B196">
         <v>1</v>
@@ -13497,7 +13673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:33">
+    <row r="198" spans="1:33" hidden="1">
       <c r="B198">
         <v>1</v>
       </c>
@@ -13647,7 +13823,7 @@
       <c r="AF200" s="60"/>
       <c r="AG200" s="60"/>
     </row>
-    <row r="201" spans="1:33">
+    <row r="201" spans="1:33" hidden="1">
       <c r="A201" s="23"/>
       <c r="B201">
         <v>1</v>
@@ -13702,7 +13878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:33">
+    <row r="202" spans="1:33" hidden="1">
       <c r="A202" s="23"/>
       <c r="B202">
         <v>1</v>
@@ -13719,7 +13895,7 @@
       </c>
       <c r="Z202" s="49"/>
     </row>
-    <row r="203" spans="1:33">
+    <row r="203" spans="1:33" hidden="1">
       <c r="A203" s="58" t="s">
         <v>557</v>
       </c>
@@ -13769,7 +13945,7 @@
       <c r="AF203" s="60"/>
       <c r="AG203" s="60"/>
     </row>
-    <row r="204" spans="1:33">
+    <row r="204" spans="1:33" hidden="1">
       <c r="A204" s="23"/>
       <c r="B204" t="s">
         <v>597</v>
@@ -13844,7 +14020,7 @@
       <c r="AF205" s="60"/>
       <c r="AG205" s="60"/>
     </row>
-    <row r="206" spans="1:33">
+    <row r="206" spans="1:33" hidden="1">
       <c r="A206" s="23"/>
       <c r="B206">
         <v>1</v>
@@ -13882,7 +14058,7 @@
       </c>
       <c r="Z206" s="49"/>
     </row>
-    <row r="207" spans="1:33">
+    <row r="207" spans="1:33" hidden="1">
       <c r="A207" s="23"/>
       <c r="B207">
         <v>1</v>
@@ -13906,7 +14082,7 @@
       </c>
       <c r="Z207" s="49"/>
     </row>
-    <row r="208" spans="1:33">
+    <row r="208" spans="1:33" hidden="1">
       <c r="A208" s="23"/>
       <c r="B208">
         <v>1</v>
@@ -14036,7 +14212,7 @@
       <c r="AF210" s="60"/>
       <c r="AG210" s="60"/>
     </row>
-    <row r="211" spans="1:37">
+    <row r="211" spans="1:37" hidden="1">
       <c r="A211" s="23"/>
       <c r="B211">
         <v>1</v>
@@ -14138,7 +14314,7 @@
       <c r="AF212" s="60"/>
       <c r="AG212" s="60"/>
     </row>
-    <row r="213" spans="1:37">
+    <row r="213" spans="1:37" hidden="1">
       <c r="A213" s="23"/>
       <c r="B213">
         <v>1</v>
@@ -14181,7 +14357,7 @@
       <c r="AE213" s="60"/>
       <c r="AF213" s="60"/>
     </row>
-    <row r="214" spans="1:37">
+    <row r="214" spans="1:37" hidden="1">
       <c r="A214" s="23"/>
       <c r="B214">
         <v>1</v>
@@ -14205,7 +14381,7 @@
       <c r="AE214" s="60"/>
       <c r="AF214" s="60"/>
     </row>
-    <row r="215" spans="1:37">
+    <row r="215" spans="1:37" hidden="1">
       <c r="A215" s="23"/>
       <c r="B215">
         <v>1</v>
@@ -14262,7 +14438,7 @@
       <c r="AE215" s="60"/>
       <c r="AF215" s="60"/>
     </row>
-    <row r="216" spans="1:37">
+    <row r="216" spans="1:37" hidden="1">
       <c r="A216" s="23"/>
       <c r="B216">
         <v>1</v>
@@ -14332,7 +14508,7 @@
       <c r="AF217" s="60"/>
       <c r="AG217" s="60"/>
     </row>
-    <row r="218" spans="1:37">
+    <row r="218" spans="1:37" hidden="1">
       <c r="A218" s="23"/>
       <c r="B218">
         <v>1</v>
@@ -14375,7 +14551,7 @@
       <c r="AE218" s="60"/>
       <c r="AF218" s="60"/>
     </row>
-    <row r="219" spans="1:37">
+    <row r="219" spans="1:37" hidden="1">
       <c r="A219" s="23"/>
       <c r="B219">
         <v>1</v>
@@ -14399,7 +14575,7 @@
       <c r="AE219" s="60"/>
       <c r="AF219" s="60"/>
     </row>
-    <row r="220" spans="1:37">
+    <row r="220" spans="1:37" hidden="1">
       <c r="A220" s="23"/>
       <c r="B220">
         <v>1</v>
@@ -14456,7 +14632,7 @@
       <c r="AE220" s="60"/>
       <c r="AF220" s="60"/>
     </row>
-    <row r="221" spans="1:37">
+    <row r="221" spans="1:37" hidden="1">
       <c r="A221" s="23"/>
       <c r="B221">
         <v>1</v>
@@ -14526,7 +14702,7 @@
       <c r="AF222" s="60"/>
       <c r="AG222" s="60"/>
     </row>
-    <row r="223" spans="1:37">
+    <row r="223" spans="1:37" hidden="1">
       <c r="A223" s="23"/>
       <c r="B223">
         <v>1</v>
@@ -14573,7 +14749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:37">
+    <row r="224" spans="1:37" hidden="1">
       <c r="A224" s="23"/>
       <c r="B224">
         <v>1</v>
@@ -14646,7 +14822,7 @@
       <c r="AF225" s="60"/>
       <c r="AG225" s="60"/>
     </row>
-    <row r="226" spans="1:37">
+    <row r="226" spans="1:37" hidden="1">
       <c r="A226" s="23"/>
       <c r="B226">
         <v>1</v>
@@ -14692,7 +14868,7 @@
       <c r="AE226" s="60"/>
       <c r="AF226" s="60"/>
     </row>
-    <row r="227" spans="1:37">
+    <row r="227" spans="1:37" hidden="1">
       <c r="A227" s="23"/>
       <c r="B227">
         <v>1</v>
@@ -14716,7 +14892,7 @@
       <c r="AE227" s="60"/>
       <c r="AF227" s="60"/>
     </row>
-    <row r="228" spans="1:37">
+    <row r="228" spans="1:37" hidden="1">
       <c r="A228" s="23"/>
       <c r="B228">
         <v>1</v>
@@ -14773,7 +14949,7 @@
       <c r="AE228" s="60"/>
       <c r="AF228" s="60"/>
     </row>
-    <row r="229" spans="1:37">
+    <row r="229" spans="1:37" hidden="1">
       <c r="A229" s="23"/>
       <c r="B229">
         <v>1</v>
@@ -14793,7 +14969,7 @@
       </c>
       <c r="Z229" s="49"/>
     </row>
-    <row r="230" spans="1:37">
+    <row r="230" spans="1:37" hidden="1">
       <c r="A230" s="58" t="s">
         <v>612</v>
       </c>
@@ -14843,7 +15019,7 @@
       <c r="AF230" s="60"/>
       <c r="AG230" s="60"/>
     </row>
-    <row r="231" spans="1:37">
+    <row r="231" spans="1:37" hidden="1">
       <c r="A231" s="23"/>
       <c r="B231" t="s">
         <v>597</v>
@@ -14950,7 +15126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:37">
+    <row r="233" spans="1:37" hidden="1">
       <c r="A233" s="23"/>
       <c r="B233">
         <v>1</v>
@@ -14996,7 +15172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:37">
+    <row r="234" spans="1:37" hidden="1">
       <c r="A234" s="58" t="s">
         <v>626</v>
       </c>
@@ -15049,7 +15225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:37">
+    <row r="235" spans="1:37" hidden="1">
       <c r="A235" s="58" t="s">
         <v>630</v>
       </c>
@@ -15104,7 +15280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:37">
+    <row r="236" spans="1:37" hidden="1">
       <c r="A236" s="58" t="s">
         <v>634</v>
       </c>
@@ -15203,7 +15379,7 @@
       <c r="AF237" s="60"/>
       <c r="AG237" s="60"/>
     </row>
-    <row r="238" spans="1:37">
+    <row r="238" spans="1:37" hidden="1">
       <c r="A238" s="58" t="s">
         <v>641</v>
       </c>
@@ -15253,7 +15429,7 @@
       <c r="AF238" s="60"/>
       <c r="AG238" s="60"/>
     </row>
-    <row r="239" spans="1:37">
+    <row r="239" spans="1:37" hidden="1">
       <c r="A239" s="23"/>
       <c r="B239" t="s">
         <v>597</v>
@@ -15327,7 +15503,7 @@
       <c r="AF240" s="60"/>
       <c r="AG240" s="60"/>
     </row>
-    <row r="241" spans="1:34">
+    <row r="241" spans="1:34" hidden="1">
       <c r="A241" s="23"/>
       <c r="B241">
         <v>1</v>
@@ -15434,7 +15610,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="243" spans="1:34">
+    <row r="243" spans="1:34" hidden="1">
       <c r="A243" s="58" t="s">
         <v>658</v>
       </c>
@@ -15484,7 +15660,7 @@
       <c r="AF243" s="60"/>
       <c r="AG243" s="60"/>
     </row>
-    <row r="244" spans="1:34">
+    <row r="244" spans="1:34" hidden="1">
       <c r="A244" s="58" t="s">
         <v>662</v>
       </c>
@@ -15586,7 +15762,7 @@
       <c r="AF245" s="60"/>
       <c r="AG245" s="60"/>
     </row>
-    <row r="246" spans="1:34">
+    <row r="246" spans="1:34" hidden="1">
       <c r="A246" s="23"/>
       <c r="B246">
         <v>1</v>
@@ -15641,7 +15817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:34">
+    <row r="247" spans="1:34" hidden="1">
       <c r="A247" s="71" t="s">
         <v>676</v>
       </c>
@@ -15744,7 +15920,7 @@
       <c r="AF248" s="60"/>
       <c r="AG248" s="60"/>
     </row>
-    <row r="249" spans="1:34">
+    <row r="249" spans="1:34" hidden="1">
       <c r="A249" s="23"/>
       <c r="B249">
         <v>1</v>
@@ -15788,7 +15964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:34">
+    <row r="250" spans="1:34" hidden="1">
       <c r="A250" s="23"/>
       <c r="B250">
         <v>1</v>
@@ -15835,7 +16011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:34">
+    <row r="251" spans="1:34" hidden="1">
       <c r="A251" s="23"/>
       <c r="B251">
         <v>1</v>
@@ -15884,7 +16060,7 @@
       <c r="AE251" s="60"/>
       <c r="AF251" s="60"/>
     </row>
-    <row r="252" spans="1:34">
+    <row r="252" spans="1:34" hidden="1">
       <c r="A252" s="58" t="s">
         <v>689</v>
       </c>
@@ -15936,7 +16112,7 @@
       <c r="AF252" s="60"/>
       <c r="AG252" s="60"/>
     </row>
-    <row r="253" spans="1:34">
+    <row r="253" spans="1:34" hidden="1">
       <c r="A253" s="23"/>
       <c r="B253" t="s">
         <v>597</v>
@@ -16040,7 +16216,7 @@
       <c r="AF254" s="60"/>
       <c r="AG254" s="60"/>
     </row>
-    <row r="255" spans="1:34">
+    <row r="255" spans="1:34" hidden="1">
       <c r="A255" s="23"/>
       <c r="B255">
         <v>1</v>
@@ -16094,7 +16270,7 @@
       <c r="AE255" s="60"/>
       <c r="AF255" s="60"/>
     </row>
-    <row r="256" spans="1:34">
+    <row r="256" spans="1:34" hidden="1">
       <c r="A256" s="23"/>
       <c r="B256">
         <v>1</v>
@@ -16121,7 +16297,7 @@
       </c>
       <c r="Z256" s="49"/>
     </row>
-    <row r="257" spans="1:36">
+    <row r="257" spans="1:36" hidden="1">
       <c r="A257" s="23"/>
       <c r="B257">
         <v>1</v>
@@ -16228,7 +16404,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="259" spans="1:36">
+    <row r="259" spans="1:36" hidden="1">
       <c r="A259" s="23"/>
       <c r="B259">
         <v>1</v>
@@ -16280,7 +16456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:36">
+    <row r="260" spans="1:36" hidden="1">
       <c r="A260" s="23"/>
       <c r="B260">
         <v>1</v>
@@ -16348,7 +16524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:36">
+    <row r="261" spans="1:36" hidden="1">
       <c r="A261" s="23"/>
       <c r="B261">
         <v>1</v>
@@ -16470,7 +16646,7 @@
       <c r="AF262" s="60"/>
       <c r="AG262" s="60"/>
     </row>
-    <row r="263" spans="1:36">
+    <row r="263" spans="1:36" hidden="1">
       <c r="A263" s="58"/>
       <c r="B263">
         <v>1</v>
@@ -16505,7 +16681,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="264" spans="1:36">
+    <row r="264" spans="1:36" hidden="1">
       <c r="A264" s="58" t="s">
         <v>732</v>
       </c>
@@ -16557,7 +16733,7 @@
       <c r="AF264" s="60"/>
       <c r="AG264" s="60"/>
     </row>
-    <row r="265" spans="1:36">
+    <row r="265" spans="1:36" hidden="1">
       <c r="A265" s="58" t="s">
         <v>736</v>
       </c>
@@ -16653,7 +16829,7 @@
       <c r="AF266" s="60"/>
       <c r="AG266" s="60"/>
     </row>
-    <row r="267" spans="1:36">
+    <row r="267" spans="1:36" hidden="1">
       <c r="B267">
         <v>1</v>
       </c>
@@ -16690,7 +16866,7 @@
       <c r="AF267" s="49"/>
       <c r="AJ267" s="47"/>
     </row>
-    <row r="268" spans="1:36">
+    <row r="268" spans="1:36" hidden="1">
       <c r="B268">
         <v>1</v>
       </c>
@@ -16795,7 +16971,7 @@
       <c r="AF269" s="60"/>
       <c r="AG269" s="60"/>
     </row>
-    <row r="270" spans="1:36">
+    <row r="270" spans="1:36" hidden="1">
       <c r="B270">
         <v>1</v>
       </c>
@@ -16833,22 +17009,19 @@
       <c r="X270" s="19" t="s">
         <v>790</v>
       </c>
-      <c r="Y270" s="128" t="s">
+      <c r="Y270" s="19" t="s">
         <v>787</v>
       </c>
-      <c r="Z270" s="128"/>
-      <c r="AA270" s="128"/>
-      <c r="AB270" s="128" t="s">
+      <c r="AB270" s="19" t="s">
         <v>752</v>
       </c>
-      <c r="AC270" s="128"/>
       <c r="AD270" s="49">
         <v>1</v>
       </c>
       <c r="AE270" s="49"/>
       <c r="AF270" s="49"/>
     </row>
-    <row r="271" spans="1:36">
+    <row r="271" spans="1:36" hidden="1">
       <c r="B271">
         <v>1</v>
       </c>
@@ -16865,7 +17038,7 @@
       </c>
       <c r="Z271" s="49"/>
     </row>
-    <row r="272" spans="1:36">
+    <row r="272" spans="1:36" hidden="1">
       <c r="B272">
         <v>1</v>
       </c>
@@ -16882,7 +17055,7 @@
       </c>
       <c r="Z272" s="49"/>
     </row>
-    <row r="273" spans="1:37">
+    <row r="273" spans="1:37" hidden="1">
       <c r="A273" s="60" t="s">
         <v>756</v>
       </c>
@@ -16984,7 +17157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:37">
+    <row r="275" spans="1:37" hidden="1">
       <c r="B275">
         <v>1</v>
       </c>
@@ -17051,7 +17224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:37">
+    <row r="277" spans="1:37" hidden="1">
       <c r="B277">
         <v>1</v>
       </c>
@@ -17118,7 +17291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:37">
+    <row r="279" spans="1:37" hidden="1">
       <c r="B279">
         <v>1</v>
       </c>
@@ -17133,7 +17306,7 @@
       </c>
       <c r="Z279" s="49"/>
     </row>
-    <row r="280" spans="1:37">
+    <row r="280" spans="1:37" hidden="1">
       <c r="A280" s="60" t="s">
         <v>768</v>
       </c>
@@ -17221,7 +17394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:37">
+    <row r="282" spans="1:37" hidden="1">
       <c r="B282">
         <v>1</v>
       </c>
@@ -17233,7 +17406,7 @@
       </c>
       <c r="Z282" s="49"/>
     </row>
-    <row r="283" spans="1:37">
+    <row r="283" spans="1:37" hidden="1">
       <c r="A283" s="60" t="s">
         <v>773</v>
       </c>
@@ -17280,7 +17453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:37">
+    <row r="284" spans="1:37" hidden="1">
       <c r="A284" s="60" t="s">
         <v>776</v>
       </c>
@@ -17373,7 +17546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:37">
+    <row r="286" spans="1:37" hidden="1">
       <c r="B286">
         <v>1</v>
       </c>
@@ -17386,7 +17559,7 @@
       </c>
       <c r="Z286" s="49"/>
     </row>
-    <row r="287" spans="1:37">
+    <row r="287" spans="1:37" hidden="1">
       <c r="A287" s="60" t="s">
         <v>780</v>
       </c>
@@ -17435,7 +17608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:37">
+    <row r="288" spans="1:37" hidden="1">
       <c r="A288" s="60" t="s">
         <v>782</v>
       </c>
@@ -17537,7 +17710,7 @@
       <c r="AJ289" s="93"/>
       <c r="AK289" s="93"/>
     </row>
-    <row r="290" spans="1:37" customFormat="1" ht="19">
+    <row r="290" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A290" s="96"/>
       <c r="B290" s="96">
         <v>1</v>
@@ -17619,7 +17792,7 @@
       <c r="AJ291" s="93"/>
       <c r="AK291" s="93"/>
     </row>
-    <row r="292" spans="1:37" customFormat="1" ht="19">
+    <row r="292" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A292" s="96"/>
       <c r="B292" s="96">
         <v>1</v>
@@ -17639,7 +17812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:37" customFormat="1" ht="19">
+    <row r="293" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A293" s="96"/>
       <c r="B293" s="96">
         <v>1</v>
@@ -17709,7 +17882,7 @@
       <c r="AJ294" s="93"/>
       <c r="AK294" s="93"/>
     </row>
-    <row r="295" spans="1:37" customFormat="1" ht="23">
+    <row r="295" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A295" s="96"/>
       <c r="B295" s="96">
         <v>1</v>
@@ -17764,7 +17937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:37" customFormat="1">
+    <row r="296" spans="1:37" customFormat="1" hidden="1">
       <c r="A296" s="96"/>
       <c r="B296" s="96">
         <v>1</v>
@@ -17837,7 +18010,7 @@
       <c r="AJ297" s="93"/>
       <c r="AK297" s="93"/>
     </row>
-    <row r="298" spans="1:37" customFormat="1" ht="19">
+    <row r="298" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A298" s="96"/>
       <c r="B298" s="96">
         <v>1</v>
@@ -17905,7 +18078,7 @@
       <c r="AJ299" s="93"/>
       <c r="AK299" s="93"/>
     </row>
-    <row r="300" spans="1:37" customFormat="1" ht="23">
+    <row r="300" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A300" s="96"/>
       <c r="B300" s="96">
         <v>1</v>
@@ -17950,7 +18123,7 @@
       <c r="AE300" s="104"/>
       <c r="AF300" s="104"/>
     </row>
-    <row r="301" spans="1:37" customFormat="1" ht="19">
+    <row r="301" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A301" s="96"/>
       <c r="B301" s="96">
         <v>1</v>
@@ -17973,7 +18146,7 @@
       <c r="AE301" s="104"/>
       <c r="AF301" s="104"/>
     </row>
-    <row r="302" spans="1:37" customFormat="1" ht="25">
+    <row r="302" spans="1:37" customFormat="1" ht="25" hidden="1">
       <c r="A302" s="96"/>
       <c r="B302" s="96">
         <v>1</v>
@@ -18027,7 +18200,7 @@
       <c r="AE302" s="104"/>
       <c r="AF302" s="104"/>
     </row>
-    <row r="303" spans="1:37" customFormat="1">
+    <row r="303" spans="1:37" customFormat="1" hidden="1">
       <c r="A303" s="96"/>
       <c r="B303" s="96">
         <v>1</v>
@@ -18043,12 +18216,12 @@
         <v>597</v>
       </c>
     </row>
-    <row r="304" spans="1:37" customFormat="1" ht="23">
+    <row r="304" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A304" s="91" t="s">
         <v>850</v>
       </c>
-      <c r="B304" s="91">
-        <v>1</v>
+      <c r="B304" s="91" t="s">
+        <v>597</v>
       </c>
       <c r="C304" s="92" t="s">
         <v>851</v>
@@ -18159,7 +18332,7 @@
       <c r="AJ305" s="93"/>
       <c r="AK305" s="93"/>
     </row>
-    <row r="306" spans="1:37" customFormat="1">
+    <row r="306" spans="1:37" customFormat="1" hidden="1">
       <c r="A306" s="96"/>
       <c r="B306" s="96">
         <v>1</v>
@@ -18206,7 +18379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:37" customFormat="1">
+    <row r="307" spans="1:37" customFormat="1" hidden="1">
       <c r="A307" s="96"/>
       <c r="B307" s="96">
         <v>1</v>
@@ -18253,12 +18426,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:37" customFormat="1" ht="19">
+    <row r="308" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A308" s="91" t="s">
         <v>860</v>
       </c>
-      <c r="B308" s="91">
-        <v>1</v>
+      <c r="B308" s="91" t="s">
+        <v>597</v>
       </c>
       <c r="C308" s="92" t="s">
         <v>861</v>
@@ -18363,7 +18536,7 @@
       <c r="AJ309" s="93"/>
       <c r="AK309" s="93"/>
     </row>
-    <row r="310" spans="1:37" customFormat="1" ht="30">
+    <row r="310" spans="1:37" customFormat="1" ht="30" hidden="1">
       <c r="A310" s="96"/>
       <c r="B310" s="96">
         <v>1</v>
@@ -18526,7 +18699,7 @@
       <c r="AJ312" s="93"/>
       <c r="AK312" s="93"/>
     </row>
-    <row r="313" spans="1:37" customFormat="1" ht="19">
+    <row r="313" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="B313" s="91">
         <v>1</v>
       </c>
@@ -18629,7 +18802,7 @@
       <c r="AJ314" s="93"/>
       <c r="AK314" s="93"/>
     </row>
-    <row r="315" spans="1:37" customFormat="1" ht="23">
+    <row r="315" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B315">
         <v>1</v>
       </c>
@@ -18732,7 +18905,7 @@
       <c r="AJ316" s="93"/>
       <c r="AK316" s="93"/>
     </row>
-    <row r="317" spans="1:37" customFormat="1" ht="23">
+    <row r="317" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B317" s="93">
         <v>1</v>
       </c>
@@ -18835,7 +19008,7 @@
       <c r="AJ318" s="93"/>
       <c r="AK318" s="93"/>
     </row>
-    <row r="319" spans="1:37" customFormat="1">
+    <row r="319" spans="1:37" customFormat="1" hidden="1">
       <c r="B319" s="93">
         <v>1</v>
       </c>
@@ -18844,7 +19017,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="320" spans="1:37" customFormat="1" ht="19">
+    <row r="320" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="B320" s="93">
         <v>1</v>
       </c>
@@ -18946,7 +19119,7 @@
       <c r="AJ321" s="93"/>
       <c r="AK321" s="93"/>
     </row>
-    <row r="322" spans="1:37" customFormat="1" ht="23">
+    <row r="322" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B322" s="93">
         <v>1</v>
       </c>
@@ -19049,7 +19222,7 @@
       <c r="AJ323" s="93"/>
       <c r="AK323" s="93"/>
     </row>
-    <row r="324" spans="1:37" customFormat="1" ht="35">
+    <row r="324" spans="1:37" customFormat="1" ht="35" hidden="1">
       <c r="B324" s="93">
         <v>1</v>
       </c>
@@ -19152,7 +19325,7 @@
       <c r="AJ325" s="93"/>
       <c r="AK325" s="93"/>
     </row>
-    <row r="326" spans="1:37" customFormat="1" ht="23">
+    <row r="326" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B326" s="93">
         <v>1</v>
       </c>
@@ -19190,7 +19363,7 @@
       <c r="X326" t="s">
         <v>920</v>
       </c>
-      <c r="Y326" s="129" t="s">
+      <c r="Y326" t="s">
         <v>1046</v>
       </c>
       <c r="AD326" s="99">
@@ -19255,7 +19428,7 @@
       <c r="AJ327" s="93"/>
       <c r="AK327" s="93"/>
     </row>
-    <row r="328" spans="1:37" customFormat="1" ht="23">
+    <row r="328" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B328" s="93">
         <v>1</v>
       </c>
@@ -19293,7 +19466,7 @@
       <c r="X328" t="s">
         <v>920</v>
       </c>
-      <c r="Y328" s="129" t="s">
+      <c r="Y328" t="s">
         <v>1046</v>
       </c>
       <c r="AD328" s="99">
@@ -19358,7 +19531,7 @@
       <c r="AJ329" s="93"/>
       <c r="AK329" s="93"/>
     </row>
-    <row r="330" spans="1:37" customFormat="1" ht="23">
+    <row r="330" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B330" s="93">
         <v>1</v>
       </c>
@@ -19458,7 +19631,7 @@
       <c r="AJ331" s="93"/>
       <c r="AK331" s="93"/>
     </row>
-    <row r="332" spans="1:37" customFormat="1" ht="23">
+    <row r="332" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B332" s="93">
         <v>1</v>
       </c>
@@ -19557,7 +19730,7 @@
       <c r="AJ333" s="93"/>
       <c r="AK333" s="93"/>
     </row>
-    <row r="334" spans="1:37" customFormat="1" ht="23">
+    <row r="334" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B334" s="93">
         <v>1</v>
       </c>
@@ -19660,7 +19833,7 @@
       <c r="AJ335" s="93"/>
       <c r="AK335" s="93"/>
     </row>
-    <row r="336" spans="1:37" customFormat="1" ht="23">
+    <row r="336" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B336" s="93">
         <v>1</v>
       </c>
@@ -19763,7 +19936,7 @@
       <c r="AJ337" s="93"/>
       <c r="AK337" s="93"/>
     </row>
-    <row r="338" spans="1:37" customFormat="1" ht="21">
+    <row r="338" spans="1:37" customFormat="1" ht="21" hidden="1">
       <c r="B338" s="93">
         <v>1</v>
       </c>
@@ -19811,7 +19984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:37" customFormat="1">
+    <row r="339" spans="1:37" customFormat="1" hidden="1">
       <c r="B339" s="93">
         <v>1</v>
       </c>
@@ -19930,7 +20103,7 @@
       <c r="AJ341" s="93"/>
       <c r="AK341" s="93"/>
     </row>
-    <row r="342" spans="1:37" customFormat="1" ht="20">
+    <row r="342" spans="1:37" customFormat="1" ht="20" hidden="1">
       <c r="B342" s="93">
         <v>1</v>
       </c>
@@ -20033,7 +20206,7 @@
       <c r="AJ343" s="93"/>
       <c r="AK343" s="93"/>
     </row>
-    <row r="344" spans="1:37" customFormat="1" ht="23">
+    <row r="344" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B344" s="93">
         <v>1</v>
       </c>
@@ -20136,7 +20309,7 @@
       <c r="AJ345" s="93"/>
       <c r="AK345" s="93"/>
     </row>
-    <row r="346" spans="1:37" customFormat="1">
+    <row r="346" spans="1:37" customFormat="1" hidden="1">
       <c r="B346" s="93">
         <v>1</v>
       </c>
@@ -20145,7 +20318,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="347" spans="1:37" customFormat="1" ht="19">
+    <row r="347" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="B347" s="93">
         <v>1</v>
       </c>
@@ -20247,7 +20420,7 @@
       <c r="AJ348" s="93"/>
       <c r="AK348" s="93"/>
     </row>
-    <row r="349" spans="1:37" customFormat="1" ht="21">
+    <row r="349" spans="1:37" customFormat="1" ht="21" hidden="1">
       <c r="B349" s="93">
         <v>1</v>
       </c>
@@ -20338,7 +20511,7 @@
       <c r="AJ350" s="93"/>
       <c r="AK350" s="93"/>
     </row>
-    <row r="351" spans="1:37" customFormat="1" ht="23">
+    <row r="351" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="B351" s="93">
         <v>1</v>
       </c>
@@ -20544,7 +20717,7 @@
       <c r="AJ354" s="93"/>
       <c r="AK354" s="93"/>
     </row>
-    <row r="355" spans="1:37" customFormat="1" ht="20">
+    <row r="355" spans="1:37" customFormat="1" ht="20" hidden="1">
       <c r="A355" s="96"/>
       <c r="B355" s="96">
         <v>1</v>
@@ -20605,7 +20778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:37" customFormat="1" ht="23">
+    <row r="356" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A356" s="96"/>
       <c r="B356" s="96">
         <v>1</v>
@@ -20718,7 +20891,7 @@
       <c r="AJ357" s="93"/>
       <c r="AK357" s="93"/>
     </row>
-    <row r="358" spans="1:37" customFormat="1" ht="20">
+    <row r="358" spans="1:37" customFormat="1" ht="20" hidden="1">
       <c r="A358" s="96"/>
       <c r="B358" s="96">
         <v>1</v>
@@ -20779,7 +20952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:37" customFormat="1" ht="23">
+    <row r="359" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A359" s="96"/>
       <c r="B359" s="96">
         <v>1</v>
@@ -20892,7 +21065,7 @@
       <c r="AJ360" s="93"/>
       <c r="AK360" s="93"/>
     </row>
-    <row r="361" spans="1:37" customFormat="1" ht="23">
+    <row r="361" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A361" s="96"/>
       <c r="B361" s="96">
         <v>1</v>
@@ -21061,12 +21234,12 @@
       <c r="AJ363" s="93"/>
       <c r="AK363" s="93"/>
     </row>
-    <row r="364" spans="1:37" customFormat="1" ht="23">
+    <row r="364" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A364" s="91" t="s">
         <v>437</v>
       </c>
-      <c r="B364" s="91">
-        <v>1</v>
+      <c r="B364" s="91" t="s">
+        <v>597</v>
       </c>
       <c r="C364" s="91"/>
       <c r="D364" s="92"/>
@@ -21108,10 +21281,10 @@
       <c r="AJ364" s="93"/>
       <c r="AK364" s="93"/>
     </row>
-    <row r="365" spans="1:37" customFormat="1">
+    <row r="365" spans="1:37" customFormat="1" hidden="1">
       <c r="A365" s="96"/>
-      <c r="B365" s="96">
-        <v>1</v>
+      <c r="B365" s="96" t="s">
+        <v>597</v>
       </c>
       <c r="C365" s="96"/>
       <c r="D365" s="1"/>
@@ -21184,7 +21357,7 @@
       <c r="AJ366" s="93"/>
       <c r="AK366" s="93"/>
     </row>
-    <row r="367" spans="1:37" customFormat="1" ht="23">
+    <row r="367" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A367" s="96"/>
       <c r="B367" s="96">
         <v>1</v>
@@ -21296,7 +21469,7 @@
       <c r="AJ368" s="93"/>
       <c r="AK368" s="93"/>
     </row>
-    <row r="369" spans="1:37" customFormat="1">
+    <row r="369" spans="1:37" customFormat="1" hidden="1">
       <c r="A369" s="96"/>
       <c r="B369" s="96">
         <v>1</v>
@@ -21403,7 +21576,7 @@
       <c r="AJ370" s="93"/>
       <c r="AK370" s="93"/>
     </row>
-    <row r="371" spans="1:37" customFormat="1" ht="23">
+    <row r="371" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A371" s="96"/>
       <c r="B371" s="96">
         <v>1</v>
@@ -21447,7 +21620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:37" customFormat="1" ht="23">
+    <row r="372" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A372" s="96"/>
       <c r="B372" s="96">
         <v>1</v>
@@ -21538,7 +21711,7 @@
       <c r="AJ373" s="93"/>
       <c r="AK373" s="93"/>
     </row>
-    <row r="374" spans="1:37" customFormat="1" ht="23">
+    <row r="374" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A374" s="96"/>
       <c r="B374" s="96">
         <v>1</v>
@@ -21618,7 +21791,7 @@
       <c r="AJ375" s="93"/>
       <c r="AK375" s="93"/>
     </row>
-    <row r="376" spans="1:37" customFormat="1" ht="23">
+    <row r="376" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A376" s="93" t="s">
         <v>1030</v>
       </c>
@@ -21655,7 +21828,9 @@
         <v>1033</v>
       </c>
       <c r="V376" s="93"/>
-      <c r="W376" s="93"/>
+      <c r="W376" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X376" s="93"/>
       <c r="Y376" s="93"/>
       <c r="Z376" s="93"/>
@@ -21728,7 +21903,7 @@
       <c r="AJ377" s="93"/>
       <c r="AK377" s="93"/>
     </row>
-    <row r="378" spans="1:37" customFormat="1" ht="23">
+    <row r="378" spans="1:37" customFormat="1" ht="23" hidden="1">
       <c r="A378" s="96"/>
       <c r="B378" s="96">
         <v>1</v>
@@ -21780,7 +21955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:37" customFormat="1" ht="19">
+    <row r="379" spans="1:37" customFormat="1" ht="19" hidden="1">
       <c r="A379" s="127" t="s">
         <v>1039</v>
       </c>
@@ -21817,7 +21992,9 @@
         <v>1043</v>
       </c>
       <c r="V379" s="93"/>
-      <c r="W379" s="93"/>
+      <c r="W379" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="X379" s="93"/>
       <c r="Y379" s="93"/>
       <c r="Z379" s="93"/>
@@ -21835,8 +22012,1428 @@
       <c r="AJ379" s="93"/>
       <c r="AK379" s="93"/>
     </row>
+    <row r="380" spans="1:37" customFormat="1" ht="23">
+      <c r="A380" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="B380" s="93">
+        <v>1</v>
+      </c>
+      <c r="C380" s="92" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D380" s="93"/>
+      <c r="E380" s="93"/>
+      <c r="F380" s="93"/>
+      <c r="G380" s="93"/>
+      <c r="H380" s="93"/>
+      <c r="I380" s="93"/>
+      <c r="J380" s="93"/>
+      <c r="K380" s="93"/>
+      <c r="L380" s="93"/>
+      <c r="M380" s="93"/>
+      <c r="N380" s="93"/>
+      <c r="O380" s="93"/>
+      <c r="P380" s="93"/>
+      <c r="Q380" s="94">
+        <v>42095</v>
+      </c>
+      <c r="R380" s="93"/>
+      <c r="S380" s="95" t="s">
+        <v>970</v>
+      </c>
+      <c r="T380" s="128"/>
+      <c r="U380" s="95" t="s">
+        <v>1048</v>
+      </c>
+      <c r="V380" s="107"/>
+      <c r="W380" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X380" s="107"/>
+      <c r="Y380" s="93"/>
+      <c r="Z380" s="93"/>
+      <c r="AA380" s="93"/>
+      <c r="AB380" s="93"/>
+      <c r="AC380" s="93"/>
+      <c r="AD380" s="93">
+        <v>1</v>
+      </c>
+      <c r="AE380" s="93"/>
+      <c r="AF380" s="93"/>
+      <c r="AG380" s="93"/>
+      <c r="AH380" s="93"/>
+      <c r="AI380" s="93"/>
+    </row>
+    <row r="381" spans="1:37" customFormat="1" ht="23" hidden="1">
+      <c r="B381">
+        <v>1</v>
+      </c>
+      <c r="C381" s="1"/>
+      <c r="O381" t="s">
+        <v>1049</v>
+      </c>
+      <c r="Q381" s="129">
+        <v>2019</v>
+      </c>
+      <c r="R381">
+        <v>0</v>
+      </c>
+      <c r="S381" s="130" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T381" s="131"/>
+      <c r="U381" s="132"/>
+      <c r="V381" s="131"/>
+      <c r="W381" s="131"/>
+      <c r="X381" s="114"/>
+    </row>
+    <row r="382" spans="1:37" customFormat="1" ht="25" hidden="1">
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382" s="1"/>
+      <c r="F382" s="2"/>
+      <c r="G382" s="2"/>
+      <c r="H382" s="2"/>
+      <c r="I382" s="2"/>
+      <c r="J382" s="2"/>
+      <c r="K382" s="2"/>
+      <c r="L382" s="2"/>
+      <c r="M382" s="2"/>
+      <c r="N382" s="2"/>
+      <c r="O382" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="P382" t="s">
+        <v>1052</v>
+      </c>
+      <c r="Q382" s="94">
+        <v>38626</v>
+      </c>
+      <c r="R382">
+        <v>1</v>
+      </c>
+      <c r="S382" s="130" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T382" s="131">
+        <v>1</v>
+      </c>
+      <c r="U382" s="97" t="s">
+        <v>1053</v>
+      </c>
+      <c r="V382">
+        <v>1</v>
+      </c>
+      <c r="W382">
+        <v>1</v>
+      </c>
+      <c r="X382" s="106" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y382" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:37" customFormat="1" ht="19" hidden="1">
+      <c r="B383">
+        <v>1</v>
+      </c>
+      <c r="C383" s="1"/>
+      <c r="F383" s="94"/>
+      <c r="G383" s="94"/>
+      <c r="H383" s="94"/>
+      <c r="I383" s="94"/>
+      <c r="J383" s="94"/>
+      <c r="K383" s="94"/>
+      <c r="L383" s="94"/>
+      <c r="M383" s="94"/>
+      <c r="N383" s="94"/>
+      <c r="O383" s="94" t="s">
+        <v>1054</v>
+      </c>
+      <c r="P383" t="s">
+        <v>1055</v>
+      </c>
+      <c r="Q383" s="94">
+        <v>39417</v>
+      </c>
+      <c r="R383">
+        <v>1</v>
+      </c>
+      <c r="S383" s="97" t="s">
+        <v>1056</v>
+      </c>
+      <c r="T383" s="131" t="s">
+        <v>1057</v>
+      </c>
+      <c r="U383" s="97" t="s">
+        <v>1053</v>
+      </c>
+      <c r="V383">
+        <v>1</v>
+      </c>
+      <c r="W383">
+        <v>1</v>
+      </c>
+      <c r="X383" s="114" t="s">
+        <v>1058</v>
+      </c>
+      <c r="Y383" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z383">
+        <v>0</v>
+      </c>
+      <c r="AD383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:37" customFormat="1" ht="19" hidden="1">
+      <c r="A384" s="91" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B384" s="91" t="s">
+        <v>597</v>
+      </c>
+      <c r="C384" s="93" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D384" s="93"/>
+      <c r="E384" s="93"/>
+      <c r="F384" s="93"/>
+      <c r="G384" s="93"/>
+      <c r="H384" s="93"/>
+      <c r="I384" s="93"/>
+      <c r="J384" s="93"/>
+      <c r="K384" s="93"/>
+      <c r="L384" s="93"/>
+      <c r="M384" s="93"/>
+      <c r="N384" s="93"/>
+      <c r="O384" s="93"/>
+      <c r="P384" s="93"/>
+      <c r="Q384" s="94">
+        <v>41548</v>
+      </c>
+      <c r="R384" s="93"/>
+      <c r="S384" s="97" t="s">
+        <v>230</v>
+      </c>
+      <c r="T384" s="93"/>
+      <c r="U384" s="97" t="s">
+        <v>1061</v>
+      </c>
+      <c r="V384" s="93"/>
+      <c r="W384" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X384" s="93"/>
+      <c r="Y384" s="93"/>
+      <c r="Z384" s="93"/>
+      <c r="AA384" s="93"/>
+      <c r="AB384" s="93"/>
+      <c r="AC384" s="93"/>
+      <c r="AD384" s="93"/>
+      <c r="AE384" s="93"/>
+      <c r="AF384" s="93"/>
+      <c r="AG384" s="93"/>
+      <c r="AH384" s="93"/>
+      <c r="AI384" s="93"/>
+    </row>
+    <row r="385" spans="1:35" customFormat="1" hidden="1">
+      <c r="A385" s="91" t="s">
+        <v>357</v>
+      </c>
+      <c r="B385" s="91" t="s">
+        <v>597</v>
+      </c>
+      <c r="C385" s="93" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D385" s="93"/>
+      <c r="E385" s="93"/>
+      <c r="F385" s="93"/>
+      <c r="G385" s="93"/>
+      <c r="H385" s="93"/>
+      <c r="I385" s="93"/>
+      <c r="J385" s="93"/>
+      <c r="K385" s="93"/>
+      <c r="L385" s="93"/>
+      <c r="M385" s="93"/>
+      <c r="N385" s="93"/>
+      <c r="O385" s="93"/>
+      <c r="P385" s="93"/>
+      <c r="Q385" s="93"/>
+      <c r="R385" s="93"/>
+      <c r="S385" s="93"/>
+      <c r="T385" s="93"/>
+      <c r="U385" s="93"/>
+      <c r="V385" s="93"/>
+      <c r="W385" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X385" s="93"/>
+      <c r="Y385" s="93"/>
+      <c r="Z385" s="93"/>
+      <c r="AA385" s="93"/>
+      <c r="AB385" s="93"/>
+      <c r="AC385" s="93"/>
+      <c r="AD385" s="93"/>
+      <c r="AE385" s="93"/>
+      <c r="AF385" s="93"/>
+      <c r="AG385" s="93"/>
+      <c r="AH385" s="93"/>
+      <c r="AI385" s="93"/>
+    </row>
+    <row r="386" spans="1:35" customFormat="1" ht="19">
+      <c r="A386" s="91" t="s">
+        <v>385</v>
+      </c>
+      <c r="B386" s="91">
+        <v>1</v>
+      </c>
+      <c r="C386" s="92" t="s">
+        <v>386</v>
+      </c>
+      <c r="D386" s="93"/>
+      <c r="E386" s="93"/>
+      <c r="F386" s="93"/>
+      <c r="G386" s="93"/>
+      <c r="H386" s="93"/>
+      <c r="I386" s="93"/>
+      <c r="J386" s="93"/>
+      <c r="K386" s="93"/>
+      <c r="L386" s="93"/>
+      <c r="M386" s="93"/>
+      <c r="N386" s="93"/>
+      <c r="O386" s="93"/>
+      <c r="P386" s="91" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Q386" s="94">
+        <v>41214</v>
+      </c>
+      <c r="R386" s="93"/>
+      <c r="S386" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="T386" s="93"/>
+      <c r="U386" s="93" t="s">
+        <v>388</v>
+      </c>
+      <c r="V386" s="93"/>
+      <c r="W386" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X386" s="93"/>
+      <c r="Y386" s="93"/>
+      <c r="Z386" s="93"/>
+      <c r="AA386" s="93"/>
+      <c r="AB386" s="93"/>
+      <c r="AC386" s="93"/>
+      <c r="AD386" s="93"/>
+      <c r="AE386" s="93"/>
+      <c r="AF386" s="93"/>
+      <c r="AG386" s="93">
+        <v>1</v>
+      </c>
+      <c r="AH386" s="93"/>
+      <c r="AI386" s="93"/>
+    </row>
+    <row r="387" spans="1:35" customFormat="1" ht="19" hidden="1">
+      <c r="A387" s="96"/>
+      <c r="B387" s="96">
+        <v>1</v>
+      </c>
+      <c r="C387" s="1"/>
+      <c r="Q387" s="94" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="388" spans="1:35" customFormat="1" ht="23">
+      <c r="A388" s="91" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B388" s="91">
+        <v>1</v>
+      </c>
+      <c r="C388" s="93" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D388" s="93"/>
+      <c r="E388" s="93"/>
+      <c r="F388" s="93"/>
+      <c r="G388" s="93"/>
+      <c r="H388" s="93"/>
+      <c r="I388" s="93"/>
+      <c r="J388" s="93"/>
+      <c r="K388" s="93"/>
+      <c r="L388" s="93"/>
+      <c r="M388" s="93"/>
+      <c r="N388" s="93"/>
+      <c r="O388" s="93"/>
+      <c r="P388" s="93"/>
+      <c r="Q388" s="94">
+        <v>41091</v>
+      </c>
+      <c r="R388" s="93"/>
+      <c r="S388" s="93" t="s">
+        <v>1064</v>
+      </c>
+      <c r="T388" s="93"/>
+      <c r="U388" s="95" t="s">
+        <v>1065</v>
+      </c>
+      <c r="V388" s="93"/>
+      <c r="W388" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X388" s="93"/>
+      <c r="Y388" s="93"/>
+      <c r="Z388" s="93"/>
+      <c r="AA388" s="93"/>
+      <c r="AB388" s="93"/>
+      <c r="AC388" s="93">
+        <v>1</v>
+      </c>
+      <c r="AD388" s="93"/>
+      <c r="AE388" s="93"/>
+      <c r="AF388" s="93"/>
+      <c r="AG388" s="93"/>
+      <c r="AH388" s="93"/>
+      <c r="AI388" s="93"/>
+    </row>
+    <row r="389" spans="1:35" customFormat="1" ht="23">
+      <c r="A389" s="91" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B389" s="91">
+        <v>1</v>
+      </c>
+      <c r="C389" s="93" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D389" s="93"/>
+      <c r="E389" s="93"/>
+      <c r="F389" s="93"/>
+      <c r="G389" s="93"/>
+      <c r="H389" s="93"/>
+      <c r="I389" s="93"/>
+      <c r="J389" s="93"/>
+      <c r="K389" s="93"/>
+      <c r="L389" s="93"/>
+      <c r="M389" s="93"/>
+      <c r="N389" s="93"/>
+      <c r="O389" s="93"/>
+      <c r="P389" s="93"/>
+      <c r="Q389" s="94">
+        <v>42064</v>
+      </c>
+      <c r="R389" s="93"/>
+      <c r="S389" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="T389" s="93"/>
+      <c r="U389" s="95" t="s">
+        <v>1067</v>
+      </c>
+      <c r="V389" s="93"/>
+      <c r="W389" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X389" s="93"/>
+      <c r="Y389" s="93"/>
+      <c r="Z389" s="93"/>
+      <c r="AA389" s="93"/>
+      <c r="AB389" s="93"/>
+      <c r="AC389" s="93"/>
+      <c r="AD389" s="93"/>
+      <c r="AE389" s="93"/>
+      <c r="AF389" s="93"/>
+      <c r="AG389" s="93">
+        <v>1</v>
+      </c>
+      <c r="AH389" s="93"/>
+      <c r="AI389" s="93"/>
+    </row>
+    <row r="390" spans="1:35" customFormat="1" ht="23" hidden="1">
+      <c r="A390" s="96"/>
+      <c r="B390" s="96">
+        <v>1</v>
+      </c>
+      <c r="Q390" s="94" t="s">
+        <v>430</v>
+      </c>
+      <c r="U390" s="95"/>
+    </row>
+    <row r="391" spans="1:35" customFormat="1" ht="23" hidden="1">
+      <c r="A391" s="91" t="s">
+        <v>453</v>
+      </c>
+      <c r="B391" s="91" t="s">
+        <v>597</v>
+      </c>
+      <c r="C391" s="92" t="s">
+        <v>454</v>
+      </c>
+      <c r="D391" s="93"/>
+      <c r="E391" s="93"/>
+      <c r="F391" s="93"/>
+      <c r="G391" s="93"/>
+      <c r="H391" s="93"/>
+      <c r="I391" s="93"/>
+      <c r="J391" s="93"/>
+      <c r="K391" s="93"/>
+      <c r="L391" s="93"/>
+      <c r="M391" s="93"/>
+      <c r="N391" s="93"/>
+      <c r="O391" s="93"/>
+      <c r="P391" s="93"/>
+      <c r="Q391" s="94">
+        <v>40452</v>
+      </c>
+      <c r="R391" s="93"/>
+      <c r="S391" s="95" t="s">
+        <v>903</v>
+      </c>
+      <c r="T391" s="93"/>
+      <c r="U391" s="95" t="s">
+        <v>456</v>
+      </c>
+      <c r="V391" s="93"/>
+      <c r="W391" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X391" s="93"/>
+      <c r="Y391" s="93"/>
+      <c r="Z391" s="93"/>
+      <c r="AA391" s="93"/>
+      <c r="AB391" s="93"/>
+      <c r="AC391" s="93"/>
+      <c r="AD391" s="93"/>
+      <c r="AE391" s="93"/>
+      <c r="AF391" s="93"/>
+      <c r="AG391" s="93">
+        <v>1</v>
+      </c>
+      <c r="AH391" s="93"/>
+      <c r="AI391" s="93"/>
+    </row>
+    <row r="392" spans="1:35" customFormat="1" ht="23" hidden="1">
+      <c r="A392" s="96"/>
+      <c r="B392" s="96" t="s">
+        <v>597</v>
+      </c>
+      <c r="C392" s="1"/>
+      <c r="Q392" s="94" t="s">
+        <v>1068</v>
+      </c>
+      <c r="S392" s="95"/>
+      <c r="U392" s="95"/>
+    </row>
+    <row r="393" spans="1:35" customFormat="1" ht="23">
+      <c r="A393" s="91" t="s">
+        <v>626</v>
+      </c>
+      <c r="B393" s="91">
+        <v>1</v>
+      </c>
+      <c r="C393" s="92" t="s">
+        <v>627</v>
+      </c>
+      <c r="D393" s="93"/>
+      <c r="E393" s="93"/>
+      <c r="F393" s="93"/>
+      <c r="G393" s="93"/>
+      <c r="H393" s="93"/>
+      <c r="I393" s="93"/>
+      <c r="J393" s="93"/>
+      <c r="K393" s="93"/>
+      <c r="L393" s="93"/>
+      <c r="M393" s="93"/>
+      <c r="N393" s="93"/>
+      <c r="O393" s="93"/>
+      <c r="P393" s="93"/>
+      <c r="Q393" s="94">
+        <v>39722</v>
+      </c>
+      <c r="R393" s="93"/>
+      <c r="S393" s="93" t="s">
+        <v>1069</v>
+      </c>
+      <c r="T393" s="93"/>
+      <c r="U393" s="95" t="s">
+        <v>1070</v>
+      </c>
+      <c r="V393" s="93"/>
+      <c r="W393" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X393" s="93"/>
+      <c r="Y393" s="93"/>
+      <c r="Z393" s="93"/>
+      <c r="AA393" s="93"/>
+      <c r="AB393" s="93"/>
+      <c r="AC393" s="93"/>
+      <c r="AD393" s="93"/>
+      <c r="AE393" s="93"/>
+      <c r="AF393" s="93"/>
+      <c r="AG393" s="93">
+        <v>1</v>
+      </c>
+      <c r="AH393" s="93"/>
+      <c r="AI393" s="93"/>
+    </row>
+    <row r="394" spans="1:35" customFormat="1" ht="23" hidden="1">
+      <c r="A394" s="96"/>
+      <c r="B394" s="96">
+        <v>1</v>
+      </c>
+      <c r="C394" s="1"/>
+      <c r="Q394" s="94" t="s">
+        <v>1068</v>
+      </c>
+      <c r="U394" s="95"/>
+    </row>
+    <row r="395" spans="1:35" customFormat="1" ht="23" hidden="1">
+      <c r="A395" s="91" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B395" s="91" t="s">
+        <v>597</v>
+      </c>
+      <c r="C395" s="93" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D395" s="93"/>
+      <c r="E395" s="93"/>
+      <c r="F395" s="93"/>
+      <c r="G395" s="93"/>
+      <c r="H395" s="93"/>
+      <c r="I395" s="93"/>
+      <c r="J395" s="93"/>
+      <c r="K395" s="93"/>
+      <c r="L395" s="93"/>
+      <c r="M395" s="93"/>
+      <c r="N395" s="93"/>
+      <c r="O395" s="93"/>
+      <c r="P395" s="93"/>
+      <c r="Q395" s="94"/>
+      <c r="R395" s="93"/>
+      <c r="S395" s="93"/>
+      <c r="T395" s="93"/>
+      <c r="U395" s="95"/>
+      <c r="V395" s="93"/>
+      <c r="W395" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X395" s="93"/>
+      <c r="Y395" s="93"/>
+      <c r="Z395" s="93"/>
+      <c r="AA395" s="93"/>
+      <c r="AB395" s="93"/>
+      <c r="AC395" s="93"/>
+      <c r="AD395" s="93"/>
+      <c r="AE395" s="93"/>
+      <c r="AF395" s="93"/>
+      <c r="AG395" s="93"/>
+      <c r="AH395" s="93"/>
+      <c r="AI395" s="93"/>
+    </row>
+    <row r="396" spans="1:35" customFormat="1" ht="23">
+      <c r="A396" s="91" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B396" s="91">
+        <v>1</v>
+      </c>
+      <c r="C396" s="93" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D396" s="93"/>
+      <c r="E396" s="93"/>
+      <c r="F396" s="93"/>
+      <c r="G396" s="93"/>
+      <c r="H396" s="93"/>
+      <c r="I396" s="93"/>
+      <c r="J396" s="93"/>
+      <c r="K396" s="93"/>
+      <c r="L396" s="93"/>
+      <c r="M396" s="93"/>
+      <c r="N396" s="93"/>
+      <c r="O396" s="93"/>
+      <c r="P396" s="93"/>
+      <c r="Q396" s="94">
+        <v>40087</v>
+      </c>
+      <c r="R396" s="93"/>
+      <c r="S396" s="93" t="s">
+        <v>1073</v>
+      </c>
+      <c r="T396" s="93"/>
+      <c r="U396" s="95" t="s">
+        <v>1074</v>
+      </c>
+      <c r="V396" s="93"/>
+      <c r="W396" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X396" s="93"/>
+      <c r="Y396" s="93"/>
+      <c r="Z396" s="93"/>
+      <c r="AA396" s="93"/>
+      <c r="AB396" s="93"/>
+      <c r="AC396" s="93"/>
+      <c r="AD396" s="93"/>
+      <c r="AE396" s="93"/>
+      <c r="AF396" s="93"/>
+      <c r="AG396" s="93">
+        <v>1</v>
+      </c>
+      <c r="AH396" s="93"/>
+      <c r="AI396" s="93"/>
+    </row>
+    <row r="397" spans="1:35" customFormat="1" hidden="1">
+      <c r="A397" s="96"/>
+      <c r="B397" s="96">
+        <v>1</v>
+      </c>
+      <c r="Q397" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="398" spans="1:35" customFormat="1" ht="23">
+      <c r="A398" s="91" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B398" s="91">
+        <v>1</v>
+      </c>
+      <c r="C398" s="93" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D398" s="93"/>
+      <c r="E398" s="93"/>
+      <c r="F398" s="93"/>
+      <c r="G398" s="93"/>
+      <c r="H398" s="93"/>
+      <c r="I398" s="93"/>
+      <c r="J398" s="93"/>
+      <c r="K398" s="93"/>
+      <c r="L398" s="93"/>
+      <c r="M398" s="93"/>
+      <c r="N398" s="93"/>
+      <c r="O398" s="93"/>
+      <c r="P398" s="93"/>
+      <c r="Q398" s="107">
+        <v>42262</v>
+      </c>
+      <c r="R398" s="93"/>
+      <c r="S398" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="T398" s="93"/>
+      <c r="U398" s="95" t="s">
+        <v>1076</v>
+      </c>
+      <c r="V398" s="93"/>
+      <c r="W398" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X398" s="93"/>
+      <c r="Y398" s="93"/>
+      <c r="Z398" s="93"/>
+      <c r="AA398" s="93"/>
+      <c r="AB398" s="93"/>
+      <c r="AC398" s="93">
+        <v>1</v>
+      </c>
+      <c r="AD398" s="93"/>
+      <c r="AE398" s="93"/>
+      <c r="AF398" s="93"/>
+      <c r="AG398" s="93"/>
+      <c r="AH398" s="93"/>
+      <c r="AI398" s="93"/>
+    </row>
+    <row r="399" spans="1:35" customFormat="1" ht="23">
+      <c r="A399" s="91" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B399" s="91">
+        <v>1</v>
+      </c>
+      <c r="C399" s="93" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D399" s="93"/>
+      <c r="E399" s="93"/>
+      <c r="F399" s="93"/>
+      <c r="G399" s="93"/>
+      <c r="H399" s="93"/>
+      <c r="I399" s="93"/>
+      <c r="J399" s="93"/>
+      <c r="K399" s="93"/>
+      <c r="L399" s="93"/>
+      <c r="M399" s="93"/>
+      <c r="N399" s="93"/>
+      <c r="O399" s="93"/>
+      <c r="P399" s="93"/>
+      <c r="Q399" s="94">
+        <v>42522</v>
+      </c>
+      <c r="R399" s="93"/>
+      <c r="S399" s="93" t="s">
+        <v>660</v>
+      </c>
+      <c r="T399" s="93"/>
+      <c r="U399" s="95" t="s">
+        <v>1078</v>
+      </c>
+      <c r="V399" s="93"/>
+      <c r="W399" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X399" s="93"/>
+      <c r="Y399" s="93"/>
+      <c r="Z399" s="93"/>
+      <c r="AA399" s="93"/>
+      <c r="AB399" s="93"/>
+      <c r="AC399" s="93"/>
+      <c r="AD399" s="93">
+        <v>1</v>
+      </c>
+      <c r="AE399" s="93"/>
+      <c r="AF399" s="93"/>
+      <c r="AG399" s="93"/>
+      <c r="AH399" s="93"/>
+      <c r="AI399" s="93"/>
+    </row>
+    <row r="400" spans="1:35" customFormat="1" ht="23" hidden="1">
+      <c r="A400" s="96"/>
+      <c r="B400" s="96">
+        <v>1</v>
+      </c>
+      <c r="O400" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Q400" s="94">
+        <v>40118</v>
+      </c>
+      <c r="R400">
+        <v>1</v>
+      </c>
+      <c r="S400" s="93" t="s">
+        <v>660</v>
+      </c>
+      <c r="T400">
+        <v>1</v>
+      </c>
+      <c r="U400" s="95" t="s">
+        <v>1078</v>
+      </c>
+      <c r="V400">
+        <v>1</v>
+      </c>
+      <c r="W400">
+        <v>1</v>
+      </c>
+      <c r="X400" s="97" t="s">
+        <v>1080</v>
+      </c>
+      <c r="Y400" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:35" customFormat="1" ht="19" hidden="1">
+      <c r="A401" s="93" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B401" s="93" t="s">
+        <v>597</v>
+      </c>
+      <c r="C401" s="93" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D401" s="93"/>
+      <c r="E401" s="93"/>
+      <c r="F401" s="93"/>
+      <c r="G401" s="93"/>
+      <c r="H401" s="93"/>
+      <c r="I401" s="93"/>
+      <c r="J401" s="93"/>
+      <c r="K401" s="93"/>
+      <c r="L401" s="93"/>
+      <c r="M401" s="93"/>
+      <c r="N401" s="93"/>
+      <c r="O401" s="93"/>
+      <c r="P401" s="93"/>
+      <c r="Q401" s="94">
+        <v>40787</v>
+      </c>
+      <c r="R401" s="93"/>
+      <c r="S401" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="T401" s="93"/>
+      <c r="U401" s="98" t="s">
+        <v>1082</v>
+      </c>
+      <c r="V401" s="93"/>
+      <c r="W401" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X401" s="93"/>
+      <c r="Y401" s="93"/>
+      <c r="Z401" s="93"/>
+      <c r="AA401" s="93"/>
+      <c r="AB401" s="93"/>
+      <c r="AC401" s="93">
+        <v>1</v>
+      </c>
+      <c r="AD401" s="93"/>
+      <c r="AE401" s="93"/>
+      <c r="AF401" s="93"/>
+      <c r="AG401" s="93"/>
+      <c r="AH401" s="93"/>
+      <c r="AI401" s="93"/>
+    </row>
+    <row r="402" spans="1:35" customFormat="1" ht="23">
+      <c r="A402" s="93" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B402" s="93">
+        <v>1</v>
+      </c>
+      <c r="C402" s="93" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D402" s="93"/>
+      <c r="E402" s="93"/>
+      <c r="F402" s="93"/>
+      <c r="G402" s="93"/>
+      <c r="H402" s="93"/>
+      <c r="I402" s="93"/>
+      <c r="J402" s="93"/>
+      <c r="K402" s="93"/>
+      <c r="L402" s="93"/>
+      <c r="M402" s="93"/>
+      <c r="N402" s="93"/>
+      <c r="O402" s="93"/>
+      <c r="P402" s="93"/>
+      <c r="Q402" s="107">
+        <v>42908</v>
+      </c>
+      <c r="R402" s="93"/>
+      <c r="S402" s="93" t="s">
+        <v>603</v>
+      </c>
+      <c r="T402" s="93"/>
+      <c r="U402" s="95" t="s">
+        <v>1084</v>
+      </c>
+      <c r="V402" s="93"/>
+      <c r="W402" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X402" s="93"/>
+      <c r="Y402" s="93"/>
+      <c r="Z402" s="93"/>
+      <c r="AA402" s="93"/>
+      <c r="AB402" s="93"/>
+      <c r="AC402" s="93"/>
+      <c r="AD402" s="93"/>
+      <c r="AE402" s="93"/>
+      <c r="AF402" s="93"/>
+      <c r="AG402" s="93">
+        <v>1</v>
+      </c>
+      <c r="AH402" s="93"/>
+      <c r="AI402" s="93"/>
+    </row>
+    <row r="403" spans="1:35" customFormat="1" ht="23" hidden="1">
+      <c r="B403">
+        <v>1</v>
+      </c>
+      <c r="Q403" s="114" t="s">
+        <v>1068</v>
+      </c>
+      <c r="U403" s="95"/>
+    </row>
+    <row r="404" spans="1:35" customFormat="1" ht="23" hidden="1">
+      <c r="A404" s="93" t="s">
+        <v>765</v>
+      </c>
+      <c r="B404" s="93" t="s">
+        <v>597</v>
+      </c>
+      <c r="C404" s="92" t="s">
+        <v>766</v>
+      </c>
+      <c r="D404" s="93"/>
+      <c r="E404" s="93"/>
+      <c r="F404" s="93"/>
+      <c r="G404" s="93"/>
+      <c r="H404" s="93"/>
+      <c r="I404" s="93"/>
+      <c r="J404" s="93"/>
+      <c r="K404" s="93"/>
+      <c r="L404" s="93"/>
+      <c r="M404" s="93"/>
+      <c r="N404" s="93"/>
+      <c r="O404" s="93"/>
+      <c r="P404" s="93"/>
+      <c r="Q404" s="107">
+        <v>41018</v>
+      </c>
+      <c r="R404" s="93"/>
+      <c r="S404" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="T404" s="93"/>
+      <c r="U404" s="95" t="s">
+        <v>1085</v>
+      </c>
+      <c r="V404" s="93"/>
+      <c r="W404" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X404" s="93"/>
+      <c r="Y404" s="93"/>
+      <c r="Z404" s="93"/>
+      <c r="AA404" s="93"/>
+      <c r="AB404" s="93"/>
+      <c r="AC404" s="93"/>
+      <c r="AD404" s="93"/>
+      <c r="AE404" s="93"/>
+      <c r="AF404" s="93"/>
+      <c r="AG404" s="93"/>
+      <c r="AH404" s="93"/>
+      <c r="AI404" s="93"/>
+    </row>
+    <row r="405" spans="1:35" customFormat="1" ht="23">
+      <c r="A405" s="93" t="s">
+        <v>768</v>
+      </c>
+      <c r="B405" s="93">
+        <v>1</v>
+      </c>
+      <c r="C405" s="93" t="s">
+        <v>769</v>
+      </c>
+      <c r="D405" s="93"/>
+      <c r="E405" s="93"/>
+      <c r="F405" s="93"/>
+      <c r="G405" s="93"/>
+      <c r="H405" s="93"/>
+      <c r="I405" s="93"/>
+      <c r="J405" s="93"/>
+      <c r="K405" s="93"/>
+      <c r="L405" s="93"/>
+      <c r="M405" s="93"/>
+      <c r="N405" s="93"/>
+      <c r="O405" s="93"/>
+      <c r="P405" s="93"/>
+      <c r="Q405" s="94">
+        <v>41244</v>
+      </c>
+      <c r="R405" s="93"/>
+      <c r="S405" s="93" t="s">
+        <v>1086</v>
+      </c>
+      <c r="T405" s="93"/>
+      <c r="U405" s="95" t="s">
+        <v>1087</v>
+      </c>
+      <c r="V405" s="93"/>
+      <c r="W405" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X405" s="93"/>
+      <c r="Y405" s="93"/>
+      <c r="Z405" s="93"/>
+      <c r="AA405" s="93"/>
+      <c r="AB405" s="93"/>
+      <c r="AC405" s="93"/>
+      <c r="AD405" s="93"/>
+      <c r="AE405" s="93"/>
+      <c r="AF405" s="93"/>
+      <c r="AG405" s="93">
+        <v>1</v>
+      </c>
+      <c r="AH405" s="93"/>
+      <c r="AI405" s="93"/>
+    </row>
+    <row r="406" spans="1:35" customFormat="1" ht="23" hidden="1">
+      <c r="B406">
+        <v>1</v>
+      </c>
+      <c r="Q406" s="94" t="s">
+        <v>430</v>
+      </c>
+      <c r="U406" s="95"/>
+    </row>
+    <row r="407" spans="1:35" customFormat="1" ht="19">
+      <c r="A407" s="93" t="s">
+        <v>776</v>
+      </c>
+      <c r="B407" s="93">
+        <v>1</v>
+      </c>
+      <c r="C407" s="93" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D407" s="93"/>
+      <c r="E407" s="93"/>
+      <c r="F407" s="93"/>
+      <c r="G407" s="93"/>
+      <c r="H407" s="93"/>
+      <c r="I407" s="93"/>
+      <c r="J407" s="93"/>
+      <c r="K407" s="93"/>
+      <c r="L407" s="93"/>
+      <c r="M407" s="93"/>
+      <c r="N407" s="93"/>
+      <c r="O407" s="93"/>
+      <c r="P407" s="93"/>
+      <c r="Q407" s="94">
+        <v>41334</v>
+      </c>
+      <c r="R407" s="93"/>
+      <c r="S407" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="T407" s="93"/>
+      <c r="U407" s="98" t="s">
+        <v>1089</v>
+      </c>
+      <c r="V407" s="93"/>
+      <c r="W407" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X407" s="93"/>
+      <c r="Y407" s="93"/>
+      <c r="Z407" s="93"/>
+      <c r="AA407" s="93"/>
+      <c r="AB407" s="93"/>
+      <c r="AC407" s="93"/>
+      <c r="AD407" s="93"/>
+      <c r="AE407" s="93"/>
+      <c r="AF407" s="93"/>
+      <c r="AG407" s="93">
+        <v>1</v>
+      </c>
+      <c r="AH407" s="93"/>
+      <c r="AI407" s="93"/>
+    </row>
+    <row r="408" spans="1:35" customFormat="1" ht="19" hidden="1">
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="Q408" s="94" t="s">
+        <v>430</v>
+      </c>
+      <c r="U408" s="98"/>
+    </row>
+    <row r="409" spans="1:35" customFormat="1" ht="23">
+      <c r="A409" s="93" t="s">
+        <v>782</v>
+      </c>
+      <c r="B409" s="93">
+        <v>1</v>
+      </c>
+      <c r="C409" s="93" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D409" s="93"/>
+      <c r="E409" s="93"/>
+      <c r="F409" s="93"/>
+      <c r="G409" s="93"/>
+      <c r="H409" s="93"/>
+      <c r="I409" s="93"/>
+      <c r="J409" s="93"/>
+      <c r="K409" s="93"/>
+      <c r="L409" s="93"/>
+      <c r="M409" s="93"/>
+      <c r="N409" s="93"/>
+      <c r="O409" s="93"/>
+      <c r="P409" s="93"/>
+      <c r="Q409" s="94">
+        <v>40725</v>
+      </c>
+      <c r="R409" s="93"/>
+      <c r="S409" s="93" t="s">
+        <v>1086</v>
+      </c>
+      <c r="T409" s="93"/>
+      <c r="U409" s="133" t="s">
+        <v>1091</v>
+      </c>
+      <c r="V409" s="93"/>
+      <c r="W409" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X409" s="93"/>
+      <c r="Y409" s="93"/>
+      <c r="Z409" s="93"/>
+      <c r="AA409" s="93"/>
+      <c r="AB409" s="93"/>
+      <c r="AC409" s="93"/>
+      <c r="AD409" s="93"/>
+      <c r="AE409" s="93"/>
+      <c r="AF409" s="93"/>
+      <c r="AG409" s="93">
+        <v>1</v>
+      </c>
+      <c r="AH409" s="93"/>
+      <c r="AI409" s="93"/>
+    </row>
+    <row r="410" spans="1:35" customFormat="1" ht="23" hidden="1">
+      <c r="B410">
+        <v>1</v>
+      </c>
+      <c r="Q410" s="94" t="s">
+        <v>430</v>
+      </c>
+      <c r="U410" s="133"/>
+    </row>
+    <row r="411" spans="1:35" customFormat="1" ht="19">
+      <c r="A411" s="91" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B411" s="91">
+        <v>1</v>
+      </c>
+      <c r="C411" s="93" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D411" s="93"/>
+      <c r="E411" s="93"/>
+      <c r="F411" s="93"/>
+      <c r="G411" s="93"/>
+      <c r="H411" s="93"/>
+      <c r="I411" s="93"/>
+      <c r="J411" s="93"/>
+      <c r="K411" s="93"/>
+      <c r="L411" s="93"/>
+      <c r="M411" s="93"/>
+      <c r="N411" s="93"/>
+      <c r="O411" s="93"/>
+      <c r="P411" s="93"/>
+      <c r="Q411" s="94">
+        <v>39448</v>
+      </c>
+      <c r="R411" s="93"/>
+      <c r="S411" s="93" t="s">
+        <v>1086</v>
+      </c>
+      <c r="T411" s="93"/>
+      <c r="U411" s="98" t="s">
+        <v>1093</v>
+      </c>
+      <c r="V411" s="93"/>
+      <c r="W411" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X411" s="93"/>
+      <c r="Y411" s="93"/>
+      <c r="Z411" s="93"/>
+      <c r="AA411" s="93"/>
+      <c r="AB411" s="93"/>
+      <c r="AC411" s="93">
+        <v>1</v>
+      </c>
+      <c r="AD411" s="93"/>
+      <c r="AE411" s="93"/>
+      <c r="AF411" s="93"/>
+      <c r="AG411" s="93"/>
+      <c r="AH411" s="93"/>
+      <c r="AI411" s="93"/>
+    </row>
+    <row r="412" spans="1:35" customFormat="1" ht="23">
+      <c r="A412" s="93" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B412" s="93">
+        <v>1</v>
+      </c>
+      <c r="C412" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D412" s="93"/>
+      <c r="E412" s="93"/>
+      <c r="F412" s="93"/>
+      <c r="G412" s="93"/>
+      <c r="H412" s="93"/>
+      <c r="I412" s="93"/>
+      <c r="J412" s="93"/>
+      <c r="K412" s="93"/>
+      <c r="L412" s="93"/>
+      <c r="M412" s="93"/>
+      <c r="N412" s="93"/>
+      <c r="O412" s="93"/>
+      <c r="P412" s="93"/>
+      <c r="Q412" s="107">
+        <v>42824</v>
+      </c>
+      <c r="R412" s="93"/>
+      <c r="S412" s="95" t="s">
+        <v>876</v>
+      </c>
+      <c r="T412" s="93"/>
+      <c r="U412" s="97" t="s">
+        <v>1095</v>
+      </c>
+      <c r="V412" s="93"/>
+      <c r="W412" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X412" s="93"/>
+      <c r="Y412" s="93"/>
+      <c r="Z412" s="93"/>
+      <c r="AA412" s="93"/>
+      <c r="AB412" s="93"/>
+      <c r="AC412" s="93">
+        <v>1</v>
+      </c>
+      <c r="AD412" s="93"/>
+      <c r="AE412" s="93"/>
+      <c r="AF412" s="93"/>
+      <c r="AG412" s="93"/>
+      <c r="AH412" s="93"/>
+      <c r="AI412" s="93"/>
+    </row>
+    <row r="413" spans="1:35" customFormat="1" ht="19" hidden="1">
+      <c r="B413">
+        <v>1</v>
+      </c>
+      <c r="O413" t="s">
+        <v>878</v>
+      </c>
+      <c r="P413" t="s">
+        <v>1096</v>
+      </c>
+      <c r="Q413" s="110">
+        <v>40087</v>
+      </c>
+      <c r="R413">
+        <v>1</v>
+      </c>
+      <c r="S413" s="97" t="s">
+        <v>880</v>
+      </c>
+      <c r="T413">
+        <v>1</v>
+      </c>
+      <c r="U413" s="97" t="s">
+        <v>1097</v>
+      </c>
+      <c r="V413">
+        <v>0</v>
+      </c>
+      <c r="W413" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:35" customFormat="1" ht="19" hidden="1">
+      <c r="B414">
+        <v>1</v>
+      </c>
+      <c r="O414" t="s">
+        <v>1098</v>
+      </c>
+      <c r="Q414" s="114">
+        <v>40310</v>
+      </c>
+      <c r="R414">
+        <v>1</v>
+      </c>
+      <c r="S414" s="97" t="s">
+        <v>880</v>
+      </c>
+      <c r="T414">
+        <v>1</v>
+      </c>
+      <c r="U414" s="97" t="s">
+        <v>1097</v>
+      </c>
+      <c r="V414">
+        <v>0</v>
+      </c>
+      <c r="W414" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:35" customFormat="1" ht="23" hidden="1">
+      <c r="A415" s="93" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B415" s="93" t="s">
+        <v>597</v>
+      </c>
+      <c r="C415" s="93" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D415" s="93"/>
+      <c r="E415" s="93"/>
+      <c r="F415" s="93"/>
+      <c r="G415" s="93"/>
+      <c r="H415" s="93"/>
+      <c r="I415" s="93"/>
+      <c r="J415" s="93"/>
+      <c r="K415" s="93"/>
+      <c r="L415" s="93"/>
+      <c r="M415" s="93"/>
+      <c r="N415" s="93"/>
+      <c r="O415" s="93"/>
+      <c r="P415" s="93"/>
+      <c r="Q415" s="94">
+        <v>40544</v>
+      </c>
+      <c r="R415" s="93"/>
+      <c r="S415" s="95" t="s">
+        <v>1100</v>
+      </c>
+      <c r="T415" s="93"/>
+      <c r="U415" s="97" t="s">
+        <v>1101</v>
+      </c>
+      <c r="V415" s="93"/>
+      <c r="W415" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="X415" s="93"/>
+      <c r="Y415" s="93"/>
+      <c r="Z415" s="93"/>
+      <c r="AA415" s="93"/>
+      <c r="AB415" s="93"/>
+      <c r="AC415" s="93"/>
+      <c r="AD415" s="93"/>
+      <c r="AE415" s="93"/>
+      <c r="AF415" s="93"/>
+      <c r="AG415" s="93"/>
+      <c r="AH415" s="93"/>
+      <c r="AI415" s="93"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AK379" xr:uid="{ED2F0353-714E-C24F-9141-2C52DBDF8C59}"/>
+  <autoFilter ref="A1:AK415" xr:uid="{ED2F0353-714E-C24F-9141-2C52DBDF8C59}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="22">
+      <filters>
+        <filter val="p3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="C13" r:id="rId1" display="https://doi.org/10.1212/wnl.0000000000004209" xr:uid="{E445371E-3F4A-1F4A-ADE4-3703F334DC94}"/>
     <hyperlink ref="C11" r:id="rId2" display="https://doi.org/10.1212/wnl.0000000000003478" xr:uid="{49733D1E-43BF-5A4F-9188-818740F4136A}"/>
@@ -21997,8 +23594,14 @@
     <hyperlink ref="O332" r:id="rId157" display="https://clinicaltrials.gov/show/NCT00676715" xr:uid="{0FB445D1-A37B-9947-963F-38B2370B4991}"/>
     <hyperlink ref="O338" r:id="rId158" display="https://clinicaltrials.gov/show/NCT00349193" xr:uid="{68A75A47-4E1A-F24A-9B64-2904D37736B2}"/>
     <hyperlink ref="C379" r:id="rId159" display="https://doi.org/10.1016/s1474-4422(18)30069-3" xr:uid="{2579BC36-4F1B-BB42-9910-132CB3C252A5}"/>
+    <hyperlink ref="C386" r:id="rId160" tooltip="Persistent link using digital object identifier" xr:uid="{93BC41AF-B147-A849-9944-5751347AAA6D}"/>
+    <hyperlink ref="C391" r:id="rId161" display="https://doi.org/10.1212/nxi.0000000000000374" xr:uid="{A76599DD-105B-C648-8BBF-DF55DC0EA90B}"/>
+    <hyperlink ref="C393" r:id="rId162" display="https://doi.org/10.1002/mds.25362" xr:uid="{FF1195A3-674A-1A41-BD4C-C60697B31C9F}"/>
+    <hyperlink ref="C404" r:id="rId163" xr:uid="{6F7EAB4A-B170-5544-8670-D22516B0E75E}"/>
+    <hyperlink ref="O382" r:id="rId164" display="https://clinicaltrials.gov/show/NCT00141661" xr:uid="{73B312ED-70E1-9A41-BC53-D7EF46D95B52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId160"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId165"/>
 </worksheet>
 </file>
--- a/Allmatching.xlsx
+++ b/Allmatching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F7C640-E6F3-AF40-8E1B-93609741E29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE8F3C5-8B11-2E49-847B-6351AFC800EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="780" windowWidth="28800" windowHeight="16440" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
+    <workbookView xWindow="13620" yWindow="800" windowWidth="28800" windowHeight="16440" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4541,14 +4541,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F0353-714E-C24F-9141-2C52DBDF8C59}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AK415"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="X370" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B409" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC289" sqref="AC289:AI412"/>
+      <selection pane="bottomRight" activeCell="C418" sqref="C418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4600,7 +4599,7 @@
       </c>
       <c r="AG1" s="4"/>
     </row>
-    <row r="2" spans="1:37" ht="85" hidden="1">
+    <row r="2" spans="1:37" ht="85">
       <c r="A2" s="9"/>
       <c r="B2" t="s">
         <v>803</v>
@@ -4761,7 +4760,7 @@
       <c r="AF3" s="20"/>
       <c r="AG3" s="20"/>
     </row>
-    <row r="4" spans="1:37" hidden="1">
+    <row r="4" spans="1:37">
       <c r="B4">
         <v>1</v>
       </c>
@@ -4815,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" hidden="1">
+    <row r="5" spans="1:37">
       <c r="B5">
         <v>1</v>
       </c>
@@ -4869,7 +4868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" hidden="1">
+    <row r="6" spans="1:37">
       <c r="B6">
         <v>1</v>
       </c>
@@ -4951,7 +4950,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:37" hidden="1">
+    <row r="8" spans="1:37">
       <c r="B8">
         <v>1</v>
       </c>
@@ -5035,7 +5034,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:37" hidden="1">
+    <row r="10" spans="1:37">
       <c r="B10">
         <v>1</v>
       </c>
@@ -5116,7 +5115,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:37" hidden="1">
+    <row r="12" spans="1:37">
       <c r="B12">
         <v>1</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:37" hidden="1">
+    <row r="14" spans="1:37">
       <c r="B14">
         <v>1</v>
       </c>
@@ -5238,7 +5237,7 @@
       </c>
       <c r="Z14" s="49"/>
     </row>
-    <row r="15" spans="1:37" hidden="1">
+    <row r="15" spans="1:37">
       <c r="B15">
         <v>1</v>
       </c>
@@ -5316,7 +5315,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:37" hidden="1">
+    <row r="16" spans="1:37">
       <c r="B16">
         <v>1</v>
       </c>
@@ -5359,7 +5358,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:35" hidden="1">
+    <row r="17" spans="1:35">
       <c r="B17">
         <v>1</v>
       </c>
@@ -5393,7 +5392,7 @@
       </c>
       <c r="Z17" s="49"/>
     </row>
-    <row r="18" spans="1:35" hidden="1">
+    <row r="18" spans="1:35">
       <c r="B18">
         <v>1</v>
       </c>
@@ -5476,7 +5475,7 @@
       <c r="AF19" s="20"/>
       <c r="AG19" s="20"/>
     </row>
-    <row r="20" spans="1:35" hidden="1">
+    <row r="20" spans="1:35">
       <c r="B20">
         <v>1</v>
       </c>
@@ -5582,7 +5581,7 @@
       <c r="AF21" s="20"/>
       <c r="AG21" s="20"/>
     </row>
-    <row r="22" spans="1:35" hidden="1">
+    <row r="22" spans="1:35">
       <c r="B22">
         <v>1</v>
       </c>
@@ -5632,7 +5631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:35" hidden="1">
+    <row r="23" spans="1:35">
       <c r="B23">
         <v>1</v>
       </c>
@@ -5698,7 +5697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:35" hidden="1">
+    <row r="25" spans="1:35">
       <c r="B25">
         <v>1</v>
       </c>
@@ -5798,7 +5797,7 @@
       <c r="AF26" s="20"/>
       <c r="AG26" s="20"/>
     </row>
-    <row r="27" spans="1:35" hidden="1">
+    <row r="27" spans="1:35">
       <c r="B27">
         <v>1</v>
       </c>
@@ -5904,7 +5903,7 @@
       <c r="AF28" s="20"/>
       <c r="AG28" s="20"/>
     </row>
-    <row r="29" spans="1:35" hidden="1">
+    <row r="29" spans="1:35">
       <c r="B29">
         <v>1</v>
       </c>
@@ -6012,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:35" hidden="1">
+    <row r="31" spans="1:35">
       <c r="B31">
         <v>1</v>
       </c>
@@ -6121,7 +6120,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:35" hidden="1">
+    <row r="33" spans="1:35">
       <c r="B33">
         <v>1</v>
       </c>
@@ -6149,7 +6148,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:35" hidden="1">
+    <row r="34" spans="1:35">
       <c r="B34">
         <v>1</v>
       </c>
@@ -6224,7 +6223,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:35" hidden="1">
+    <row r="36" spans="1:35">
       <c r="B36">
         <v>1</v>
       </c>
@@ -6244,7 +6243,7 @@
       </c>
       <c r="Z36" s="49"/>
     </row>
-    <row r="37" spans="1:35" hidden="1">
+    <row r="37" spans="1:35">
       <c r="B37">
         <v>1</v>
       </c>
@@ -6264,7 +6263,7 @@
       </c>
       <c r="Z37" s="49"/>
     </row>
-    <row r="38" spans="1:35" hidden="1">
+    <row r="38" spans="1:35">
       <c r="B38">
         <v>1</v>
       </c>
@@ -6336,7 +6335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:35" hidden="1">
+    <row r="40" spans="1:35">
       <c r="B40">
         <v>1</v>
       </c>
@@ -6430,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:35" hidden="1">
+    <row r="42" spans="1:35">
       <c r="B42">
         <v>1</v>
       </c>
@@ -6524,7 +6523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:35" hidden="1">
+    <row r="44" spans="1:35">
       <c r="B44">
         <v>1</v>
       </c>
@@ -6566,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:35" hidden="1">
+    <row r="45" spans="1:35">
       <c r="A45" s="20" t="s">
         <v>164</v>
       </c>
@@ -6673,7 +6672,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:35" hidden="1">
+    <row r="47" spans="1:35">
       <c r="B47">
         <v>1</v>
       </c>
@@ -6690,7 +6689,7 @@
       </c>
       <c r="Z47" s="49"/>
     </row>
-    <row r="48" spans="1:35" hidden="1">
+    <row r="48" spans="1:35">
       <c r="A48" s="20" t="s">
         <v>174</v>
       </c>
@@ -6742,7 +6741,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:35" hidden="1">
+    <row r="49" spans="1:35">
       <c r="A49" s="20" t="s">
         <v>177</v>
       </c>
@@ -6798,7 +6797,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:35" hidden="1">
+    <row r="50" spans="1:35">
       <c r="A50" s="20" t="s">
         <v>182</v>
       </c>
@@ -6905,7 +6904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:35" hidden="1">
+    <row r="52" spans="1:35">
       <c r="B52">
         <v>1</v>
       </c>
@@ -6953,7 +6952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:35" hidden="1">
+    <row r="53" spans="1:35">
       <c r="A53" s="20" t="s">
         <v>195</v>
       </c>
@@ -7005,7 +7004,7 @@
       <c r="AF53" s="20"/>
       <c r="AG53" s="20"/>
     </row>
-    <row r="54" spans="1:35" s="27" customFormat="1" hidden="1">
+    <row r="54" spans="1:35" s="27" customFormat="1">
       <c r="B54" t="s">
         <v>597</v>
       </c>
@@ -7055,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:35" s="27" customFormat="1" hidden="1">
+    <row r="55" spans="1:35" s="27" customFormat="1">
       <c r="B55" t="s">
         <v>597</v>
       </c>
@@ -7078,7 +7077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:35" s="27" customFormat="1" hidden="1">
+    <row r="56" spans="1:35" s="27" customFormat="1">
       <c r="B56" t="s">
         <v>597</v>
       </c>
@@ -7096,7 +7095,7 @@
       </c>
       <c r="Z56" s="74"/>
     </row>
-    <row r="57" spans="1:35" s="27" customFormat="1" hidden="1">
+    <row r="57" spans="1:35" s="27" customFormat="1">
       <c r="B57" t="s">
         <v>597</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:35" hidden="1">
+    <row r="59" spans="1:35">
       <c r="A59" s="20" t="s">
         <v>209</v>
       </c>
@@ -7226,7 +7225,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:35" hidden="1">
+    <row r="60" spans="1:35">
       <c r="B60">
         <v>1</v>
       </c>
@@ -7253,7 +7252,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:35" hidden="1">
+    <row r="61" spans="1:35">
       <c r="A61" s="20" t="s">
         <v>216</v>
       </c>
@@ -7304,7 +7303,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:35" hidden="1">
+    <row r="62" spans="1:35">
       <c r="A62" s="20" t="s">
         <v>220</v>
       </c>
@@ -7405,7 +7404,7 @@
       <c r="AF63" s="20"/>
       <c r="AG63" s="20"/>
     </row>
-    <row r="64" spans="1:35" hidden="1">
+    <row r="64" spans="1:35">
       <c r="A64" s="23"/>
       <c r="B64">
         <v>1</v>
@@ -7440,7 +7439,7 @@
       </c>
       <c r="Z64" s="49"/>
     </row>
-    <row r="65" spans="1:33" hidden="1">
+    <row r="65" spans="1:33">
       <c r="A65" s="23"/>
       <c r="B65">
         <v>1</v>
@@ -7513,7 +7512,7 @@
       <c r="AF66" s="20"/>
       <c r="AG66" s="20"/>
     </row>
-    <row r="67" spans="1:33" hidden="1">
+    <row r="67" spans="1:33">
       <c r="A67" s="23"/>
       <c r="B67">
         <v>1</v>
@@ -7546,7 +7545,7 @@
       <c r="U67" s="23"/>
       <c r="Z67" s="49"/>
     </row>
-    <row r="68" spans="1:33" hidden="1">
+    <row r="68" spans="1:33">
       <c r="A68" s="23"/>
       <c r="B68">
         <v>1</v>
@@ -7640,7 +7639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:33" hidden="1">
+    <row r="70" spans="1:33">
       <c r="A70" s="23"/>
       <c r="B70">
         <v>1</v>
@@ -7707,7 +7706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:33" hidden="1">
+    <row r="71" spans="1:33">
       <c r="A71" s="23"/>
       <c r="B71">
         <v>1</v>
@@ -7824,7 +7823,7 @@
       <c r="AF72" s="20"/>
       <c r="AG72" s="20"/>
     </row>
-    <row r="73" spans="1:33" hidden="1">
+    <row r="73" spans="1:33">
       <c r="A73" s="23"/>
       <c r="B73">
         <v>1</v>
@@ -7885,7 +7884,7 @@
       <c r="AF73" s="20"/>
       <c r="AG73" s="20"/>
     </row>
-    <row r="74" spans="1:33" hidden="1">
+    <row r="74" spans="1:33">
       <c r="A74" s="23"/>
       <c r="B74">
         <v>1</v>
@@ -8009,7 +8008,7 @@
       <c r="AF75" s="20"/>
       <c r="AG75" s="20"/>
     </row>
-    <row r="76" spans="1:33" hidden="1">
+    <row r="76" spans="1:33">
       <c r="A76" s="23"/>
       <c r="B76">
         <v>1</v>
@@ -8170,7 +8169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:33" hidden="1">
+    <row r="79" spans="1:33">
       <c r="A79" s="23"/>
       <c r="B79">
         <v>1</v>
@@ -8222,7 +8221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:33" hidden="1">
+    <row r="80" spans="1:33">
       <c r="A80" s="23"/>
       <c r="B80">
         <v>1</v>
@@ -8330,7 +8329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:34" hidden="1">
+    <row r="82" spans="1:34">
       <c r="A82" s="23"/>
       <c r="B82">
         <v>1</v>
@@ -8388,7 +8387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:34" hidden="1">
+    <row r="83" spans="1:34">
       <c r="A83" s="23"/>
       <c r="B83">
         <v>1</v>
@@ -8496,7 +8495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:34" hidden="1">
+    <row r="85" spans="1:34">
       <c r="A85" s="23"/>
       <c r="B85">
         <v>1</v>
@@ -8604,7 +8603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:34" hidden="1">
+    <row r="87" spans="1:34">
       <c r="A87" s="23"/>
       <c r="B87">
         <v>1</v>
@@ -8662,7 +8661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:34" hidden="1">
+    <row r="88" spans="1:34">
       <c r="A88" s="23"/>
       <c r="B88">
         <v>1</v>
@@ -8773,7 +8772,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="1:34" hidden="1">
+    <row r="90" spans="1:34">
       <c r="A90" s="23"/>
       <c r="B90">
         <v>1</v>
@@ -8831,7 +8830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:34" hidden="1">
+    <row r="91" spans="1:34">
       <c r="A91" s="23"/>
       <c r="B91">
         <v>1</v>
@@ -8889,7 +8888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:34" hidden="1">
+    <row r="92" spans="1:34">
       <c r="A92" s="46" t="s">
         <v>296</v>
       </c>
@@ -8987,7 +8986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:34" hidden="1">
+    <row r="94" spans="1:34">
       <c r="A94" s="23"/>
       <c r="B94">
         <v>1</v>
@@ -9095,7 +9094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:34" hidden="1">
+    <row r="96" spans="1:34">
       <c r="A96" s="23"/>
       <c r="B96">
         <v>1</v>
@@ -9203,7 +9202,7 @@
       <c r="AF97" s="20"/>
       <c r="AG97" s="20"/>
     </row>
-    <row r="98" spans="1:35" hidden="1">
+    <row r="98" spans="1:35">
       <c r="A98" s="23"/>
       <c r="B98">
         <v>1</v>
@@ -9237,7 +9236,7 @@
       </c>
       <c r="Z98" s="49"/>
     </row>
-    <row r="99" spans="1:35" hidden="1">
+    <row r="99" spans="1:35">
       <c r="A99" s="23"/>
       <c r="B99">
         <v>1</v>
@@ -9349,7 +9348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:35" hidden="1">
+    <row r="101" spans="1:35">
       <c r="A101" s="23"/>
       <c r="B101">
         <v>1</v>
@@ -9407,7 +9406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:35" hidden="1">
+    <row r="102" spans="1:35">
       <c r="A102" s="23"/>
       <c r="B102">
         <v>1</v>
@@ -9618,7 +9617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:35" hidden="1">
+    <row r="106" spans="1:35">
       <c r="A106" s="23"/>
       <c r="B106">
         <v>1</v>
@@ -9729,7 +9728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:35" hidden="1">
+    <row r="108" spans="1:35">
       <c r="A108" s="23"/>
       <c r="B108">
         <v>1</v>
@@ -9834,7 +9833,7 @@
       <c r="AF109" s="20"/>
       <c r="AG109" s="20"/>
     </row>
-    <row r="110" spans="1:35" hidden="1">
+    <row r="110" spans="1:35">
       <c r="A110" s="23"/>
       <c r="B110">
         <v>1</v>
@@ -9895,7 +9894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:35" hidden="1">
+    <row r="111" spans="1:35">
       <c r="A111" s="23"/>
       <c r="B111">
         <v>1</v>
@@ -9992,7 +9991,7 @@
       <c r="AF112" s="20"/>
       <c r="AG112" s="20"/>
     </row>
-    <row r="113" spans="1:36" hidden="1">
+    <row r="113" spans="1:36">
       <c r="A113" s="23"/>
       <c r="B113">
         <v>1</v>
@@ -10053,7 +10052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:36" hidden="1">
+    <row r="114" spans="1:36">
       <c r="A114" s="23"/>
       <c r="B114">
         <v>1</v>
@@ -10100,7 +10099,7 @@
       </c>
       <c r="Z114" s="49"/>
     </row>
-    <row r="115" spans="1:36" hidden="1">
+    <row r="115" spans="1:36">
       <c r="A115" s="46" t="s">
         <v>357</v>
       </c>
@@ -10198,7 +10197,7 @@
       <c r="AF116" s="20"/>
       <c r="AG116" s="20"/>
     </row>
-    <row r="117" spans="1:36" hidden="1">
+    <row r="117" spans="1:36">
       <c r="A117" s="23"/>
       <c r="B117">
         <v>1</v>
@@ -10233,7 +10232,7 @@
       </c>
       <c r="Z117" s="49"/>
     </row>
-    <row r="118" spans="1:36" hidden="1">
+    <row r="118" spans="1:36">
       <c r="A118" s="23"/>
       <c r="B118">
         <v>1</v>
@@ -10270,7 +10269,7 @@
       <c r="Q118" s="29"/>
       <c r="Z118" s="49"/>
     </row>
-    <row r="119" spans="1:36" hidden="1">
+    <row r="119" spans="1:36">
       <c r="A119" s="46" t="s">
         <v>367</v>
       </c>
@@ -10323,7 +10322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:36" hidden="1">
+    <row r="120" spans="1:36">
       <c r="A120" s="23"/>
       <c r="B120" t="s">
         <v>597</v>
@@ -10350,7 +10349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:36" hidden="1">
+    <row r="121" spans="1:36">
       <c r="A121" s="46" t="s">
         <v>372</v>
       </c>
@@ -10402,7 +10401,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="122" spans="1:36" hidden="1">
+    <row r="122" spans="1:36">
       <c r="A122" s="46" t="s">
         <v>377</v>
       </c>
@@ -10454,7 +10453,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="123" spans="1:36" hidden="1">
+    <row r="123" spans="1:36">
       <c r="A123" s="46" t="s">
         <v>381</v>
       </c>
@@ -10550,7 +10549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:36" hidden="1">
+    <row r="125" spans="1:36">
       <c r="A125" s="23"/>
       <c r="B125">
         <v>1</v>
@@ -10576,7 +10575,7 @@
       </c>
       <c r="Z125" s="49"/>
     </row>
-    <row r="126" spans="1:36" hidden="1">
+    <row r="126" spans="1:36">
       <c r="A126" s="23"/>
       <c r="B126">
         <v>1</v>
@@ -10607,7 +10606,7 @@
       </c>
       <c r="Z126" s="49"/>
     </row>
-    <row r="127" spans="1:36" hidden="1">
+    <row r="127" spans="1:36">
       <c r="A127" s="23"/>
       <c r="B127">
         <v>1</v>
@@ -10727,7 +10726,7 @@
       <c r="AF128" s="20"/>
       <c r="AG128" s="20"/>
     </row>
-    <row r="129" spans="1:37" hidden="1">
+    <row r="129" spans="1:37">
       <c r="A129" s="46" t="s">
         <v>399</v>
       </c>
@@ -10776,7 +10775,7 @@
       <c r="AF129" s="20"/>
       <c r="AG129" s="20"/>
     </row>
-    <row r="130" spans="1:37" hidden="1">
+    <row r="130" spans="1:37">
       <c r="A130" s="23"/>
       <c r="B130" t="s">
         <v>597</v>
@@ -10884,7 +10883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:37" hidden="1">
+    <row r="132" spans="1:37">
       <c r="A132" s="23"/>
       <c r="B132">
         <v>1</v>
@@ -10951,7 +10950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:37" hidden="1">
+    <row r="133" spans="1:37">
       <c r="A133" s="23"/>
       <c r="B133">
         <v>1</v>
@@ -11073,7 +11072,7 @@
       <c r="AF134" s="20"/>
       <c r="AG134" s="20"/>
     </row>
-    <row r="135" spans="1:37" s="23" customFormat="1" ht="21" hidden="1">
+    <row r="135" spans="1:37" s="23" customFormat="1" ht="21">
       <c r="B135">
         <v>1</v>
       </c>
@@ -11133,7 +11132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:37" s="23" customFormat="1" hidden="1">
+    <row r="136" spans="1:37" s="23" customFormat="1">
       <c r="B136">
         <v>1</v>
       </c>
@@ -11281,7 +11280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:37" hidden="1">
+    <row r="139" spans="1:37">
       <c r="A139" s="23"/>
       <c r="B139">
         <v>1</v>
@@ -11304,7 +11303,7 @@
       </c>
       <c r="Z139" s="49"/>
     </row>
-    <row r="140" spans="1:37" hidden="1">
+    <row r="140" spans="1:37">
       <c r="A140" s="46" t="s">
         <v>431</v>
       </c>
@@ -11397,7 +11396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:37" s="23" customFormat="1" hidden="1">
+    <row r="142" spans="1:37" s="23" customFormat="1">
       <c r="B142">
         <v>1</v>
       </c>
@@ -11409,7 +11408,7 @@
       </c>
       <c r="Z142" s="78"/>
     </row>
-    <row r="143" spans="1:37" hidden="1">
+    <row r="143" spans="1:37">
       <c r="A143" s="46" t="s">
         <v>437</v>
       </c>
@@ -11506,7 +11505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:37" hidden="1">
+    <row r="145" spans="1:37">
       <c r="A145" s="23"/>
       <c r="B145">
         <v>1</v>
@@ -11529,7 +11528,7 @@
       </c>
       <c r="Z145" s="49"/>
     </row>
-    <row r="146" spans="1:37" hidden="1">
+    <row r="146" spans="1:37">
       <c r="A146" s="46" t="s">
         <v>443</v>
       </c>
@@ -11579,7 +11578,7 @@
       <c r="AF146" s="20"/>
       <c r="AG146" s="20"/>
     </row>
-    <row r="147" spans="1:37" hidden="1">
+    <row r="147" spans="1:37">
       <c r="A147" s="23"/>
       <c r="B147" t="s">
         <v>597</v>
@@ -11635,7 +11634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:37" hidden="1">
+    <row r="148" spans="1:37">
       <c r="A148" s="46" t="s">
         <v>449</v>
       </c>
@@ -11687,7 +11686,7 @@
       <c r="AF148" s="20"/>
       <c r="AG148" s="20"/>
     </row>
-    <row r="149" spans="1:37" hidden="1">
+    <row r="149" spans="1:37">
       <c r="A149" s="46" t="s">
         <v>453</v>
       </c>
@@ -11837,7 +11836,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="152" spans="1:37" hidden="1">
+    <row r="152" spans="1:37">
       <c r="A152" s="23"/>
       <c r="B152">
         <v>1</v>
@@ -11887,7 +11886,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="153" spans="1:37" hidden="1">
+    <row r="153" spans="1:37">
       <c r="A153" s="23"/>
       <c r="B153">
         <v>1</v>
@@ -11917,7 +11916,7 @@
       </c>
       <c r="Z153" s="49"/>
     </row>
-    <row r="154" spans="1:37" hidden="1">
+    <row r="154" spans="1:37">
       <c r="A154" s="23"/>
       <c r="B154">
         <v>1</v>
@@ -11947,7 +11946,7 @@
       </c>
       <c r="Z154" s="49"/>
     </row>
-    <row r="155" spans="1:37" hidden="1">
+    <row r="155" spans="1:37">
       <c r="A155" s="23"/>
       <c r="B155">
         <v>1</v>
@@ -11974,7 +11973,7 @@
       </c>
       <c r="Z155" s="49"/>
     </row>
-    <row r="156" spans="1:37" hidden="1">
+    <row r="156" spans="1:37">
       <c r="B156">
         <v>1</v>
       </c>
@@ -12013,7 +12012,7 @@
       </c>
       <c r="Z156" s="49"/>
     </row>
-    <row r="157" spans="1:37" hidden="1">
+    <row r="157" spans="1:37">
       <c r="B157">
         <v>1</v>
       </c>
@@ -12083,7 +12082,7 @@
       <c r="AF158" s="20"/>
       <c r="AG158" s="20"/>
     </row>
-    <row r="159" spans="1:37" hidden="1">
+    <row r="159" spans="1:37">
       <c r="A159" s="23"/>
       <c r="B159">
         <v>1</v>
@@ -12133,7 +12132,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="160" spans="1:37" hidden="1">
+    <row r="160" spans="1:37">
       <c r="A160" s="23"/>
       <c r="B160">
         <v>1</v>
@@ -12163,7 +12162,7 @@
       </c>
       <c r="Z160" s="49"/>
     </row>
-    <row r="161" spans="1:34" hidden="1">
+    <row r="161" spans="1:34">
       <c r="A161" s="23"/>
       <c r="B161">
         <v>1</v>
@@ -12193,7 +12192,7 @@
       </c>
       <c r="Z161" s="49"/>
     </row>
-    <row r="162" spans="1:34" hidden="1">
+    <row r="162" spans="1:34">
       <c r="A162" s="23"/>
       <c r="B162">
         <v>1</v>
@@ -12220,7 +12219,7 @@
       </c>
       <c r="Z162" s="49"/>
     </row>
-    <row r="163" spans="1:34" hidden="1">
+    <row r="163" spans="1:34">
       <c r="B163">
         <v>1</v>
       </c>
@@ -12259,7 +12258,7 @@
       </c>
       <c r="Z163" s="49"/>
     </row>
-    <row r="164" spans="1:34" hidden="1">
+    <row r="164" spans="1:34">
       <c r="B164">
         <v>1</v>
       </c>
@@ -12329,7 +12328,7 @@
       <c r="AF165" s="20"/>
       <c r="AG165" s="20"/>
     </row>
-    <row r="166" spans="1:34" hidden="1">
+    <row r="166" spans="1:34">
       <c r="A166" s="23"/>
       <c r="B166">
         <v>1</v>
@@ -12440,7 +12439,7 @@
       <c r="AF167" s="20"/>
       <c r="AG167" s="20"/>
     </row>
-    <row r="168" spans="1:34" hidden="1">
+    <row r="168" spans="1:34">
       <c r="A168" s="23"/>
       <c r="B168">
         <v>1</v>
@@ -12490,7 +12489,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="169" spans="1:34" hidden="1">
+    <row r="169" spans="1:34">
       <c r="A169" s="23"/>
       <c r="B169">
         <v>1</v>
@@ -12520,7 +12519,7 @@
       </c>
       <c r="Z169" s="49"/>
     </row>
-    <row r="170" spans="1:34" hidden="1">
+    <row r="170" spans="1:34">
       <c r="A170" s="23"/>
       <c r="B170">
         <v>1</v>
@@ -12550,7 +12549,7 @@
       </c>
       <c r="Z170" s="49"/>
     </row>
-    <row r="171" spans="1:34" hidden="1">
+    <row r="171" spans="1:34">
       <c r="A171" s="23"/>
       <c r="B171">
         <v>1</v>
@@ -12577,7 +12576,7 @@
       </c>
       <c r="Z171" s="49"/>
     </row>
-    <row r="172" spans="1:34" hidden="1">
+    <row r="172" spans="1:34">
       <c r="B172">
         <v>1</v>
       </c>
@@ -12616,7 +12615,7 @@
       </c>
       <c r="Z172" s="49"/>
     </row>
-    <row r="173" spans="1:34" hidden="1">
+    <row r="173" spans="1:34">
       <c r="B173">
         <v>1</v>
       </c>
@@ -12686,7 +12685,7 @@
       <c r="AF174" s="20"/>
       <c r="AG174" s="20"/>
     </row>
-    <row r="175" spans="1:34" hidden="1">
+    <row r="175" spans="1:34">
       <c r="A175" s="23"/>
       <c r="B175">
         <v>1</v>
@@ -12736,7 +12735,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="176" spans="1:34" hidden="1">
+    <row r="176" spans="1:34">
       <c r="A176" s="23"/>
       <c r="B176">
         <v>1</v>
@@ -12766,7 +12765,7 @@
       </c>
       <c r="Z176" s="49"/>
     </row>
-    <row r="177" spans="1:33" hidden="1">
+    <row r="177" spans="1:33">
       <c r="A177" s="23"/>
       <c r="B177">
         <v>1</v>
@@ -12796,7 +12795,7 @@
       </c>
       <c r="Z177" s="49"/>
     </row>
-    <row r="178" spans="1:33" hidden="1">
+    <row r="178" spans="1:33">
       <c r="A178" s="23"/>
       <c r="B178">
         <v>1</v>
@@ -12823,7 +12822,7 @@
       </c>
       <c r="Z178" s="49"/>
     </row>
-    <row r="179" spans="1:33" hidden="1">
+    <row r="179" spans="1:33">
       <c r="B179">
         <v>1</v>
       </c>
@@ -12862,7 +12861,7 @@
       </c>
       <c r="Z179" s="49"/>
     </row>
-    <row r="180" spans="1:33" hidden="1">
+    <row r="180" spans="1:33">
       <c r="B180">
         <v>1</v>
       </c>
@@ -12882,7 +12881,7 @@
       </c>
       <c r="Z180" s="49"/>
     </row>
-    <row r="181" spans="1:33" hidden="1">
+    <row r="181" spans="1:33">
       <c r="A181" s="46" t="s">
         <v>493</v>
       </c>
@@ -12926,7 +12925,7 @@
       <c r="AF181" s="20"/>
       <c r="AG181" s="20"/>
     </row>
-    <row r="182" spans="1:33" hidden="1">
+    <row r="182" spans="1:33">
       <c r="A182" s="46" t="s">
         <v>496</v>
       </c>
@@ -13026,7 +13025,7 @@
       <c r="AF183" s="20"/>
       <c r="AG183" s="20"/>
     </row>
-    <row r="184" spans="1:33" hidden="1">
+    <row r="184" spans="1:33">
       <c r="A184" s="23"/>
       <c r="B184">
         <v>1</v>
@@ -13136,7 +13135,7 @@
       <c r="AF185" s="20"/>
       <c r="AG185" s="20"/>
     </row>
-    <row r="186" spans="1:33" hidden="1">
+    <row r="186" spans="1:33">
       <c r="A186" s="23"/>
       <c r="B186">
         <v>1</v>
@@ -13197,7 +13196,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="187" spans="1:33" hidden="1">
+    <row r="187" spans="1:33">
       <c r="A187" s="46" t="s">
         <v>510</v>
       </c>
@@ -13291,7 +13290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:33" hidden="1">
+    <row r="189" spans="1:33">
       <c r="B189">
         <v>1</v>
       </c>
@@ -13338,7 +13337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:33" hidden="1">
+    <row r="190" spans="1:33">
       <c r="B190">
         <v>1</v>
       </c>
@@ -13362,7 +13361,7 @@
       </c>
       <c r="Z190" s="49"/>
     </row>
-    <row r="191" spans="1:33" hidden="1">
+    <row r="191" spans="1:33">
       <c r="B191">
         <v>1</v>
       </c>
@@ -13431,7 +13430,7 @@
       </c>
       <c r="AG192" s="60"/>
     </row>
-    <row r="193" spans="1:33" hidden="1">
+    <row r="193" spans="1:33">
       <c r="A193" s="23"/>
       <c r="B193">
         <v>1</v>
@@ -13536,7 +13535,7 @@
       <c r="AF194" s="60"/>
       <c r="AG194" s="60"/>
     </row>
-    <row r="195" spans="1:33" hidden="1">
+    <row r="195" spans="1:33">
       <c r="A195" s="32"/>
       <c r="B195">
         <v>1</v>
@@ -13588,7 +13587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:33" hidden="1">
+    <row r="196" spans="1:33">
       <c r="A196" s="32"/>
       <c r="B196">
         <v>1</v>
@@ -13673,7 +13672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:33" hidden="1">
+    <row r="198" spans="1:33">
       <c r="B198">
         <v>1</v>
       </c>
@@ -13823,7 +13822,7 @@
       <c r="AF200" s="60"/>
       <c r="AG200" s="60"/>
     </row>
-    <row r="201" spans="1:33" hidden="1">
+    <row r="201" spans="1:33">
       <c r="A201" s="23"/>
       <c r="B201">
         <v>1</v>
@@ -13878,7 +13877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:33" hidden="1">
+    <row r="202" spans="1:33">
       <c r="A202" s="23"/>
       <c r="B202">
         <v>1</v>
@@ -13895,7 +13894,7 @@
       </c>
       <c r="Z202" s="49"/>
     </row>
-    <row r="203" spans="1:33" hidden="1">
+    <row r="203" spans="1:33">
       <c r="A203" s="58" t="s">
         <v>557</v>
       </c>
@@ -13945,7 +13944,7 @@
       <c r="AF203" s="60"/>
       <c r="AG203" s="60"/>
     </row>
-    <row r="204" spans="1:33" hidden="1">
+    <row r="204" spans="1:33">
       <c r="A204" s="23"/>
       <c r="B204" t="s">
         <v>597</v>
@@ -14020,7 +14019,7 @@
       <c r="AF205" s="60"/>
       <c r="AG205" s="60"/>
     </row>
-    <row r="206" spans="1:33" hidden="1">
+    <row r="206" spans="1:33">
       <c r="A206" s="23"/>
       <c r="B206">
         <v>1</v>
@@ -14058,7 +14057,7 @@
       </c>
       <c r="Z206" s="49"/>
     </row>
-    <row r="207" spans="1:33" hidden="1">
+    <row r="207" spans="1:33">
       <c r="A207" s="23"/>
       <c r="B207">
         <v>1</v>
@@ -14082,7 +14081,7 @@
       </c>
       <c r="Z207" s="49"/>
     </row>
-    <row r="208" spans="1:33" hidden="1">
+    <row r="208" spans="1:33">
       <c r="A208" s="23"/>
       <c r="B208">
         <v>1</v>
@@ -14212,7 +14211,7 @@
       <c r="AF210" s="60"/>
       <c r="AG210" s="60"/>
     </row>
-    <row r="211" spans="1:37" hidden="1">
+    <row r="211" spans="1:37">
       <c r="A211" s="23"/>
       <c r="B211">
         <v>1</v>
@@ -14314,7 +14313,7 @@
       <c r="AF212" s="60"/>
       <c r="AG212" s="60"/>
     </row>
-    <row r="213" spans="1:37" hidden="1">
+    <row r="213" spans="1:37">
       <c r="A213" s="23"/>
       <c r="B213">
         <v>1</v>
@@ -14357,7 +14356,7 @@
       <c r="AE213" s="60"/>
       <c r="AF213" s="60"/>
     </row>
-    <row r="214" spans="1:37" hidden="1">
+    <row r="214" spans="1:37">
       <c r="A214" s="23"/>
       <c r="B214">
         <v>1</v>
@@ -14381,7 +14380,7 @@
       <c r="AE214" s="60"/>
       <c r="AF214" s="60"/>
     </row>
-    <row r="215" spans="1:37" hidden="1">
+    <row r="215" spans="1:37">
       <c r="A215" s="23"/>
       <c r="B215">
         <v>1</v>
@@ -14438,7 +14437,7 @@
       <c r="AE215" s="60"/>
       <c r="AF215" s="60"/>
     </row>
-    <row r="216" spans="1:37" hidden="1">
+    <row r="216" spans="1:37">
       <c r="A216" s="23"/>
       <c r="B216">
         <v>1</v>
@@ -14508,7 +14507,7 @@
       <c r="AF217" s="60"/>
       <c r="AG217" s="60"/>
     </row>
-    <row r="218" spans="1:37" hidden="1">
+    <row r="218" spans="1:37">
       <c r="A218" s="23"/>
       <c r="B218">
         <v>1</v>
@@ -14551,7 +14550,7 @@
       <c r="AE218" s="60"/>
       <c r="AF218" s="60"/>
     </row>
-    <row r="219" spans="1:37" hidden="1">
+    <row r="219" spans="1:37">
       <c r="A219" s="23"/>
       <c r="B219">
         <v>1</v>
@@ -14575,7 +14574,7 @@
       <c r="AE219" s="60"/>
       <c r="AF219" s="60"/>
     </row>
-    <row r="220" spans="1:37" hidden="1">
+    <row r="220" spans="1:37">
       <c r="A220" s="23"/>
       <c r="B220">
         <v>1</v>
@@ -14632,7 +14631,7 @@
       <c r="AE220" s="60"/>
       <c r="AF220" s="60"/>
     </row>
-    <row r="221" spans="1:37" hidden="1">
+    <row r="221" spans="1:37">
       <c r="A221" s="23"/>
       <c r="B221">
         <v>1</v>
@@ -14702,7 +14701,7 @@
       <c r="AF222" s="60"/>
       <c r="AG222" s="60"/>
     </row>
-    <row r="223" spans="1:37" hidden="1">
+    <row r="223" spans="1:37">
       <c r="A223" s="23"/>
       <c r="B223">
         <v>1</v>
@@ -14749,7 +14748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:37" hidden="1">
+    <row r="224" spans="1:37">
       <c r="A224" s="23"/>
       <c r="B224">
         <v>1</v>
@@ -14822,7 +14821,7 @@
       <c r="AF225" s="60"/>
       <c r="AG225" s="60"/>
     </row>
-    <row r="226" spans="1:37" hidden="1">
+    <row r="226" spans="1:37">
       <c r="A226" s="23"/>
       <c r="B226">
         <v>1</v>
@@ -14868,7 +14867,7 @@
       <c r="AE226" s="60"/>
       <c r="AF226" s="60"/>
     </row>
-    <row r="227" spans="1:37" hidden="1">
+    <row r="227" spans="1:37">
       <c r="A227" s="23"/>
       <c r="B227">
         <v>1</v>
@@ -14892,7 +14891,7 @@
       <c r="AE227" s="60"/>
       <c r="AF227" s="60"/>
     </row>
-    <row r="228" spans="1:37" hidden="1">
+    <row r="228" spans="1:37">
       <c r="A228" s="23"/>
       <c r="B228">
         <v>1</v>
@@ -14949,7 +14948,7 @@
       <c r="AE228" s="60"/>
       <c r="AF228" s="60"/>
     </row>
-    <row r="229" spans="1:37" hidden="1">
+    <row r="229" spans="1:37">
       <c r="A229" s="23"/>
       <c r="B229">
         <v>1</v>
@@ -14969,7 +14968,7 @@
       </c>
       <c r="Z229" s="49"/>
     </row>
-    <row r="230" spans="1:37" hidden="1">
+    <row r="230" spans="1:37">
       <c r="A230" s="58" t="s">
         <v>612</v>
       </c>
@@ -15019,7 +15018,7 @@
       <c r="AF230" s="60"/>
       <c r="AG230" s="60"/>
     </row>
-    <row r="231" spans="1:37" hidden="1">
+    <row r="231" spans="1:37">
       <c r="A231" s="23"/>
       <c r="B231" t="s">
         <v>597</v>
@@ -15126,7 +15125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:37" hidden="1">
+    <row r="233" spans="1:37">
       <c r="A233" s="23"/>
       <c r="B233">
         <v>1</v>
@@ -15172,7 +15171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:37" hidden="1">
+    <row r="234" spans="1:37">
       <c r="A234" s="58" t="s">
         <v>626</v>
       </c>
@@ -15225,7 +15224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:37" hidden="1">
+    <row r="235" spans="1:37">
       <c r="A235" s="58" t="s">
         <v>630</v>
       </c>
@@ -15280,7 +15279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:37" hidden="1">
+    <row r="236" spans="1:37">
       <c r="A236" s="58" t="s">
         <v>634</v>
       </c>
@@ -15379,7 +15378,7 @@
       <c r="AF237" s="60"/>
       <c r="AG237" s="60"/>
     </row>
-    <row r="238" spans="1:37" hidden="1">
+    <row r="238" spans="1:37">
       <c r="A238" s="58" t="s">
         <v>641</v>
       </c>
@@ -15429,7 +15428,7 @@
       <c r="AF238" s="60"/>
       <c r="AG238" s="60"/>
     </row>
-    <row r="239" spans="1:37" hidden="1">
+    <row r="239" spans="1:37">
       <c r="A239" s="23"/>
       <c r="B239" t="s">
         <v>597</v>
@@ -15503,7 +15502,7 @@
       <c r="AF240" s="60"/>
       <c r="AG240" s="60"/>
     </row>
-    <row r="241" spans="1:34" hidden="1">
+    <row r="241" spans="1:34">
       <c r="A241" s="23"/>
       <c r="B241">
         <v>1</v>
@@ -15610,7 +15609,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="243" spans="1:34" hidden="1">
+    <row r="243" spans="1:34">
       <c r="A243" s="58" t="s">
         <v>658</v>
       </c>
@@ -15660,7 +15659,7 @@
       <c r="AF243" s="60"/>
       <c r="AG243" s="60"/>
     </row>
-    <row r="244" spans="1:34" hidden="1">
+    <row r="244" spans="1:34">
       <c r="A244" s="58" t="s">
         <v>662</v>
       </c>
@@ -15762,7 +15761,7 @@
       <c r="AF245" s="60"/>
       <c r="AG245" s="60"/>
     </row>
-    <row r="246" spans="1:34" hidden="1">
+    <row r="246" spans="1:34">
       <c r="A246" s="23"/>
       <c r="B246">
         <v>1</v>
@@ -15817,7 +15816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:34" hidden="1">
+    <row r="247" spans="1:34">
       <c r="A247" s="71" t="s">
         <v>676</v>
       </c>
@@ -15920,7 +15919,7 @@
       <c r="AF248" s="60"/>
       <c r="AG248" s="60"/>
     </row>
-    <row r="249" spans="1:34" hidden="1">
+    <row r="249" spans="1:34">
       <c r="A249" s="23"/>
       <c r="B249">
         <v>1</v>
@@ -15964,7 +15963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:34" hidden="1">
+    <row r="250" spans="1:34">
       <c r="A250" s="23"/>
       <c r="B250">
         <v>1</v>
@@ -16011,7 +16010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:34" hidden="1">
+    <row r="251" spans="1:34">
       <c r="A251" s="23"/>
       <c r="B251">
         <v>1</v>
@@ -16060,7 +16059,7 @@
       <c r="AE251" s="60"/>
       <c r="AF251" s="60"/>
     </row>
-    <row r="252" spans="1:34" hidden="1">
+    <row r="252" spans="1:34">
       <c r="A252" s="58" t="s">
         <v>689</v>
       </c>
@@ -16112,7 +16111,7 @@
       <c r="AF252" s="60"/>
       <c r="AG252" s="60"/>
     </row>
-    <row r="253" spans="1:34" hidden="1">
+    <row r="253" spans="1:34">
       <c r="A253" s="23"/>
       <c r="B253" t="s">
         <v>597</v>
@@ -16216,7 +16215,7 @@
       <c r="AF254" s="60"/>
       <c r="AG254" s="60"/>
     </row>
-    <row r="255" spans="1:34" hidden="1">
+    <row r="255" spans="1:34">
       <c r="A255" s="23"/>
       <c r="B255">
         <v>1</v>
@@ -16270,7 +16269,7 @@
       <c r="AE255" s="60"/>
       <c r="AF255" s="60"/>
     </row>
-    <row r="256" spans="1:34" hidden="1">
+    <row r="256" spans="1:34">
       <c r="A256" s="23"/>
       <c r="B256">
         <v>1</v>
@@ -16297,7 +16296,7 @@
       </c>
       <c r="Z256" s="49"/>
     </row>
-    <row r="257" spans="1:36" hidden="1">
+    <row r="257" spans="1:36">
       <c r="A257" s="23"/>
       <c r="B257">
         <v>1</v>
@@ -16404,7 +16403,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="259" spans="1:36" hidden="1">
+    <row r="259" spans="1:36">
       <c r="A259" s="23"/>
       <c r="B259">
         <v>1</v>
@@ -16456,7 +16455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:36" hidden="1">
+    <row r="260" spans="1:36">
       <c r="A260" s="23"/>
       <c r="B260">
         <v>1</v>
@@ -16524,7 +16523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:36" hidden="1">
+    <row r="261" spans="1:36">
       <c r="A261" s="23"/>
       <c r="B261">
         <v>1</v>
@@ -16646,7 +16645,7 @@
       <c r="AF262" s="60"/>
       <c r="AG262" s="60"/>
     </row>
-    <row r="263" spans="1:36" hidden="1">
+    <row r="263" spans="1:36">
       <c r="A263" s="58"/>
       <c r="B263">
         <v>1</v>
@@ -16681,7 +16680,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="264" spans="1:36" hidden="1">
+    <row r="264" spans="1:36">
       <c r="A264" s="58" t="s">
         <v>732</v>
       </c>
@@ -16733,7 +16732,7 @@
       <c r="AF264" s="60"/>
       <c r="AG264" s="60"/>
     </row>
-    <row r="265" spans="1:36" hidden="1">
+    <row r="265" spans="1:36">
       <c r="A265" s="58" t="s">
         <v>736</v>
       </c>
@@ -16829,7 +16828,7 @@
       <c r="AF266" s="60"/>
       <c r="AG266" s="60"/>
     </row>
-    <row r="267" spans="1:36" hidden="1">
+    <row r="267" spans="1:36">
       <c r="B267">
         <v>1</v>
       </c>
@@ -16866,7 +16865,7 @@
       <c r="AF267" s="49"/>
       <c r="AJ267" s="47"/>
     </row>
-    <row r="268" spans="1:36" hidden="1">
+    <row r="268" spans="1:36">
       <c r="B268">
         <v>1</v>
       </c>
@@ -16971,7 +16970,7 @@
       <c r="AF269" s="60"/>
       <c r="AG269" s="60"/>
     </row>
-    <row r="270" spans="1:36" hidden="1">
+    <row r="270" spans="1:36">
       <c r="B270">
         <v>1</v>
       </c>
@@ -17021,7 +17020,7 @@
       <c r="AE270" s="49"/>
       <c r="AF270" s="49"/>
     </row>
-    <row r="271" spans="1:36" hidden="1">
+    <row r="271" spans="1:36">
       <c r="B271">
         <v>1</v>
       </c>
@@ -17038,7 +17037,7 @@
       </c>
       <c r="Z271" s="49"/>
     </row>
-    <row r="272" spans="1:36" hidden="1">
+    <row r="272" spans="1:36">
       <c r="B272">
         <v>1</v>
       </c>
@@ -17055,7 +17054,7 @@
       </c>
       <c r="Z272" s="49"/>
     </row>
-    <row r="273" spans="1:37" hidden="1">
+    <row r="273" spans="1:37">
       <c r="A273" s="60" t="s">
         <v>756</v>
       </c>
@@ -17157,7 +17156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:37" hidden="1">
+    <row r="275" spans="1:37">
       <c r="B275">
         <v>1</v>
       </c>
@@ -17224,7 +17223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:37" hidden="1">
+    <row r="277" spans="1:37">
       <c r="B277">
         <v>1</v>
       </c>
@@ -17291,7 +17290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:37" hidden="1">
+    <row r="279" spans="1:37">
       <c r="B279">
         <v>1</v>
       </c>
@@ -17306,7 +17305,7 @@
       </c>
       <c r="Z279" s="49"/>
     </row>
-    <row r="280" spans="1:37" hidden="1">
+    <row r="280" spans="1:37">
       <c r="A280" s="60" t="s">
         <v>768</v>
       </c>
@@ -17394,7 +17393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:37" hidden="1">
+    <row r="282" spans="1:37">
       <c r="B282">
         <v>1</v>
       </c>
@@ -17406,7 +17405,7 @@
       </c>
       <c r="Z282" s="49"/>
     </row>
-    <row r="283" spans="1:37" hidden="1">
+    <row r="283" spans="1:37">
       <c r="A283" s="60" t="s">
         <v>773</v>
       </c>
@@ -17453,7 +17452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:37" hidden="1">
+    <row r="284" spans="1:37">
       <c r="A284" s="60" t="s">
         <v>776</v>
       </c>
@@ -17546,7 +17545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:37" hidden="1">
+    <row r="286" spans="1:37">
       <c r="B286">
         <v>1</v>
       </c>
@@ -17559,7 +17558,7 @@
       </c>
       <c r="Z286" s="49"/>
     </row>
-    <row r="287" spans="1:37" hidden="1">
+    <row r="287" spans="1:37">
       <c r="A287" s="60" t="s">
         <v>780</v>
       </c>
@@ -17608,7 +17607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:37" hidden="1">
+    <row r="288" spans="1:37">
       <c r="A288" s="60" t="s">
         <v>782</v>
       </c>
@@ -17710,7 +17709,7 @@
       <c r="AJ289" s="93"/>
       <c r="AK289" s="93"/>
     </row>
-    <row r="290" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="290" spans="1:37" customFormat="1" ht="19">
       <c r="A290" s="96"/>
       <c r="B290" s="96">
         <v>1</v>
@@ -17792,7 +17791,7 @@
       <c r="AJ291" s="93"/>
       <c r="AK291" s="93"/>
     </row>
-    <row r="292" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="292" spans="1:37" customFormat="1" ht="19">
       <c r="A292" s="96"/>
       <c r="B292" s="96">
         <v>1</v>
@@ -17812,7 +17811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="293" spans="1:37" customFormat="1" ht="19">
       <c r="A293" s="96"/>
       <c r="B293" s="96">
         <v>1</v>
@@ -17882,7 +17881,7 @@
       <c r="AJ294" s="93"/>
       <c r="AK294" s="93"/>
     </row>
-    <row r="295" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="295" spans="1:37" customFormat="1" ht="23">
       <c r="A295" s="96"/>
       <c r="B295" s="96">
         <v>1</v>
@@ -17937,7 +17936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:37" customFormat="1" hidden="1">
+    <row r="296" spans="1:37" customFormat="1">
       <c r="A296" s="96"/>
       <c r="B296" s="96">
         <v>1</v>
@@ -18010,7 +18009,7 @@
       <c r="AJ297" s="93"/>
       <c r="AK297" s="93"/>
     </row>
-    <row r="298" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="298" spans="1:37" customFormat="1" ht="19">
       <c r="A298" s="96"/>
       <c r="B298" s="96">
         <v>1</v>
@@ -18078,7 +18077,7 @@
       <c r="AJ299" s="93"/>
       <c r="AK299" s="93"/>
     </row>
-    <row r="300" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="300" spans="1:37" customFormat="1" ht="23">
       <c r="A300" s="96"/>
       <c r="B300" s="96">
         <v>1</v>
@@ -18123,7 +18122,7 @@
       <c r="AE300" s="104"/>
       <c r="AF300" s="104"/>
     </row>
-    <row r="301" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="301" spans="1:37" customFormat="1" ht="19">
       <c r="A301" s="96"/>
       <c r="B301" s="96">
         <v>1</v>
@@ -18146,7 +18145,7 @@
       <c r="AE301" s="104"/>
       <c r="AF301" s="104"/>
     </row>
-    <row r="302" spans="1:37" customFormat="1" ht="25" hidden="1">
+    <row r="302" spans="1:37" customFormat="1" ht="25">
       <c r="A302" s="96"/>
       <c r="B302" s="96">
         <v>1</v>
@@ -18200,7 +18199,7 @@
       <c r="AE302" s="104"/>
       <c r="AF302" s="104"/>
     </row>
-    <row r="303" spans="1:37" customFormat="1" hidden="1">
+    <row r="303" spans="1:37" customFormat="1">
       <c r="A303" s="96"/>
       <c r="B303" s="96">
         <v>1</v>
@@ -18216,7 +18215,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="304" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="304" spans="1:37" customFormat="1" ht="23">
       <c r="A304" s="91" t="s">
         <v>850</v>
       </c>
@@ -18332,7 +18331,7 @@
       <c r="AJ305" s="93"/>
       <c r="AK305" s="93"/>
     </row>
-    <row r="306" spans="1:37" customFormat="1" hidden="1">
+    <row r="306" spans="1:37" customFormat="1">
       <c r="A306" s="96"/>
       <c r="B306" s="96">
         <v>1</v>
@@ -18379,7 +18378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:37" customFormat="1" hidden="1">
+    <row r="307" spans="1:37" customFormat="1">
       <c r="A307" s="96"/>
       <c r="B307" s="96">
         <v>1</v>
@@ -18426,7 +18425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="308" spans="1:37" customFormat="1" ht="19">
       <c r="A308" s="91" t="s">
         <v>860</v>
       </c>
@@ -18536,7 +18535,7 @@
       <c r="AJ309" s="93"/>
       <c r="AK309" s="93"/>
     </row>
-    <row r="310" spans="1:37" customFormat="1" ht="30" hidden="1">
+    <row r="310" spans="1:37" customFormat="1" ht="30">
       <c r="A310" s="96"/>
       <c r="B310" s="96">
         <v>1</v>
@@ -18699,7 +18698,7 @@
       <c r="AJ312" s="93"/>
       <c r="AK312" s="93"/>
     </row>
-    <row r="313" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="313" spans="1:37" customFormat="1" ht="19">
       <c r="B313" s="91">
         <v>1</v>
       </c>
@@ -18802,7 +18801,7 @@
       <c r="AJ314" s="93"/>
       <c r="AK314" s="93"/>
     </row>
-    <row r="315" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="315" spans="1:37" customFormat="1" ht="23">
       <c r="B315">
         <v>1</v>
       </c>
@@ -18905,7 +18904,7 @@
       <c r="AJ316" s="93"/>
       <c r="AK316" s="93"/>
     </row>
-    <row r="317" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="317" spans="1:37" customFormat="1" ht="23">
       <c r="B317" s="93">
         <v>1</v>
       </c>
@@ -19008,7 +19007,7 @@
       <c r="AJ318" s="93"/>
       <c r="AK318" s="93"/>
     </row>
-    <row r="319" spans="1:37" customFormat="1" hidden="1">
+    <row r="319" spans="1:37" customFormat="1">
       <c r="B319" s="93">
         <v>1</v>
       </c>
@@ -19017,7 +19016,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="320" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="320" spans="1:37" customFormat="1" ht="19">
       <c r="B320" s="93">
         <v>1</v>
       </c>
@@ -19119,7 +19118,7 @@
       <c r="AJ321" s="93"/>
       <c r="AK321" s="93"/>
     </row>
-    <row r="322" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="322" spans="1:37" customFormat="1" ht="23">
       <c r="B322" s="93">
         <v>1</v>
       </c>
@@ -19222,7 +19221,7 @@
       <c r="AJ323" s="93"/>
       <c r="AK323" s="93"/>
     </row>
-    <row r="324" spans="1:37" customFormat="1" ht="35" hidden="1">
+    <row r="324" spans="1:37" customFormat="1" ht="35">
       <c r="B324" s="93">
         <v>1</v>
       </c>
@@ -19325,7 +19324,7 @@
       <c r="AJ325" s="93"/>
       <c r="AK325" s="93"/>
     </row>
-    <row r="326" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="326" spans="1:37" customFormat="1" ht="23">
       <c r="B326" s="93">
         <v>1</v>
       </c>
@@ -19428,7 +19427,7 @@
       <c r="AJ327" s="93"/>
       <c r="AK327" s="93"/>
     </row>
-    <row r="328" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="328" spans="1:37" customFormat="1" ht="23">
       <c r="B328" s="93">
         <v>1</v>
       </c>
@@ -19531,7 +19530,7 @@
       <c r="AJ329" s="93"/>
       <c r="AK329" s="93"/>
     </row>
-    <row r="330" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="330" spans="1:37" customFormat="1" ht="23">
       <c r="B330" s="93">
         <v>1</v>
       </c>
@@ -19631,7 +19630,7 @@
       <c r="AJ331" s="93"/>
       <c r="AK331" s="93"/>
     </row>
-    <row r="332" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="332" spans="1:37" customFormat="1" ht="23">
       <c r="B332" s="93">
         <v>1</v>
       </c>
@@ -19730,7 +19729,7 @@
       <c r="AJ333" s="93"/>
       <c r="AK333" s="93"/>
     </row>
-    <row r="334" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="334" spans="1:37" customFormat="1" ht="23">
       <c r="B334" s="93">
         <v>1</v>
       </c>
@@ -19833,7 +19832,7 @@
       <c r="AJ335" s="93"/>
       <c r="AK335" s="93"/>
     </row>
-    <row r="336" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="336" spans="1:37" customFormat="1" ht="23">
       <c r="B336" s="93">
         <v>1</v>
       </c>
@@ -19936,7 +19935,7 @@
       <c r="AJ337" s="93"/>
       <c r="AK337" s="93"/>
     </row>
-    <row r="338" spans="1:37" customFormat="1" ht="21" hidden="1">
+    <row r="338" spans="1:37" customFormat="1" ht="21">
       <c r="B338" s="93">
         <v>1</v>
       </c>
@@ -19984,7 +19983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:37" customFormat="1" hidden="1">
+    <row r="339" spans="1:37" customFormat="1">
       <c r="B339" s="93">
         <v>1</v>
       </c>
@@ -20103,7 +20102,7 @@
       <c r="AJ341" s="93"/>
       <c r="AK341" s="93"/>
     </row>
-    <row r="342" spans="1:37" customFormat="1" ht="20" hidden="1">
+    <row r="342" spans="1:37" customFormat="1" ht="20">
       <c r="B342" s="93">
         <v>1</v>
       </c>
@@ -20206,7 +20205,7 @@
       <c r="AJ343" s="93"/>
       <c r="AK343" s="93"/>
     </row>
-    <row r="344" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="344" spans="1:37" customFormat="1" ht="23">
       <c r="B344" s="93">
         <v>1</v>
       </c>
@@ -20309,7 +20308,7 @@
       <c r="AJ345" s="93"/>
       <c r="AK345" s="93"/>
     </row>
-    <row r="346" spans="1:37" customFormat="1" hidden="1">
+    <row r="346" spans="1:37" customFormat="1">
       <c r="B346" s="93">
         <v>1</v>
       </c>
@@ -20318,7 +20317,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="347" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="347" spans="1:37" customFormat="1" ht="19">
       <c r="B347" s="93">
         <v>1</v>
       </c>
@@ -20420,7 +20419,7 @@
       <c r="AJ348" s="93"/>
       <c r="AK348" s="93"/>
     </row>
-    <row r="349" spans="1:37" customFormat="1" ht="21" hidden="1">
+    <row r="349" spans="1:37" customFormat="1" ht="21">
       <c r="B349" s="93">
         <v>1</v>
       </c>
@@ -20511,7 +20510,7 @@
       <c r="AJ350" s="93"/>
       <c r="AK350" s="93"/>
     </row>
-    <row r="351" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="351" spans="1:37" customFormat="1" ht="23">
       <c r="B351" s="93">
         <v>1</v>
       </c>
@@ -20717,7 +20716,7 @@
       <c r="AJ354" s="93"/>
       <c r="AK354" s="93"/>
     </row>
-    <row r="355" spans="1:37" customFormat="1" ht="20" hidden="1">
+    <row r="355" spans="1:37" customFormat="1" ht="20">
       <c r="A355" s="96"/>
       <c r="B355" s="96">
         <v>1</v>
@@ -20778,7 +20777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="356" spans="1:37" customFormat="1" ht="23">
       <c r="A356" s="96"/>
       <c r="B356" s="96">
         <v>1</v>
@@ -20891,7 +20890,7 @@
       <c r="AJ357" s="93"/>
       <c r="AK357" s="93"/>
     </row>
-    <row r="358" spans="1:37" customFormat="1" ht="20" hidden="1">
+    <row r="358" spans="1:37" customFormat="1" ht="20">
       <c r="A358" s="96"/>
       <c r="B358" s="96">
         <v>1</v>
@@ -20952,7 +20951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="359" spans="1:37" customFormat="1" ht="23">
       <c r="A359" s="96"/>
       <c r="B359" s="96">
         <v>1</v>
@@ -21065,7 +21064,7 @@
       <c r="AJ360" s="93"/>
       <c r="AK360" s="93"/>
     </row>
-    <row r="361" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="361" spans="1:37" customFormat="1" ht="23">
       <c r="A361" s="96"/>
       <c r="B361" s="96">
         <v>1</v>
@@ -21234,7 +21233,7 @@
       <c r="AJ363" s="93"/>
       <c r="AK363" s="93"/>
     </row>
-    <row r="364" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="364" spans="1:37" customFormat="1" ht="23">
       <c r="A364" s="91" t="s">
         <v>437</v>
       </c>
@@ -21281,7 +21280,7 @@
       <c r="AJ364" s="93"/>
       <c r="AK364" s="93"/>
     </row>
-    <row r="365" spans="1:37" customFormat="1" hidden="1">
+    <row r="365" spans="1:37" customFormat="1">
       <c r="A365" s="96"/>
       <c r="B365" s="96" t="s">
         <v>597</v>
@@ -21357,7 +21356,7 @@
       <c r="AJ366" s="93"/>
       <c r="AK366" s="93"/>
     </row>
-    <row r="367" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="367" spans="1:37" customFormat="1" ht="23">
       <c r="A367" s="96"/>
       <c r="B367" s="96">
         <v>1</v>
@@ -21469,7 +21468,7 @@
       <c r="AJ368" s="93"/>
       <c r="AK368" s="93"/>
     </row>
-    <row r="369" spans="1:37" customFormat="1" hidden="1">
+    <row r="369" spans="1:37" customFormat="1">
       <c r="A369" s="96"/>
       <c r="B369" s="96">
         <v>1</v>
@@ -21576,7 +21575,7 @@
       <c r="AJ370" s="93"/>
       <c r="AK370" s="93"/>
     </row>
-    <row r="371" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="371" spans="1:37" customFormat="1" ht="23">
       <c r="A371" s="96"/>
       <c r="B371" s="96">
         <v>1</v>
@@ -21620,7 +21619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="372" spans="1:37" customFormat="1" ht="23">
       <c r="A372" s="96"/>
       <c r="B372" s="96">
         <v>1</v>
@@ -21711,7 +21710,7 @@
       <c r="AJ373" s="93"/>
       <c r="AK373" s="93"/>
     </row>
-    <row r="374" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="374" spans="1:37" customFormat="1" ht="23">
       <c r="A374" s="96"/>
       <c r="B374" s="96">
         <v>1</v>
@@ -21791,7 +21790,7 @@
       <c r="AJ375" s="93"/>
       <c r="AK375" s="93"/>
     </row>
-    <row r="376" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="376" spans="1:37" customFormat="1" ht="23">
       <c r="A376" s="93" t="s">
         <v>1030</v>
       </c>
@@ -21903,7 +21902,7 @@
       <c r="AJ377" s="93"/>
       <c r="AK377" s="93"/>
     </row>
-    <row r="378" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="378" spans="1:37" customFormat="1" ht="23">
       <c r="A378" s="96"/>
       <c r="B378" s="96">
         <v>1</v>
@@ -21955,7 +21954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="379" spans="1:37" customFormat="1" ht="19">
       <c r="A379" s="127" t="s">
         <v>1039</v>
       </c>
@@ -22065,7 +22064,7 @@
       <c r="AH380" s="93"/>
       <c r="AI380" s="93"/>
     </row>
-    <row r="381" spans="1:37" customFormat="1" ht="23" hidden="1">
+    <row r="381" spans="1:37" customFormat="1" ht="23">
       <c r="B381">
         <v>1</v>
       </c>
@@ -22088,7 +22087,7 @@
       <c r="W381" s="131"/>
       <c r="X381" s="114"/>
     </row>
-    <row r="382" spans="1:37" customFormat="1" ht="25" hidden="1">
+    <row r="382" spans="1:37" customFormat="1" ht="25">
       <c r="B382">
         <v>1</v>
       </c>
@@ -22139,7 +22138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="383" spans="1:37" customFormat="1" ht="19">
       <c r="B383">
         <v>1</v>
       </c>
@@ -22193,7 +22192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:37" customFormat="1" ht="19" hidden="1">
+    <row r="384" spans="1:37" customFormat="1" ht="19">
       <c r="A384" s="91" t="s">
         <v>1059</v>
       </c>
@@ -22244,7 +22243,7 @@
       <c r="AH384" s="93"/>
       <c r="AI384" s="93"/>
     </row>
-    <row r="385" spans="1:35" customFormat="1" hidden="1">
+    <row r="385" spans="1:35" customFormat="1">
       <c r="A385" s="91" t="s">
         <v>357</v>
       </c>
@@ -22344,7 +22343,7 @@
       <c r="AH386" s="93"/>
       <c r="AI386" s="93"/>
     </row>
-    <row r="387" spans="1:35" customFormat="1" ht="19" hidden="1">
+    <row r="387" spans="1:35" customFormat="1" ht="19">
       <c r="A387" s="96"/>
       <c r="B387" s="96">
         <v>1</v>
@@ -22460,7 +22459,7 @@
       <c r="AH389" s="93"/>
       <c r="AI389" s="93"/>
     </row>
-    <row r="390" spans="1:35" customFormat="1" ht="23" hidden="1">
+    <row r="390" spans="1:35" customFormat="1" ht="23">
       <c r="A390" s="96"/>
       <c r="B390" s="96">
         <v>1</v>
@@ -22470,7 +22469,7 @@
       </c>
       <c r="U390" s="95"/>
     </row>
-    <row r="391" spans="1:35" customFormat="1" ht="23" hidden="1">
+    <row r="391" spans="1:35" customFormat="1" ht="23">
       <c r="A391" s="91" t="s">
         <v>453</v>
       </c>
@@ -22523,7 +22522,7 @@
       <c r="AH391" s="93"/>
       <c r="AI391" s="93"/>
     </row>
-    <row r="392" spans="1:35" customFormat="1" ht="23" hidden="1">
+    <row r="392" spans="1:35" customFormat="1" ht="23">
       <c r="A392" s="96"/>
       <c r="B392" s="96" t="s">
         <v>597</v>
@@ -22588,7 +22587,7 @@
       <c r="AH393" s="93"/>
       <c r="AI393" s="93"/>
     </row>
-    <row r="394" spans="1:35" customFormat="1" ht="23" hidden="1">
+    <row r="394" spans="1:35" customFormat="1" ht="23">
       <c r="A394" s="96"/>
       <c r="B394" s="96">
         <v>1</v>
@@ -22599,7 +22598,7 @@
       </c>
       <c r="U394" s="95"/>
     </row>
-    <row r="395" spans="1:35" customFormat="1" ht="23" hidden="1">
+    <row r="395" spans="1:35" customFormat="1" ht="23">
       <c r="A395" s="91" t="s">
         <v>1071</v>
       </c>
@@ -22697,7 +22696,7 @@
       <c r="AH396" s="93"/>
       <c r="AI396" s="93"/>
     </row>
-    <row r="397" spans="1:35" customFormat="1" hidden="1">
+    <row r="397" spans="1:35" customFormat="1">
       <c r="A397" s="96"/>
       <c r="B397" s="96">
         <v>1</v>
@@ -22812,7 +22811,7 @@
       <c r="AH399" s="93"/>
       <c r="AI399" s="93"/>
     </row>
-    <row r="400" spans="1:35" customFormat="1" ht="23" hidden="1">
+    <row r="400" spans="1:35" customFormat="1" ht="23">
       <c r="A400" s="96"/>
       <c r="B400" s="96">
         <v>1</v>
@@ -22851,7 +22850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:35" customFormat="1" ht="19" hidden="1">
+    <row r="401" spans="1:35" customFormat="1" ht="19">
       <c r="A401" s="93" t="s">
         <v>1081</v>
       </c>
@@ -22957,7 +22956,7 @@
       <c r="AH402" s="93"/>
       <c r="AI402" s="93"/>
     </row>
-    <row r="403" spans="1:35" customFormat="1" ht="23" hidden="1">
+    <row r="403" spans="1:35" customFormat="1" ht="23">
       <c r="B403">
         <v>1</v>
       </c>
@@ -22966,7 +22965,7 @@
       </c>
       <c r="U403" s="95"/>
     </row>
-    <row r="404" spans="1:35" customFormat="1" ht="23" hidden="1">
+    <row r="404" spans="1:35" customFormat="1" ht="23">
       <c r="A404" s="93" t="s">
         <v>765</v>
       </c>
@@ -23070,7 +23069,7 @@
       <c r="AH405" s="93"/>
       <c r="AI405" s="93"/>
     </row>
-    <row r="406" spans="1:35" customFormat="1" ht="23" hidden="1">
+    <row r="406" spans="1:35" customFormat="1" ht="23">
       <c r="B406">
         <v>1</v>
       </c>
@@ -23132,7 +23131,7 @@
       <c r="AH407" s="93"/>
       <c r="AI407" s="93"/>
     </row>
-    <row r="408" spans="1:35" customFormat="1" ht="19" hidden="1">
+    <row r="408" spans="1:35" customFormat="1" ht="19">
       <c r="B408">
         <v>1</v>
       </c>
@@ -23194,7 +23193,7 @@
       <c r="AH409" s="93"/>
       <c r="AI409" s="93"/>
     </row>
-    <row r="410" spans="1:35" customFormat="1" ht="23" hidden="1">
+    <row r="410" spans="1:35" customFormat="1" ht="23">
       <c r="B410">
         <v>1</v>
       </c>
@@ -23309,7 +23308,7 @@
       <c r="AH412" s="93"/>
       <c r="AI412" s="93"/>
     </row>
-    <row r="413" spans="1:35" customFormat="1" ht="19" hidden="1">
+    <row r="413" spans="1:35" customFormat="1" ht="19">
       <c r="B413">
         <v>1</v>
       </c>
@@ -23341,7 +23340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:35" customFormat="1" ht="19" hidden="1">
+    <row r="414" spans="1:35" customFormat="1" ht="19">
       <c r="B414">
         <v>1</v>
       </c>
@@ -23370,7 +23369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:35" customFormat="1" ht="23" hidden="1">
+    <row r="415" spans="1:35" customFormat="1" ht="23">
       <c r="A415" s="93" t="s">
         <v>1099</v>
       </c>
@@ -23422,18 +23421,7 @@
       <c r="AI415" s="93"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK415" xr:uid="{ED2F0353-714E-C24F-9141-2C52DBDF8C59}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="22">
-      <filters>
-        <filter val="p3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AK415" xr:uid="{ED2F0353-714E-C24F-9141-2C52DBDF8C59}"/>
   <hyperlinks>
     <hyperlink ref="C13" r:id="rId1" display="https://doi.org/10.1212/wnl.0000000000004209" xr:uid="{E445371E-3F4A-1F4A-ADE4-3703F334DC94}"/>
     <hyperlink ref="C11" r:id="rId2" display="https://doi.org/10.1212/wnl.0000000000003478" xr:uid="{49733D1E-43BF-5A4F-9188-818740F4136A}"/>

--- a/Allmatching.xlsx
+++ b/Allmatching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE8F3C5-8B11-2E49-847B-6351AFC800EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BE08AD-0BC5-4749-9E19-46257ACC08B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="800" windowWidth="28800" windowHeight="16440" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="1102">
   <si>
     <t>Phase 3 info</t>
   </si>
@@ -4544,10 +4544,10 @@
   <dimension ref="A1:AK415"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B409" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="I133" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C418" sqref="C418"/>
+      <selection pane="bottomRight" activeCell="M146" sqref="M146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11347,7 +11347,7 @@
       <c r="AF140" s="20"/>
       <c r="AG140" s="20"/>
     </row>
-    <row r="141" spans="1:37">
+    <row r="141" spans="1:37" ht="23">
       <c r="A141" s="46" t="s">
         <v>434</v>
       </c>
@@ -11373,7 +11373,9 @@
       <c r="P141" s="20"/>
       <c r="Q141" s="20"/>
       <c r="R141" s="20"/>
-      <c r="S141" s="20"/>
+      <c r="S141" s="95" t="s">
+        <v>230</v>
+      </c>
       <c r="T141" s="20"/>
       <c r="U141" s="20"/>
       <c r="V141" s="20"/>
@@ -11458,7 +11460,7 @@
       <c r="AF143" s="20"/>
       <c r="AG143" s="20"/>
     </row>
-    <row r="144" spans="1:37">
+    <row r="144" spans="1:37" ht="23">
       <c r="A144" s="46" t="s">
         <v>441</v>
       </c>
@@ -11482,7 +11484,9 @@
       <c r="P144" s="20"/>
       <c r="Q144" s="20"/>
       <c r="R144" s="20"/>
-      <c r="S144" s="20"/>
+      <c r="S144" s="95" t="s">
+        <v>230</v>
+      </c>
       <c r="T144" s="20"/>
       <c r="U144" s="20"/>
       <c r="V144" s="20"/>

--- a/Allmatching.xlsx
+++ b/Allmatching.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E901C7-5324-0643-8FB2-C35D9FFE3906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D6D02C-9CA7-0947-9404-EA9F32C820F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
+    <workbookView xWindow="2780" yWindow="1680" windowWidth="28800" windowHeight="16440" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AK$443</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AK$445</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
     <author>tc={8626682B-A59B-8044-8C04-AFA1EFFF0B25}</author>
   </authors>
   <commentList>
-    <comment ref="C378" authorId="0" shapeId="0" xr:uid="{03177C51-6B7C-3647-B59A-80D93510408D}">
+    <comment ref="C380" authorId="0" shapeId="0" xr:uid="{03177C51-6B7C-3647-B59A-80D93510408D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -53,7 +53,7 @@
 3rd pub: part 2 safety</t>
       </text>
     </comment>
-    <comment ref="C392" authorId="1" shapeId="0" xr:uid="{8626682B-A59B-8044-8C04-AFA1EFFF0B25}">
+    <comment ref="C394" authorId="1" shapeId="0" xr:uid="{8626682B-A59B-8044-8C04-AFA1EFFF0B25}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="1184">
   <si>
     <t>Phase 3 info</t>
   </si>
@@ -3651,9 +3651,6 @@
     <t xml:space="preserve">efficacy and pharmocokinet-not designed for efficacy comparison against a collab </t>
   </si>
   <si>
-    <t>ß</t>
-  </si>
-  <si>
     <t>changes things</t>
   </si>
   <si>
@@ -3682,13 +3679,37 @@
   </si>
   <si>
     <t xml:space="preserve">consider these too different -not a small molecular difference or change in administration </t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0002852</t>
+  </si>
+  <si>
+    <t>26/10/2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stroke </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tolerbility </t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>https://www.thieme-connect.com/products/ejournals/html/10.1160/TH04-09-0559</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>NCT01689233</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3939,6 +3960,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -4089,7 +4116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4228,10 +4255,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4564,12 +4589,12 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C378" dT="2023-01-22T23:14:26.59" personId="{998893D4-8238-0946-B3DE-F53D66930684}" id="{03177C51-6B7C-3647-B59A-80D93510408D}">
+  <threadedComment ref="C380" dT="2023-01-22T23:14:26.59" personId="{998893D4-8238-0946-B3DE-F53D66930684}" id="{03177C51-6B7C-3647-B59A-80D93510408D}">
     <text>1st pub: parts 1 and 2
 2nd pub: part 2 (take this one as primary)
 3rd pub: part 2 safety</text>
   </threadedComment>
-  <threadedComment ref="C392" dT="2023-01-22T22:58:18.11" personId="{998893D4-8238-0946-B3DE-F53D66930684}" id="{8626682B-A59B-8044-8C04-AFA1EFFF0B25}">
+  <threadedComment ref="C394" dT="2023-01-22T22:58:18.11" personId="{998893D4-8238-0946-B3DE-F53D66930684}" id="{8626682B-A59B-8044-8C04-AFA1EFFF0B25}">
     <text>P2b?</text>
   </threadedComment>
 </ThreadedComments>
@@ -4578,13 +4603,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F0353-714E-C24F-9141-2C52DBDF8C59}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AK445"/>
+  <dimension ref="A1:AK447"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Q239" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="W274" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ276" sqref="AJ276"/>
+      <selection pane="bottomRight" activeCell="Y304" sqref="Y304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4679,7 +4704,7 @@
         <v>757</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>12</v>
@@ -4724,7 +4749,7 @@
         <v>23</v>
       </c>
       <c r="AD2" s="14" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AE2" s="15" t="s">
         <v>24</v>
@@ -4736,7 +4761,7 @@
         <v>1094</v>
       </c>
       <c r="AH2" s="75" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AI2" s="16" t="s">
         <v>26</v>
@@ -4912,7 +4937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" s="18">
         <v>1</v>
       </c>
@@ -4937,7 +4962,7 @@
       <c r="AC6" s="26"/>
       <c r="AD6" s="26"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>47</v>
       </c>
@@ -4991,7 +5016,7 @@
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" s="18">
         <v>1</v>
       </c>
@@ -5017,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>55</v>
       </c>
@@ -5071,7 +5096,7 @@
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" s="18">
         <v>1</v>
       </c>
@@ -5244,7 +5269,7 @@
       </c>
       <c r="AI13" s="19"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" s="18">
         <v>1</v>
       </c>
@@ -5304,7 +5329,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="18" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="P15" s="22" t="s">
         <v>69</v>
@@ -6123,7 +6148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>109</v>
       </c>
@@ -6175,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" s="18">
         <v>1</v>
       </c>
@@ -6229,7 +6254,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>116</v>
       </c>
@@ -6283,7 +6308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" s="18">
         <v>1</v>
       </c>
@@ -6334,7 +6359,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>124</v>
       </c>
@@ -6386,7 +6411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" s="18">
         <v>1</v>
       </c>
@@ -6434,7 +6459,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" s="18">
         <v>1</v>
       </c>
@@ -6456,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>132</v>
       </c>
@@ -6508,7 +6533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" s="18">
         <v>1</v>
       </c>
@@ -6553,7 +6578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" s="18">
         <v>1</v>
       </c>
@@ -6572,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" s="18">
         <v>1</v>
       </c>
@@ -6591,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>138</v>
       </c>
@@ -6643,7 +6668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" s="18">
         <v>1</v>
       </c>
@@ -6688,7 +6713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>147</v>
       </c>
@@ -6740,7 +6765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" s="18">
         <v>1</v>
       </c>
@@ -6785,7 +6810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
         <v>149</v>
       </c>
@@ -6837,7 +6862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" s="18">
         <v>1</v>
       </c>
@@ -6934,7 +6959,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
         <v>155</v>
       </c>
@@ -6989,7 +7014,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="18">
         <v>1</v>
       </c>
@@ -7168,7 +7193,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>173</v>
       </c>
@@ -7220,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" s="18">
         <v>1</v>
       </c>
@@ -7268,7 +7293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
         <v>181</v>
       </c>
@@ -7320,7 +7345,7 @@
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
     </row>
-    <row r="57" spans="1:37" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>571</v>
       </c>
@@ -7938,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="45" t="s">
         <v>222</v>
       </c>
@@ -7988,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="22"/>
       <c r="B73" s="18">
         <v>1</v>
@@ -8019,7 +8044,7 @@
         <v>2</v>
       </c>
       <c r="O73" s="18" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="Q73" s="23" t="s">
         <v>226</v>
@@ -8058,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="22"/>
       <c r="B74" s="18">
         <v>1</v>
@@ -8309,7 +8334,7 @@
       <c r="Y77" s="26" t="s">
         <v>1061</v>
       </c>
-      <c r="Z77" s="108" t="s">
+      <c r="Z77" s="18" t="s">
         <v>100</v>
       </c>
       <c r="AA77" s="18">
@@ -8594,7 +8619,7 @@
       <c r="Y82" s="26" t="s">
         <v>1061</v>
       </c>
-      <c r="Z82" s="108" t="s">
+      <c r="Z82" s="18" t="s">
         <v>100</v>
       </c>
       <c r="AA82" s="18">
@@ -8609,7 +8634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="45" t="s">
         <v>253</v>
       </c>
@@ -8659,7 +8684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="22"/>
       <c r="B84" s="18">
         <v>1</v>
@@ -8717,7 +8742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="22"/>
       <c r="B85" s="18">
         <v>1</v>
@@ -8775,7 +8800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="45" t="s">
         <v>263</v>
       </c>
@@ -8825,7 +8850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
       <c r="B87" s="18">
         <v>1</v>
@@ -8883,7 +8908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="22"/>
       <c r="B88" s="18">
         <v>1</v>
@@ -8941,7 +8966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="45" t="s">
         <v>272</v>
       </c>
@@ -8991,7 +9016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="22"/>
       <c r="B90" s="18">
         <v>1</v>
@@ -9049,7 +9074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="45" t="s">
         <v>274</v>
       </c>
@@ -9099,7 +9124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="22"/>
       <c r="B92" s="18">
         <v>1</v>
@@ -9157,7 +9182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="22"/>
       <c r="B93" s="18">
         <v>1</v>
@@ -9215,7 +9240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="45" t="s">
         <v>277</v>
       </c>
@@ -9265,7 +9290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="22"/>
       <c r="B95" s="18">
         <v>1</v>
@@ -9323,7 +9348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="22"/>
       <c r="B96" s="18">
         <v>1</v>
@@ -9429,7 +9454,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="45" t="s">
         <v>283</v>
       </c>
@@ -9479,7 +9504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="22"/>
       <c r="B99" s="18">
         <v>1</v>
@@ -9537,7 +9562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="45" t="s">
         <v>288</v>
       </c>
@@ -9587,7 +9612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="22"/>
       <c r="B101" s="18">
         <v>1</v>
@@ -9645,7 +9670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="45" t="s">
         <v>294</v>
       </c>
@@ -9695,7 +9720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="22"/>
       <c r="B103" s="18">
         <v>1</v>
@@ -9728,7 +9753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="22"/>
       <c r="B104" s="18">
         <v>1</v>
@@ -9789,7 +9814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="45" t="s">
         <v>301</v>
       </c>
@@ -9839,7 +9864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="22"/>
       <c r="B106" s="18">
         <v>1</v>
@@ -9961,7 +9986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="45" t="s">
         <v>312</v>
       </c>
@@ -10011,7 +10036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="22"/>
       <c r="B109" s="18">
         <v>1</v>
@@ -10069,7 +10094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="45" t="s">
         <v>315</v>
       </c>
@@ -10115,11 +10140,11 @@
       <c r="AF110" s="19"/>
       <c r="AG110" s="19"/>
       <c r="AH110" s="19"/>
-      <c r="AI110" s="108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI110" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="22"/>
       <c r="B111" s="18">
         <v>1</v>
@@ -10177,7 +10202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="45" t="s">
         <v>318</v>
       </c>
@@ -10233,7 +10258,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="22"/>
       <c r="B113" s="18">
         <v>1</v>
@@ -10292,7 +10317,7 @@
       </c>
       <c r="AJ113" s="23"/>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="45" t="s">
         <v>326</v>
       </c>
@@ -10348,7 +10373,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="22"/>
       <c r="B115" s="18">
         <v>1</v>
@@ -11233,7 +11258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A134" s="22"/>
       <c r="B134" s="18" t="s">
         <v>571</v>
@@ -11402,7 +11427,7 @@
       <c r="AH136" s="19"/>
       <c r="AI136" s="19"/>
     </row>
-    <row r="137" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A137" s="45" t="s">
         <v>380</v>
       </c>
@@ -11451,7 +11476,7 @@
       <c r="AH137" s="19"/>
       <c r="AI137" s="19"/>
     </row>
-    <row r="138" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A138" s="22"/>
       <c r="B138" t="s">
         <v>571</v>
@@ -11509,7 +11534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="45" t="s">
         <v>387</v>
       </c>
@@ -11562,7 +11587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="22"/>
       <c r="B140" s="18">
         <v>1</v>
@@ -11632,7 +11657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="22"/>
       <c r="B141" s="18">
         <v>1</v>
@@ -11752,7 +11777,7 @@
       <c r="AH142" s="19"/>
       <c r="AI142" s="19"/>
     </row>
-    <row r="143" spans="1:35" s="22" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>571</v>
       </c>
@@ -11815,7 +11840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:35" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>571</v>
       </c>
@@ -11854,7 +11879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="45" t="s">
         <v>402</v>
       </c>
@@ -12020,7 +12045,7 @@
       <c r="AH148" s="19"/>
       <c r="AI148" s="19"/>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="45" t="s">
         <v>414</v>
       </c>
@@ -12070,7 +12095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:36" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:36" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" s="18">
         <v>1</v>
       </c>
@@ -12131,7 +12156,7 @@
       <c r="AH151" s="19"/>
       <c r="AI151" s="19"/>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="45" t="s">
         <v>421</v>
       </c>
@@ -12179,7 +12204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="22"/>
       <c r="B153" s="18">
         <v>1</v>
@@ -12201,7 +12226,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="154" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A154" s="45" t="s">
         <v>423</v>
       </c>
@@ -12251,7 +12276,7 @@
       <c r="AH154" s="19"/>
       <c r="AI154" s="19"/>
     </row>
-    <row r="155" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A155" s="22"/>
       <c r="B155" t="s">
         <v>571</v>
@@ -12306,7 +12331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A156" s="45" t="s">
         <v>429</v>
       </c>
@@ -12452,7 +12477,7 @@
       <c r="AH158" s="19"/>
       <c r="AI158" s="19"/>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="45" t="s">
         <v>441</v>
       </c>
@@ -12505,7 +12530,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="22"/>
       <c r="B160" s="18">
         <v>1</v>
@@ -12551,7 +12576,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="22"/>
       <c r="B161" s="18">
         <v>1</v>
@@ -12580,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="22"/>
       <c r="B162" s="18">
         <v>1</v>
@@ -12609,7 +12634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="22"/>
       <c r="B163" s="18">
         <v>1</v>
@@ -12638,7 +12663,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" s="18">
         <v>1</v>
       </c>
@@ -12676,7 +12701,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" s="18">
         <v>1</v>
       </c>
@@ -12695,7 +12720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="45" t="s">
         <v>460</v>
       </c>
@@ -12748,7 +12773,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="22"/>
       <c r="B167" s="18">
         <v>1</v>
@@ -12794,7 +12819,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="22"/>
       <c r="B168" s="18">
         <v>1</v>
@@ -12823,7 +12848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="22"/>
       <c r="B169" s="18">
         <v>1</v>
@@ -12852,7 +12877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="22"/>
       <c r="B170" s="18">
         <v>1</v>
@@ -12881,7 +12906,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" s="18">
         <v>1</v>
       </c>
@@ -12919,7 +12944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" s="18">
         <v>1</v>
       </c>
@@ -12938,7 +12963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="45" t="s">
         <v>462</v>
       </c>
@@ -12991,7 +13016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="22"/>
       <c r="B174" s="18">
         <v>1</v>
@@ -13045,7 +13070,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="45" t="s">
         <v>467</v>
       </c>
@@ -13098,7 +13123,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="22"/>
       <c r="B176" s="18">
         <v>1</v>
@@ -13144,7 +13169,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="22"/>
       <c r="B177" s="18">
         <v>1</v>
@@ -13173,7 +13198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="22"/>
       <c r="B178" s="18">
         <v>1</v>
@@ -13202,7 +13227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="22"/>
       <c r="B179" s="18">
         <v>1</v>
@@ -13231,7 +13256,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" s="18">
         <v>1</v>
       </c>
@@ -13269,7 +13294,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" s="18">
         <v>1</v>
       </c>
@@ -13288,7 +13313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="45" t="s">
         <v>470</v>
       </c>
@@ -13341,7 +13366,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="22"/>
       <c r="B183" s="18">
         <v>1</v>
@@ -13387,7 +13412,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="22"/>
       <c r="B184" s="18">
         <v>1</v>
@@ -13416,7 +13441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="22"/>
       <c r="B185" s="18">
         <v>1</v>
@@ -13445,7 +13470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="22"/>
       <c r="B186" s="18">
         <v>1</v>
@@ -13474,7 +13499,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" s="18">
         <v>1</v>
       </c>
@@ -13512,7 +13537,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" s="18">
         <v>1</v>
       </c>
@@ -13740,7 +13765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A193" s="45" t="s">
         <v>484</v>
       </c>
@@ -13791,7 +13816,7 @@
       <c r="AH193" s="19"/>
       <c r="AI193" s="19"/>
     </row>
-    <row r="194" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A194" s="22"/>
       <c r="B194" s="18" t="s">
         <v>571</v>
@@ -13898,7 +13923,7 @@
       <c r="AH195" s="19"/>
       <c r="AI195" s="19"/>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="45" t="s">
         <v>490</v>
       </c>
@@ -13948,7 +13973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" s="18">
         <v>1</v>
       </c>
@@ -13995,7 +14020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" s="18">
         <v>1</v>
       </c>
@@ -14018,7 +14043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" s="18">
         <v>1</v>
       </c>
@@ -14288,7 +14313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="57" t="s">
         <v>519</v>
       </c>
@@ -14338,7 +14363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" s="18">
         <v>1</v>
       </c>
@@ -14386,7 +14411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="57" t="s">
         <v>521</v>
       </c>
@@ -14715,7 +14740,7 @@
       <c r="AH214" s="59"/>
       <c r="AI214" s="59"/>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="22"/>
       <c r="B215" s="18">
         <v>1</v>
@@ -14778,7 +14803,7 @@
         <v>12</v>
       </c>
       <c r="P216" s="59"/>
-      <c r="Q216" s="110" t="s">
+      <c r="Q216" s="38" t="s">
         <v>1159</v>
       </c>
       <c r="R216" s="38" t="s">
@@ -14805,8 +14830,8 @@
       <c r="Y216" s="18" t="s">
         <v>1165</v>
       </c>
-      <c r="AA216" s="109" t="s">
-        <v>1171</v>
+      <c r="AA216" s="108" t="s">
+        <v>1170</v>
       </c>
       <c r="AF216" s="18">
         <v>1</v>
@@ -14815,7 +14840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="22"/>
       <c r="B217" s="18">
         <v>1</v>
@@ -14841,7 +14866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="57" t="s">
         <v>545</v>
       </c>
@@ -15097,7 +15122,7 @@
       <c r="AG222" s="59"/>
       <c r="AH222" s="59"/>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="22"/>
       <c r="B223" s="18">
         <v>1</v>
@@ -15179,7 +15204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="22"/>
       <c r="B225" s="18">
         <v>1</v>
@@ -15298,7 +15323,7 @@
       <c r="AG227" s="59"/>
       <c r="AH227" s="59"/>
     </row>
-    <row r="228" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="22"/>
       <c r="B228" s="18">
         <v>1</v>
@@ -15380,7 +15405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="22"/>
       <c r="B230" s="18">
         <v>1</v>
@@ -15504,7 +15529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="22"/>
       <c r="B233" s="18">
         <v>1</v>
@@ -15529,7 +15554,7 @@
       <c r="AC233" s="66"/>
       <c r="AD233" s="66"/>
     </row>
-    <row r="234" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="22"/>
       <c r="B234" s="18">
         <v>1</v>
@@ -15704,7 +15729,7 @@
       <c r="AG237" s="59"/>
       <c r="AH237" s="59"/>
     </row>
-    <row r="238" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="22"/>
       <c r="B238" s="18">
         <v>1</v>
@@ -15786,7 +15811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="22"/>
       <c r="B240" s="18">
         <v>1</v>
@@ -15808,7 +15833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A241" s="57" t="s">
         <v>586</v>
       </c>
@@ -15858,7 +15883,7 @@
       <c r="AH241" s="59"/>
       <c r="AI241" s="59"/>
     </row>
-    <row r="242" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A242" s="22"/>
       <c r="B242" t="s">
         <v>571</v>
@@ -16273,7 +16298,7 @@
         <v>75</v>
       </c>
       <c r="AA250" s="18" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AF250" s="18">
         <v>1</v>
@@ -16356,7 +16381,7 @@
       </c>
       <c r="AA252" s="46"/>
     </row>
-    <row r="253" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="57" t="s">
         <v>621</v>
       </c>
@@ -16406,7 +16431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="22"/>
       <c r="B254" s="18">
         <v>1</v>
@@ -16772,7 +16797,7 @@
       <c r="AH260" s="59"/>
       <c r="AI260" s="59"/>
     </row>
-    <row r="261" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A261" s="57" t="s">
         <v>653</v>
       </c>
@@ -16826,7 +16851,7 @@
       <c r="AH261" s="59"/>
       <c r="AI261" s="59"/>
     </row>
-    <row r="262" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A262" s="22"/>
       <c r="B262" s="18" t="s">
         <v>571</v>
@@ -16872,7 +16897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A263" s="22"/>
       <c r="B263" s="18" t="s">
         <v>571</v>
@@ -16921,7 +16946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A264" s="22"/>
       <c r="B264" s="18" t="s">
         <v>571</v>
@@ -16971,7 +16996,7 @@
       </c>
       <c r="AH264" s="59"/>
     </row>
-    <row r="265" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A265" s="57" t="s">
         <v>661</v>
       </c>
@@ -17023,7 +17048,7 @@
       <c r="AH265" s="59"/>
       <c r="AI265" s="59"/>
     </row>
-    <row r="266" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A266" s="22"/>
       <c r="B266" t="s">
         <v>571</v>
@@ -17188,7 +17213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="22"/>
       <c r="B269" s="18">
         <v>1</v>
@@ -17375,7 +17400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A273" s="22"/>
       <c r="B273" t="s">
         <v>571</v>
@@ -17442,7 +17467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A274" s="22"/>
       <c r="B274" t="s">
         <v>571</v>
@@ -17512,7 +17537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="57" t="s">
         <v>697</v>
       </c>
@@ -17545,7 +17570,7 @@
       </c>
       <c r="U275" s="59"/>
       <c r="V275" s="26" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="W275" s="59"/>
       <c r="X275" s="19" t="s">
@@ -17564,7 +17589,7 @@
       <c r="AH275" s="59"/>
       <c r="AI275" s="59"/>
     </row>
-    <row r="276" spans="1:36" ht="23" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:36" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="57"/>
       <c r="B276" s="18">
         <v>1</v>
@@ -17591,7 +17616,7 @@
       <c r="U276" s="18">
         <v>1</v>
       </c>
-      <c r="V276" s="111" t="s">
+      <c r="V276" s="26" t="s">
         <v>765</v>
       </c>
       <c r="W276" s="18">
@@ -17608,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="AJ276" s="18" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="277" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
@@ -17755,7 +17780,7 @@
       </c>
       <c r="AI279" s="59"/>
     </row>
-    <row r="280" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B280" s="18">
         <v>1</v>
       </c>
@@ -17953,7 +17978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B284" s="18">
         <v>1</v>
       </c>
@@ -17972,7 +17997,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="285" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B285" s="18">
         <v>1</v>
       </c>
@@ -18043,7 +18068,7 @@
       <c r="AH286" s="59"/>
       <c r="AI286" s="59"/>
     </row>
-    <row r="287" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="74" t="s">
         <v>729</v>
       </c>
@@ -18093,7 +18118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B288" s="18">
         <v>1</v>
       </c>
@@ -18107,7 +18132,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="289" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="59" t="s">
         <v>732</v>
       </c>
@@ -18159,7 +18184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B290" s="18">
         <v>1</v>
       </c>
@@ -18283,7 +18308,7 @@
       <c r="AH293" s="59"/>
       <c r="AI293" s="59"/>
     </row>
-    <row r="294" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="59" t="s">
         <v>741</v>
       </c>
@@ -18327,7 +18352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B295" s="18">
         <v>1</v>
       </c>
@@ -18931,7 +18956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="22"/>
       <c r="B310" s="22">
         <v>1</v>
@@ -19124,7 +19149,7 @@
       </c>
       <c r="AH314" s="59"/>
     </row>
-    <row r="315" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="22"/>
       <c r="B315" s="22">
         <v>1</v>
@@ -19205,7 +19230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="22"/>
       <c r="B317" s="22">
         <v>1</v>
@@ -19282,7 +19307,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="319" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="45" t="s">
         <v>811</v>
       </c>
@@ -19338,7 +19363,7 @@
       <c r="AJ319" s="19"/>
       <c r="AK319" s="19"/>
     </row>
-    <row r="320" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="22"/>
       <c r="B320" s="22">
         <v>1</v>
@@ -19394,7 +19419,7 @@
         <v>1</v>
       </c>
       <c r="Y320" s="18" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="Z320" s="18" t="s">
         <v>43</v>
@@ -19402,14 +19427,14 @@
       <c r="AA320" s="18">
         <v>1</v>
       </c>
-      <c r="AB320" s="108" t="s">
+      <c r="AB320" s="18" t="s">
         <v>1083</v>
       </c>
       <c r="AI320" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:37" ht="21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:37" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="22"/>
       <c r="B321" s="22">
         <v>1</v>
@@ -19465,7 +19490,7 @@
         <v>1</v>
       </c>
       <c r="Y321" s="87" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="Z321" s="18" t="s">
         <v>43</v>
@@ -19648,7 +19673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="45" t="s">
         <v>827</v>
       </c>
@@ -19702,7 +19727,7 @@
       <c r="AJ325" s="19"/>
       <c r="AK325" s="19"/>
     </row>
-    <row r="326" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="19" t="s">
         <v>830</v>
       </c>
@@ -19756,7 +19781,7 @@
       <c r="AJ326" s="19"/>
       <c r="AK326" s="19"/>
     </row>
-    <row r="327" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B327" s="45">
         <v>1</v>
       </c>
@@ -19805,7 +19830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="19" t="s">
         <v>838</v>
       </c>
@@ -19859,7 +19884,7 @@
       <c r="AJ328" s="19"/>
       <c r="AK328" s="19"/>
     </row>
-    <row r="329" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B329" s="18">
         <v>1</v>
       </c>
@@ -19908,7 +19933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="19" t="s">
         <v>844</v>
       </c>
@@ -19962,7 +19987,7 @@
       <c r="AJ330" s="19"/>
       <c r="AK330" s="19"/>
     </row>
-    <row r="331" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B331" s="19">
         <v>1</v>
       </c>
@@ -20011,7 +20036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="19" t="s">
         <v>846</v>
       </c>
@@ -20065,7 +20090,7 @@
       <c r="AJ332" s="19"/>
       <c r="AK332" s="19"/>
     </row>
-    <row r="333" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B333" s="19">
         <v>1</v>
       </c>
@@ -20098,7 +20123,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="334" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B334" s="19">
         <v>1</v>
       </c>
@@ -20146,7 +20171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="19" t="s">
         <v>855</v>
       </c>
@@ -20200,7 +20225,7 @@
       <c r="AJ335" s="19"/>
       <c r="AK335" s="19"/>
     </row>
-    <row r="336" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B336" s="19">
         <v>1</v>
       </c>
@@ -20249,7 +20274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="19" t="s">
         <v>864</v>
       </c>
@@ -20303,7 +20328,7 @@
       <c r="AJ337" s="19"/>
       <c r="AK337" s="19"/>
     </row>
-    <row r="338" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B338" s="19">
         <v>1</v>
       </c>
@@ -20352,7 +20377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="19" t="s">
         <v>868</v>
       </c>
@@ -20406,7 +20431,7 @@
       <c r="AJ339" s="19"/>
       <c r="AK339" s="19"/>
     </row>
-    <row r="340" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B340" s="19">
         <v>1</v>
       </c>
@@ -20455,7 +20480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="19" t="s">
         <v>874</v>
       </c>
@@ -20509,7 +20534,7 @@
       <c r="AJ341" s="19"/>
       <c r="AK341" s="19"/>
     </row>
-    <row r="342" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B342" s="19">
         <v>1</v>
       </c>
@@ -20558,7 +20583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="19" t="s">
         <v>875</v>
       </c>
@@ -20612,7 +20637,7 @@
       <c r="AJ343" s="19"/>
       <c r="AK343" s="19"/>
     </row>
-    <row r="344" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B344" s="19">
         <v>1</v>
       </c>
@@ -20658,7 +20683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="19" t="s">
         <v>881</v>
       </c>
@@ -20712,7 +20737,7 @@
       <c r="AJ345" s="19"/>
       <c r="AK345" s="19"/>
     </row>
-    <row r="346" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B346" s="19">
         <v>1</v>
       </c>
@@ -20757,7 +20782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="19" t="s">
         <v>883</v>
       </c>
@@ -20811,7 +20836,7 @@
       <c r="AJ347" s="19"/>
       <c r="AK347" s="19"/>
     </row>
-    <row r="348" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B348" s="19">
         <v>1</v>
       </c>
@@ -20860,7 +20885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="19" t="s">
         <v>888</v>
       </c>
@@ -20914,7 +20939,7 @@
       <c r="AJ349" s="19"/>
       <c r="AK349" s="19"/>
     </row>
-    <row r="350" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B350" s="19">
         <v>1</v>
       </c>
@@ -20963,7 +20988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="19" t="s">
         <v>891</v>
       </c>
@@ -21017,7 +21042,7 @@
       <c r="AJ351" s="19"/>
       <c r="AK351" s="19"/>
     </row>
-    <row r="352" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B352" s="19">
         <v>1</v>
       </c>
@@ -21066,7 +21091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B353" s="19">
         <v>1</v>
       </c>
@@ -21075,7 +21100,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="354" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="19" t="s">
         <v>900</v>
       </c>
@@ -21129,7 +21154,7 @@
       <c r="AJ354" s="19"/>
       <c r="AK354" s="19"/>
     </row>
-    <row r="355" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="19" t="s">
         <v>903</v>
       </c>
@@ -21183,7 +21208,7 @@
       <c r="AJ355" s="19"/>
       <c r="AK355" s="19"/>
     </row>
-    <row r="356" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B356" s="19">
         <v>1</v>
       </c>
@@ -21351,7 +21376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="19" t="s">
         <v>919</v>
       </c>
@@ -21405,7 +21430,7 @@
       <c r="AJ360" s="19"/>
       <c r="AK360" s="19"/>
     </row>
-    <row r="361" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B361" s="19">
         <v>1</v>
       </c>
@@ -21438,7 +21463,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="362" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B362" s="19">
         <v>1</v>
       </c>
@@ -21486,9 +21511,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A363" s="19" t="s">
-        <v>1166</v>
+    <row r="363" spans="1:37" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="84" t="s">
+        <v>1183</v>
       </c>
       <c r="B363" s="19">
         <v>1</v>
@@ -21540,7 +21565,7 @@
       <c r="AJ363" s="19"/>
       <c r="AK363" s="19"/>
     </row>
-    <row r="364" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B364" s="18">
         <v>1</v>
       </c>
@@ -21684,7 +21709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="45" t="s">
         <v>928</v>
       </c>
@@ -21738,7 +21763,7 @@
       <c r="AJ367" s="19"/>
       <c r="AK367" s="19"/>
     </row>
-    <row r="368" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="45" t="s">
         <v>931</v>
       </c>
@@ -21792,7 +21817,7 @@
       <c r="AJ368" s="19"/>
       <c r="AK368" s="19"/>
     </row>
-    <row r="369" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="45" t="s">
         <v>933</v>
       </c>
@@ -21846,7 +21871,7 @@
       <c r="AJ369" s="19"/>
       <c r="AK369" s="19"/>
     </row>
-    <row r="370" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="22"/>
       <c r="B370" s="22">
         <v>1</v>
@@ -21905,7 +21930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="22"/>
       <c r="B371" s="22">
         <v>1</v>
@@ -21964,7 +21989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="45" t="s">
         <v>941</v>
       </c>
@@ -22017,7 +22042,7 @@
       <c r="AJ372" s="19"/>
       <c r="AK372" s="19"/>
     </row>
-    <row r="373" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="22"/>
       <c r="B373" s="22">
         <v>1</v>
@@ -22076,7 +22101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="22"/>
       <c r="B374" s="22">
         <v>1</v>
@@ -22135,7 +22160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="45" t="s">
         <v>945</v>
       </c>
@@ -22193,7 +22218,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="376" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="22"/>
       <c r="B376" s="22">
         <v>1</v>
@@ -22297,414 +22322,389 @@
       <c r="AB377" s="19"/>
       <c r="AC377" s="19"/>
       <c r="AD377" s="19"/>
-      <c r="AE377" s="19">
-        <v>1</v>
-      </c>
-      <c r="AF377" s="19"/>
-      <c r="AG377" s="19"/>
+      <c r="AE377" s="19"/>
+      <c r="AF377" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG377" s="19">
+        <v>1</v>
+      </c>
       <c r="AH377" s="19"/>
       <c r="AI377" s="19"/>
       <c r="AJ377" s="19"/>
       <c r="AK377" s="19"/>
     </row>
-    <row r="378" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A378" s="45" t="s">
+    <row r="378" spans="1:37" ht="19" x14ac:dyDescent="0.2">
+      <c r="A378" s="22"/>
+      <c r="B378" s="18">
+        <v>1</v>
+      </c>
+      <c r="D378" s="22"/>
+      <c r="E378" s="22"/>
+      <c r="F378" s="22"/>
+      <c r="G378" s="22"/>
+      <c r="H378" s="22"/>
+      <c r="I378" s="22"/>
+      <c r="J378" s="22"/>
+      <c r="K378" s="22"/>
+      <c r="L378" s="22"/>
+      <c r="M378" s="22"/>
+      <c r="Q378" s="18" t="s">
+        <v>1176</v>
+      </c>
+      <c r="R378" s="109" t="s">
+        <v>1177</v>
+      </c>
+      <c r="S378" s="18">
+        <v>1</v>
+      </c>
+      <c r="T378" s="22" t="s">
+        <v>1178</v>
+      </c>
+      <c r="U378" s="18">
+        <v>1</v>
+      </c>
+      <c r="V378" s="22" t="s">
+        <v>954</v>
+      </c>
+      <c r="W378" s="18">
+        <v>1</v>
+      </c>
+      <c r="X378" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y378" s="18" t="s">
+        <v>1179</v>
+      </c>
+      <c r="Z378" s="18" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AF378" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG378" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:37" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="22"/>
+      <c r="B379" s="22"/>
+      <c r="D379" s="22"/>
+      <c r="E379" s="22"/>
+      <c r="F379" s="22"/>
+      <c r="G379" s="22"/>
+      <c r="H379" s="22"/>
+      <c r="I379" s="22"/>
+      <c r="J379" s="22"/>
+      <c r="K379" s="22"/>
+      <c r="L379" s="22"/>
+      <c r="M379" s="22"/>
+      <c r="Q379" s="18" t="s">
+        <v>1181</v>
+      </c>
+      <c r="R379" s="109"/>
+      <c r="T379" s="22"/>
+      <c r="V379" s="22"/>
+      <c r="X379" s="18" t="s">
+        <v>1182</v>
+      </c>
+      <c r="Y379" s="18" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="380" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="B378" s="45">
-        <v>1</v>
-      </c>
-      <c r="C378" s="48" t="s">
+      <c r="B380" s="45">
+        <v>1</v>
+      </c>
+      <c r="C380" s="48" t="s">
         <v>955</v>
       </c>
-      <c r="D378" s="45"/>
-      <c r="E378" s="45"/>
-      <c r="F378" s="45"/>
-      <c r="G378" s="45"/>
-      <c r="H378" s="45"/>
-      <c r="I378" s="45"/>
-      <c r="J378" s="45"/>
-      <c r="K378" s="45"/>
-      <c r="L378" s="45"/>
-      <c r="M378" s="45"/>
-      <c r="N378" s="19"/>
-      <c r="O378" s="19"/>
-      <c r="P378" s="19"/>
-      <c r="Q378" s="19"/>
-      <c r="R378" s="28">
+      <c r="D380" s="45"/>
+      <c r="E380" s="45"/>
+      <c r="F380" s="45"/>
+      <c r="G380" s="45"/>
+      <c r="H380" s="45"/>
+      <c r="I380" s="45"/>
+      <c r="J380" s="45"/>
+      <c r="K380" s="45"/>
+      <c r="L380" s="45"/>
+      <c r="M380" s="45"/>
+      <c r="N380" s="19"/>
+      <c r="O380" s="19"/>
+      <c r="P380" s="19"/>
+      <c r="Q380" s="19"/>
+      <c r="R380" s="28">
         <v>38869</v>
       </c>
-      <c r="S378" s="19"/>
-      <c r="T378" s="31" t="s">
+      <c r="S380" s="19"/>
+      <c r="T380" s="31" t="s">
         <v>953</v>
       </c>
-      <c r="U378" s="19"/>
-      <c r="V378" s="31" t="s">
+      <c r="U380" s="19"/>
+      <c r="V380" s="31" t="s">
         <v>956</v>
       </c>
-      <c r="W378" s="19"/>
-      <c r="X378" s="19" t="s">
+      <c r="W380" s="19"/>
+      <c r="X380" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="Y378" s="19"/>
-      <c r="Z378" s="19"/>
-      <c r="AB378" s="19"/>
-      <c r="AC378" s="19"/>
-      <c r="AD378" s="19"/>
-      <c r="AE378" s="19">
-        <v>1</v>
-      </c>
-      <c r="AF378" s="19"/>
-      <c r="AG378" s="19"/>
-      <c r="AH378" s="19"/>
-      <c r="AI378" s="19"/>
-      <c r="AJ378" s="19"/>
-      <c r="AK378" s="19"/>
-    </row>
-    <row r="379" spans="1:37" customFormat="1" ht="23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="78" t="s">
+      <c r="Y380" s="19"/>
+      <c r="Z380" s="19"/>
+      <c r="AB380" s="19"/>
+      <c r="AC380" s="19"/>
+      <c r="AD380" s="19"/>
+      <c r="AE380" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF380" s="19"/>
+      <c r="AG380" s="19"/>
+      <c r="AH380" s="19"/>
+      <c r="AI380" s="19"/>
+      <c r="AJ380" s="19"/>
+      <c r="AK380" s="19"/>
+    </row>
+    <row r="381" spans="1:37" customFormat="1" ht="23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="78" t="s">
         <v>417</v>
       </c>
-      <c r="B379" s="78" t="s">
+      <c r="B381" s="78" t="s">
         <v>571</v>
       </c>
-      <c r="C379" s="78"/>
-      <c r="D379" s="79"/>
-      <c r="E379" s="78"/>
-      <c r="F379" s="78"/>
-      <c r="G379" s="78"/>
-      <c r="H379" s="78"/>
-      <c r="I379" s="78"/>
-      <c r="J379" s="78"/>
-      <c r="K379" s="78"/>
-      <c r="L379" s="78"/>
-      <c r="M379" s="78"/>
-      <c r="N379" s="80"/>
-      <c r="O379" s="80"/>
-      <c r="P379" s="80"/>
-      <c r="Q379" s="80"/>
-      <c r="R379" s="81"/>
-      <c r="S379" s="80"/>
-      <c r="T379" s="80"/>
-      <c r="U379" s="80"/>
-      <c r="V379" s="82"/>
-      <c r="W379" s="80"/>
-      <c r="X379" s="19" t="s">
-        <v>766</v>
-      </c>
-      <c r="Y379" s="80"/>
-      <c r="Z379" s="80"/>
-      <c r="AB379" s="80"/>
-      <c r="AC379" s="80"/>
-      <c r="AD379" s="80"/>
-      <c r="AE379" s="80"/>
-      <c r="AF379" s="80"/>
-      <c r="AG379" s="80"/>
-      <c r="AH379" s="80"/>
-      <c r="AI379" s="80">
-        <v>1</v>
-      </c>
-      <c r="AJ379" s="80"/>
-      <c r="AK379" s="80"/>
-    </row>
-    <row r="380" spans="1:37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="83"/>
-      <c r="B380" s="83" t="s">
-        <v>571</v>
-      </c>
-      <c r="C380" s="83"/>
-      <c r="D380" s="1"/>
-      <c r="E380" s="83"/>
-      <c r="F380" s="83"/>
-      <c r="G380" s="83"/>
-      <c r="H380" s="83"/>
-      <c r="I380" s="83"/>
-      <c r="J380" s="83"/>
-      <c r="K380" s="83"/>
-      <c r="L380" s="83"/>
-      <c r="M380" s="83"/>
-      <c r="P380" t="s">
-        <v>410</v>
-      </c>
-      <c r="AI380">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A381" s="45" t="s">
-        <v>957</v>
-      </c>
-      <c r="B381" s="45">
-        <v>1</v>
-      </c>
-      <c r="C381" s="19"/>
-      <c r="D381" s="19"/>
-      <c r="E381" s="45"/>
-      <c r="F381" s="45"/>
-      <c r="G381" s="45"/>
-      <c r="H381" s="45"/>
-      <c r="I381" s="45"/>
-      <c r="J381" s="45"/>
-      <c r="K381" s="45"/>
-      <c r="L381" s="45"/>
-      <c r="M381" s="45"/>
-      <c r="N381" s="19"/>
-      <c r="O381" s="19"/>
-      <c r="P381" s="19"/>
-      <c r="Q381" s="19"/>
-      <c r="R381" s="28">
-        <v>41548</v>
-      </c>
-      <c r="S381" s="19"/>
-      <c r="T381" s="22" t="s">
-        <v>958</v>
-      </c>
-      <c r="U381" s="19"/>
-      <c r="V381" s="18" t="s">
-        <v>959</v>
-      </c>
-      <c r="W381" s="19"/>
+      <c r="C381" s="78"/>
+      <c r="D381" s="79"/>
+      <c r="E381" s="78"/>
+      <c r="F381" s="78"/>
+      <c r="G381" s="78"/>
+      <c r="H381" s="78"/>
+      <c r="I381" s="78"/>
+      <c r="J381" s="78"/>
+      <c r="K381" s="78"/>
+      <c r="L381" s="78"/>
+      <c r="M381" s="78"/>
+      <c r="N381" s="80"/>
+      <c r="O381" s="80"/>
+      <c r="P381" s="80"/>
+      <c r="Q381" s="80"/>
+      <c r="R381" s="81"/>
+      <c r="S381" s="80"/>
+      <c r="T381" s="80"/>
+      <c r="U381" s="80"/>
+      <c r="V381" s="82"/>
+      <c r="W381" s="80"/>
       <c r="X381" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="Y381" s="19"/>
-      <c r="Z381" s="19"/>
-      <c r="AB381" s="19"/>
-      <c r="AC381" s="19"/>
-      <c r="AD381" s="19"/>
-      <c r="AE381" s="19"/>
-      <c r="AF381" s="19"/>
-      <c r="AG381" s="19"/>
-      <c r="AH381" s="19"/>
-      <c r="AI381" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ381" s="19"/>
-      <c r="AK381" s="19"/>
-    </row>
-    <row r="382" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A382" s="22"/>
-      <c r="B382" s="22">
-        <v>1</v>
-      </c>
-      <c r="E382" s="22"/>
-      <c r="F382" s="22"/>
-      <c r="G382" s="22"/>
-      <c r="H382" s="22"/>
-      <c r="I382" s="22"/>
-      <c r="J382" s="22"/>
-      <c r="K382" s="22"/>
-      <c r="L382" s="22"/>
-      <c r="M382" s="22"/>
-      <c r="N382" s="22" t="s">
+      <c r="Y381" s="80"/>
+      <c r="Z381" s="80"/>
+      <c r="AB381" s="80"/>
+      <c r="AC381" s="80"/>
+      <c r="AD381" s="80"/>
+      <c r="AE381" s="80"/>
+      <c r="AF381" s="80"/>
+      <c r="AG381" s="80"/>
+      <c r="AH381" s="80"/>
+      <c r="AI381" s="80">
+        <v>1</v>
+      </c>
+      <c r="AJ381" s="80"/>
+      <c r="AK381" s="80"/>
+    </row>
+    <row r="382" spans="1:37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="83"/>
+      <c r="B382" s="83" t="s">
+        <v>571</v>
+      </c>
+      <c r="C382" s="83"/>
+      <c r="D382" s="1"/>
+      <c r="E382" s="83"/>
+      <c r="F382" s="83"/>
+      <c r="G382" s="83"/>
+      <c r="H382" s="83"/>
+      <c r="I382" s="83"/>
+      <c r="J382" s="83"/>
+      <c r="K382" s="83"/>
+      <c r="L382" s="83"/>
+      <c r="M382" s="83"/>
+      <c r="P382" t="s">
+        <v>410</v>
+      </c>
+      <c r="AI382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="45" t="s">
+        <v>957</v>
+      </c>
+      <c r="B383" s="45">
+        <v>1</v>
+      </c>
+      <c r="C383" s="19"/>
+      <c r="D383" s="19"/>
+      <c r="E383" s="45"/>
+      <c r="F383" s="45"/>
+      <c r="G383" s="45"/>
+      <c r="H383" s="45"/>
+      <c r="I383" s="45"/>
+      <c r="J383" s="45"/>
+      <c r="K383" s="45"/>
+      <c r="L383" s="45"/>
+      <c r="M383" s="45"/>
+      <c r="N383" s="19"/>
+      <c r="O383" s="19"/>
+      <c r="P383" s="19"/>
+      <c r="Q383" s="19"/>
+      <c r="R383" s="28">
+        <v>41548</v>
+      </c>
+      <c r="S383" s="19"/>
+      <c r="T383" s="22" t="s">
+        <v>958</v>
+      </c>
+      <c r="U383" s="19"/>
+      <c r="V383" s="18" t="s">
+        <v>959</v>
+      </c>
+      <c r="W383" s="19"/>
+      <c r="X383" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y383" s="19"/>
+      <c r="Z383" s="19"/>
+      <c r="AB383" s="19"/>
+      <c r="AC383" s="19"/>
+      <c r="AD383" s="19"/>
+      <c r="AE383" s="19"/>
+      <c r="AF383" s="19"/>
+      <c r="AG383" s="19"/>
+      <c r="AH383" s="19"/>
+      <c r="AI383" s="19">
+        <v>1</v>
+      </c>
+      <c r="AJ383" s="19"/>
+      <c r="AK383" s="19"/>
+    </row>
+    <row r="384" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="22"/>
+      <c r="B384" s="22">
+        <v>1</v>
+      </c>
+      <c r="E384" s="22"/>
+      <c r="F384" s="22"/>
+      <c r="G384" s="22"/>
+      <c r="H384" s="22"/>
+      <c r="I384" s="22"/>
+      <c r="J384" s="22"/>
+      <c r="K384" s="22"/>
+      <c r="L384" s="22"/>
+      <c r="M384" s="22"/>
+      <c r="N384" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="O382" s="22"/>
-      <c r="P382" s="32" t="s">
+      <c r="O384" s="22"/>
+      <c r="P384" s="32" t="s">
         <v>960</v>
       </c>
-      <c r="Q382" s="18" t="s">
+      <c r="Q384" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="R382" s="28">
+      <c r="R384" s="28">
         <v>39114</v>
       </c>
-      <c r="S382" s="18">
-        <v>1</v>
-      </c>
-      <c r="T382" s="22" t="s">
+      <c r="S384" s="18">
+        <v>1</v>
+      </c>
+      <c r="T384" s="22" t="s">
         <v>958</v>
       </c>
-      <c r="U382" s="18">
-        <v>1</v>
-      </c>
-      <c r="V382" s="31" t="s">
+      <c r="U384" s="18">
+        <v>1</v>
+      </c>
+      <c r="V384" s="31" t="s">
         <v>959</v>
       </c>
-      <c r="W382" s="18">
-        <v>1</v>
-      </c>
-      <c r="X382" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y382" s="32" t="s">
+      <c r="W384" s="18">
+        <v>1</v>
+      </c>
+      <c r="X384" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y384" s="32" t="s">
         <v>962</v>
       </c>
-      <c r="Z382" s="18" t="s">
+      <c r="Z384" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AA382" s="18">
-        <v>1</v>
-      </c>
-      <c r="AI382" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="22"/>
-      <c r="B383" s="22" t="s">
+      <c r="AA384" s="18">
+        <v>1</v>
+      </c>
+      <c r="AI384" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="22"/>
+      <c r="B385" s="22" t="s">
         <v>571</v>
       </c>
-      <c r="E383" s="22"/>
-      <c r="F383" s="22"/>
-      <c r="G383" s="22"/>
-      <c r="H383" s="22"/>
-      <c r="I383" s="22"/>
-      <c r="J383" s="22"/>
-      <c r="K383" s="22"/>
-      <c r="L383" s="22"/>
-      <c r="M383" s="22"/>
-      <c r="N383" s="22"/>
-      <c r="O383" s="22" t="s">
+      <c r="E385" s="22"/>
+      <c r="F385" s="22"/>
+      <c r="G385" s="22"/>
+      <c r="H385" s="22"/>
+      <c r="I385" s="22"/>
+      <c r="J385" s="22"/>
+      <c r="K385" s="22"/>
+      <c r="L385" s="22"/>
+      <c r="M385" s="22"/>
+      <c r="N385" s="22"/>
+      <c r="O385" s="22" t="s">
         <v>1158</v>
       </c>
-      <c r="P383" s="32" t="s">
+      <c r="P385" s="32" t="s">
         <v>1135</v>
       </c>
-      <c r="R383" s="28"/>
-      <c r="T383" s="22"/>
-      <c r="V383" s="31"/>
-      <c r="Y383" s="32"/>
-    </row>
-    <row r="384" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A384" s="45" t="s">
-        <v>963</v>
-      </c>
-      <c r="B384" s="45">
-        <v>1</v>
-      </c>
-      <c r="C384" s="19" t="s">
-        <v>964</v>
-      </c>
-      <c r="D384" s="19"/>
-      <c r="E384" s="19"/>
-      <c r="F384" s="19"/>
-      <c r="G384" s="19"/>
-      <c r="H384" s="19"/>
-      <c r="I384" s="19"/>
-      <c r="J384" s="19"/>
-      <c r="K384" s="19"/>
-      <c r="L384" s="19"/>
-      <c r="M384" s="19"/>
-      <c r="N384" s="19"/>
-      <c r="O384" s="19"/>
-      <c r="P384" s="19"/>
-      <c r="Q384" s="19"/>
-      <c r="R384" s="28">
-        <v>39692</v>
-      </c>
-      <c r="S384" s="19"/>
-      <c r="T384" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="U384" s="19"/>
-      <c r="V384" s="22" t="s">
-        <v>965</v>
-      </c>
-      <c r="W384" s="19"/>
-      <c r="X384" s="19" t="s">
-        <v>766</v>
-      </c>
-      <c r="Y384" s="19"/>
-      <c r="Z384" s="19"/>
-      <c r="AB384" s="19"/>
-      <c r="AC384" s="19"/>
-      <c r="AD384" s="19"/>
-      <c r="AE384" s="19"/>
-      <c r="AF384" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG384" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH384" s="19"/>
-      <c r="AI384" s="19"/>
-      <c r="AJ384" s="19"/>
-      <c r="AK384" s="19"/>
-    </row>
-    <row r="385" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A385" s="22"/>
-      <c r="B385" s="22">
-        <v>1</v>
-      </c>
-      <c r="N385" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="P385" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q385" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="R385" s="28">
-        <v>38626</v>
-      </c>
-      <c r="S385" s="18">
-        <v>1</v>
-      </c>
-      <c r="T385" s="63" t="s">
-        <v>536</v>
-      </c>
-      <c r="U385" s="18">
-        <v>1</v>
-      </c>
-      <c r="V385" s="51" t="s">
-        <v>552</v>
-      </c>
-      <c r="W385" s="18">
-        <v>1</v>
-      </c>
-      <c r="X385" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y385" s="26" t="s">
-        <v>555</v>
-      </c>
-      <c r="Z385" s="18" t="s">
-        <v>1045</v>
-      </c>
-      <c r="AB385" s="26"/>
-      <c r="AF385" s="18">
-        <v>1</v>
-      </c>
-      <c r="AG385" s="18">
-        <v>1</v>
-      </c>
+      <c r="R385" s="28"/>
+      <c r="T385" s="22"/>
+      <c r="V385" s="31"/>
+      <c r="Y385" s="32"/>
     </row>
     <row r="386" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A386" s="45" t="s">
-        <v>534</v>
+        <v>963</v>
       </c>
       <c r="B386" s="45">
         <v>1</v>
       </c>
-      <c r="C386" s="45" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D386" s="45"/>
-      <c r="E386" s="45"/>
-      <c r="F386" s="45"/>
-      <c r="G386" s="45"/>
-      <c r="H386" s="45"/>
-      <c r="I386" s="45"/>
-      <c r="J386" s="45"/>
-      <c r="K386" s="45"/>
-      <c r="L386" s="45"/>
-      <c r="M386" s="45"/>
+      <c r="C386" s="19" t="s">
+        <v>964</v>
+      </c>
+      <c r="D386" s="19"/>
+      <c r="E386" s="19"/>
+      <c r="F386" s="19"/>
+      <c r="G386" s="19"/>
+      <c r="H386" s="19"/>
+      <c r="I386" s="19"/>
+      <c r="J386" s="19"/>
+      <c r="K386" s="19"/>
+      <c r="L386" s="19"/>
+      <c r="M386" s="19"/>
       <c r="N386" s="19"/>
       <c r="O386" s="19"/>
       <c r="P386" s="19"/>
       <c r="Q386" s="19"/>
       <c r="R386" s="28">
-        <v>39873</v>
+        <v>39692</v>
       </c>
       <c r="S386" s="19"/>
-      <c r="T386" s="31" t="s">
-        <v>966</v>
+      <c r="T386" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="U386" s="19"/>
-      <c r="V386" s="31" t="s">
-        <v>967</v>
+      <c r="V386" s="22" t="s">
+        <v>965</v>
       </c>
       <c r="W386" s="19"/>
       <c r="X386" s="19" t="s">
@@ -22716,12 +22716,14 @@
       <c r="AC386" s="19"/>
       <c r="AD386" s="19"/>
       <c r="AE386" s="19"/>
-      <c r="AF386" s="19"/>
-      <c r="AG386" s="19"/>
+      <c r="AF386" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG386" s="19">
+        <v>1</v>
+      </c>
       <c r="AH386" s="19"/>
-      <c r="AI386" s="19">
-        <v>1</v>
-      </c>
+      <c r="AI386" s="19"/>
       <c r="AJ386" s="19"/>
       <c r="AK386" s="19"/>
     </row>
@@ -22730,144 +22732,166 @@
       <c r="B387" s="22">
         <v>1</v>
       </c>
-      <c r="C387" s="22"/>
-      <c r="D387" s="22"/>
-      <c r="E387" s="22"/>
-      <c r="F387" s="22"/>
-      <c r="G387" s="22"/>
-      <c r="H387" s="22"/>
-      <c r="I387" s="22"/>
-      <c r="J387" s="22"/>
-      <c r="K387" s="22"/>
-      <c r="L387" s="22"/>
-      <c r="M387" s="22"/>
+      <c r="N387" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="P387" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q387" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="R387" s="28">
+        <v>38626</v>
+      </c>
+      <c r="S387" s="18">
+        <v>1</v>
+      </c>
+      <c r="T387" s="63" t="s">
+        <v>536</v>
+      </c>
+      <c r="U387" s="18">
+        <v>1</v>
+      </c>
+      <c r="V387" s="51" t="s">
+        <v>552</v>
+      </c>
+      <c r="W387" s="18">
+        <v>1</v>
+      </c>
+      <c r="X387" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y387" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="Z387" s="18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AB387" s="26"/>
+      <c r="AF387" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG387" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="B388" s="45">
+        <v>1</v>
+      </c>
+      <c r="C388" s="45" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D388" s="45"/>
+      <c r="E388" s="45"/>
+      <c r="F388" s="45"/>
+      <c r="G388" s="45"/>
+      <c r="H388" s="45"/>
+      <c r="I388" s="45"/>
+      <c r="J388" s="45"/>
+      <c r="K388" s="45"/>
+      <c r="L388" s="45"/>
+      <c r="M388" s="45"/>
+      <c r="N388" s="19"/>
+      <c r="O388" s="19"/>
+      <c r="P388" s="19"/>
+      <c r="Q388" s="19"/>
+      <c r="R388" s="28">
+        <v>39873</v>
+      </c>
+      <c r="S388" s="19"/>
+      <c r="T388" s="31" t="s">
+        <v>966</v>
+      </c>
+      <c r="U388" s="19"/>
+      <c r="V388" s="31" t="s">
+        <v>967</v>
+      </c>
+      <c r="W388" s="19"/>
+      <c r="X388" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y388" s="19"/>
+      <c r="Z388" s="19"/>
+      <c r="AB388" s="19"/>
+      <c r="AC388" s="19"/>
+      <c r="AD388" s="19"/>
+      <c r="AE388" s="19"/>
+      <c r="AF388" s="19"/>
+      <c r="AG388" s="19"/>
+      <c r="AH388" s="19"/>
+      <c r="AI388" s="19">
+        <v>1</v>
+      </c>
+      <c r="AJ388" s="19"/>
+      <c r="AK388" s="19"/>
+    </row>
+    <row r="389" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="22"/>
+      <c r="B389" s="22">
+        <v>1</v>
+      </c>
+      <c r="C389" s="22"/>
+      <c r="D389" s="22"/>
+      <c r="E389" s="22"/>
+      <c r="F389" s="22"/>
+      <c r="G389" s="22"/>
+      <c r="H389" s="22"/>
+      <c r="I389" s="22"/>
+      <c r="J389" s="22"/>
+      <c r="K389" s="22"/>
+      <c r="L389" s="22"/>
+      <c r="M389" s="22"/>
+      <c r="P389" s="18" t="s">
         <v>968</v>
       </c>
-      <c r="Q387" s="18" t="s">
+      <c r="Q389" s="18" t="s">
         <v>969</v>
       </c>
-      <c r="R387" s="28">
+      <c r="R389" s="28">
         <v>38596</v>
       </c>
-      <c r="S387" s="18">
-        <v>1</v>
-      </c>
-      <c r="T387" s="31" t="s">
-        <v>966</v>
-      </c>
-      <c r="U387" s="18">
-        <v>1</v>
-      </c>
-      <c r="V387" s="22" t="s">
-        <v>970</v>
-      </c>
-      <c r="W387" s="18">
-        <v>1</v>
-      </c>
-      <c r="X387" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y387" s="18" t="s">
-        <v>1001</v>
-      </c>
-      <c r="Z387" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA387" s="18">
-        <v>1</v>
-      </c>
-      <c r="AI387" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A388" s="22"/>
-      <c r="B388" s="22">
-        <v>1</v>
-      </c>
-      <c r="C388" s="22"/>
-      <c r="D388" s="22"/>
-      <c r="E388" s="22"/>
-      <c r="F388" s="22"/>
-      <c r="G388" s="22"/>
-      <c r="H388" s="22"/>
-      <c r="I388" s="22"/>
-      <c r="J388" s="22"/>
-      <c r="K388" s="22"/>
-      <c r="L388" s="22"/>
-      <c r="M388" s="22"/>
-      <c r="P388" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="R388" s="28">
-        <v>39539</v>
-      </c>
-      <c r="S388" s="18">
-        <v>0</v>
-      </c>
-      <c r="T388" s="31"/>
-      <c r="V388" s="31"/>
-    </row>
-    <row r="389" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A389" s="45" t="s">
-        <v>971</v>
-      </c>
-      <c r="B389" s="45">
-        <v>1</v>
-      </c>
-      <c r="C389" s="19" t="s">
-        <v>972</v>
-      </c>
-      <c r="D389" s="45"/>
-      <c r="E389" s="45"/>
-      <c r="F389" s="45"/>
-      <c r="G389" s="45"/>
-      <c r="H389" s="45"/>
-      <c r="I389" s="45"/>
-      <c r="J389" s="45"/>
-      <c r="K389" s="45"/>
-      <c r="L389" s="45"/>
-      <c r="M389" s="45"/>
-      <c r="N389" s="19"/>
-      <c r="O389" s="19"/>
-      <c r="P389" s="19"/>
-      <c r="Q389" s="19"/>
-      <c r="R389" s="28">
-        <v>40909</v>
-      </c>
-      <c r="S389" s="19"/>
+      <c r="S389" s="18">
+        <v>1</v>
+      </c>
       <c r="T389" s="31" t="s">
         <v>966</v>
       </c>
-      <c r="U389" s="19"/>
-      <c r="V389" s="31" t="s">
-        <v>973</v>
-      </c>
-      <c r="W389" s="19"/>
-      <c r="X389" s="19" t="s">
-        <v>766</v>
-      </c>
-      <c r="Y389" s="19"/>
-      <c r="Z389" s="19"/>
-      <c r="AB389" s="19"/>
-      <c r="AC389" s="19"/>
-      <c r="AD389" s="19"/>
-      <c r="AE389" s="19"/>
-      <c r="AF389" s="19"/>
-      <c r="AG389" s="19"/>
-      <c r="AH389" s="19"/>
-      <c r="AI389" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ389" s="19"/>
-      <c r="AK389" s="19"/>
-    </row>
-    <row r="390" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="U389" s="18">
+        <v>1</v>
+      </c>
+      <c r="V389" s="22" t="s">
+        <v>970</v>
+      </c>
+      <c r="W389" s="18">
+        <v>1</v>
+      </c>
+      <c r="X389" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y389" s="18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="Z389" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA389" s="18">
+        <v>1</v>
+      </c>
+      <c r="AI389" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="22"/>
       <c r="B390" s="22">
         <v>1</v>
       </c>
+      <c r="C390" s="22"/>
       <c r="D390" s="22"/>
       <c r="E390" s="22"/>
       <c r="F390" s="22"/>
@@ -22879,24 +22903,26 @@
       <c r="L390" s="22"/>
       <c r="M390" s="22"/>
       <c r="P390" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="R390" s="28"/>
+        <v>538</v>
+      </c>
+      <c r="R390" s="28">
+        <v>39539</v>
+      </c>
+      <c r="S390" s="18">
+        <v>0</v>
+      </c>
       <c r="T390" s="31"/>
       <c r="V390" s="31"/>
-      <c r="AI390" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="391" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="45" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B391" s="45">
         <v>1</v>
       </c>
-      <c r="C391" s="45" t="s">
-        <v>975</v>
+      <c r="C391" s="19" t="s">
+        <v>972</v>
       </c>
       <c r="D391" s="45"/>
       <c r="E391" s="45"/>
@@ -22912,16 +22938,16 @@
       <c r="O391" s="19"/>
       <c r="P391" s="19"/>
       <c r="Q391" s="19"/>
-      <c r="R391" s="35">
-        <v>43739</v>
+      <c r="R391" s="28">
+        <v>40909</v>
       </c>
       <c r="S391" s="19"/>
       <c r="T391" s="31" t="s">
-        <v>216</v>
+        <v>966</v>
       </c>
       <c r="U391" s="19"/>
-      <c r="V391" s="22" t="s">
-        <v>930</v>
+      <c r="V391" s="31" t="s">
+        <v>973</v>
       </c>
       <c r="W391" s="19"/>
       <c r="X391" s="19" t="s">
@@ -22932,81 +22958,50 @@
       <c r="AB391" s="19"/>
       <c r="AC391" s="19"/>
       <c r="AD391" s="19"/>
-      <c r="AE391" s="19">
-        <v>1</v>
-      </c>
+      <c r="AE391" s="19"/>
       <c r="AF391" s="19"/>
       <c r="AG391" s="19"/>
       <c r="AH391" s="19"/>
-      <c r="AI391" s="19"/>
+      <c r="AI391" s="19">
+        <v>1</v>
+      </c>
       <c r="AJ391" s="19"/>
       <c r="AK391" s="19"/>
     </row>
-    <row r="392" spans="1:37" customFormat="1" ht="23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="80" t="s">
-        <v>976</v>
-      </c>
-      <c r="B392" s="80" t="s">
-        <v>571</v>
-      </c>
-      <c r="C392" s="80" t="s">
-        <v>977</v>
-      </c>
-      <c r="D392" s="78"/>
-      <c r="E392" s="78"/>
-      <c r="F392" s="78"/>
-      <c r="G392" s="78"/>
-      <c r="H392" s="78"/>
-      <c r="I392" s="78"/>
-      <c r="J392" s="78"/>
-      <c r="K392" s="78"/>
-      <c r="L392" s="78"/>
-      <c r="M392" s="78"/>
-      <c r="N392" s="80"/>
-      <c r="O392" s="80"/>
-      <c r="P392" s="80" t="s">
-        <v>978</v>
-      </c>
-      <c r="Q392" s="80"/>
-      <c r="R392" s="81">
-        <v>41609</v>
-      </c>
-      <c r="S392" s="80"/>
-      <c r="T392" s="82" t="s">
-        <v>717</v>
-      </c>
-      <c r="U392" s="80"/>
-      <c r="V392" s="82" t="s">
-        <v>979</v>
-      </c>
-      <c r="W392" s="80"/>
-      <c r="X392" s="19" t="s">
-        <v>766</v>
-      </c>
-      <c r="Y392" s="80"/>
-      <c r="Z392" s="80"/>
-      <c r="AB392" s="80"/>
-      <c r="AC392" s="80"/>
-      <c r="AD392" s="80"/>
-      <c r="AE392" s="80"/>
-      <c r="AF392" s="80" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG392" s="80"/>
-      <c r="AH392" s="80"/>
-      <c r="AI392" s="80"/>
-      <c r="AJ392" s="80"/>
-      <c r="AK392" s="80"/>
-    </row>
-    <row r="393" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="22"/>
+      <c r="B392" s="22">
+        <v>1</v>
+      </c>
+      <c r="D392" s="22"/>
+      <c r="E392" s="22"/>
+      <c r="F392" s="22"/>
+      <c r="G392" s="22"/>
+      <c r="H392" s="22"/>
+      <c r="I392" s="22"/>
+      <c r="J392" s="22"/>
+      <c r="K392" s="22"/>
+      <c r="L392" s="22"/>
+      <c r="M392" s="22"/>
+      <c r="P392" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="R392" s="28"/>
+      <c r="T392" s="31"/>
+      <c r="V392" s="31"/>
+      <c r="AI392" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="45" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="B393" s="45">
         <v>1</v>
       </c>
-      <c r="C393" s="19" t="s">
-        <v>934</v>
+      <c r="C393" s="45" t="s">
+        <v>975</v>
       </c>
       <c r="D393" s="45"/>
       <c r="E393" s="45"/>
@@ -23023,15 +23018,15 @@
       <c r="P393" s="19"/>
       <c r="Q393" s="19"/>
       <c r="R393" s="35">
-        <v>42663</v>
+        <v>43739</v>
       </c>
       <c r="S393" s="19"/>
-      <c r="T393" s="19" t="s">
-        <v>981</v>
+      <c r="T393" s="31" t="s">
+        <v>216</v>
       </c>
       <c r="U393" s="19"/>
-      <c r="V393" s="31" t="s">
-        <v>982</v>
+      <c r="V393" s="22" t="s">
+        <v>930</v>
       </c>
       <c r="W393" s="19"/>
       <c r="X393" s="19" t="s">
@@ -23042,496 +23037,540 @@
       <c r="AB393" s="19"/>
       <c r="AC393" s="19"/>
       <c r="AD393" s="19"/>
-      <c r="AE393" s="19"/>
-      <c r="AF393" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG393" s="19">
-        <v>1</v>
-      </c>
+      <c r="AE393" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF393" s="19"/>
+      <c r="AG393" s="19"/>
       <c r="AH393" s="19"/>
       <c r="AI393" s="19"/>
       <c r="AJ393" s="19"/>
       <c r="AK393" s="19"/>
     </row>
-    <row r="394" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A394" s="22"/>
-      <c r="B394" s="22">
-        <v>1</v>
-      </c>
-      <c r="D394" s="22"/>
-      <c r="E394" s="22"/>
-      <c r="F394" s="22"/>
-      <c r="G394" s="22"/>
-      <c r="H394" s="22"/>
-      <c r="I394" s="22"/>
-      <c r="J394" s="22"/>
-      <c r="K394" s="22"/>
-      <c r="L394" s="22"/>
-      <c r="M394" s="22"/>
-      <c r="N394" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="O394" s="22"/>
-      <c r="P394" s="18" t="s">
-        <v>983</v>
-      </c>
-      <c r="R394" s="38">
-        <v>41969</v>
-      </c>
-      <c r="S394" s="18">
-        <v>1</v>
-      </c>
-      <c r="T394" s="31" t="s">
-        <v>1085</v>
-      </c>
-      <c r="U394" s="18">
-        <v>1</v>
-      </c>
-      <c r="V394" s="31" t="s">
+    <row r="394" spans="1:37" customFormat="1" ht="23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="80" t="s">
+        <v>976</v>
+      </c>
+      <c r="B394" s="80" t="s">
+        <v>571</v>
+      </c>
+      <c r="C394" s="80" t="s">
+        <v>977</v>
+      </c>
+      <c r="D394" s="78"/>
+      <c r="E394" s="78"/>
+      <c r="F394" s="78"/>
+      <c r="G394" s="78"/>
+      <c r="H394" s="78"/>
+      <c r="I394" s="78"/>
+      <c r="J394" s="78"/>
+      <c r="K394" s="78"/>
+      <c r="L394" s="78"/>
+      <c r="M394" s="78"/>
+      <c r="N394" s="80"/>
+      <c r="O394" s="80"/>
+      <c r="P394" s="80" t="s">
+        <v>978</v>
+      </c>
+      <c r="Q394" s="80"/>
+      <c r="R394" s="81">
+        <v>41609</v>
+      </c>
+      <c r="S394" s="80"/>
+      <c r="T394" s="82" t="s">
+        <v>717</v>
+      </c>
+      <c r="U394" s="80"/>
+      <c r="V394" s="82" t="s">
+        <v>979</v>
+      </c>
+      <c r="W394" s="80"/>
+      <c r="X394" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y394" s="80"/>
+      <c r="Z394" s="80"/>
+      <c r="AB394" s="80"/>
+      <c r="AC394" s="80"/>
+      <c r="AD394" s="80"/>
+      <c r="AE394" s="80"/>
+      <c r="AF394" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG394" s="80"/>
+      <c r="AH394" s="80"/>
+      <c r="AI394" s="80"/>
+      <c r="AJ394" s="80"/>
+      <c r="AK394" s="80"/>
+    </row>
+    <row r="395" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A395" s="45" t="s">
+        <v>980</v>
+      </c>
+      <c r="B395" s="45">
+        <v>1</v>
+      </c>
+      <c r="C395" s="19" t="s">
+        <v>934</v>
+      </c>
+      <c r="D395" s="45"/>
+      <c r="E395" s="45"/>
+      <c r="F395" s="45"/>
+      <c r="G395" s="45"/>
+      <c r="H395" s="45"/>
+      <c r="I395" s="45"/>
+      <c r="J395" s="45"/>
+      <c r="K395" s="45"/>
+      <c r="L395" s="45"/>
+      <c r="M395" s="45"/>
+      <c r="N395" s="19"/>
+      <c r="O395" s="19"/>
+      <c r="P395" s="19"/>
+      <c r="Q395" s="19"/>
+      <c r="R395" s="35">
+        <v>42663</v>
+      </c>
+      <c r="S395" s="19"/>
+      <c r="T395" s="19" t="s">
+        <v>981</v>
+      </c>
+      <c r="U395" s="19"/>
+      <c r="V395" s="31" t="s">
         <v>982</v>
       </c>
-      <c r="W394" s="18">
-        <v>1</v>
-      </c>
-      <c r="X394" s="31">
-        <v>1</v>
-      </c>
-      <c r="Y394" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z394" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF394" s="18">
-        <v>1</v>
-      </c>
-      <c r="AG394" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" spans="1:37" customFormat="1" ht="19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A395" s="88" t="s">
-        <v>984</v>
-      </c>
-      <c r="B395" s="88" t="s">
-        <v>571</v>
-      </c>
-      <c r="C395" s="79" t="s">
-        <v>985</v>
-      </c>
-      <c r="D395" s="80"/>
-      <c r="E395" s="78"/>
-      <c r="F395" s="78"/>
-      <c r="G395" s="78"/>
-      <c r="H395" s="78"/>
-      <c r="I395" s="78"/>
-      <c r="J395" s="78"/>
-      <c r="K395" s="78"/>
-      <c r="L395" s="78"/>
-      <c r="M395" s="78"/>
-      <c r="N395" s="80"/>
-      <c r="O395" s="80"/>
-      <c r="P395" s="80" t="s">
-        <v>986</v>
-      </c>
-      <c r="Q395" s="80"/>
-      <c r="R395" s="86">
-        <v>40799</v>
-      </c>
-      <c r="S395" s="80"/>
-      <c r="T395" s="80" t="s">
-        <v>987</v>
-      </c>
-      <c r="U395" s="80"/>
-      <c r="V395" s="80" t="s">
-        <v>988</v>
-      </c>
-      <c r="W395" s="80"/>
+      <c r="W395" s="19"/>
       <c r="X395" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="Y395" s="80"/>
-      <c r="Z395" s="80"/>
-      <c r="AB395" s="80"/>
-      <c r="AC395" s="80"/>
-      <c r="AD395" s="80"/>
-      <c r="AE395" s="80"/>
-      <c r="AF395" s="80" t="s">
+      <c r="Y395" s="19"/>
+      <c r="Z395" s="19"/>
+      <c r="AB395" s="19"/>
+      <c r="AC395" s="19"/>
+      <c r="AD395" s="19"/>
+      <c r="AE395" s="19"/>
+      <c r="AF395" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG395" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH395" s="19"/>
+      <c r="AI395" s="19"/>
+      <c r="AJ395" s="19"/>
+      <c r="AK395" s="19"/>
+    </row>
+    <row r="396" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A396" s="22"/>
+      <c r="B396" s="22">
+        <v>1</v>
+      </c>
+      <c r="D396" s="22"/>
+      <c r="E396" s="22"/>
+      <c r="F396" s="22"/>
+      <c r="G396" s="22"/>
+      <c r="H396" s="22"/>
+      <c r="I396" s="22"/>
+      <c r="J396" s="22"/>
+      <c r="K396" s="22"/>
+      <c r="L396" s="22"/>
+      <c r="M396" s="22"/>
+      <c r="N396" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O396" s="22"/>
+      <c r="P396" s="18" t="s">
+        <v>983</v>
+      </c>
+      <c r="R396" s="38">
+        <v>41969</v>
+      </c>
+      <c r="S396" s="18">
+        <v>1</v>
+      </c>
+      <c r="T396" s="31" t="s">
+        <v>1085</v>
+      </c>
+      <c r="U396" s="18">
+        <v>1</v>
+      </c>
+      <c r="V396" s="31" t="s">
+        <v>982</v>
+      </c>
+      <c r="W396" s="18">
+        <v>1</v>
+      </c>
+      <c r="X396" s="31">
+        <v>1</v>
+      </c>
+      <c r="Y396" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z396" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF396" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG396" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:37" customFormat="1" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A397" s="88" t="s">
+        <v>984</v>
+      </c>
+      <c r="B397" s="88" t="s">
+        <v>571</v>
+      </c>
+      <c r="C397" s="79" t="s">
+        <v>985</v>
+      </c>
+      <c r="D397" s="80"/>
+      <c r="E397" s="78"/>
+      <c r="F397" s="78"/>
+      <c r="G397" s="78"/>
+      <c r="H397" s="78"/>
+      <c r="I397" s="78"/>
+      <c r="J397" s="78"/>
+      <c r="K397" s="78"/>
+      <c r="L397" s="78"/>
+      <c r="M397" s="78"/>
+      <c r="N397" s="80"/>
+      <c r="O397" s="80"/>
+      <c r="P397" s="80" t="s">
+        <v>986</v>
+      </c>
+      <c r="Q397" s="80"/>
+      <c r="R397" s="86">
+        <v>40799</v>
+      </c>
+      <c r="S397" s="80"/>
+      <c r="T397" s="80" t="s">
+        <v>987</v>
+      </c>
+      <c r="U397" s="80"/>
+      <c r="V397" s="80" t="s">
+        <v>988</v>
+      </c>
+      <c r="W397" s="80"/>
+      <c r="X397" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y397" s="80"/>
+      <c r="Z397" s="80"/>
+      <c r="AB397" s="80"/>
+      <c r="AC397" s="80"/>
+      <c r="AD397" s="80"/>
+      <c r="AE397" s="80"/>
+      <c r="AF397" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="AG395" s="80"/>
-      <c r="AH395" s="80"/>
-      <c r="AI395" s="80"/>
-      <c r="AJ395" s="80"/>
-      <c r="AK395" s="80"/>
-    </row>
-    <row r="396" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A396" s="19" t="s">
+      <c r="AG397" s="80"/>
+      <c r="AH397" s="80"/>
+      <c r="AI397" s="80"/>
+      <c r="AJ397" s="80"/>
+      <c r="AK397" s="80"/>
+    </row>
+    <row r="398" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A398" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B396" s="19" t="s">
+      <c r="B398" s="19" t="s">
         <v>571</v>
       </c>
-      <c r="C396" s="20" t="s">
+      <c r="C398" s="20" t="s">
         <v>990</v>
       </c>
-      <c r="D396" s="19"/>
-      <c r="E396" s="19"/>
-      <c r="F396" s="19"/>
-      <c r="G396" s="19"/>
-      <c r="H396" s="19"/>
-      <c r="I396" s="19"/>
-      <c r="J396" s="19"/>
-      <c r="K396" s="19"/>
-      <c r="L396" s="19"/>
-      <c r="M396" s="19"/>
-      <c r="N396" s="19"/>
-      <c r="O396" s="19"/>
-      <c r="P396" s="19"/>
-      <c r="Q396" s="19"/>
-      <c r="R396" s="28">
+      <c r="D398" s="19"/>
+      <c r="E398" s="19"/>
+      <c r="F398" s="19"/>
+      <c r="G398" s="19"/>
+      <c r="H398" s="19"/>
+      <c r="I398" s="19"/>
+      <c r="J398" s="19"/>
+      <c r="K398" s="19"/>
+      <c r="L398" s="19"/>
+      <c r="M398" s="19"/>
+      <c r="N398" s="19"/>
+      <c r="O398" s="19"/>
+      <c r="P398" s="19"/>
+      <c r="Q398" s="19"/>
+      <c r="R398" s="28">
         <v>42095</v>
       </c>
-      <c r="S396" s="19"/>
-      <c r="T396" s="31" t="s">
+      <c r="S398" s="19"/>
+      <c r="T398" s="31" t="s">
         <v>921</v>
       </c>
-      <c r="U396" s="21"/>
-      <c r="V396" s="31" t="s">
+      <c r="U398" s="21"/>
+      <c r="V398" s="31" t="s">
         <v>991</v>
       </c>
-      <c r="W396" s="35"/>
-      <c r="X396" s="19" t="s">
+      <c r="W398" s="35"/>
+      <c r="X398" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="Y396" s="35"/>
-      <c r="Z396" s="19"/>
-      <c r="AB396" s="19"/>
-      <c r="AC396" s="19"/>
-      <c r="AD396" s="19"/>
-      <c r="AE396" s="19"/>
-      <c r="AF396" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG396" s="19"/>
-      <c r="AH396" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI396" s="19"/>
-      <c r="AJ396" s="19"/>
-      <c r="AK396" s="19"/>
-    </row>
-    <row r="397" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B397" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="C397" s="23"/>
-      <c r="P397" s="18" t="s">
-        <v>992</v>
-      </c>
-      <c r="R397" s="91">
-        <v>2019</v>
-      </c>
-      <c r="S397" s="18">
-        <v>0</v>
-      </c>
-      <c r="T397" s="92" t="s">
-        <v>993</v>
-      </c>
-      <c r="U397" s="90"/>
-      <c r="V397" s="22" t="s">
-        <v>996</v>
-      </c>
-      <c r="W397" s="90"/>
-      <c r="X397" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y397" s="38"/>
-    </row>
-    <row r="398" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B398" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="C398" s="23"/>
-      <c r="F398" s="24"/>
-      <c r="G398" s="24"/>
-      <c r="H398" s="24"/>
-      <c r="I398" s="24"/>
-      <c r="J398" s="24"/>
-      <c r="K398" s="24"/>
-      <c r="L398" s="24"/>
-      <c r="M398" s="24"/>
-      <c r="N398" s="24"/>
-      <c r="O398" s="24"/>
-      <c r="P398" s="24" t="s">
-        <v>994</v>
-      </c>
-      <c r="Q398" s="18" t="s">
-        <v>995</v>
-      </c>
-      <c r="R398" s="28">
-        <v>38626</v>
-      </c>
-      <c r="S398" s="18">
-        <v>1</v>
-      </c>
-      <c r="T398" s="92" t="s">
-        <v>993</v>
-      </c>
-      <c r="U398" s="90">
-        <v>1</v>
-      </c>
-      <c r="V398" s="22" t="s">
-        <v>996</v>
-      </c>
-      <c r="W398" s="18">
-        <v>1</v>
-      </c>
-      <c r="X398" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y398" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="Z398" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF398" s="18">
-        <v>1</v>
-      </c>
+      <c r="Y398" s="35"/>
+      <c r="Z398" s="19"/>
+      <c r="AB398" s="19"/>
+      <c r="AC398" s="19"/>
+      <c r="AD398" s="19"/>
+      <c r="AE398" s="19"/>
+      <c r="AF398" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG398" s="19"/>
+      <c r="AH398" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI398" s="19"/>
+      <c r="AJ398" s="19"/>
+      <c r="AK398" s="19"/>
     </row>
     <row r="399" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B399" s="18" t="s">
         <v>571</v>
       </c>
       <c r="C399" s="23"/>
-      <c r="F399" s="28"/>
-      <c r="G399" s="28"/>
-      <c r="H399" s="28"/>
-      <c r="I399" s="28"/>
-      <c r="J399" s="28"/>
-      <c r="K399" s="28"/>
-      <c r="L399" s="28"/>
-      <c r="M399" s="28"/>
-      <c r="N399" s="28"/>
-      <c r="O399" s="28"/>
-      <c r="P399" s="28" t="s">
-        <v>997</v>
-      </c>
-      <c r="Q399" s="18" t="s">
-        <v>998</v>
-      </c>
-      <c r="R399" s="28">
-        <v>39417</v>
+      <c r="P399" s="18" t="s">
+        <v>992</v>
+      </c>
+      <c r="R399" s="91">
+        <v>2019</v>
       </c>
       <c r="S399" s="18">
-        <v>1</v>
-      </c>
-      <c r="T399" s="22" t="s">
-        <v>999</v>
-      </c>
-      <c r="U399" s="90" t="s">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T399" s="92" t="s">
+        <v>993</v>
+      </c>
+      <c r="U399" s="90"/>
       <c r="V399" s="22" t="s">
         <v>996</v>
       </c>
-      <c r="W399" s="18">
-        <v>1</v>
-      </c>
+      <c r="W399" s="90"/>
       <c r="X399" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y399" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y399" s="38"/>
+    </row>
+    <row r="400" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B400" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="C400" s="23"/>
+      <c r="F400" s="24"/>
+      <c r="G400" s="24"/>
+      <c r="H400" s="24"/>
+      <c r="I400" s="24"/>
+      <c r="J400" s="24"/>
+      <c r="K400" s="24"/>
+      <c r="L400" s="24"/>
+      <c r="M400" s="24"/>
+      <c r="N400" s="24"/>
+      <c r="O400" s="24"/>
+      <c r="P400" s="24" t="s">
+        <v>994</v>
+      </c>
+      <c r="Q400" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="R400" s="28">
+        <v>38626</v>
+      </c>
+      <c r="S400" s="18">
+        <v>1</v>
+      </c>
+      <c r="T400" s="92" t="s">
+        <v>993</v>
+      </c>
+      <c r="U400" s="90">
+        <v>1</v>
+      </c>
+      <c r="V400" s="22" t="s">
+        <v>996</v>
+      </c>
+      <c r="W400" s="18">
+        <v>1</v>
+      </c>
+      <c r="X400" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y400" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z400" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF400" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B401" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="C401" s="23"/>
+      <c r="F401" s="28"/>
+      <c r="G401" s="28"/>
+      <c r="H401" s="28"/>
+      <c r="I401" s="28"/>
+      <c r="J401" s="28"/>
+      <c r="K401" s="28"/>
+      <c r="L401" s="28"/>
+      <c r="M401" s="28"/>
+      <c r="N401" s="28"/>
+      <c r="O401" s="28"/>
+      <c r="P401" s="28" t="s">
+        <v>997</v>
+      </c>
+      <c r="Q401" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="R401" s="28">
+        <v>39417</v>
+      </c>
+      <c r="S401" s="18">
+        <v>1</v>
+      </c>
+      <c r="T401" s="22" t="s">
+        <v>999</v>
+      </c>
+      <c r="U401" s="90" t="s">
+        <v>1000</v>
+      </c>
+      <c r="V401" s="22" t="s">
+        <v>996</v>
+      </c>
+      <c r="W401" s="18">
+        <v>1</v>
+      </c>
+      <c r="X401" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y401" s="38" t="s">
         <v>1001</v>
       </c>
-      <c r="Z399" s="18" t="s">
+      <c r="Z401" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AA399" s="18">
+      <c r="AA401" s="18">
         <v>0</v>
       </c>
-      <c r="AF399" s="18">
-        <v>1</v>
-      </c>
-      <c r="AH399" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" spans="1:37" customFormat="1" ht="19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A400" s="78" t="s">
+      <c r="AF401" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH401" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:37" customFormat="1" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="78" t="s">
         <v>1002</v>
       </c>
-      <c r="B400" s="78" t="s">
+      <c r="B402" s="78" t="s">
         <v>571</v>
       </c>
-      <c r="C400" s="80" t="s">
+      <c r="C402" s="80" t="s">
         <v>1003</v>
       </c>
-      <c r="D400" s="80"/>
-      <c r="E400" s="80"/>
-      <c r="F400" s="80"/>
-      <c r="G400" s="80"/>
-      <c r="H400" s="80"/>
-      <c r="I400" s="80"/>
-      <c r="J400" s="80"/>
-      <c r="K400" s="80"/>
-      <c r="L400" s="80"/>
-      <c r="M400" s="80"/>
-      <c r="N400" s="80"/>
-      <c r="O400" s="80"/>
-      <c r="P400" s="80"/>
-      <c r="Q400" s="80"/>
-      <c r="R400" s="81">
+      <c r="D402" s="80"/>
+      <c r="E402" s="80"/>
+      <c r="F402" s="80"/>
+      <c r="G402" s="80"/>
+      <c r="H402" s="80"/>
+      <c r="I402" s="80"/>
+      <c r="J402" s="80"/>
+      <c r="K402" s="80"/>
+      <c r="L402" s="80"/>
+      <c r="M402" s="80"/>
+      <c r="N402" s="80"/>
+      <c r="O402" s="80"/>
+      <c r="P402" s="80"/>
+      <c r="Q402" s="80"/>
+      <c r="R402" s="81">
         <v>41548</v>
       </c>
-      <c r="S400" s="80"/>
-      <c r="T400" s="84" t="s">
+      <c r="S402" s="80"/>
+      <c r="T402" s="84" t="s">
         <v>216</v>
       </c>
-      <c r="U400" s="80"/>
-      <c r="V400" s="84" t="s">
+      <c r="U402" s="80"/>
+      <c r="V402" s="84" t="s">
         <v>1004</v>
       </c>
-      <c r="W400" s="80"/>
-      <c r="X400" s="19" t="s">
-        <v>766</v>
-      </c>
-      <c r="Y400" s="80"/>
-      <c r="Z400" s="80"/>
-      <c r="AB400" s="80"/>
-      <c r="AC400" s="80"/>
-      <c r="AD400" s="80"/>
-      <c r="AE400" s="80"/>
-      <c r="AF400" s="80"/>
-      <c r="AG400" s="80"/>
-      <c r="AH400" s="80"/>
-      <c r="AI400" s="80"/>
-      <c r="AJ400" s="80"/>
-      <c r="AK400" s="80"/>
-    </row>
-    <row r="401" spans="1:37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A401" s="78" t="s">
-        <v>338</v>
-      </c>
-      <c r="B401" s="78" t="s">
-        <v>571</v>
-      </c>
-      <c r="C401" s="80" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D401" s="80"/>
-      <c r="E401" s="80"/>
-      <c r="F401" s="80"/>
-      <c r="G401" s="80"/>
-      <c r="H401" s="80"/>
-      <c r="I401" s="80"/>
-      <c r="J401" s="80"/>
-      <c r="K401" s="80"/>
-      <c r="L401" s="80"/>
-      <c r="M401" s="80"/>
-      <c r="N401" s="80"/>
-      <c r="O401" s="80"/>
-      <c r="P401" s="80"/>
-      <c r="Q401" s="80"/>
-      <c r="R401" s="80"/>
-      <c r="S401" s="80"/>
-      <c r="T401" s="80"/>
-      <c r="U401" s="80"/>
-      <c r="V401" s="80"/>
-      <c r="W401" s="80"/>
-      <c r="X401" s="19" t="s">
-        <v>766</v>
-      </c>
-      <c r="Y401" s="80"/>
-      <c r="Z401" s="80"/>
-      <c r="AB401" s="80"/>
-      <c r="AC401" s="80"/>
-      <c r="AD401" s="80"/>
-      <c r="AE401" s="80"/>
-      <c r="AF401" s="80"/>
-      <c r="AG401" s="80"/>
-      <c r="AH401" s="80"/>
-      <c r="AI401" s="80"/>
-      <c r="AJ401" s="80"/>
-      <c r="AK401" s="80"/>
-    </row>
-    <row r="402" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A402" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="B402" s="45">
-        <v>1</v>
-      </c>
-      <c r="C402" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="D402" s="19"/>
-      <c r="E402" s="19"/>
-      <c r="F402" s="19"/>
-      <c r="G402" s="19"/>
-      <c r="H402" s="19"/>
-      <c r="I402" s="19"/>
-      <c r="J402" s="19"/>
-      <c r="K402" s="19"/>
-      <c r="L402" s="19"/>
-      <c r="M402" s="19"/>
-      <c r="N402" s="19"/>
-      <c r="O402" s="19"/>
-      <c r="P402" s="19"/>
-      <c r="Q402" s="45" t="s">
-        <v>1005</v>
-      </c>
-      <c r="R402" s="28">
-        <v>41214</v>
-      </c>
-      <c r="S402" s="19"/>
-      <c r="T402" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="U402" s="19"/>
-      <c r="V402" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="W402" s="19"/>
+      <c r="W402" s="80"/>
       <c r="X402" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="Y402" s="19"/>
-      <c r="Z402" s="19"/>
-      <c r="AB402" s="19"/>
-      <c r="AC402" s="19"/>
-      <c r="AD402" s="19"/>
-      <c r="AE402" s="19"/>
-      <c r="AF402" s="19"/>
-      <c r="AG402" s="19"/>
-      <c r="AH402" s="19"/>
-      <c r="AI402" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ402" s="19"/>
-      <c r="AK402" s="19"/>
-    </row>
-    <row r="403" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A403" s="22"/>
-      <c r="B403" s="22">
-        <v>1</v>
-      </c>
-      <c r="C403" s="23"/>
-      <c r="R403" s="28" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="404" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="Y402" s="80"/>
+      <c r="Z402" s="80"/>
+      <c r="AB402" s="80"/>
+      <c r="AC402" s="80"/>
+      <c r="AD402" s="80"/>
+      <c r="AE402" s="80"/>
+      <c r="AF402" s="80"/>
+      <c r="AG402" s="80"/>
+      <c r="AH402" s="80"/>
+      <c r="AI402" s="80"/>
+      <c r="AJ402" s="80"/>
+      <c r="AK402" s="80"/>
+    </row>
+    <row r="403" spans="1:37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="78" t="s">
+        <v>338</v>
+      </c>
+      <c r="B403" s="78" t="s">
+        <v>571</v>
+      </c>
+      <c r="C403" s="80" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D403" s="80"/>
+      <c r="E403" s="80"/>
+      <c r="F403" s="80"/>
+      <c r="G403" s="80"/>
+      <c r="H403" s="80"/>
+      <c r="I403" s="80"/>
+      <c r="J403" s="80"/>
+      <c r="K403" s="80"/>
+      <c r="L403" s="80"/>
+      <c r="M403" s="80"/>
+      <c r="N403" s="80"/>
+      <c r="O403" s="80"/>
+      <c r="P403" s="80"/>
+      <c r="Q403" s="80"/>
+      <c r="R403" s="80"/>
+      <c r="S403" s="80"/>
+      <c r="T403" s="80"/>
+      <c r="U403" s="80"/>
+      <c r="V403" s="80"/>
+      <c r="W403" s="80"/>
+      <c r="X403" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y403" s="80"/>
+      <c r="Z403" s="80"/>
+      <c r="AB403" s="80"/>
+      <c r="AC403" s="80"/>
+      <c r="AD403" s="80"/>
+      <c r="AE403" s="80"/>
+      <c r="AF403" s="80"/>
+      <c r="AG403" s="80"/>
+      <c r="AH403" s="80"/>
+      <c r="AI403" s="80"/>
+      <c r="AJ403" s="80"/>
+      <c r="AK403" s="80"/>
+    </row>
+    <row r="404" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="45" t="s">
-        <v>1006</v>
+        <v>366</v>
       </c>
       <c r="B404" s="45">
         <v>1</v>
       </c>
-      <c r="C404" s="19" t="s">
-        <v>1003</v>
+      <c r="C404" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="D404" s="19"/>
       <c r="E404" s="19"/>
@@ -23546,17 +23585,19 @@
       <c r="N404" s="19"/>
       <c r="O404" s="19"/>
       <c r="P404" s="19"/>
-      <c r="Q404" s="19"/>
+      <c r="Q404" s="45" t="s">
+        <v>1005</v>
+      </c>
       <c r="R404" s="28">
-        <v>41091</v>
+        <v>41214</v>
       </c>
       <c r="S404" s="19"/>
       <c r="T404" s="19" t="s">
-        <v>1007</v>
+        <v>216</v>
       </c>
       <c r="U404" s="19"/>
-      <c r="V404" s="31" t="s">
-        <v>1008</v>
+      <c r="V404" s="19" t="s">
+        <v>369</v>
       </c>
       <c r="W404" s="19"/>
       <c r="X404" s="19" t="s">
@@ -23567,328 +23608,329 @@
       <c r="AB404" s="19"/>
       <c r="AC404" s="19"/>
       <c r="AD404" s="19"/>
-      <c r="AE404" s="19">
-        <v>1</v>
-      </c>
+      <c r="AE404" s="19"/>
       <c r="AF404" s="19"/>
       <c r="AG404" s="19"/>
       <c r="AH404" s="19"/>
-      <c r="AI404" s="19"/>
+      <c r="AI404" s="19">
+        <v>1</v>
+      </c>
       <c r="AJ404" s="19"/>
       <c r="AK404" s="19"/>
     </row>
     <row r="405" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A405" s="45" t="s">
+      <c r="A405" s="22"/>
+      <c r="B405" s="22">
+        <v>1</v>
+      </c>
+      <c r="C405" s="23"/>
+      <c r="R405" s="28" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="406" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A406" s="45" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B406" s="45">
+        <v>1</v>
+      </c>
+      <c r="C406" s="19" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D406" s="19"/>
+      <c r="E406" s="19"/>
+      <c r="F406" s="19"/>
+      <c r="G406" s="19"/>
+      <c r="H406" s="19"/>
+      <c r="I406" s="19"/>
+      <c r="J406" s="19"/>
+      <c r="K406" s="19"/>
+      <c r="L406" s="19"/>
+      <c r="M406" s="19"/>
+      <c r="N406" s="19"/>
+      <c r="O406" s="19"/>
+      <c r="P406" s="19"/>
+      <c r="Q406" s="19"/>
+      <c r="R406" s="28">
+        <v>41091</v>
+      </c>
+      <c r="S406" s="19"/>
+      <c r="T406" s="19" t="s">
+        <v>1007</v>
+      </c>
+      <c r="U406" s="19"/>
+      <c r="V406" s="31" t="s">
+        <v>1008</v>
+      </c>
+      <c r="W406" s="19"/>
+      <c r="X406" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y406" s="19"/>
+      <c r="Z406" s="19"/>
+      <c r="AB406" s="19"/>
+      <c r="AC406" s="19"/>
+      <c r="AD406" s="19"/>
+      <c r="AE406" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF406" s="19"/>
+      <c r="AG406" s="19"/>
+      <c r="AH406" s="19"/>
+      <c r="AI406" s="19"/>
+      <c r="AJ406" s="19"/>
+      <c r="AK406" s="19"/>
+    </row>
+    <row r="407" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A407" s="45" t="s">
         <v>1009</v>
       </c>
-      <c r="B405" s="45" t="s">
+      <c r="B407" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="C405" s="19" t="s">
+      <c r="C407" s="19" t="s">
         <v>1003</v>
       </c>
-      <c r="D405" s="19"/>
-      <c r="E405" s="19"/>
-      <c r="F405" s="19"/>
-      <c r="G405" s="19"/>
-      <c r="H405" s="19"/>
-      <c r="I405" s="19"/>
-      <c r="J405" s="19"/>
-      <c r="K405" s="19"/>
-      <c r="L405" s="19"/>
-      <c r="M405" s="19"/>
-      <c r="N405" s="19"/>
-      <c r="O405" s="19">
-        <v>1</v>
-      </c>
-      <c r="P405" s="19"/>
-      <c r="Q405" s="19"/>
-      <c r="R405" s="28">
+      <c r="D407" s="19"/>
+      <c r="E407" s="19"/>
+      <c r="F407" s="19"/>
+      <c r="G407" s="19"/>
+      <c r="H407" s="19"/>
+      <c r="I407" s="19"/>
+      <c r="J407" s="19"/>
+      <c r="K407" s="19"/>
+      <c r="L407" s="19"/>
+      <c r="M407" s="19"/>
+      <c r="N407" s="19"/>
+      <c r="O407" s="19">
+        <v>1</v>
+      </c>
+      <c r="P407" s="19"/>
+      <c r="Q407" s="19"/>
+      <c r="R407" s="28">
         <v>42064</v>
       </c>
-      <c r="S405" s="19"/>
-      <c r="T405" s="19" t="s">
+      <c r="S407" s="19"/>
+      <c r="T407" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="U405" s="19"/>
-      <c r="V405" s="31" t="s">
+      <c r="U407" s="19"/>
+      <c r="V407" s="31" t="s">
         <v>1010</v>
       </c>
-      <c r="W405" s="19"/>
-      <c r="X405" s="19" t="s">
-        <v>766</v>
-      </c>
-      <c r="Y405" s="19"/>
-      <c r="Z405" s="19"/>
-      <c r="AB405" s="19"/>
-      <c r="AC405" s="19"/>
-      <c r="AD405" s="19"/>
-      <c r="AE405" s="19"/>
-      <c r="AF405" s="19"/>
-      <c r="AG405" s="19"/>
-      <c r="AH405" s="19"/>
-      <c r="AI405" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ405" s="19"/>
-      <c r="AK405" s="19"/>
-    </row>
-    <row r="406" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A406" s="22"/>
-      <c r="B406" s="22">
-        <v>1</v>
-      </c>
-      <c r="R406" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="V406" s="31"/>
-    </row>
-    <row r="407" spans="1:37" customFormat="1" ht="23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="78" t="s">
-        <v>433</v>
-      </c>
-      <c r="B407" s="78" t="s">
-        <v>571</v>
-      </c>
-      <c r="C407" s="79" t="s">
-        <v>434</v>
-      </c>
-      <c r="D407" s="80"/>
-      <c r="E407" s="80"/>
-      <c r="F407" s="80"/>
-      <c r="G407" s="80"/>
-      <c r="H407" s="80"/>
-      <c r="I407" s="80"/>
-      <c r="J407" s="80"/>
-      <c r="K407" s="80"/>
-      <c r="L407" s="80"/>
-      <c r="M407" s="80"/>
-      <c r="N407" s="80"/>
-      <c r="O407" s="80"/>
-      <c r="P407" s="80"/>
-      <c r="Q407" s="80"/>
-      <c r="R407" s="81">
-        <v>40452</v>
-      </c>
-      <c r="S407" s="80"/>
-      <c r="T407" s="82" t="s">
-        <v>857</v>
-      </c>
-      <c r="U407" s="80"/>
-      <c r="V407" s="82" t="s">
-        <v>436</v>
-      </c>
-      <c r="W407" s="80"/>
+      <c r="W407" s="19"/>
       <c r="X407" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="Y407" s="80"/>
-      <c r="Z407" s="80"/>
-      <c r="AB407" s="80"/>
-      <c r="AC407" s="80"/>
-      <c r="AD407" s="80"/>
-      <c r="AE407" s="80"/>
-      <c r="AF407" s="80"/>
-      <c r="AG407" s="80"/>
-      <c r="AH407" s="80"/>
-      <c r="AI407" s="80">
-        <v>1</v>
-      </c>
-      <c r="AJ407" s="80"/>
-      <c r="AK407" s="80"/>
-    </row>
-    <row r="408" spans="1:37" customFormat="1" ht="23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="83"/>
-      <c r="B408" s="83" t="s">
+      <c r="Y407" s="19"/>
+      <c r="Z407" s="19"/>
+      <c r="AB407" s="19"/>
+      <c r="AC407" s="19"/>
+      <c r="AD407" s="19"/>
+      <c r="AE407" s="19"/>
+      <c r="AF407" s="19"/>
+      <c r="AG407" s="19"/>
+      <c r="AH407" s="19"/>
+      <c r="AI407" s="19">
+        <v>1</v>
+      </c>
+      <c r="AJ407" s="19"/>
+      <c r="AK407" s="19"/>
+    </row>
+    <row r="408" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="22"/>
+      <c r="B408" s="22">
+        <v>1</v>
+      </c>
+      <c r="R408" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="V408" s="31"/>
+    </row>
+    <row r="409" spans="1:37" customFormat="1" ht="23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="B409" s="78" t="s">
         <v>571</v>
       </c>
-      <c r="C408" s="1"/>
-      <c r="R408" s="81" t="s">
-        <v>1011</v>
-      </c>
-      <c r="T408" s="82"/>
-      <c r="V408" s="82"/>
-    </row>
-    <row r="409" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A409" s="45" t="s">
-        <v>600</v>
-      </c>
-      <c r="B409" s="45">
-        <v>1</v>
-      </c>
-      <c r="C409" s="20" t="s">
-        <v>601</v>
-      </c>
-      <c r="D409" s="19"/>
-      <c r="E409" s="19"/>
-      <c r="F409" s="19"/>
-      <c r="G409" s="19"/>
-      <c r="H409" s="19"/>
-      <c r="I409" s="19"/>
-      <c r="J409" s="19"/>
-      <c r="K409" s="19"/>
-      <c r="L409" s="19"/>
-      <c r="M409" s="19"/>
-      <c r="N409" s="19"/>
-      <c r="O409" s="19"/>
-      <c r="P409" s="19"/>
-      <c r="Q409" s="19"/>
-      <c r="R409" s="28">
-        <v>39722</v>
-      </c>
-      <c r="S409" s="19"/>
-      <c r="T409" s="19" t="s">
-        <v>1012</v>
-      </c>
-      <c r="U409" s="19"/>
-      <c r="V409" s="31" t="s">
-        <v>1013</v>
-      </c>
-      <c r="W409" s="19"/>
+      <c r="C409" s="79" t="s">
+        <v>434</v>
+      </c>
+      <c r="D409" s="80"/>
+      <c r="E409" s="80"/>
+      <c r="F409" s="80"/>
+      <c r="G409" s="80"/>
+      <c r="H409" s="80"/>
+      <c r="I409" s="80"/>
+      <c r="J409" s="80"/>
+      <c r="K409" s="80"/>
+      <c r="L409" s="80"/>
+      <c r="M409" s="80"/>
+      <c r="N409" s="80"/>
+      <c r="O409" s="80"/>
+      <c r="P409" s="80"/>
+      <c r="Q409" s="80"/>
+      <c r="R409" s="81">
+        <v>40452</v>
+      </c>
+      <c r="S409" s="80"/>
+      <c r="T409" s="82" t="s">
+        <v>857</v>
+      </c>
+      <c r="U409" s="80"/>
+      <c r="V409" s="82" t="s">
+        <v>436</v>
+      </c>
+      <c r="W409" s="80"/>
       <c r="X409" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="Y409" s="19"/>
-      <c r="Z409" s="19"/>
-      <c r="AB409" s="19"/>
-      <c r="AC409" s="19"/>
-      <c r="AD409" s="19"/>
-      <c r="AE409" s="19"/>
-      <c r="AF409" s="19"/>
-      <c r="AG409" s="19"/>
-      <c r="AH409" s="19"/>
-      <c r="AI409" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ409" s="19"/>
-      <c r="AK409" s="19"/>
-    </row>
-    <row r="410" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A410" s="22"/>
-      <c r="B410" s="22">
-        <v>1</v>
-      </c>
-      <c r="C410" s="23"/>
-      <c r="R410" s="28" t="s">
+      <c r="Y409" s="80"/>
+      <c r="Z409" s="80"/>
+      <c r="AB409" s="80"/>
+      <c r="AC409" s="80"/>
+      <c r="AD409" s="80"/>
+      <c r="AE409" s="80"/>
+      <c r="AF409" s="80"/>
+      <c r="AG409" s="80"/>
+      <c r="AH409" s="80"/>
+      <c r="AI409" s="80">
+        <v>1</v>
+      </c>
+      <c r="AJ409" s="80"/>
+      <c r="AK409" s="80"/>
+    </row>
+    <row r="410" spans="1:37" customFormat="1" ht="23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="83"/>
+      <c r="B410" s="83" t="s">
+        <v>571</v>
+      </c>
+      <c r="C410" s="1"/>
+      <c r="R410" s="81" t="s">
         <v>1011</v>
       </c>
-      <c r="V410" s="31"/>
-    </row>
-    <row r="411" spans="1:37" customFormat="1" ht="23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="78" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B411" s="78" t="s">
-        <v>571</v>
-      </c>
-      <c r="C411" s="80" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D411" s="80"/>
-      <c r="E411" s="80"/>
-      <c r="F411" s="80"/>
-      <c r="G411" s="80"/>
-      <c r="H411" s="80"/>
-      <c r="I411" s="80"/>
-      <c r="J411" s="80"/>
-      <c r="K411" s="80"/>
-      <c r="L411" s="80"/>
-      <c r="M411" s="80"/>
-      <c r="N411" s="80"/>
-      <c r="O411" s="80"/>
-      <c r="P411" s="80"/>
-      <c r="Q411" s="80"/>
-      <c r="R411" s="81"/>
-      <c r="S411" s="80"/>
-      <c r="T411" s="80"/>
-      <c r="U411" s="80"/>
-      <c r="V411" s="82"/>
-      <c r="W411" s="80"/>
+      <c r="T410" s="82"/>
+      <c r="V410" s="82"/>
+    </row>
+    <row r="411" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="45" t="s">
+        <v>600</v>
+      </c>
+      <c r="B411" s="45">
+        <v>1</v>
+      </c>
+      <c r="C411" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="D411" s="19"/>
+      <c r="E411" s="19"/>
+      <c r="F411" s="19"/>
+      <c r="G411" s="19"/>
+      <c r="H411" s="19"/>
+      <c r="I411" s="19"/>
+      <c r="J411" s="19"/>
+      <c r="K411" s="19"/>
+      <c r="L411" s="19"/>
+      <c r="M411" s="19"/>
+      <c r="N411" s="19"/>
+      <c r="O411" s="19"/>
+      <c r="P411" s="19"/>
+      <c r="Q411" s="19"/>
+      <c r="R411" s="28">
+        <v>39722</v>
+      </c>
+      <c r="S411" s="19"/>
+      <c r="T411" s="19" t="s">
+        <v>1012</v>
+      </c>
+      <c r="U411" s="19"/>
+      <c r="V411" s="31" t="s">
+        <v>1013</v>
+      </c>
+      <c r="W411" s="19"/>
       <c r="X411" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="Y411" s="80"/>
-      <c r="Z411" s="80"/>
-      <c r="AB411" s="80"/>
-      <c r="AC411" s="80"/>
-      <c r="AD411" s="80"/>
-      <c r="AE411" s="80"/>
-      <c r="AF411" s="80"/>
-      <c r="AG411" s="80"/>
-      <c r="AH411" s="80"/>
-      <c r="AI411" s="80"/>
-      <c r="AJ411" s="80"/>
-      <c r="AK411" s="80"/>
+      <c r="Y411" s="19"/>
+      <c r="Z411" s="19"/>
+      <c r="AB411" s="19"/>
+      <c r="AC411" s="19"/>
+      <c r="AD411" s="19"/>
+      <c r="AE411" s="19"/>
+      <c r="AF411" s="19"/>
+      <c r="AG411" s="19"/>
+      <c r="AH411" s="19"/>
+      <c r="AI411" s="19">
+        <v>1</v>
+      </c>
+      <c r="AJ411" s="19"/>
+      <c r="AK411" s="19"/>
     </row>
     <row r="412" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A412" s="45" t="s">
+      <c r="A412" s="22"/>
+      <c r="B412" s="22">
+        <v>1</v>
+      </c>
+      <c r="C412" s="23"/>
+      <c r="R412" s="28" t="s">
+        <v>1011</v>
+      </c>
+      <c r="V412" s="31"/>
+    </row>
+    <row r="413" spans="1:37" customFormat="1" ht="23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="78" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B413" s="78" t="s">
+        <v>571</v>
+      </c>
+      <c r="C413" s="80" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D413" s="80"/>
+      <c r="E413" s="80"/>
+      <c r="F413" s="80"/>
+      <c r="G413" s="80"/>
+      <c r="H413" s="80"/>
+      <c r="I413" s="80"/>
+      <c r="J413" s="80"/>
+      <c r="K413" s="80"/>
+      <c r="L413" s="80"/>
+      <c r="M413" s="80"/>
+      <c r="N413" s="80"/>
+      <c r="O413" s="80"/>
+      <c r="P413" s="80"/>
+      <c r="Q413" s="80"/>
+      <c r="R413" s="81"/>
+      <c r="S413" s="80"/>
+      <c r="T413" s="80"/>
+      <c r="U413" s="80"/>
+      <c r="V413" s="82"/>
+      <c r="W413" s="80"/>
+      <c r="X413" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y413" s="80"/>
+      <c r="Z413" s="80"/>
+      <c r="AB413" s="80"/>
+      <c r="AC413" s="80"/>
+      <c r="AD413" s="80"/>
+      <c r="AE413" s="80"/>
+      <c r="AF413" s="80"/>
+      <c r="AG413" s="80"/>
+      <c r="AH413" s="80"/>
+      <c r="AI413" s="80"/>
+      <c r="AJ413" s="80"/>
+      <c r="AK413" s="80"/>
+    </row>
+    <row r="414" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="45" t="s">
         <v>1015</v>
       </c>
-      <c r="B412" s="45" t="s">
+      <c r="B414" s="45" t="s">
         <v>571</v>
-      </c>
-      <c r="C412" s="19" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D412" s="19"/>
-      <c r="E412" s="19"/>
-      <c r="F412" s="19"/>
-      <c r="G412" s="19"/>
-      <c r="H412" s="19"/>
-      <c r="I412" s="19"/>
-      <c r="J412" s="19"/>
-      <c r="K412" s="19"/>
-      <c r="L412" s="19"/>
-      <c r="M412" s="19"/>
-      <c r="N412" s="19"/>
-      <c r="O412" s="19"/>
-      <c r="P412" s="19"/>
-      <c r="Q412" s="19"/>
-      <c r="R412" s="28">
-        <v>40087</v>
-      </c>
-      <c r="S412" s="19"/>
-      <c r="T412" s="19" t="s">
-        <v>1016</v>
-      </c>
-      <c r="U412" s="19"/>
-      <c r="V412" s="31" t="s">
-        <v>1017</v>
-      </c>
-      <c r="W412" s="19"/>
-      <c r="X412" s="19" t="s">
-        <v>766</v>
-      </c>
-      <c r="Y412" s="19"/>
-      <c r="Z412" s="19"/>
-      <c r="AB412" s="19"/>
-      <c r="AC412" s="19"/>
-      <c r="AD412" s="19"/>
-      <c r="AE412" s="19"/>
-      <c r="AF412" s="19"/>
-      <c r="AG412" s="19"/>
-      <c r="AH412" s="19"/>
-      <c r="AI412" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ412" s="19"/>
-      <c r="AK412" s="19"/>
-    </row>
-    <row r="413" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="22"/>
-      <c r="B413" s="22" t="s">
-        <v>571</v>
-      </c>
-      <c r="R413" s="18" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="414" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A414" s="45" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B414" s="45">
-        <v>1</v>
       </c>
       <c r="C414" s="19" t="s">
         <v>1003</v>
@@ -23907,16 +23949,16 @@
       <c r="O414" s="19"/>
       <c r="P414" s="19"/>
       <c r="Q414" s="19"/>
-      <c r="R414" s="35">
-        <v>42262</v>
+      <c r="R414" s="28">
+        <v>40087</v>
       </c>
       <c r="S414" s="19"/>
       <c r="T414" s="19" t="s">
-        <v>51</v>
+        <v>1016</v>
       </c>
       <c r="U414" s="19"/>
       <c r="V414" s="31" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="W414" s="19"/>
       <c r="X414" s="19" t="s">
@@ -23927,355 +23969,355 @@
       <c r="AB414" s="19"/>
       <c r="AC414" s="19"/>
       <c r="AD414" s="19"/>
-      <c r="AE414" s="19">
-        <v>1</v>
-      </c>
+      <c r="AE414" s="19"/>
       <c r="AF414" s="19"/>
       <c r="AG414" s="19"/>
       <c r="AH414" s="19"/>
-      <c r="AI414" s="19"/>
+      <c r="AI414" s="19">
+        <v>1</v>
+      </c>
       <c r="AJ414" s="19"/>
       <c r="AK414" s="19"/>
     </row>
-    <row r="415" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A415" s="45" t="s">
+    <row r="415" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="22"/>
+      <c r="B415" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="R415" s="18" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="416" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="45" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B416" s="45">
+        <v>1</v>
+      </c>
+      <c r="C416" s="19" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D416" s="19"/>
+      <c r="E416" s="19"/>
+      <c r="F416" s="19"/>
+      <c r="G416" s="19"/>
+      <c r="H416" s="19"/>
+      <c r="I416" s="19"/>
+      <c r="J416" s="19"/>
+      <c r="K416" s="19"/>
+      <c r="L416" s="19"/>
+      <c r="M416" s="19"/>
+      <c r="N416" s="19"/>
+      <c r="O416" s="19"/>
+      <c r="P416" s="19"/>
+      <c r="Q416" s="19"/>
+      <c r="R416" s="35">
+        <v>42262</v>
+      </c>
+      <c r="S416" s="19"/>
+      <c r="T416" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="U416" s="19"/>
+      <c r="V416" s="31" t="s">
+        <v>1019</v>
+      </c>
+      <c r="W416" s="19"/>
+      <c r="X416" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y416" s="19"/>
+      <c r="Z416" s="19"/>
+      <c r="AB416" s="19"/>
+      <c r="AC416" s="19"/>
+      <c r="AD416" s="19"/>
+      <c r="AE416" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF416" s="19"/>
+      <c r="AG416" s="19"/>
+      <c r="AH416" s="19"/>
+      <c r="AI416" s="19"/>
+      <c r="AJ416" s="19"/>
+      <c r="AK416" s="19"/>
+    </row>
+    <row r="417" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A417" s="45" t="s">
         <v>1020</v>
       </c>
-      <c r="B415" s="45">
-        <v>1</v>
-      </c>
-      <c r="C415" s="19" t="s">
+      <c r="B417" s="45">
+        <v>1</v>
+      </c>
+      <c r="C417" s="19" t="s">
         <v>1003</v>
       </c>
-      <c r="D415" s="19"/>
-      <c r="E415" s="19"/>
-      <c r="F415" s="19"/>
-      <c r="G415" s="19"/>
-      <c r="H415" s="19"/>
-      <c r="I415" s="19"/>
-      <c r="J415" s="19"/>
-      <c r="K415" s="19"/>
-      <c r="L415" s="19"/>
-      <c r="M415" s="19"/>
-      <c r="N415" s="19"/>
-      <c r="O415" s="19"/>
-      <c r="P415" s="19"/>
-      <c r="Q415" s="19"/>
-      <c r="R415" s="28">
+      <c r="D417" s="19"/>
+      <c r="E417" s="19"/>
+      <c r="F417" s="19"/>
+      <c r="G417" s="19"/>
+      <c r="H417" s="19"/>
+      <c r="I417" s="19"/>
+      <c r="J417" s="19"/>
+      <c r="K417" s="19"/>
+      <c r="L417" s="19"/>
+      <c r="M417" s="19"/>
+      <c r="N417" s="19"/>
+      <c r="O417" s="19"/>
+      <c r="P417" s="19"/>
+      <c r="Q417" s="19"/>
+      <c r="R417" s="28">
         <v>42522</v>
       </c>
-      <c r="S415" s="19"/>
-      <c r="T415" s="19" t="s">
+      <c r="S417" s="19"/>
+      <c r="T417" s="19" t="s">
         <v>633</v>
       </c>
-      <c r="U415" s="19"/>
-      <c r="V415" s="31" t="s">
+      <c r="U417" s="19"/>
+      <c r="V417" s="31" t="s">
         <v>1021</v>
       </c>
-      <c r="W415" s="19"/>
-      <c r="X415" s="19" t="s">
-        <v>766</v>
-      </c>
-      <c r="Y415" s="19"/>
-      <c r="Z415" s="19"/>
-      <c r="AB415" s="19"/>
-      <c r="AC415" s="19"/>
-      <c r="AD415" s="19"/>
-      <c r="AE415" s="19"/>
-      <c r="AF415" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG415" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH415" s="19"/>
-      <c r="AI415" s="19"/>
-      <c r="AJ415" s="19"/>
-      <c r="AK415" s="19"/>
-    </row>
-    <row r="416" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A416" s="22"/>
-      <c r="B416" s="22">
-        <v>1</v>
-      </c>
-      <c r="P416" s="18" t="s">
-        <v>1022</v>
-      </c>
-      <c r="R416" s="28">
-        <v>40118</v>
-      </c>
-      <c r="S416" s="18">
-        <v>1</v>
-      </c>
-      <c r="T416" s="19" t="s">
-        <v>633</v>
-      </c>
-      <c r="U416" s="18">
-        <v>1</v>
-      </c>
-      <c r="V416" s="31" t="s">
-        <v>1021</v>
-      </c>
-      <c r="W416" s="18">
-        <v>1</v>
-      </c>
-      <c r="X416" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y416" s="22" t="s">
-        <v>1023</v>
-      </c>
-      <c r="Z416" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF416" s="18">
-        <v>1</v>
-      </c>
-      <c r="AG416" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:37" customFormat="1" ht="19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="80" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B417" s="80" t="s">
-        <v>571</v>
-      </c>
-      <c r="C417" s="80" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D417" s="80"/>
-      <c r="E417" s="80"/>
-      <c r="F417" s="80"/>
-      <c r="G417" s="80"/>
-      <c r="H417" s="80"/>
-      <c r="I417" s="80"/>
-      <c r="J417" s="80"/>
-      <c r="K417" s="80"/>
-      <c r="L417" s="80"/>
-      <c r="M417" s="80"/>
-      <c r="N417" s="80"/>
-      <c r="O417" s="80"/>
-      <c r="P417" s="80"/>
-      <c r="Q417" s="80"/>
-      <c r="R417" s="81">
-        <v>40787</v>
-      </c>
-      <c r="S417" s="80"/>
-      <c r="T417" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="U417" s="80"/>
-      <c r="V417" s="85" t="s">
-        <v>1025</v>
-      </c>
-      <c r="W417" s="80"/>
+      <c r="W417" s="19"/>
       <c r="X417" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="Y417" s="80"/>
-      <c r="Z417" s="80"/>
-      <c r="AB417" s="80"/>
-      <c r="AC417" s="80"/>
-      <c r="AD417" s="80"/>
-      <c r="AE417" s="80">
-        <v>1</v>
-      </c>
-      <c r="AF417" s="80"/>
-      <c r="AG417" s="80"/>
-      <c r="AH417" s="80"/>
-      <c r="AI417" s="80"/>
-      <c r="AJ417" s="80"/>
-      <c r="AK417" s="80"/>
+      <c r="Y417" s="19"/>
+      <c r="Z417" s="19"/>
+      <c r="AB417" s="19"/>
+      <c r="AC417" s="19"/>
+      <c r="AD417" s="19"/>
+      <c r="AE417" s="19"/>
+      <c r="AF417" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG417" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH417" s="19"/>
+      <c r="AI417" s="19"/>
+      <c r="AJ417" s="19"/>
+      <c r="AK417" s="19"/>
     </row>
     <row r="418" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A418" s="19" t="s">
+      <c r="A418" s="22"/>
+      <c r="B418" s="22">
+        <v>1</v>
+      </c>
+      <c r="P418" s="18" t="s">
+        <v>1022</v>
+      </c>
+      <c r="R418" s="28">
+        <v>40118</v>
+      </c>
+      <c r="S418" s="18">
+        <v>1</v>
+      </c>
+      <c r="T418" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="U418" s="18">
+        <v>1</v>
+      </c>
+      <c r="V418" s="31" t="s">
+        <v>1021</v>
+      </c>
+      <c r="W418" s="18">
+        <v>1</v>
+      </c>
+      <c r="X418" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y418" s="22" t="s">
+        <v>1023</v>
+      </c>
+      <c r="Z418" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF418" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG418" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:37" customFormat="1" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="80" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B419" s="80" t="s">
+        <v>571</v>
+      </c>
+      <c r="C419" s="80" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D419" s="80"/>
+      <c r="E419" s="80"/>
+      <c r="F419" s="80"/>
+      <c r="G419" s="80"/>
+      <c r="H419" s="80"/>
+      <c r="I419" s="80"/>
+      <c r="J419" s="80"/>
+      <c r="K419" s="80"/>
+      <c r="L419" s="80"/>
+      <c r="M419" s="80"/>
+      <c r="N419" s="80"/>
+      <c r="O419" s="80"/>
+      <c r="P419" s="80"/>
+      <c r="Q419" s="80"/>
+      <c r="R419" s="81">
+        <v>40787</v>
+      </c>
+      <c r="S419" s="80"/>
+      <c r="T419" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="U419" s="80"/>
+      <c r="V419" s="85" t="s">
+        <v>1025</v>
+      </c>
+      <c r="W419" s="80"/>
+      <c r="X419" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y419" s="80"/>
+      <c r="Z419" s="80"/>
+      <c r="AB419" s="80"/>
+      <c r="AC419" s="80"/>
+      <c r="AD419" s="80"/>
+      <c r="AE419" s="80">
+        <v>1</v>
+      </c>
+      <c r="AF419" s="80"/>
+      <c r="AG419" s="80"/>
+      <c r="AH419" s="80"/>
+      <c r="AI419" s="80"/>
+      <c r="AJ419" s="80"/>
+      <c r="AK419" s="80"/>
+    </row>
+    <row r="420" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="19" t="s">
         <v>1026</v>
       </c>
-      <c r="B418" s="19">
-        <v>1</v>
-      </c>
-      <c r="C418" s="19" t="s">
+      <c r="B420" s="19">
+        <v>1</v>
+      </c>
+      <c r="C420" s="19" t="s">
         <v>1003</v>
       </c>
-      <c r="D418" s="19"/>
-      <c r="E418" s="19"/>
-      <c r="F418" s="19"/>
-      <c r="G418" s="19"/>
-      <c r="H418" s="19"/>
-      <c r="I418" s="19"/>
-      <c r="J418" s="19"/>
-      <c r="K418" s="19"/>
-      <c r="L418" s="19"/>
-      <c r="M418" s="19"/>
-      <c r="N418" s="19"/>
-      <c r="O418" s="19"/>
-      <c r="P418" s="19"/>
-      <c r="Q418" s="19"/>
-      <c r="R418" s="35">
+      <c r="D420" s="19"/>
+      <c r="E420" s="19"/>
+      <c r="F420" s="19"/>
+      <c r="G420" s="19"/>
+      <c r="H420" s="19"/>
+      <c r="I420" s="19"/>
+      <c r="J420" s="19"/>
+      <c r="K420" s="19"/>
+      <c r="L420" s="19"/>
+      <c r="M420" s="19"/>
+      <c r="N420" s="19"/>
+      <c r="O420" s="19"/>
+      <c r="P420" s="19"/>
+      <c r="Q420" s="19"/>
+      <c r="R420" s="35">
         <v>42908</v>
       </c>
-      <c r="S418" s="19"/>
-      <c r="T418" s="19" t="s">
+      <c r="S420" s="19"/>
+      <c r="T420" s="19" t="s">
         <v>577</v>
       </c>
-      <c r="U418" s="19"/>
-      <c r="V418" s="31" t="s">
+      <c r="U420" s="19"/>
+      <c r="V420" s="31" t="s">
         <v>1027</v>
       </c>
-      <c r="W418" s="19"/>
-      <c r="X418" s="19" t="s">
-        <v>766</v>
-      </c>
-      <c r="Y418" s="19"/>
-      <c r="Z418" s="19"/>
-      <c r="AB418" s="19"/>
-      <c r="AC418" s="19"/>
-      <c r="AD418" s="19"/>
-      <c r="AE418" s="19"/>
-      <c r="AF418" s="19"/>
-      <c r="AG418" s="19"/>
-      <c r="AH418" s="19"/>
-      <c r="AI418" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ418" s="19"/>
-      <c r="AK418" s="19"/>
-    </row>
-    <row r="419" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B419" s="18">
-        <v>1</v>
-      </c>
-      <c r="R419" s="38" t="s">
-        <v>1011</v>
-      </c>
-      <c r="V419" s="31"/>
-    </row>
-    <row r="420" spans="1:37" customFormat="1" ht="23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="80" t="s">
-        <v>735</v>
-      </c>
-      <c r="B420" s="80" t="s">
-        <v>571</v>
-      </c>
-      <c r="C420" s="79" t="s">
-        <v>736</v>
-      </c>
-      <c r="D420" s="80"/>
-      <c r="E420" s="80"/>
-      <c r="F420" s="80"/>
-      <c r="G420" s="80"/>
-      <c r="H420" s="80"/>
-      <c r="I420" s="80"/>
-      <c r="J420" s="80"/>
-      <c r="K420" s="80"/>
-      <c r="L420" s="80"/>
-      <c r="M420" s="80"/>
-      <c r="N420" s="80"/>
-      <c r="O420" s="80"/>
-      <c r="P420" s="80"/>
-      <c r="Q420" s="80"/>
-      <c r="R420" s="86">
-        <v>41018</v>
-      </c>
-      <c r="S420" s="80"/>
-      <c r="T420" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="U420" s="80"/>
-      <c r="V420" s="82" t="s">
-        <v>1028</v>
-      </c>
-      <c r="W420" s="80"/>
+      <c r="W420" s="19"/>
       <c r="X420" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="Y420" s="80"/>
-      <c r="Z420" s="80"/>
-      <c r="AB420" s="80"/>
-      <c r="AC420" s="80"/>
-      <c r="AD420" s="80"/>
-      <c r="AE420" s="80"/>
-      <c r="AF420" s="80"/>
-      <c r="AG420" s="80"/>
-      <c r="AH420" s="80"/>
-      <c r="AI420" s="80"/>
-      <c r="AJ420" s="80"/>
-      <c r="AK420" s="80"/>
-    </row>
-    <row r="421" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A421" s="19" t="s">
+      <c r="Y420" s="19"/>
+      <c r="Z420" s="19"/>
+      <c r="AB420" s="19"/>
+      <c r="AC420" s="19"/>
+      <c r="AD420" s="19"/>
+      <c r="AE420" s="19"/>
+      <c r="AF420" s="19"/>
+      <c r="AG420" s="19"/>
+      <c r="AH420" s="19"/>
+      <c r="AI420" s="19">
+        <v>1</v>
+      </c>
+      <c r="AJ420" s="19"/>
+      <c r="AK420" s="19"/>
+    </row>
+    <row r="421" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B421" s="18">
+        <v>1</v>
+      </c>
+      <c r="R421" s="38" t="s">
+        <v>1011</v>
+      </c>
+      <c r="V421" s="31"/>
+    </row>
+    <row r="422" spans="1:37" customFormat="1" ht="23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="80" t="s">
+        <v>735</v>
+      </c>
+      <c r="B422" s="80" t="s">
+        <v>571</v>
+      </c>
+      <c r="C422" s="79" t="s">
+        <v>736</v>
+      </c>
+      <c r="D422" s="80"/>
+      <c r="E422" s="80"/>
+      <c r="F422" s="80"/>
+      <c r="G422" s="80"/>
+      <c r="H422" s="80"/>
+      <c r="I422" s="80"/>
+      <c r="J422" s="80"/>
+      <c r="K422" s="80"/>
+      <c r="L422" s="80"/>
+      <c r="M422" s="80"/>
+      <c r="N422" s="80"/>
+      <c r="O422" s="80"/>
+      <c r="P422" s="80"/>
+      <c r="Q422" s="80"/>
+      <c r="R422" s="86">
+        <v>41018</v>
+      </c>
+      <c r="S422" s="80"/>
+      <c r="T422" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="U422" s="80"/>
+      <c r="V422" s="82" t="s">
+        <v>1028</v>
+      </c>
+      <c r="W422" s="80"/>
+      <c r="X422" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y422" s="80"/>
+      <c r="Z422" s="80"/>
+      <c r="AB422" s="80"/>
+      <c r="AC422" s="80"/>
+      <c r="AD422" s="80"/>
+      <c r="AE422" s="80"/>
+      <c r="AF422" s="80"/>
+      <c r="AG422" s="80"/>
+      <c r="AH422" s="80"/>
+      <c r="AI422" s="80"/>
+      <c r="AJ422" s="80"/>
+      <c r="AK422" s="80"/>
+    </row>
+    <row r="423" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="19" t="s">
         <v>738</v>
       </c>
-      <c r="B421" s="19">
-        <v>1</v>
-      </c>
-      <c r="C421" s="19" t="s">
+      <c r="B423" s="19">
+        <v>1</v>
+      </c>
+      <c r="C423" s="19" t="s">
         <v>739</v>
-      </c>
-      <c r="D421" s="19"/>
-      <c r="E421" s="19"/>
-      <c r="F421" s="19"/>
-      <c r="G421" s="19"/>
-      <c r="H421" s="19"/>
-      <c r="I421" s="19"/>
-      <c r="J421" s="19"/>
-      <c r="K421" s="19"/>
-      <c r="L421" s="19"/>
-      <c r="M421" s="19"/>
-      <c r="N421" s="19"/>
-      <c r="O421" s="19"/>
-      <c r="P421" s="19"/>
-      <c r="Q421" s="19"/>
-      <c r="R421" s="28">
-        <v>41244</v>
-      </c>
-      <c r="S421" s="19"/>
-      <c r="T421" s="19" t="s">
-        <v>1029</v>
-      </c>
-      <c r="U421" s="19"/>
-      <c r="V421" s="31" t="s">
-        <v>1030</v>
-      </c>
-      <c r="W421" s="19"/>
-      <c r="X421" s="19" t="s">
-        <v>766</v>
-      </c>
-      <c r="Y421" s="19"/>
-      <c r="Z421" s="19"/>
-      <c r="AB421" s="19"/>
-      <c r="AC421" s="19"/>
-      <c r="AD421" s="19"/>
-      <c r="AE421" s="19"/>
-      <c r="AF421" s="19"/>
-      <c r="AG421" s="19"/>
-      <c r="AH421" s="19"/>
-      <c r="AI421" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ421" s="19"/>
-      <c r="AK421" s="19"/>
-    </row>
-    <row r="422" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B422" s="18">
-        <v>1</v>
-      </c>
-      <c r="R422" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="V422" s="31"/>
-    </row>
-    <row r="423" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A423" s="19" t="s">
-        <v>746</v>
-      </c>
-      <c r="B423" s="19">
-        <v>1</v>
-      </c>
-      <c r="C423" s="19" t="s">
-        <v>1031</v>
       </c>
       <c r="D423" s="19"/>
       <c r="E423" s="19"/>
@@ -24292,15 +24334,15 @@
       <c r="P423" s="19"/>
       <c r="Q423" s="19"/>
       <c r="R423" s="28">
-        <v>41334</v>
+        <v>41244</v>
       </c>
       <c r="S423" s="19"/>
       <c r="T423" s="19" t="s">
-        <v>51</v>
+        <v>1029</v>
       </c>
       <c r="U423" s="19"/>
-      <c r="V423" s="22" t="s">
-        <v>1032</v>
+      <c r="V423" s="31" t="s">
+        <v>1030</v>
       </c>
       <c r="W423" s="19"/>
       <c r="X423" s="19" t="s">
@@ -24321,24 +24363,24 @@
       <c r="AJ423" s="19"/>
       <c r="AK423" s="19"/>
     </row>
-    <row r="424" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="B424" s="18">
         <v>1</v>
       </c>
       <c r="R424" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="V424" s="22"/>
+      <c r="V424" s="31"/>
     </row>
     <row r="425" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="19" t="s">
-        <v>752</v>
-      </c>
-      <c r="B425" s="19" t="s">
-        <v>571</v>
+        <v>746</v>
+      </c>
+      <c r="B425" s="19">
+        <v>1</v>
       </c>
       <c r="C425" s="19" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D425" s="19"/>
       <c r="E425" s="19"/>
@@ -24355,15 +24397,15 @@
       <c r="P425" s="19"/>
       <c r="Q425" s="19"/>
       <c r="R425" s="28">
-        <v>40725</v>
+        <v>41334</v>
       </c>
       <c r="S425" s="19"/>
       <c r="T425" s="19" t="s">
-        <v>1029</v>
+        <v>51</v>
       </c>
       <c r="U425" s="19"/>
-      <c r="V425" s="32" t="s">
-        <v>1034</v>
+      <c r="V425" s="22" t="s">
+        <v>1032</v>
       </c>
       <c r="W425" s="19"/>
       <c r="X425" s="19" t="s">
@@ -24385,23 +24427,23 @@
       <c r="AK425" s="19"/>
     </row>
     <row r="426" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B426" s="18" t="s">
-        <v>571</v>
+      <c r="B426" s="18">
+        <v>1</v>
       </c>
       <c r="R426" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="V426" s="32"/>
-    </row>
-    <row r="427" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A427" s="45" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B427" s="45">
-        <v>1</v>
+      <c r="V426" s="22"/>
+    </row>
+    <row r="427" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="B427" s="19" t="s">
+        <v>571</v>
       </c>
       <c r="C427" s="19" t="s">
-        <v>1003</v>
+        <v>1033</v>
       </c>
       <c r="D427" s="19"/>
       <c r="E427" s="19"/>
@@ -24418,15 +24460,15 @@
       <c r="P427" s="19"/>
       <c r="Q427" s="19"/>
       <c r="R427" s="28">
-        <v>39448</v>
+        <v>40725</v>
       </c>
       <c r="S427" s="19"/>
       <c r="T427" s="19" t="s">
         <v>1029</v>
       </c>
       <c r="U427" s="19"/>
-      <c r="V427" s="22" t="s">
-        <v>1036</v>
+      <c r="V427" s="32" t="s">
+        <v>1034</v>
       </c>
       <c r="W427" s="19"/>
       <c r="X427" s="19" t="s">
@@ -24437,454 +24479,454 @@
       <c r="AB427" s="19"/>
       <c r="AC427" s="19"/>
       <c r="AD427" s="19"/>
-      <c r="AE427" s="19">
-        <v>1</v>
-      </c>
+      <c r="AE427" s="19"/>
       <c r="AF427" s="19"/>
       <c r="AG427" s="19"/>
       <c r="AH427" s="19"/>
-      <c r="AI427" s="19"/>
+      <c r="AI427" s="19">
+        <v>1</v>
+      </c>
       <c r="AJ427" s="19"/>
       <c r="AK427" s="19"/>
     </row>
     <row r="428" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="19" t="s">
+      <c r="B428" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="R428" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="V428" s="32"/>
+    </row>
+    <row r="429" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="45" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B429" s="45">
+        <v>1</v>
+      </c>
+      <c r="C429" s="19" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D429" s="19"/>
+      <c r="E429" s="19"/>
+      <c r="F429" s="19"/>
+      <c r="G429" s="19"/>
+      <c r="H429" s="19"/>
+      <c r="I429" s="19"/>
+      <c r="J429" s="19"/>
+      <c r="K429" s="19"/>
+      <c r="L429" s="19"/>
+      <c r="M429" s="19"/>
+      <c r="N429" s="19"/>
+      <c r="O429" s="19"/>
+      <c r="P429" s="19"/>
+      <c r="Q429" s="19"/>
+      <c r="R429" s="28">
+        <v>39448</v>
+      </c>
+      <c r="S429" s="19"/>
+      <c r="T429" s="19" t="s">
+        <v>1029</v>
+      </c>
+      <c r="U429" s="19"/>
+      <c r="V429" s="22" t="s">
+        <v>1036</v>
+      </c>
+      <c r="W429" s="19"/>
+      <c r="X429" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y429" s="19"/>
+      <c r="Z429" s="19"/>
+      <c r="AB429" s="19"/>
+      <c r="AC429" s="19"/>
+      <c r="AD429" s="19"/>
+      <c r="AE429" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF429" s="19"/>
+      <c r="AG429" s="19"/>
+      <c r="AH429" s="19"/>
+      <c r="AI429" s="19"/>
+      <c r="AJ429" s="19"/>
+      <c r="AK429" s="19"/>
+    </row>
+    <row r="430" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="19" t="s">
         <v>1037</v>
       </c>
-      <c r="B428" s="19" t="s">
+      <c r="B430" s="19" t="s">
         <v>571</v>
       </c>
-      <c r="C428" s="19" t="s">
+      <c r="C430" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D428" s="19"/>
-      <c r="E428" s="19"/>
-      <c r="F428" s="19"/>
-      <c r="G428" s="19"/>
-      <c r="H428" s="19"/>
-      <c r="I428" s="19"/>
-      <c r="J428" s="19"/>
-      <c r="K428" s="19"/>
-      <c r="L428" s="19"/>
-      <c r="M428" s="19"/>
-      <c r="N428" s="19"/>
-      <c r="O428" s="19">
-        <v>1</v>
-      </c>
-      <c r="P428" s="19"/>
-      <c r="Q428" s="19"/>
-      <c r="R428" s="35">
+      <c r="D430" s="19"/>
+      <c r="E430" s="19"/>
+      <c r="F430" s="19"/>
+      <c r="G430" s="19"/>
+      <c r="H430" s="19"/>
+      <c r="I430" s="19"/>
+      <c r="J430" s="19"/>
+      <c r="K430" s="19"/>
+      <c r="L430" s="19"/>
+      <c r="M430" s="19"/>
+      <c r="N430" s="19"/>
+      <c r="O430" s="19">
+        <v>1</v>
+      </c>
+      <c r="P430" s="19"/>
+      <c r="Q430" s="19"/>
+      <c r="R430" s="35">
         <v>42824</v>
       </c>
-      <c r="S428" s="19"/>
-      <c r="T428" s="31" t="s">
+      <c r="S430" s="19"/>
+      <c r="T430" s="31" t="s">
         <v>832</v>
       </c>
-      <c r="U428" s="19"/>
-      <c r="V428" s="22" t="s">
+      <c r="U430" s="19"/>
+      <c r="V430" s="22" t="s">
         <v>1140</v>
       </c>
-      <c r="W428" s="19"/>
-      <c r="X428" s="19" t="s">
+      <c r="W430" s="19"/>
+      <c r="X430" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="Y428" s="19"/>
-      <c r="Z428" s="19"/>
-      <c r="AB428" s="19"/>
-      <c r="AC428" s="19"/>
-      <c r="AD428" s="19"/>
-      <c r="AE428" s="19">
-        <v>1</v>
-      </c>
-      <c r="AF428" s="19"/>
-      <c r="AG428" s="19"/>
-      <c r="AH428" s="19"/>
-      <c r="AI428" s="19"/>
-      <c r="AJ428" s="19"/>
-      <c r="AK428" s="19"/>
-    </row>
-    <row r="429" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B429" s="18">
-        <v>1</v>
-      </c>
-      <c r="P429" s="18" t="s">
+      <c r="Y430" s="19"/>
+      <c r="Z430" s="19"/>
+      <c r="AB430" s="19"/>
+      <c r="AC430" s="19"/>
+      <c r="AD430" s="19"/>
+      <c r="AE430" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF430" s="19"/>
+      <c r="AG430" s="19"/>
+      <c r="AH430" s="19"/>
+      <c r="AI430" s="19"/>
+      <c r="AJ430" s="19"/>
+      <c r="AK430" s="19"/>
+    </row>
+    <row r="431" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B431" s="18">
+        <v>1</v>
+      </c>
+      <c r="P431" s="18" t="s">
         <v>834</v>
       </c>
-      <c r="Q429" s="18" t="s">
+      <c r="Q431" s="18" t="s">
         <v>1038</v>
       </c>
-      <c r="R429" s="33">
+      <c r="R431" s="33">
         <v>40087</v>
       </c>
-      <c r="S429" s="18">
-        <v>1</v>
-      </c>
-      <c r="T429" s="22" t="s">
+      <c r="S431" s="18">
+        <v>1</v>
+      </c>
+      <c r="T431" s="22" t="s">
         <v>836</v>
       </c>
-      <c r="U429" s="18">
-        <v>1</v>
-      </c>
-      <c r="V429" s="22" t="s">
+      <c r="U431" s="18">
+        <v>1</v>
+      </c>
+      <c r="V431" s="22" t="s">
         <v>1039</v>
       </c>
-      <c r="W429" s="18">
+      <c r="W431" s="18">
         <v>0</v>
       </c>
-      <c r="X429" s="22">
+      <c r="X431" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B430" s="18">
-        <v>1</v>
-      </c>
-      <c r="P430" s="18" t="s">
+    <row r="432" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B432" s="18">
+        <v>1</v>
+      </c>
+      <c r="P432" s="18" t="s">
         <v>1040</v>
       </c>
-      <c r="R430" s="38">
+      <c r="R432" s="38">
         <v>40310</v>
       </c>
-      <c r="S430" s="18">
-        <v>1</v>
-      </c>
-      <c r="T430" s="22" t="s">
+      <c r="S432" s="18">
+        <v>1</v>
+      </c>
+      <c r="T432" s="22" t="s">
         <v>836</v>
       </c>
-      <c r="U430" s="18">
-        <v>1</v>
-      </c>
-      <c r="V430" s="22" t="s">
+      <c r="U432" s="18">
+        <v>1</v>
+      </c>
+      <c r="V432" s="22" t="s">
         <v>1039</v>
       </c>
-      <c r="W430" s="18">
+      <c r="W432" s="18">
         <v>0</v>
       </c>
-      <c r="X430" s="22">
+      <c r="X432" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:37" customFormat="1" ht="23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="80" t="s">
+    <row r="433" spans="1:37" customFormat="1" ht="23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="80" t="s">
         <v>1041</v>
       </c>
-      <c r="B431" s="80" t="s">
+      <c r="B433" s="80" t="s">
         <v>571</v>
       </c>
-      <c r="C431" s="80" t="s">
+      <c r="C433" s="80" t="s">
         <v>1003</v>
       </c>
-      <c r="D431" s="80"/>
-      <c r="E431" s="80"/>
-      <c r="F431" s="80"/>
-      <c r="G431" s="80"/>
-      <c r="H431" s="80"/>
-      <c r="I431" s="80"/>
-      <c r="J431" s="80"/>
-      <c r="K431" s="80"/>
-      <c r="L431" s="80"/>
-      <c r="M431" s="80"/>
-      <c r="N431" s="80"/>
-      <c r="O431" s="80"/>
-      <c r="P431" s="80"/>
-      <c r="Q431" s="80"/>
-      <c r="R431" s="81">
+      <c r="D433" s="80"/>
+      <c r="E433" s="80"/>
+      <c r="F433" s="80"/>
+      <c r="G433" s="80"/>
+      <c r="H433" s="80"/>
+      <c r="I433" s="80"/>
+      <c r="J433" s="80"/>
+      <c r="K433" s="80"/>
+      <c r="L433" s="80"/>
+      <c r="M433" s="80"/>
+      <c r="N433" s="80"/>
+      <c r="O433" s="80"/>
+      <c r="P433" s="80"/>
+      <c r="Q433" s="80"/>
+      <c r="R433" s="81">
         <v>40544</v>
       </c>
-      <c r="S431" s="80"/>
-      <c r="T431" s="82" t="s">
+      <c r="S433" s="80"/>
+      <c r="T433" s="82" t="s">
         <v>1042</v>
       </c>
-      <c r="U431" s="80"/>
-      <c r="V431" s="84" t="s">
+      <c r="U433" s="80"/>
+      <c r="V433" s="84" t="s">
         <v>1043</v>
       </c>
-      <c r="W431" s="80"/>
-      <c r="X431" s="19" t="s">
+      <c r="W433" s="80"/>
+      <c r="X433" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="Y431" s="80"/>
-      <c r="Z431" s="80"/>
-      <c r="AB431" s="80"/>
-      <c r="AC431" s="80"/>
-      <c r="AD431" s="80"/>
-      <c r="AE431" s="80"/>
-      <c r="AF431" s="80"/>
-      <c r="AG431" s="80"/>
-      <c r="AH431" s="80"/>
-      <c r="AI431" s="80"/>
-      <c r="AJ431" s="80"/>
-      <c r="AK431" s="80"/>
-    </row>
-    <row r="432" spans="1:37" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A432" s="95" t="s">
+      <c r="Y433" s="80"/>
+      <c r="Z433" s="80"/>
+      <c r="AB433" s="80"/>
+      <c r="AC433" s="80"/>
+      <c r="AD433" s="80"/>
+      <c r="AE433" s="80"/>
+      <c r="AF433" s="80"/>
+      <c r="AG433" s="80"/>
+      <c r="AH433" s="80"/>
+      <c r="AI433" s="80"/>
+      <c r="AJ433" s="80"/>
+      <c r="AK433" s="80"/>
+    </row>
+    <row r="434" spans="1:37" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A434" s="95" t="s">
         <v>1098</v>
       </c>
-      <c r="B432" s="100" t="s">
+      <c r="B434" s="100" t="s">
         <v>571</v>
       </c>
-      <c r="C432" s="101" t="s">
+      <c r="C434" s="101" t="s">
         <v>1102</v>
       </c>
-      <c r="D432" s="100"/>
-      <c r="R432" s="81">
+      <c r="D434" s="100"/>
+      <c r="R434" s="81">
         <v>42552</v>
       </c>
-      <c r="T432" s="102" t="s">
+      <c r="T434" s="102" t="s">
         <v>1130</v>
       </c>
-      <c r="V432" s="102" t="s">
+      <c r="V434" s="102" t="s">
         <v>1117</v>
       </c>
-      <c r="AF432" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG432" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:35" s="97" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B433" s="97" t="s">
+      <c r="AF434" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG434" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:37" s="97" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="B435" s="97" t="s">
         <v>571</v>
       </c>
-      <c r="C433" s="18"/>
-      <c r="D433" s="18"/>
-      <c r="E433" s="18"/>
-      <c r="F433" s="18"/>
-      <c r="G433" s="18"/>
-      <c r="H433" s="18"/>
-      <c r="I433" s="18"/>
-      <c r="J433" s="18"/>
-      <c r="K433" s="18"/>
-      <c r="L433" s="18"/>
-      <c r="M433" s="18" t="s">
+      <c r="C435" s="18"/>
+      <c r="D435" s="18"/>
+      <c r="E435" s="18"/>
+      <c r="F435" s="18"/>
+      <c r="G435" s="18"/>
+      <c r="H435" s="18"/>
+      <c r="I435" s="18"/>
+      <c r="J435" s="18"/>
+      <c r="K435" s="18"/>
+      <c r="L435" s="18"/>
+      <c r="M435" s="18" t="s">
         <v>1133</v>
       </c>
-      <c r="N433" s="18"/>
-      <c r="O433" s="18"/>
-      <c r="P433" s="96" t="s">
+      <c r="N435" s="18"/>
+      <c r="O435" s="18"/>
+      <c r="P435" s="96" t="s">
         <v>1100</v>
       </c>
-      <c r="Q433" s="18" t="s">
+      <c r="Q435" s="18" t="s">
         <v>1101</v>
       </c>
-      <c r="R433" s="81">
+      <c r="R435" s="81">
         <v>41518</v>
       </c>
-      <c r="T433" s="102" t="s">
+      <c r="T435" s="102" t="s">
         <v>1131</v>
       </c>
-      <c r="U433" s="97">
-        <v>1</v>
-      </c>
-      <c r="V433" s="102" t="s">
+      <c r="U435" s="97">
+        <v>1</v>
+      </c>
+      <c r="V435" s="102" t="s">
         <v>1117</v>
       </c>
-      <c r="W433" s="97">
-        <v>1</v>
-      </c>
-      <c r="X433" s="97">
-        <v>1</v>
-      </c>
-      <c r="Y433" s="96" t="s">
+      <c r="W435" s="97">
+        <v>1</v>
+      </c>
+      <c r="X435" s="97">
+        <v>1</v>
+      </c>
+      <c r="Y435" s="96" t="s">
         <v>1118</v>
       </c>
-      <c r="Z433" s="97">
+      <c r="Z435" s="97">
         <v>0</v>
       </c>
-      <c r="AF433" s="97">
-        <v>1</v>
-      </c>
-      <c r="AG433" s="97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" spans="1:35" s="19" customFormat="1" ht="20" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A434" s="80" t="s">
+      <c r="AF435" s="97">
+        <v>1</v>
+      </c>
+      <c r="AG435" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:37" s="19" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A436" s="80" t="s">
         <v>1103</v>
       </c>
-      <c r="B434" s="19" t="s">
-        <v>571</v>
-      </c>
-      <c r="C434" s="19" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H434" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="P434" s="99"/>
-      <c r="R434" s="81">
-        <v>39083</v>
-      </c>
-      <c r="T434" s="84" t="s">
-        <v>1107</v>
-      </c>
-      <c r="V434" s="85" t="s">
-        <v>1108</v>
-      </c>
-      <c r="AF434" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH434" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:35" ht="20" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A435"/>
-      <c r="B435" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="P435" s="98" t="s">
-        <v>1104</v>
-      </c>
-      <c r="Q435" s="18" t="s">
-        <v>1105</v>
-      </c>
-      <c r="R435" s="81">
-        <v>37591</v>
-      </c>
-      <c r="S435" s="18">
-        <v>1</v>
-      </c>
-      <c r="T435" s="84" t="s">
-        <v>1110</v>
-      </c>
-      <c r="U435" s="18">
-        <v>1</v>
-      </c>
-      <c r="V435" s="84" t="s">
-        <v>1109</v>
-      </c>
-      <c r="W435" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y435" s="96" t="s">
-        <v>1111</v>
-      </c>
-      <c r="Z435" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA435" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB435" s="18" t="s">
-        <v>1114</v>
-      </c>
-      <c r="AF435" s="18">
-        <v>1</v>
-      </c>
-      <c r="AH435" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="1:35" ht="20" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A436"/>
       <c r="B436" s="19" t="s">
         <v>571</v>
       </c>
-      <c r="P436" s="98"/>
-      <c r="Q436" s="18" t="s">
-        <v>1112</v>
-      </c>
-      <c r="R436" s="81"/>
-      <c r="T436" s="84"/>
-      <c r="V436" s="84" t="s">
-        <v>1113</v>
-      </c>
-      <c r="W436" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y436" s="96"/>
-    </row>
-    <row r="437" spans="1:35" ht="20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C436" s="19" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H436" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="P436" s="99"/>
+      <c r="R436" s="81">
+        <v>39083</v>
+      </c>
+      <c r="T436" s="84" t="s">
+        <v>1107</v>
+      </c>
+      <c r="V436" s="85" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AF436" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH436" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:37" ht="20" x14ac:dyDescent="0.2">
       <c r="A437"/>
       <c r="B437" s="18" t="s">
         <v>571</v>
       </c>
       <c r="P437" s="98" t="s">
-        <v>1115</v>
-      </c>
-      <c r="R437" s="81"/>
-      <c r="T437" s="84"/>
+        <v>1104</v>
+      </c>
+      <c r="Q437" s="18" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R437" s="81">
+        <v>37591</v>
+      </c>
+      <c r="S437" s="18">
+        <v>1</v>
+      </c>
+      <c r="T437" s="84" t="s">
+        <v>1110</v>
+      </c>
+      <c r="U437" s="18">
+        <v>1</v>
+      </c>
       <c r="V437" s="84" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="W437" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y437" s="96" t="s">
+        <v>1111</v>
+      </c>
+      <c r="Z437" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA437" s="18">
         <v>0</v>
       </c>
-      <c r="Y437" s="96"/>
-    </row>
-    <row r="438" spans="1:35" ht="20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AB437" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AF437" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH437" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:37" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438"/>
       <c r="B438" s="19" t="s">
         <v>571</v>
       </c>
       <c r="P438" s="98"/>
       <c r="Q438" s="18" t="s">
-        <v>1123</v>
-      </c>
-      <c r="R438" s="81" t="s">
-        <v>1125</v>
-      </c>
-      <c r="S438" s="18">
-        <v>1</v>
-      </c>
-      <c r="T438" s="84" t="s">
-        <v>1110</v>
-      </c>
-      <c r="U438" s="18">
-        <v>1</v>
-      </c>
+        <v>1112</v>
+      </c>
+      <c r="R438" s="81"/>
+      <c r="T438" s="84"/>
       <c r="V438" s="84" t="s">
-        <v>1126</v>
+        <v>1113</v>
       </c>
       <c r="W438" s="18">
         <v>0</v>
       </c>
       <c r="Y438" s="96"/>
     </row>
-    <row r="439" spans="1:35" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:37" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439"/>
       <c r="B439" s="18" t="s">
         <v>571</v>
       </c>
       <c r="P439" s="98" t="s">
-        <v>1132</v>
-      </c>
-      <c r="Q439" s="18" t="s">
-        <v>1128</v>
+        <v>1115</v>
       </c>
       <c r="R439" s="81"/>
       <c r="T439" s="84"/>
-      <c r="V439" s="84"/>
+      <c r="V439" s="84" t="s">
+        <v>1116</v>
+      </c>
+      <c r="W439" s="18">
+        <v>0</v>
+      </c>
       <c r="Y439" s="96"/>
     </row>
-    <row r="440" spans="1:35" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:37" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440"/>
-      <c r="B440" s="18" t="s">
+      <c r="B440" s="19" t="s">
         <v>571</v>
-      </c>
-      <c r="G440" s="18">
-        <v>1</v>
-      </c>
-      <c r="H440" s="18" t="s">
-        <v>770</v>
-      </c>
-      <c r="I440" s="18" t="s">
-        <v>1121</v>
-      </c>
-      <c r="J440" s="18" t="s">
-        <v>1121</v>
-      </c>
-      <c r="K440" s="18">
-        <v>39</v>
-      </c>
-      <c r="L440" s="18">
-        <v>2</v>
       </c>
       <c r="P440" s="98"/>
       <c r="Q440" s="18" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="R440" s="81" t="s">
         <v>1125</v>
@@ -24899,87 +24941,150 @@
         <v>1</v>
       </c>
       <c r="V440" s="84" t="s">
-        <v>1108</v>
+        <v>1126</v>
       </c>
       <c r="W440" s="18">
-        <v>1</v>
-      </c>
-      <c r="X440" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y440" s="96" t="s">
-        <v>1127</v>
-      </c>
-      <c r="Z440" s="46" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="441" spans="1:35" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A441" s="80" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B441" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y440" s="96"/>
+    </row>
+    <row r="441" spans="1:37" ht="20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A441"/>
+      <c r="B441" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="P441" s="78" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI441" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P441" s="98" t="s">
+        <v>1132</v>
+      </c>
+      <c r="Q441" s="18" t="s">
+        <v>1128</v>
+      </c>
+      <c r="R441" s="81"/>
+      <c r="T441" s="84"/>
+      <c r="V441" s="84"/>
+      <c r="Y441" s="96"/>
+    </row>
+    <row r="442" spans="1:37" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442"/>
       <c r="B442" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="P442" s="98" t="s">
+      <c r="G442" s="18">
+        <v>1</v>
+      </c>
+      <c r="H442" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="I442" s="18" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J442" s="18" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K442" s="18">
+        <v>39</v>
+      </c>
+      <c r="L442" s="18">
+        <v>2</v>
+      </c>
+      <c r="P442" s="98"/>
+      <c r="Q442" s="18" t="s">
+        <v>1124</v>
+      </c>
+      <c r="R442" s="81" t="s">
+        <v>1125</v>
+      </c>
+      <c r="S442" s="18">
+        <v>1</v>
+      </c>
+      <c r="T442" s="84" t="s">
+        <v>1110</v>
+      </c>
+      <c r="U442" s="18">
+        <v>1</v>
+      </c>
+      <c r="V442" s="84" t="s">
+        <v>1108</v>
+      </c>
+      <c r="W442" s="18">
+        <v>1</v>
+      </c>
+      <c r="X442" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y442" s="96" t="s">
+        <v>1127</v>
+      </c>
+      <c r="Z442" s="46" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="443" spans="1:37" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="80" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B443" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="P443" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI443" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A444"/>
+      <c r="B444" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="P444" s="98" t="s">
         <v>1011</v>
       </c>
-      <c r="AI442" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A443"/>
-      <c r="B443" s="18" t="s">
+      <c r="AI444" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A445"/>
+      <c r="B445" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="G443" s="18">
-        <v>1</v>
-      </c>
-      <c r="H443" s="18" t="s">
+      <c r="G445" s="18">
+        <v>1</v>
+      </c>
+      <c r="H445" s="18" t="s">
         <v>1120</v>
       </c>
-      <c r="I443" s="18" t="s">
+      <c r="I445" s="18" t="s">
         <v>1121</v>
       </c>
-      <c r="J443" s="18" t="s">
+      <c r="J445" s="18" t="s">
         <v>1122</v>
       </c>
-      <c r="K443" s="18">
+      <c r="K445" s="18">
         <v>900</v>
       </c>
-      <c r="L443" s="18">
+      <c r="L445" s="18">
         <v>3</v>
       </c>
-      <c r="O443" s="18">
+      <c r="O445" s="18">
         <v>3</v>
       </c>
-      <c r="P443" s="83" t="s">
+      <c r="P445" s="83" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="444" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A444"/>
-      <c r="P444" s="83"/>
-    </row>
-    <row r="445" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="P445" s="83"/>
+    <row r="446" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A446"/>
+      <c r="P446" s="83"/>
+    </row>
+    <row r="447" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="P447" s="83"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AK443" xr:uid="{ED2F0353-714E-C24F-9141-2C52DBDF8C59}">
-    <filterColumn colId="1">
+  <autoFilter ref="A2:AK445" xr:uid="{ED2F0353-714E-C24F-9141-2C52DBDF8C59}">
+    <filterColumn colId="31">
       <filters>
         <filter val="1"/>
       </filters>
@@ -25144,19 +25249,19 @@
     <hyperlink ref="P344" r:id="rId153" display="https://clinicaltrials.gov/show/NCT00676715" xr:uid="{8FE7758C-B9B8-0F40-9276-CE235DF3CD7F}"/>
     <hyperlink ref="P346" r:id="rId154" display="https://clinicaltrials.gov/show/NCT00676715" xr:uid="{0FB445D1-A37B-9947-963F-38B2370B4991}"/>
     <hyperlink ref="P352" r:id="rId155" display="https://clinicaltrials.gov/show/NCT00349193" xr:uid="{68A75A47-4E1A-F24A-9B64-2904D37736B2}"/>
-    <hyperlink ref="C395" r:id="rId156" display="https://doi.org/10.1016/s1474-4422(18)30069-3" xr:uid="{2579BC36-4F1B-BB42-9910-132CB3C252A5}"/>
-    <hyperlink ref="C402" r:id="rId157" tooltip="Persistent link using digital object identifier" xr:uid="{93BC41AF-B147-A849-9944-5751347AAA6D}"/>
-    <hyperlink ref="C407" r:id="rId158" display="https://doi.org/10.1212/nxi.0000000000000374" xr:uid="{A76599DD-105B-C648-8BBF-DF55DC0EA90B}"/>
-    <hyperlink ref="C409" r:id="rId159" display="https://doi.org/10.1002/mds.25362" xr:uid="{FF1195A3-674A-1A41-BD4C-C60697B31C9F}"/>
-    <hyperlink ref="C420" r:id="rId160" xr:uid="{6F7EAB4A-B170-5544-8670-D22516B0E75E}"/>
-    <hyperlink ref="P398" r:id="rId161" display="https://clinicaltrials.gov/show/NCT00141661" xr:uid="{73B312ED-70E1-9A41-BC53-D7EF46D95B52}"/>
+    <hyperlink ref="C397" r:id="rId156" display="https://doi.org/10.1016/s1474-4422(18)30069-3" xr:uid="{2579BC36-4F1B-BB42-9910-132CB3C252A5}"/>
+    <hyperlink ref="C404" r:id="rId157" tooltip="Persistent link using digital object identifier" xr:uid="{93BC41AF-B147-A849-9944-5751347AAA6D}"/>
+    <hyperlink ref="C409" r:id="rId158" display="https://doi.org/10.1212/nxi.0000000000000374" xr:uid="{A76599DD-105B-C648-8BBF-DF55DC0EA90B}"/>
+    <hyperlink ref="C411" r:id="rId159" display="https://doi.org/10.1002/mds.25362" xr:uid="{FF1195A3-674A-1A41-BD4C-C60697B31C9F}"/>
+    <hyperlink ref="C422" r:id="rId160" xr:uid="{6F7EAB4A-B170-5544-8670-D22516B0E75E}"/>
+    <hyperlink ref="P400" r:id="rId161" display="https://clinicaltrials.gov/show/NCT00141661" xr:uid="{73B312ED-70E1-9A41-BC53-D7EF46D95B52}"/>
     <hyperlink ref="C275" r:id="rId162" display="https://doi.org/10.1001/jama.2021.5561" xr:uid="{086F4ED2-0A29-4C45-8C5A-B29E1D35E83A}"/>
     <hyperlink ref="AJ112" r:id="rId163" tooltip="Learn more about orally disintegrating tablet from ScienceDirect's AI-generated Topic Pages" display="https://www.sciencedirect.com/topics/medicine-and-dentistry/orally-disintegrating-tablet" xr:uid="{71AFB28F-28DA-EC41-8D08-4AA5B5D8AF4C}"/>
     <hyperlink ref="AJ114" r:id="rId164" tooltip="Learn more about orally disintegrating tablet from ScienceDirect's AI-generated Topic Pages" display="https://www.sciencedirect.com/topics/medicine-and-dentistry/orally-disintegrating-tablet" xr:uid="{685A630A-A3FA-164E-B986-FC7371ACD44C}"/>
     <hyperlink ref="AJ375" r:id="rId165" tooltip="Learn more about orally disintegrating tablet from ScienceDirect's AI-generated Topic Pages" display="https://www.sciencedirect.com/topics/medicine-and-dentistry/orally-disintegrating-tablet" xr:uid="{AA8B0397-E84D-7544-B56E-6D2D487FA9AF}"/>
     <hyperlink ref="C367" r:id="rId166" xr:uid="{BED4028E-A2CE-A643-8A06-DEC367FF41F7}"/>
-    <hyperlink ref="P435" r:id="rId167" display="https://clinicaltrials.gov/show/NCT00235963" xr:uid="{3F4B676C-09D5-3E47-A8A8-A0C1A22736BA}"/>
-    <hyperlink ref="P437" r:id="rId168" display="https://clinicaltrials.gov/show/NCT00109382" xr:uid="{1B86932F-B050-4641-8AD0-266F51AED327}"/>
+    <hyperlink ref="P437" r:id="rId167" display="https://clinicaltrials.gov/show/NCT00235963" xr:uid="{3F4B676C-09D5-3E47-A8A8-A0C1A22736BA}"/>
+    <hyperlink ref="P439" r:id="rId168" display="https://clinicaltrials.gov/show/NCT00109382" xr:uid="{1B86932F-B050-4641-8AD0-266F51AED327}"/>
     <hyperlink ref="V357" r:id="rId169" display="https://clinicaltrials.gov/show/NCT00001934" xr:uid="{80156AFC-4238-264C-A1FA-296F8015BDFE}"/>
     <hyperlink ref="C83" r:id="rId170" display="https://doi.org/10.1056/nejmoa1705848" xr:uid="{2EFBD26B-379C-1348-9082-A0443111D713}"/>
   </hyperlinks>

--- a/Allmatching.xlsx
+++ b/Allmatching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D6D02C-9CA7-0947-9404-EA9F32C820F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6A5D5E-C61D-5048-9F7F-C23BF39BF96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1680" windowWidth="28800" windowHeight="16440" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
+    <workbookView xWindow="31420" yWindow="500" windowWidth="31600" windowHeight="20700" xr2:uid="{3FE5935B-E4D2-F24C-98DA-0C9C95394E1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4606,10 +4606,10 @@
   <dimension ref="A1:AK447"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="W274" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y304" sqref="Y304"/>
+      <selection pane="bottomRight" activeCell="P79" sqref="P79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
